--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>CCJ</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1402400</v>
+        <v>1353800</v>
       </c>
       <c r="E8" s="3">
-        <v>1574600</v>
+        <v>1520000</v>
       </c>
       <c r="F8" s="3">
-        <v>1623700</v>
+        <v>1567400</v>
       </c>
       <c r="G8" s="3">
-        <v>1830300</v>
+        <v>1766900</v>
       </c>
       <c r="H8" s="3">
-        <v>2073500</v>
+        <v>2001600</v>
       </c>
       <c r="I8" s="3">
-        <v>1804800</v>
+        <v>1742300</v>
       </c>
       <c r="J8" s="3">
-        <v>1835800</v>
+        <v>1772200</v>
       </c>
       <c r="K8" s="3">
         <v>1407000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1220500</v>
+        <v>1178200</v>
       </c>
       <c r="E9" s="3">
-        <v>1351900</v>
+        <v>1305100</v>
       </c>
       <c r="F9" s="3">
-        <v>1295200</v>
+        <v>1250300</v>
       </c>
       <c r="G9" s="3">
-        <v>1481400</v>
+        <v>1430100</v>
       </c>
       <c r="H9" s="3">
-        <v>1548700</v>
+        <v>1495000</v>
       </c>
       <c r="I9" s="3">
-        <v>1324700</v>
+        <v>1278800</v>
       </c>
       <c r="J9" s="3">
-        <v>1379100</v>
+        <v>1331300</v>
       </c>
       <c r="K9" s="3">
         <v>1005200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>181900</v>
+        <v>175600</v>
       </c>
       <c r="E10" s="3">
-        <v>222600</v>
+        <v>214900</v>
       </c>
       <c r="F10" s="3">
-        <v>328400</v>
+        <v>317000</v>
       </c>
       <c r="G10" s="3">
-        <v>348900</v>
+        <v>336800</v>
       </c>
       <c r="H10" s="3">
-        <v>524700</v>
+        <v>506500</v>
       </c>
       <c r="I10" s="3">
-        <v>480100</v>
+        <v>463500</v>
       </c>
       <c r="J10" s="3">
-        <v>456700</v>
+        <v>440900</v>
       </c>
       <c r="K10" s="3">
         <v>401900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14900</v>
+        <v>14300</v>
       </c>
       <c r="E12" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="F12" s="3">
-        <v>26800</v>
+        <v>25900</v>
       </c>
       <c r="G12" s="3">
-        <v>35800</v>
+        <v>34500</v>
       </c>
       <c r="H12" s="3">
-        <v>35300</v>
+        <v>34000</v>
       </c>
       <c r="I12" s="3">
-        <v>38900</v>
+        <v>37500</v>
       </c>
       <c r="J12" s="3">
-        <v>60300</v>
+        <v>58200</v>
       </c>
       <c r="K12" s="3">
         <v>79300</v>
@@ -896,26 +896,26 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+      <c r="D14" s="3">
+        <v>-38400</v>
       </c>
       <c r="E14" s="3">
-        <v>-60100</v>
+        <v>-58000</v>
       </c>
       <c r="F14" s="3">
-        <v>269700</v>
+        <v>260400</v>
       </c>
       <c r="G14" s="3">
-        <v>272500</v>
+        <v>263100</v>
       </c>
       <c r="H14" s="3">
-        <v>162200</v>
+        <v>156600</v>
       </c>
       <c r="I14" s="3">
-        <v>245900</v>
+        <v>237400</v>
       </c>
       <c r="J14" s="3">
-        <v>52800</v>
+        <v>51000</v>
       </c>
       <c r="K14" s="3">
         <v>125000</v>
@@ -974,26 +974,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
+      <c r="D17" s="3">
+        <v>1248200</v>
       </c>
       <c r="E17" s="3">
-        <v>1461600</v>
+        <v>1411000</v>
       </c>
       <c r="F17" s="3">
-        <v>1719800</v>
+        <v>1660200</v>
       </c>
       <c r="G17" s="3">
-        <v>1937100</v>
+        <v>1869900</v>
       </c>
       <c r="H17" s="3">
-        <v>1888600</v>
+        <v>1823100</v>
       </c>
       <c r="I17" s="3">
-        <v>1776000</v>
+        <v>1714400</v>
       </c>
       <c r="J17" s="3">
-        <v>1636600</v>
+        <v>1579800</v>
       </c>
       <c r="K17" s="3">
         <v>1342900</v>
@@ -1007,26 +1007,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
+      <c r="D18" s="3">
+        <v>105500</v>
       </c>
       <c r="E18" s="3">
-        <v>112900</v>
+        <v>109000</v>
       </c>
       <c r="F18" s="3">
-        <v>-96200</v>
+        <v>-92800</v>
       </c>
       <c r="G18" s="3">
-        <v>-106700</v>
+        <v>-103000</v>
       </c>
       <c r="H18" s="3">
-        <v>184900</v>
+        <v>178500</v>
       </c>
       <c r="I18" s="3">
-        <v>28900</v>
+        <v>27900</v>
       </c>
       <c r="J18" s="3">
-        <v>199300</v>
+        <v>192300</v>
       </c>
       <c r="K18" s="3">
         <v>64200</v>
@@ -1055,26 +1055,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
+      <c r="D20" s="3">
+        <v>38500</v>
       </c>
       <c r="E20" s="3">
-        <v>-27900</v>
+        <v>-26900</v>
       </c>
       <c r="F20" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="G20" s="3">
-        <v>46600</v>
+        <v>45000</v>
       </c>
       <c r="H20" s="3">
-        <v>-188000</v>
+        <v>-181500</v>
       </c>
       <c r="I20" s="3">
-        <v>-63900</v>
+        <v>-61700</v>
       </c>
       <c r="J20" s="3">
-        <v>-62300</v>
+        <v>-60100</v>
       </c>
       <c r="K20" s="3">
         <v>164800</v>
@@ -1088,26 +1088,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
+      <c r="D21" s="3">
+        <v>344500</v>
       </c>
       <c r="E21" s="3">
-        <v>333800</v>
+        <v>320600</v>
       </c>
       <c r="F21" s="3">
-        <v>179000</v>
+        <v>142900</v>
       </c>
       <c r="G21" s="3">
-        <v>175200</v>
+        <v>212200</v>
       </c>
       <c r="H21" s="3">
-        <v>252200</v>
+        <v>224200</v>
       </c>
       <c r="I21" s="3">
-        <v>177900</v>
+        <v>212700</v>
       </c>
       <c r="J21" s="3">
-        <v>300700</v>
+        <v>337900</v>
       </c>
       <c r="K21" s="3">
         <v>391100</v>
@@ -1121,26 +1121,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
+      <c r="D22" s="3">
+        <v>45900</v>
       </c>
       <c r="E22" s="3">
-        <v>55000</v>
+        <v>53100</v>
       </c>
       <c r="F22" s="3">
-        <v>55100</v>
+        <v>53200</v>
       </c>
       <c r="G22" s="3">
-        <v>55900</v>
+        <v>54000</v>
       </c>
       <c r="H22" s="3">
-        <v>56500</v>
+        <v>54600</v>
       </c>
       <c r="I22" s="3">
-        <v>54600</v>
+        <v>52700</v>
       </c>
       <c r="J22" s="3">
-        <v>50300</v>
+        <v>48600</v>
       </c>
       <c r="K22" s="3">
         <v>79300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>101600</v>
+        <v>98100</v>
       </c>
       <c r="E23" s="3">
-        <v>30100</v>
+        <v>29000</v>
       </c>
       <c r="F23" s="3">
-        <v>-156000</v>
+        <v>-150600</v>
       </c>
       <c r="G23" s="3">
-        <v>-116100</v>
+        <v>-112100</v>
       </c>
       <c r="H23" s="3">
-        <v>-59700</v>
+        <v>-57600</v>
       </c>
       <c r="I23" s="3">
-        <v>-89700</v>
+        <v>-86500</v>
       </c>
       <c r="J23" s="3">
-        <v>86700</v>
+        <v>83700</v>
       </c>
       <c r="K23" s="3">
         <v>149700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>101600</v>
+        <v>44400</v>
       </c>
       <c r="E24" s="3">
-        <v>-95100</v>
+        <v>-91800</v>
       </c>
       <c r="F24" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G24" s="3">
-        <v>-71000</v>
+        <v>-68600</v>
       </c>
       <c r="H24" s="3">
-        <v>-107400</v>
+        <v>-103600</v>
       </c>
       <c r="I24" s="3">
-        <v>-131900</v>
+        <v>-127400</v>
       </c>
       <c r="J24" s="3">
-        <v>-88200</v>
+        <v>-85200</v>
       </c>
       <c r="K24" s="3">
         <v>-37700</v>
@@ -1253,26 +1253,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
+      <c r="D26" s="3">
+        <v>53700</v>
       </c>
       <c r="E26" s="3">
-        <v>125100</v>
+        <v>120800</v>
       </c>
       <c r="F26" s="3">
-        <v>-163300</v>
+        <v>-157600</v>
       </c>
       <c r="G26" s="3">
-        <v>-45100</v>
+        <v>-43500</v>
       </c>
       <c r="H26" s="3">
-        <v>47700</v>
+        <v>46000</v>
       </c>
       <c r="I26" s="3">
-        <v>42300</v>
+        <v>40800</v>
       </c>
       <c r="J26" s="3">
-        <v>174900</v>
+        <v>168900</v>
       </c>
       <c r="K26" s="3">
         <v>187400</v>
@@ -1286,26 +1286,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
+      <c r="D27" s="3">
+        <v>53800</v>
       </c>
       <c r="E27" s="3">
-        <v>125200</v>
+        <v>120900</v>
       </c>
       <c r="F27" s="3">
-        <v>-163500</v>
+        <v>-157800</v>
       </c>
       <c r="G27" s="3">
-        <v>-46400</v>
+        <v>-44800</v>
       </c>
       <c r="H27" s="3">
-        <v>49100</v>
+        <v>47400</v>
       </c>
       <c r="I27" s="3">
-        <v>43700</v>
+        <v>42100</v>
       </c>
       <c r="J27" s="3">
-        <v>175500</v>
+        <v>169400</v>
       </c>
       <c r="K27" s="3">
         <v>188500</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>11</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>95800</v>
+        <v>92500</v>
       </c>
       <c r="J29" s="3">
-        <v>64200</v>
+        <v>62000</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>11</v>
@@ -1451,26 +1451,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>11</v>
+      <c r="D32" s="3">
+        <v>-38500</v>
       </c>
       <c r="E32" s="3">
-        <v>27900</v>
+        <v>26900</v>
       </c>
       <c r="F32" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G32" s="3">
-        <v>-46600</v>
+        <v>-45000</v>
       </c>
       <c r="H32" s="3">
-        <v>188000</v>
+        <v>181500</v>
       </c>
       <c r="I32" s="3">
-        <v>63900</v>
+        <v>61700</v>
       </c>
       <c r="J32" s="3">
-        <v>62300</v>
+        <v>60100</v>
       </c>
       <c r="K32" s="3">
         <v>-164800</v>
@@ -1484,26 +1484,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
+      <c r="D33" s="3">
+        <v>53800</v>
       </c>
       <c r="E33" s="3">
-        <v>125200</v>
+        <v>120900</v>
       </c>
       <c r="F33" s="3">
-        <v>-154300</v>
+        <v>-148900</v>
       </c>
       <c r="G33" s="3">
-        <v>-46400</v>
+        <v>-44800</v>
       </c>
       <c r="H33" s="3">
-        <v>49100</v>
+        <v>47400</v>
       </c>
       <c r="I33" s="3">
-        <v>139400</v>
+        <v>134600</v>
       </c>
       <c r="J33" s="3">
-        <v>239800</v>
+        <v>231400</v>
       </c>
       <c r="K33" s="3">
         <v>188500</v>
@@ -1550,26 +1550,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>11</v>
+      <c r="D35" s="3">
+        <v>53800</v>
       </c>
       <c r="E35" s="3">
-        <v>125200</v>
+        <v>120900</v>
       </c>
       <c r="F35" s="3">
-        <v>-154300</v>
+        <v>-148900</v>
       </c>
       <c r="G35" s="3">
-        <v>-46400</v>
+        <v>-44800</v>
       </c>
       <c r="H35" s="3">
-        <v>49100</v>
+        <v>47400</v>
       </c>
       <c r="I35" s="3">
-        <v>139400</v>
+        <v>134600</v>
       </c>
       <c r="J35" s="3">
-        <v>239800</v>
+        <v>231400</v>
       </c>
       <c r="K35" s="3">
         <v>188500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>799800</v>
+        <v>771600</v>
       </c>
       <c r="E41" s="3">
-        <v>535600</v>
+        <v>516800</v>
       </c>
       <c r="F41" s="3">
-        <v>445400</v>
+        <v>429700</v>
       </c>
       <c r="G41" s="3">
-        <v>241100</v>
+        <v>232600</v>
       </c>
       <c r="H41" s="3">
-        <v>345200</v>
+        <v>333100</v>
       </c>
       <c r="I41" s="3">
-        <v>426500</v>
+        <v>411500</v>
       </c>
       <c r="J41" s="3">
-        <v>172500</v>
+        <v>166400</v>
       </c>
       <c r="K41" s="3">
         <v>557800</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>294400</v>
+        <v>284000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>11</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>254700</v>
+        <v>245700</v>
       </c>
       <c r="E43" s="3">
-        <v>318600</v>
+        <v>307300</v>
       </c>
       <c r="F43" s="3">
-        <v>334500</v>
+        <v>322700</v>
       </c>
       <c r="G43" s="3">
-        <v>199100</v>
+        <v>192100</v>
       </c>
       <c r="H43" s="3">
-        <v>195400</v>
+        <v>188500</v>
       </c>
       <c r="I43" s="3">
-        <v>352600</v>
+        <v>340200</v>
       </c>
       <c r="J43" s="3">
-        <v>329500</v>
+        <v>317900</v>
       </c>
       <c r="K43" s="3">
         <v>359100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>241500</v>
+        <v>233000</v>
       </c>
       <c r="E44" s="3">
-        <v>352200</v>
+        <v>339700</v>
       </c>
       <c r="F44" s="3">
-        <v>715000</v>
+        <v>689800</v>
       </c>
       <c r="G44" s="3">
-        <v>969500</v>
+        <v>935400</v>
       </c>
       <c r="H44" s="3">
-        <v>967500</v>
+        <v>933500</v>
       </c>
       <c r="I44" s="3">
-        <v>679200</v>
+        <v>655300</v>
       </c>
       <c r="J44" s="3">
-        <v>687500</v>
+        <v>663300</v>
       </c>
       <c r="K44" s="3">
         <v>838800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64400</v>
+        <v>62100</v>
       </c>
       <c r="E45" s="3">
-        <v>67200</v>
+        <v>64800</v>
       </c>
       <c r="F45" s="3">
-        <v>112800</v>
+        <v>108800</v>
       </c>
       <c r="G45" s="3">
-        <v>127300</v>
+        <v>122800</v>
       </c>
       <c r="H45" s="3">
-        <v>135900</v>
+        <v>131100</v>
       </c>
       <c r="I45" s="3">
-        <v>98200</v>
+        <v>94700</v>
       </c>
       <c r="J45" s="3">
-        <v>133700</v>
+        <v>129000</v>
       </c>
       <c r="K45" s="3">
         <v>82400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1360300</v>
+        <v>1312400</v>
       </c>
       <c r="E46" s="3">
-        <v>1567900</v>
+        <v>1512600</v>
       </c>
       <c r="F46" s="3">
-        <v>1607600</v>
+        <v>1551000</v>
       </c>
       <c r="G46" s="3">
-        <v>1537100</v>
+        <v>1482900</v>
       </c>
       <c r="H46" s="3">
-        <v>1644100</v>
+        <v>1586100</v>
       </c>
       <c r="I46" s="3">
-        <v>1556500</v>
+        <v>1501700</v>
       </c>
       <c r="J46" s="3">
-        <v>1323300</v>
+        <v>1276700</v>
       </c>
       <c r="K46" s="3">
         <v>1421200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>664600</v>
+        <v>641200</v>
       </c>
       <c r="E47" s="3">
-        <v>739500</v>
+        <v>713500</v>
       </c>
       <c r="F47" s="3">
-        <v>391500</v>
+        <v>377700</v>
       </c>
       <c r="G47" s="3">
-        <v>377800</v>
+        <v>364500</v>
       </c>
       <c r="H47" s="3">
-        <v>331700</v>
+        <v>320000</v>
       </c>
       <c r="I47" s="3">
-        <v>318100</v>
+        <v>306900</v>
       </c>
       <c r="J47" s="3">
-        <v>581800</v>
+        <v>561300</v>
       </c>
       <c r="K47" s="3">
         <v>515600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2800900</v>
+        <v>2702200</v>
       </c>
       <c r="E48" s="3">
-        <v>2922300</v>
+        <v>2819300</v>
       </c>
       <c r="F48" s="3">
-        <v>3155600</v>
+        <v>3044400</v>
       </c>
       <c r="G48" s="3">
-        <v>3504700</v>
+        <v>3381200</v>
       </c>
       <c r="H48" s="3">
-        <v>3935700</v>
+        <v>3797100</v>
       </c>
       <c r="I48" s="3">
-        <v>3983000</v>
+        <v>3842700</v>
       </c>
       <c r="J48" s="3">
-        <v>3794800</v>
+        <v>3661100</v>
       </c>
       <c r="K48" s="3">
         <v>1377600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45500</v>
+        <v>43900</v>
       </c>
       <c r="E49" s="3">
-        <v>49400</v>
+        <v>47600</v>
       </c>
       <c r="F49" s="3">
-        <v>52700</v>
+        <v>50800</v>
       </c>
       <c r="G49" s="3">
-        <v>153000</v>
+        <v>147700</v>
       </c>
       <c r="H49" s="3">
-        <v>163500</v>
+        <v>157700</v>
       </c>
       <c r="I49" s="3">
-        <v>151400</v>
+        <v>146100</v>
       </c>
       <c r="J49" s="3">
-        <v>146100</v>
+        <v>140900</v>
       </c>
       <c r="K49" s="3">
         <v>139500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>720000</v>
+        <v>694600</v>
       </c>
       <c r="E52" s="3">
-        <v>757300</v>
+        <v>730600</v>
       </c>
       <c r="F52" s="3">
-        <v>648300</v>
+        <v>625400</v>
       </c>
       <c r="G52" s="3">
-        <v>637300</v>
+        <v>614900</v>
       </c>
       <c r="H52" s="3">
-        <v>545600</v>
+        <v>526400</v>
       </c>
       <c r="I52" s="3">
-        <v>369000</v>
+        <v>356000</v>
       </c>
       <c r="J52" s="3">
-        <v>206000</v>
+        <v>198700</v>
       </c>
       <c r="K52" s="3">
         <v>161000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5591200</v>
+        <v>5394200</v>
       </c>
       <c r="E54" s="3">
-        <v>6036300</v>
+        <v>5823700</v>
       </c>
       <c r="F54" s="3">
-        <v>5855700</v>
+        <v>5649500</v>
       </c>
       <c r="G54" s="3">
-        <v>6209900</v>
+        <v>5991100</v>
       </c>
       <c r="H54" s="3">
-        <v>6620500</v>
+        <v>6387300</v>
       </c>
       <c r="I54" s="3">
-        <v>6378100</v>
+        <v>6153400</v>
       </c>
       <c r="J54" s="3">
-        <v>6051900</v>
+        <v>5838700</v>
       </c>
       <c r="K54" s="3">
         <v>5530300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>136900</v>
+        <v>72900</v>
       </c>
       <c r="E57" s="3">
-        <v>93600</v>
+        <v>89500</v>
       </c>
       <c r="F57" s="3">
-        <v>133300</v>
+        <v>128600</v>
       </c>
       <c r="G57" s="3">
-        <v>160700</v>
+        <v>155000</v>
       </c>
       <c r="H57" s="3">
-        <v>149900</v>
+        <v>144600</v>
       </c>
       <c r="I57" s="3">
-        <v>137900</v>
+        <v>133000</v>
       </c>
       <c r="J57" s="3">
-        <v>260800</v>
+        <v>251600</v>
       </c>
       <c r="K57" s="3">
         <v>444000</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>376100</v>
+        <v>362800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>11</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>68800</v>
+        <v>66400</v>
       </c>
       <c r="K58" s="3">
         <v>62100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72000</v>
+        <v>128600</v>
       </c>
       <c r="E59" s="3">
-        <v>189600</v>
+        <v>183800</v>
       </c>
       <c r="F59" s="3">
-        <v>176100</v>
+        <v>169900</v>
       </c>
       <c r="G59" s="3">
-        <v>192500</v>
+        <v>185800</v>
       </c>
       <c r="H59" s="3">
-        <v>355700</v>
+        <v>343200</v>
       </c>
       <c r="I59" s="3">
-        <v>250400</v>
+        <v>241600</v>
       </c>
       <c r="J59" s="3">
-        <v>200800</v>
+        <v>193700</v>
       </c>
       <c r="K59" s="3">
         <v>191000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>208800</v>
+        <v>201500</v>
       </c>
       <c r="E60" s="3">
-        <v>659300</v>
+        <v>636100</v>
       </c>
       <c r="F60" s="3">
-        <v>309400</v>
+        <v>298500</v>
       </c>
       <c r="G60" s="3">
-        <v>353300</v>
+        <v>340800</v>
       </c>
       <c r="H60" s="3">
-        <v>505600</v>
+        <v>487800</v>
       </c>
       <c r="I60" s="3">
-        <v>388300</v>
+        <v>374600</v>
       </c>
       <c r="J60" s="3">
-        <v>530400</v>
+        <v>511700</v>
       </c>
       <c r="K60" s="3">
         <v>418800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>750300</v>
+        <v>733200</v>
       </c>
       <c r="E61" s="3">
-        <v>749800</v>
+        <v>723400</v>
       </c>
       <c r="F61" s="3">
-        <v>1125000</v>
+        <v>1085400</v>
       </c>
       <c r="G61" s="3">
-        <v>1124200</v>
+        <v>1084600</v>
       </c>
       <c r="H61" s="3">
-        <v>1123300</v>
+        <v>1083800</v>
       </c>
       <c r="I61" s="3">
-        <v>1122600</v>
+        <v>1083000</v>
       </c>
       <c r="J61" s="3">
-        <v>973600</v>
+        <v>939300</v>
       </c>
       <c r="K61" s="3">
         <v>961800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>871800</v>
+        <v>831800</v>
       </c>
       <c r="E62" s="3">
-        <v>868000</v>
+        <v>837500</v>
       </c>
       <c r="F62" s="3">
-        <v>763000</v>
+        <v>736100</v>
       </c>
       <c r="G62" s="3">
-        <v>773900</v>
+        <v>746700</v>
       </c>
       <c r="H62" s="3">
-        <v>817100</v>
+        <v>788400</v>
       </c>
       <c r="I62" s="3">
-        <v>769200</v>
+        <v>742100</v>
       </c>
       <c r="J62" s="3">
-        <v>520900</v>
+        <v>502600</v>
       </c>
       <c r="K62" s="3">
         <v>917900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1831200</v>
+        <v>1766700</v>
       </c>
       <c r="E66" s="3">
-        <v>2277500</v>
+        <v>2197200</v>
       </c>
       <c r="F66" s="3">
-        <v>2197700</v>
+        <v>2120300</v>
       </c>
       <c r="G66" s="3">
-        <v>2251500</v>
+        <v>2172100</v>
       </c>
       <c r="H66" s="3">
-        <v>2444800</v>
+        <v>2358600</v>
       </c>
       <c r="I66" s="3">
-        <v>2280200</v>
+        <v>2199900</v>
       </c>
       <c r="J66" s="3">
-        <v>2025800</v>
+        <v>1954400</v>
       </c>
       <c r="K66" s="3">
         <v>1852800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2127100</v>
+        <v>2052100</v>
       </c>
       <c r="E72" s="3">
-        <v>2101300</v>
+        <v>2027300</v>
       </c>
       <c r="F72" s="3">
-        <v>1995200</v>
+        <v>1924900</v>
       </c>
       <c r="G72" s="3">
-        <v>2273300</v>
+        <v>2193200</v>
       </c>
       <c r="H72" s="3">
-        <v>2440500</v>
+        <v>2354500</v>
       </c>
       <c r="I72" s="3">
-        <v>2509100</v>
+        <v>2420700</v>
       </c>
       <c r="J72" s="3">
-        <v>2494800</v>
+        <v>2406900</v>
       </c>
       <c r="K72" s="3">
         <v>2168000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3760000</v>
+        <v>3627500</v>
       </c>
       <c r="E76" s="3">
-        <v>3758900</v>
+        <v>3626500</v>
       </c>
       <c r="F76" s="3">
-        <v>3658000</v>
+        <v>3529200</v>
       </c>
       <c r="G76" s="3">
-        <v>3958400</v>
+        <v>3819000</v>
       </c>
       <c r="H76" s="3">
-        <v>4175700</v>
+        <v>4028600</v>
       </c>
       <c r="I76" s="3">
-        <v>4097900</v>
+        <v>3953600</v>
       </c>
       <c r="J76" s="3">
-        <v>4026100</v>
+        <v>3884300</v>
       </c>
       <c r="K76" s="3">
         <v>3677400</v>
@@ -2856,26 +2856,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>11</v>
+      <c r="D81" s="3">
+        <v>53800</v>
       </c>
       <c r="E81" s="3">
-        <v>125200</v>
+        <v>120900</v>
       </c>
       <c r="F81" s="3">
-        <v>-154300</v>
+        <v>-148900</v>
       </c>
       <c r="G81" s="3">
-        <v>-46400</v>
+        <v>-44800</v>
       </c>
       <c r="H81" s="3">
-        <v>49100</v>
+        <v>47400</v>
       </c>
       <c r="I81" s="3">
-        <v>139400</v>
+        <v>134600</v>
       </c>
       <c r="J81" s="3">
-        <v>239800</v>
+        <v>231400</v>
       </c>
       <c r="K81" s="3">
         <v>188500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>207600</v>
+        <v>200400</v>
       </c>
       <c r="E83" s="3">
-        <v>246900</v>
+        <v>238300</v>
       </c>
       <c r="F83" s="3">
-        <v>248700</v>
+        <v>240100</v>
       </c>
       <c r="G83" s="3">
-        <v>279800</v>
+        <v>270100</v>
       </c>
       <c r="H83" s="3">
-        <v>235300</v>
+        <v>227100</v>
       </c>
       <c r="I83" s="3">
-        <v>255200</v>
+        <v>246300</v>
       </c>
       <c r="J83" s="3">
-        <v>212900</v>
+        <v>205500</v>
       </c>
       <c r="K83" s="3">
         <v>161800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>396700</v>
+        <v>383000</v>
       </c>
       <c r="E89" s="3">
-        <v>502500</v>
+        <v>485100</v>
       </c>
       <c r="F89" s="3">
-        <v>448700</v>
+        <v>433100</v>
       </c>
       <c r="G89" s="3">
-        <v>235200</v>
+        <v>227000</v>
       </c>
       <c r="H89" s="3">
-        <v>338800</v>
+        <v>327000</v>
       </c>
       <c r="I89" s="3">
-        <v>361500</v>
+        <v>348900</v>
       </c>
       <c r="J89" s="3">
-        <v>398900</v>
+        <v>385100</v>
       </c>
       <c r="K89" s="3">
         <v>431200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-56600</v>
+        <v>-54700</v>
       </c>
       <c r="E91" s="3">
-        <v>-41700</v>
+        <v>-40200</v>
       </c>
       <c r="F91" s="3">
-        <v>-85800</v>
+        <v>-82900</v>
       </c>
       <c r="G91" s="3">
-        <v>-163300</v>
+        <v>-157600</v>
       </c>
       <c r="H91" s="3">
-        <v>-269900</v>
+        <v>-260600</v>
       </c>
       <c r="I91" s="3">
-        <v>-361400</v>
+        <v>-348900</v>
       </c>
       <c r="J91" s="3">
-        <v>-486000</v>
+        <v>-469200</v>
       </c>
       <c r="K91" s="3">
         <v>-499800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>329300</v>
+        <v>317900</v>
       </c>
       <c r="E94" s="3">
-        <v>-309900</v>
+        <v>-299100</v>
       </c>
       <c r="F94" s="3">
-        <v>-70100</v>
+        <v>-67600</v>
       </c>
       <c r="G94" s="3">
-        <v>-164000</v>
+        <v>-158300</v>
       </c>
       <c r="H94" s="3">
-        <v>-256600</v>
+        <v>-247700</v>
       </c>
       <c r="I94" s="3">
-        <v>-15600</v>
+        <v>-15100</v>
       </c>
       <c r="J94" s="3">
-        <v>-643200</v>
+        <v>-620900</v>
       </c>
       <c r="K94" s="3">
         <v>-384300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23800</v>
+        <v>-23000</v>
       </c>
       <c r="E96" s="3">
-        <v>-53600</v>
+        <v>-51800</v>
       </c>
       <c r="F96" s="3">
-        <v>-119200</v>
+        <v>-115000</v>
       </c>
       <c r="G96" s="3">
-        <v>-119200</v>
+        <v>-115000</v>
       </c>
       <c r="H96" s="3">
-        <v>-119200</v>
+        <v>-115000</v>
       </c>
       <c r="I96" s="3">
-        <v>-119100</v>
+        <v>-115000</v>
       </c>
       <c r="J96" s="3">
-        <v>-119100</v>
+        <v>-114900</v>
       </c>
       <c r="K96" s="3">
         <v>-117600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-456900</v>
+        <v>-441000</v>
       </c>
       <c r="E100" s="3">
-        <v>-108600</v>
+        <v>-104800</v>
       </c>
       <c r="F100" s="3">
-        <v>-171500</v>
+        <v>-165500</v>
       </c>
       <c r="G100" s="3">
-        <v>-172200</v>
+        <v>-166200</v>
       </c>
       <c r="H100" s="3">
-        <v>-171500</v>
+        <v>-165600</v>
       </c>
       <c r="I100" s="3">
-        <v>-63200</v>
+        <v>-61000</v>
       </c>
       <c r="J100" s="3">
-        <v>-180700</v>
+        <v>-174400</v>
       </c>
       <c r="K100" s="3">
         <v>216900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="E101" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="F101" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="G101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="H101" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="I101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K101" s="3">
         <v>-400</v>
@@ -3495,26 +3495,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>11</v>
+      <c r="D102" s="3">
+        <v>255000</v>
       </c>
       <c r="E102" s="3">
-        <v>90300</v>
+        <v>87100</v>
       </c>
       <c r="F102" s="3">
-        <v>204300</v>
+        <v>197200</v>
       </c>
       <c r="G102" s="3">
-        <v>-104100</v>
+        <v>-100500</v>
       </c>
       <c r="H102" s="3">
-        <v>-81300</v>
+        <v>-78500</v>
       </c>
       <c r="I102" s="3">
-        <v>285100</v>
+        <v>275200</v>
       </c>
       <c r="J102" s="3">
-        <v>-422800</v>
+        <v>-408100</v>
       </c>
       <c r="K102" s="3">
         <v>263400</v>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1353800</v>
+        <v>1417900</v>
       </c>
       <c r="E8" s="3">
-        <v>1520000</v>
+        <v>1591900</v>
       </c>
       <c r="F8" s="3">
-        <v>1567400</v>
+        <v>1641600</v>
       </c>
       <c r="G8" s="3">
-        <v>1766900</v>
+        <v>1850500</v>
       </c>
       <c r="H8" s="3">
-        <v>2001600</v>
+        <v>2096300</v>
       </c>
       <c r="I8" s="3">
-        <v>1742300</v>
+        <v>1824700</v>
       </c>
       <c r="J8" s="3">
-        <v>1772200</v>
+        <v>1856100</v>
       </c>
       <c r="K8" s="3">
         <v>1407000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1178200</v>
+        <v>1234000</v>
       </c>
       <c r="E9" s="3">
-        <v>1305100</v>
+        <v>1366900</v>
       </c>
       <c r="F9" s="3">
-        <v>1250300</v>
+        <v>1309500</v>
       </c>
       <c r="G9" s="3">
-        <v>1430100</v>
+        <v>1497800</v>
       </c>
       <c r="H9" s="3">
-        <v>1495000</v>
+        <v>1565800</v>
       </c>
       <c r="I9" s="3">
-        <v>1278800</v>
+        <v>1339300</v>
       </c>
       <c r="J9" s="3">
-        <v>1331300</v>
+        <v>1394300</v>
       </c>
       <c r="K9" s="3">
         <v>1005200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>175600</v>
+        <v>183900</v>
       </c>
       <c r="E10" s="3">
-        <v>214900</v>
+        <v>225100</v>
       </c>
       <c r="F10" s="3">
-        <v>317000</v>
+        <v>332000</v>
       </c>
       <c r="G10" s="3">
-        <v>336800</v>
+        <v>352700</v>
       </c>
       <c r="H10" s="3">
-        <v>506500</v>
+        <v>530500</v>
       </c>
       <c r="I10" s="3">
-        <v>463500</v>
+        <v>485400</v>
       </c>
       <c r="J10" s="3">
-        <v>440900</v>
+        <v>461800</v>
       </c>
       <c r="K10" s="3">
         <v>401900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14300</v>
+        <v>15000</v>
       </c>
       <c r="E12" s="3">
-        <v>16000</v>
+        <v>16800</v>
       </c>
       <c r="F12" s="3">
-        <v>25900</v>
+        <v>27100</v>
       </c>
       <c r="G12" s="3">
-        <v>34500</v>
+        <v>36200</v>
       </c>
       <c r="H12" s="3">
-        <v>34000</v>
+        <v>35700</v>
       </c>
       <c r="I12" s="3">
-        <v>37500</v>
+        <v>39300</v>
       </c>
       <c r="J12" s="3">
-        <v>58200</v>
+        <v>61000</v>
       </c>
       <c r="K12" s="3">
         <v>79300</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-38400</v>
+        <v>-40200</v>
       </c>
       <c r="E14" s="3">
-        <v>-58000</v>
+        <v>-60700</v>
       </c>
       <c r="F14" s="3">
-        <v>260400</v>
+        <v>272700</v>
       </c>
       <c r="G14" s="3">
-        <v>263100</v>
+        <v>275500</v>
       </c>
       <c r="H14" s="3">
-        <v>156600</v>
+        <v>164000</v>
       </c>
       <c r="I14" s="3">
-        <v>237400</v>
+        <v>248600</v>
       </c>
       <c r="J14" s="3">
-        <v>51000</v>
+        <v>53400</v>
       </c>
       <c r="K14" s="3">
         <v>125000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1248200</v>
+        <v>1307300</v>
       </c>
       <c r="E17" s="3">
-        <v>1411000</v>
+        <v>1477800</v>
       </c>
       <c r="F17" s="3">
-        <v>1660200</v>
+        <v>1738800</v>
       </c>
       <c r="G17" s="3">
-        <v>1869900</v>
+        <v>1958400</v>
       </c>
       <c r="H17" s="3">
-        <v>1823100</v>
+        <v>1909400</v>
       </c>
       <c r="I17" s="3">
-        <v>1714400</v>
+        <v>1795600</v>
       </c>
       <c r="J17" s="3">
-        <v>1579800</v>
+        <v>1654600</v>
       </c>
       <c r="K17" s="3">
         <v>1342900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>105500</v>
+        <v>110500</v>
       </c>
       <c r="E18" s="3">
-        <v>109000</v>
+        <v>114200</v>
       </c>
       <c r="F18" s="3">
-        <v>-92800</v>
+        <v>-97200</v>
       </c>
       <c r="G18" s="3">
-        <v>-103000</v>
+        <v>-107900</v>
       </c>
       <c r="H18" s="3">
-        <v>178500</v>
+        <v>186900</v>
       </c>
       <c r="I18" s="3">
-        <v>27900</v>
+        <v>29200</v>
       </c>
       <c r="J18" s="3">
-        <v>192300</v>
+        <v>201500</v>
       </c>
       <c r="K18" s="3">
         <v>64200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38500</v>
+        <v>40300</v>
       </c>
       <c r="E20" s="3">
-        <v>-26900</v>
+        <v>-28200</v>
       </c>
       <c r="F20" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="G20" s="3">
-        <v>45000</v>
+        <v>47100</v>
       </c>
       <c r="H20" s="3">
-        <v>-181500</v>
+        <v>-190100</v>
       </c>
       <c r="I20" s="3">
-        <v>-61700</v>
+        <v>-64600</v>
       </c>
       <c r="J20" s="3">
-        <v>-60100</v>
+        <v>-63000</v>
       </c>
       <c r="K20" s="3">
         <v>164800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>344500</v>
+        <v>360200</v>
       </c>
       <c r="E21" s="3">
-        <v>320600</v>
+        <v>335000</v>
       </c>
       <c r="F21" s="3">
-        <v>142900</v>
+        <v>148900</v>
       </c>
       <c r="G21" s="3">
-        <v>212200</v>
+        <v>221400</v>
       </c>
       <c r="H21" s="3">
-        <v>224200</v>
+        <v>234100</v>
       </c>
       <c r="I21" s="3">
-        <v>212700</v>
+        <v>222000</v>
       </c>
       <c r="J21" s="3">
-        <v>337900</v>
+        <v>353200</v>
       </c>
       <c r="K21" s="3">
         <v>391100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45900</v>
+        <v>48100</v>
       </c>
       <c r="E22" s="3">
-        <v>53100</v>
+        <v>55600</v>
       </c>
       <c r="F22" s="3">
-        <v>53200</v>
+        <v>55700</v>
       </c>
       <c r="G22" s="3">
-        <v>54000</v>
+        <v>56600</v>
       </c>
       <c r="H22" s="3">
-        <v>54600</v>
+        <v>57100</v>
       </c>
       <c r="I22" s="3">
-        <v>52700</v>
+        <v>55200</v>
       </c>
       <c r="J22" s="3">
-        <v>48600</v>
+        <v>50900</v>
       </c>
       <c r="K22" s="3">
         <v>79300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>98100</v>
+        <v>102800</v>
       </c>
       <c r="E23" s="3">
-        <v>29000</v>
+        <v>30400</v>
       </c>
       <c r="F23" s="3">
-        <v>-150600</v>
+        <v>-157700</v>
       </c>
       <c r="G23" s="3">
-        <v>-112100</v>
+        <v>-117400</v>
       </c>
       <c r="H23" s="3">
-        <v>-57600</v>
+        <v>-60300</v>
       </c>
       <c r="I23" s="3">
-        <v>-86500</v>
+        <v>-90600</v>
       </c>
       <c r="J23" s="3">
-        <v>83700</v>
+        <v>87600</v>
       </c>
       <c r="K23" s="3">
         <v>149700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>44400</v>
+        <v>46500</v>
       </c>
       <c r="E24" s="3">
-        <v>-91800</v>
+        <v>-96100</v>
       </c>
       <c r="F24" s="3">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="G24" s="3">
-        <v>-68600</v>
+        <v>-71800</v>
       </c>
       <c r="H24" s="3">
-        <v>-103600</v>
+        <v>-108600</v>
       </c>
       <c r="I24" s="3">
-        <v>-127400</v>
+        <v>-133400</v>
       </c>
       <c r="J24" s="3">
-        <v>-85200</v>
+        <v>-89200</v>
       </c>
       <c r="K24" s="3">
         <v>-37700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>53700</v>
+        <v>56300</v>
       </c>
       <c r="E26" s="3">
-        <v>120800</v>
+        <v>126500</v>
       </c>
       <c r="F26" s="3">
-        <v>-157600</v>
+        <v>-165100</v>
       </c>
       <c r="G26" s="3">
-        <v>-43500</v>
+        <v>-45600</v>
       </c>
       <c r="H26" s="3">
-        <v>46000</v>
+        <v>48200</v>
       </c>
       <c r="I26" s="3">
-        <v>40800</v>
+        <v>42800</v>
       </c>
       <c r="J26" s="3">
-        <v>168900</v>
+        <v>176900</v>
       </c>
       <c r="K26" s="3">
         <v>187400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>53800</v>
+        <v>56300</v>
       </c>
       <c r="E27" s="3">
-        <v>120900</v>
+        <v>126600</v>
       </c>
       <c r="F27" s="3">
-        <v>-157800</v>
+        <v>-165300</v>
       </c>
       <c r="G27" s="3">
-        <v>-44800</v>
+        <v>-46900</v>
       </c>
       <c r="H27" s="3">
-        <v>47400</v>
+        <v>49700</v>
       </c>
       <c r="I27" s="3">
-        <v>42100</v>
+        <v>44100</v>
       </c>
       <c r="J27" s="3">
-        <v>169400</v>
+        <v>177500</v>
       </c>
       <c r="K27" s="3">
         <v>188500</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>11</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>92500</v>
+        <v>96800</v>
       </c>
       <c r="J29" s="3">
-        <v>62000</v>
+        <v>64900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>11</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38500</v>
+        <v>-40300</v>
       </c>
       <c r="E32" s="3">
-        <v>26900</v>
+        <v>28200</v>
       </c>
       <c r="F32" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="G32" s="3">
-        <v>-45000</v>
+        <v>-47100</v>
       </c>
       <c r="H32" s="3">
-        <v>181500</v>
+        <v>190100</v>
       </c>
       <c r="I32" s="3">
-        <v>61700</v>
+        <v>64600</v>
       </c>
       <c r="J32" s="3">
-        <v>60100</v>
+        <v>63000</v>
       </c>
       <c r="K32" s="3">
         <v>-164800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>53800</v>
+        <v>56300</v>
       </c>
       <c r="E33" s="3">
-        <v>120900</v>
+        <v>126600</v>
       </c>
       <c r="F33" s="3">
-        <v>-148900</v>
+        <v>-156000</v>
       </c>
       <c r="G33" s="3">
-        <v>-44800</v>
+        <v>-46900</v>
       </c>
       <c r="H33" s="3">
-        <v>47400</v>
+        <v>49700</v>
       </c>
       <c r="I33" s="3">
-        <v>134600</v>
+        <v>141000</v>
       </c>
       <c r="J33" s="3">
-        <v>231400</v>
+        <v>242400</v>
       </c>
       <c r="K33" s="3">
         <v>188500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>53800</v>
+        <v>56300</v>
       </c>
       <c r="E35" s="3">
-        <v>120900</v>
+        <v>126600</v>
       </c>
       <c r="F35" s="3">
-        <v>-148900</v>
+        <v>-156000</v>
       </c>
       <c r="G35" s="3">
-        <v>-44800</v>
+        <v>-46900</v>
       </c>
       <c r="H35" s="3">
-        <v>47400</v>
+        <v>49700</v>
       </c>
       <c r="I35" s="3">
-        <v>134600</v>
+        <v>141000</v>
       </c>
       <c r="J35" s="3">
-        <v>231400</v>
+        <v>242400</v>
       </c>
       <c r="K35" s="3">
         <v>188500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>771600</v>
+        <v>808600</v>
       </c>
       <c r="E41" s="3">
-        <v>516800</v>
+        <v>541500</v>
       </c>
       <c r="F41" s="3">
-        <v>429700</v>
+        <v>450300</v>
       </c>
       <c r="G41" s="3">
-        <v>232600</v>
+        <v>243800</v>
       </c>
       <c r="H41" s="3">
-        <v>333100</v>
+        <v>349000</v>
       </c>
       <c r="I41" s="3">
-        <v>411500</v>
+        <v>431200</v>
       </c>
       <c r="J41" s="3">
-        <v>166400</v>
+        <v>174400</v>
       </c>
       <c r="K41" s="3">
         <v>557800</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>284000</v>
+        <v>297600</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>11</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>245700</v>
+        <v>257500</v>
       </c>
       <c r="E43" s="3">
-        <v>307300</v>
+        <v>322100</v>
       </c>
       <c r="F43" s="3">
-        <v>322700</v>
+        <v>338200</v>
       </c>
       <c r="G43" s="3">
-        <v>192100</v>
+        <v>201300</v>
       </c>
       <c r="H43" s="3">
-        <v>188500</v>
+        <v>197500</v>
       </c>
       <c r="I43" s="3">
-        <v>340200</v>
+        <v>356500</v>
       </c>
       <c r="J43" s="3">
-        <v>317900</v>
+        <v>333200</v>
       </c>
       <c r="K43" s="3">
         <v>359100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>233000</v>
+        <v>244100</v>
       </c>
       <c r="E44" s="3">
-        <v>339700</v>
+        <v>356000</v>
       </c>
       <c r="F44" s="3">
-        <v>689800</v>
+        <v>722900</v>
       </c>
       <c r="G44" s="3">
-        <v>935400</v>
+        <v>980200</v>
       </c>
       <c r="H44" s="3">
-        <v>933500</v>
+        <v>978200</v>
       </c>
       <c r="I44" s="3">
-        <v>655300</v>
+        <v>686700</v>
       </c>
       <c r="J44" s="3">
-        <v>663300</v>
+        <v>695100</v>
       </c>
       <c r="K44" s="3">
         <v>838800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>62100</v>
+        <v>65100</v>
       </c>
       <c r="E45" s="3">
-        <v>64800</v>
+        <v>67900</v>
       </c>
       <c r="F45" s="3">
-        <v>108800</v>
+        <v>114100</v>
       </c>
       <c r="G45" s="3">
-        <v>122800</v>
+        <v>128700</v>
       </c>
       <c r="H45" s="3">
-        <v>131100</v>
+        <v>137400</v>
       </c>
       <c r="I45" s="3">
-        <v>94700</v>
+        <v>99300</v>
       </c>
       <c r="J45" s="3">
-        <v>129000</v>
+        <v>135200</v>
       </c>
       <c r="K45" s="3">
         <v>82400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1312400</v>
+        <v>1375300</v>
       </c>
       <c r="E46" s="3">
-        <v>1512600</v>
+        <v>1585100</v>
       </c>
       <c r="F46" s="3">
-        <v>1551000</v>
+        <v>1625400</v>
       </c>
       <c r="G46" s="3">
-        <v>1482900</v>
+        <v>1554000</v>
       </c>
       <c r="H46" s="3">
-        <v>1586100</v>
+        <v>1662200</v>
       </c>
       <c r="I46" s="3">
-        <v>1501700</v>
+        <v>1573700</v>
       </c>
       <c r="J46" s="3">
-        <v>1276700</v>
+        <v>1337900</v>
       </c>
       <c r="K46" s="3">
         <v>1421200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>641200</v>
+        <v>671900</v>
       </c>
       <c r="E47" s="3">
-        <v>713500</v>
+        <v>747700</v>
       </c>
       <c r="F47" s="3">
-        <v>377700</v>
+        <v>395800</v>
       </c>
       <c r="G47" s="3">
-        <v>364500</v>
+        <v>382000</v>
       </c>
       <c r="H47" s="3">
-        <v>320000</v>
+        <v>335300</v>
       </c>
       <c r="I47" s="3">
-        <v>306900</v>
+        <v>321700</v>
       </c>
       <c r="J47" s="3">
-        <v>561300</v>
+        <v>588200</v>
       </c>
       <c r="K47" s="3">
         <v>515600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2702200</v>
+        <v>2831800</v>
       </c>
       <c r="E48" s="3">
-        <v>2819300</v>
+        <v>2954500</v>
       </c>
       <c r="F48" s="3">
-        <v>3044400</v>
+        <v>3190400</v>
       </c>
       <c r="G48" s="3">
-        <v>3381200</v>
+        <v>3543300</v>
       </c>
       <c r="H48" s="3">
-        <v>3797100</v>
+        <v>3979100</v>
       </c>
       <c r="I48" s="3">
-        <v>3842700</v>
+        <v>4026900</v>
       </c>
       <c r="J48" s="3">
-        <v>3661100</v>
+        <v>3836600</v>
       </c>
       <c r="K48" s="3">
         <v>1377600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>43900</v>
+        <v>46000</v>
       </c>
       <c r="E49" s="3">
-        <v>47600</v>
+        <v>49900</v>
       </c>
       <c r="F49" s="3">
-        <v>50800</v>
+        <v>53300</v>
       </c>
       <c r="G49" s="3">
+        <v>154700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>165300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>153100</v>
+      </c>
+      <c r="J49" s="3">
         <v>147700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>157700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>146100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>140900</v>
       </c>
       <c r="K49" s="3">
         <v>139500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>694600</v>
+        <v>727900</v>
       </c>
       <c r="E52" s="3">
-        <v>730600</v>
+        <v>765700</v>
       </c>
       <c r="F52" s="3">
-        <v>625400</v>
+        <v>655400</v>
       </c>
       <c r="G52" s="3">
-        <v>614900</v>
+        <v>644300</v>
       </c>
       <c r="H52" s="3">
-        <v>526400</v>
+        <v>551700</v>
       </c>
       <c r="I52" s="3">
-        <v>356000</v>
+        <v>373100</v>
       </c>
       <c r="J52" s="3">
-        <v>198700</v>
+        <v>208200</v>
       </c>
       <c r="K52" s="3">
         <v>161000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5394200</v>
+        <v>5652800</v>
       </c>
       <c r="E54" s="3">
-        <v>5823700</v>
+        <v>6102900</v>
       </c>
       <c r="F54" s="3">
-        <v>5649500</v>
+        <v>5920300</v>
       </c>
       <c r="G54" s="3">
-        <v>5991100</v>
+        <v>6278400</v>
       </c>
       <c r="H54" s="3">
-        <v>6387300</v>
+        <v>6693500</v>
       </c>
       <c r="I54" s="3">
-        <v>6153400</v>
+        <v>6448500</v>
       </c>
       <c r="J54" s="3">
-        <v>5838700</v>
+        <v>6118600</v>
       </c>
       <c r="K54" s="3">
         <v>5530300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>72900</v>
+        <v>76400</v>
       </c>
       <c r="E57" s="3">
-        <v>89500</v>
+        <v>93800</v>
       </c>
       <c r="F57" s="3">
-        <v>128600</v>
+        <v>134700</v>
       </c>
       <c r="G57" s="3">
-        <v>155000</v>
+        <v>162500</v>
       </c>
       <c r="H57" s="3">
-        <v>144600</v>
+        <v>151500</v>
       </c>
       <c r="I57" s="3">
-        <v>133000</v>
+        <v>139400</v>
       </c>
       <c r="J57" s="3">
-        <v>251600</v>
+        <v>263600</v>
       </c>
       <c r="K57" s="3">
         <v>444000</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>362800</v>
+        <v>380200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>11</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>66400</v>
+        <v>69600</v>
       </c>
       <c r="K58" s="3">
         <v>62100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>128600</v>
+        <v>134700</v>
       </c>
       <c r="E59" s="3">
-        <v>183800</v>
+        <v>192600</v>
       </c>
       <c r="F59" s="3">
-        <v>169900</v>
+        <v>178100</v>
       </c>
       <c r="G59" s="3">
-        <v>185800</v>
+        <v>194700</v>
       </c>
       <c r="H59" s="3">
-        <v>343200</v>
+        <v>359700</v>
       </c>
       <c r="I59" s="3">
-        <v>241600</v>
+        <v>253200</v>
       </c>
       <c r="J59" s="3">
-        <v>193700</v>
+        <v>203000</v>
       </c>
       <c r="K59" s="3">
         <v>191000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>201500</v>
+        <v>211100</v>
       </c>
       <c r="E60" s="3">
-        <v>636100</v>
+        <v>666600</v>
       </c>
       <c r="F60" s="3">
-        <v>298500</v>
+        <v>312800</v>
       </c>
       <c r="G60" s="3">
-        <v>340800</v>
+        <v>357100</v>
       </c>
       <c r="H60" s="3">
-        <v>487800</v>
+        <v>511200</v>
       </c>
       <c r="I60" s="3">
-        <v>374600</v>
+        <v>392600</v>
       </c>
       <c r="J60" s="3">
-        <v>511700</v>
+        <v>536200</v>
       </c>
       <c r="K60" s="3">
         <v>418800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>733200</v>
+        <v>768400</v>
       </c>
       <c r="E61" s="3">
-        <v>723400</v>
+        <v>758100</v>
       </c>
       <c r="F61" s="3">
-        <v>1085400</v>
+        <v>1137400</v>
       </c>
       <c r="G61" s="3">
-        <v>1084600</v>
+        <v>1136600</v>
       </c>
       <c r="H61" s="3">
-        <v>1083800</v>
+        <v>1135700</v>
       </c>
       <c r="I61" s="3">
-        <v>1083000</v>
+        <v>1134900</v>
       </c>
       <c r="J61" s="3">
-        <v>939300</v>
+        <v>984400</v>
       </c>
       <c r="K61" s="3">
         <v>961800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>831800</v>
+        <v>871700</v>
       </c>
       <c r="E62" s="3">
-        <v>837500</v>
+        <v>877600</v>
       </c>
       <c r="F62" s="3">
-        <v>736100</v>
+        <v>771400</v>
       </c>
       <c r="G62" s="3">
-        <v>746700</v>
+        <v>782500</v>
       </c>
       <c r="H62" s="3">
-        <v>788400</v>
+        <v>826200</v>
       </c>
       <c r="I62" s="3">
-        <v>742100</v>
+        <v>777700</v>
       </c>
       <c r="J62" s="3">
-        <v>502600</v>
+        <v>526700</v>
       </c>
       <c r="K62" s="3">
         <v>917900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1766700</v>
+        <v>1851400</v>
       </c>
       <c r="E66" s="3">
-        <v>2197200</v>
+        <v>2302600</v>
       </c>
       <c r="F66" s="3">
-        <v>2120300</v>
+        <v>2222000</v>
       </c>
       <c r="G66" s="3">
-        <v>2172100</v>
+        <v>2276300</v>
       </c>
       <c r="H66" s="3">
-        <v>2358600</v>
+        <v>2471700</v>
       </c>
       <c r="I66" s="3">
-        <v>2199900</v>
+        <v>2305400</v>
       </c>
       <c r="J66" s="3">
-        <v>1954400</v>
+        <v>2048100</v>
       </c>
       <c r="K66" s="3">
         <v>1852800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2052100</v>
+        <v>2150500</v>
       </c>
       <c r="E72" s="3">
-        <v>2027300</v>
+        <v>2124400</v>
       </c>
       <c r="F72" s="3">
-        <v>1924900</v>
+        <v>2017200</v>
       </c>
       <c r="G72" s="3">
-        <v>2193200</v>
+        <v>2298400</v>
       </c>
       <c r="H72" s="3">
-        <v>2354500</v>
+        <v>2467400</v>
       </c>
       <c r="I72" s="3">
-        <v>2420700</v>
+        <v>2536800</v>
       </c>
       <c r="J72" s="3">
-        <v>2406900</v>
+        <v>2522300</v>
       </c>
       <c r="K72" s="3">
         <v>2168000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3627500</v>
+        <v>3801400</v>
       </c>
       <c r="E76" s="3">
-        <v>3626500</v>
+        <v>3800300</v>
       </c>
       <c r="F76" s="3">
-        <v>3529200</v>
+        <v>3698400</v>
       </c>
       <c r="G76" s="3">
-        <v>3819000</v>
+        <v>4002100</v>
       </c>
       <c r="H76" s="3">
-        <v>4028600</v>
+        <v>4221800</v>
       </c>
       <c r="I76" s="3">
-        <v>3953600</v>
+        <v>4143100</v>
       </c>
       <c r="J76" s="3">
-        <v>3884300</v>
+        <v>4070500</v>
       </c>
       <c r="K76" s="3">
         <v>3677400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>53800</v>
+        <v>56300</v>
       </c>
       <c r="E81" s="3">
-        <v>120900</v>
+        <v>126600</v>
       </c>
       <c r="F81" s="3">
-        <v>-148900</v>
+        <v>-156000</v>
       </c>
       <c r="G81" s="3">
-        <v>-44800</v>
+        <v>-46900</v>
       </c>
       <c r="H81" s="3">
-        <v>47400</v>
+        <v>49700</v>
       </c>
       <c r="I81" s="3">
-        <v>134600</v>
+        <v>141000</v>
       </c>
       <c r="J81" s="3">
-        <v>231400</v>
+        <v>242400</v>
       </c>
       <c r="K81" s="3">
         <v>188500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200400</v>
+        <v>209900</v>
       </c>
       <c r="E83" s="3">
-        <v>238300</v>
+        <v>249600</v>
       </c>
       <c r="F83" s="3">
-        <v>240100</v>
+        <v>251400</v>
       </c>
       <c r="G83" s="3">
-        <v>270100</v>
+        <v>282900</v>
       </c>
       <c r="H83" s="3">
-        <v>227100</v>
+        <v>237900</v>
       </c>
       <c r="I83" s="3">
-        <v>246300</v>
+        <v>258000</v>
       </c>
       <c r="J83" s="3">
-        <v>205500</v>
+        <v>215200</v>
       </c>
       <c r="K83" s="3">
         <v>161800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>383000</v>
+        <v>401100</v>
       </c>
       <c r="E89" s="3">
-        <v>485100</v>
+        <v>508000</v>
       </c>
       <c r="F89" s="3">
-        <v>433100</v>
+        <v>453600</v>
       </c>
       <c r="G89" s="3">
-        <v>227000</v>
+        <v>237700</v>
       </c>
       <c r="H89" s="3">
-        <v>327000</v>
+        <v>342500</v>
       </c>
       <c r="I89" s="3">
-        <v>348900</v>
+        <v>365500</v>
       </c>
       <c r="J89" s="3">
-        <v>385100</v>
+        <v>403300</v>
       </c>
       <c r="K89" s="3">
         <v>431200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54700</v>
+        <v>-57200</v>
       </c>
       <c r="E91" s="3">
-        <v>-40200</v>
+        <v>-42100</v>
       </c>
       <c r="F91" s="3">
-        <v>-82900</v>
+        <v>-86800</v>
       </c>
       <c r="G91" s="3">
-        <v>-157600</v>
+        <v>-165100</v>
       </c>
       <c r="H91" s="3">
-        <v>-260600</v>
+        <v>-272900</v>
       </c>
       <c r="I91" s="3">
-        <v>-348900</v>
+        <v>-365400</v>
       </c>
       <c r="J91" s="3">
-        <v>-469200</v>
+        <v>-491400</v>
       </c>
       <c r="K91" s="3">
         <v>-499800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>317900</v>
+        <v>332900</v>
       </c>
       <c r="E94" s="3">
-        <v>-299100</v>
+        <v>-313300</v>
       </c>
       <c r="F94" s="3">
-        <v>-67600</v>
+        <v>-70800</v>
       </c>
       <c r="G94" s="3">
-        <v>-158300</v>
+        <v>-165800</v>
       </c>
       <c r="H94" s="3">
-        <v>-247700</v>
+        <v>-259400</v>
       </c>
       <c r="I94" s="3">
-        <v>-15100</v>
+        <v>-15800</v>
       </c>
       <c r="J94" s="3">
-        <v>-620900</v>
+        <v>-650300</v>
       </c>
       <c r="K94" s="3">
         <v>-384300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23000</v>
+        <v>-24100</v>
       </c>
       <c r="E96" s="3">
-        <v>-51800</v>
+        <v>-54200</v>
       </c>
       <c r="F96" s="3">
-        <v>-115000</v>
+        <v>-120500</v>
       </c>
       <c r="G96" s="3">
-        <v>-115000</v>
+        <v>-120500</v>
       </c>
       <c r="H96" s="3">
-        <v>-115000</v>
+        <v>-120500</v>
       </c>
       <c r="I96" s="3">
-        <v>-115000</v>
+        <v>-120400</v>
       </c>
       <c r="J96" s="3">
-        <v>-114900</v>
+        <v>-120400</v>
       </c>
       <c r="K96" s="3">
         <v>-117600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-441000</v>
+        <v>-461900</v>
       </c>
       <c r="E100" s="3">
-        <v>-104800</v>
+        <v>-109700</v>
       </c>
       <c r="F100" s="3">
-        <v>-165500</v>
+        <v>-173400</v>
       </c>
       <c r="G100" s="3">
-        <v>-166200</v>
+        <v>-174100</v>
       </c>
       <c r="H100" s="3">
-        <v>-165600</v>
+        <v>-173400</v>
       </c>
       <c r="I100" s="3">
-        <v>-61000</v>
+        <v>-63800</v>
       </c>
       <c r="J100" s="3">
-        <v>-174400</v>
+        <v>-182700</v>
       </c>
       <c r="K100" s="3">
         <v>216900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E101" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="G101" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H101" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="I101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J101" s="3">
         <v>2300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2200</v>
       </c>
       <c r="K101" s="3">
         <v>-400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>255000</v>
+        <v>267100</v>
       </c>
       <c r="E102" s="3">
-        <v>87100</v>
+        <v>91300</v>
       </c>
       <c r="F102" s="3">
-        <v>197200</v>
+        <v>206500</v>
       </c>
       <c r="G102" s="3">
-        <v>-100500</v>
+        <v>-105300</v>
       </c>
       <c r="H102" s="3">
-        <v>-78500</v>
+        <v>-82200</v>
       </c>
       <c r="I102" s="3">
-        <v>275200</v>
+        <v>288200</v>
       </c>
       <c r="J102" s="3">
-        <v>-408100</v>
+        <v>-427400</v>
       </c>
       <c r="K102" s="3">
         <v>263400</v>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1417900</v>
+        <v>1434100</v>
       </c>
       <c r="E8" s="3">
-        <v>1591900</v>
+        <v>1610200</v>
       </c>
       <c r="F8" s="3">
-        <v>1641600</v>
+        <v>1660400</v>
       </c>
       <c r="G8" s="3">
-        <v>1850500</v>
+        <v>1871700</v>
       </c>
       <c r="H8" s="3">
-        <v>2096300</v>
+        <v>2120400</v>
       </c>
       <c r="I8" s="3">
-        <v>1824700</v>
+        <v>1845700</v>
       </c>
       <c r="J8" s="3">
-        <v>1856100</v>
+        <v>1877400</v>
       </c>
       <c r="K8" s="3">
         <v>1407000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1234000</v>
+        <v>1248100</v>
       </c>
       <c r="E9" s="3">
-        <v>1366900</v>
+        <v>1382500</v>
       </c>
       <c r="F9" s="3">
-        <v>1309500</v>
+        <v>1324500</v>
       </c>
       <c r="G9" s="3">
-        <v>1497800</v>
+        <v>1514900</v>
       </c>
       <c r="H9" s="3">
-        <v>1565800</v>
+        <v>1583800</v>
       </c>
       <c r="I9" s="3">
-        <v>1339300</v>
+        <v>1354700</v>
       </c>
       <c r="J9" s="3">
-        <v>1394300</v>
+        <v>1410300</v>
       </c>
       <c r="K9" s="3">
         <v>1005200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>183900</v>
+        <v>186000</v>
       </c>
       <c r="E10" s="3">
-        <v>225100</v>
+        <v>227700</v>
       </c>
       <c r="F10" s="3">
-        <v>332000</v>
+        <v>335900</v>
       </c>
       <c r="G10" s="3">
-        <v>352700</v>
+        <v>356800</v>
       </c>
       <c r="H10" s="3">
-        <v>530500</v>
+        <v>536600</v>
       </c>
       <c r="I10" s="3">
-        <v>485400</v>
+        <v>491000</v>
       </c>
       <c r="J10" s="3">
-        <v>461800</v>
+        <v>467100</v>
       </c>
       <c r="K10" s="3">
         <v>401900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="E12" s="3">
-        <v>16800</v>
+        <v>17000</v>
       </c>
       <c r="F12" s="3">
-        <v>27100</v>
+        <v>27400</v>
       </c>
       <c r="G12" s="3">
-        <v>36200</v>
+        <v>36600</v>
       </c>
       <c r="H12" s="3">
-        <v>35700</v>
+        <v>36100</v>
       </c>
       <c r="I12" s="3">
-        <v>39300</v>
+        <v>39700</v>
       </c>
       <c r="J12" s="3">
-        <v>61000</v>
+        <v>61700</v>
       </c>
       <c r="K12" s="3">
         <v>79300</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-40200</v>
+        <v>-40600</v>
       </c>
       <c r="E14" s="3">
-        <v>-60700</v>
+        <v>-61400</v>
       </c>
       <c r="F14" s="3">
-        <v>272700</v>
+        <v>275800</v>
       </c>
       <c r="G14" s="3">
-        <v>275500</v>
+        <v>278700</v>
       </c>
       <c r="H14" s="3">
-        <v>164000</v>
+        <v>165900</v>
       </c>
       <c r="I14" s="3">
-        <v>248600</v>
+        <v>251500</v>
       </c>
       <c r="J14" s="3">
-        <v>53400</v>
+        <v>54000</v>
       </c>
       <c r="K14" s="3">
         <v>125000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1307300</v>
+        <v>1322300</v>
       </c>
       <c r="E17" s="3">
-        <v>1477800</v>
+        <v>1494700</v>
       </c>
       <c r="F17" s="3">
-        <v>1738800</v>
+        <v>1758700</v>
       </c>
       <c r="G17" s="3">
-        <v>1958400</v>
+        <v>1980900</v>
       </c>
       <c r="H17" s="3">
-        <v>1909400</v>
+        <v>1931300</v>
       </c>
       <c r="I17" s="3">
-        <v>1795600</v>
+        <v>1816200</v>
       </c>
       <c r="J17" s="3">
-        <v>1654600</v>
+        <v>1673600</v>
       </c>
       <c r="K17" s="3">
         <v>1342900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>110500</v>
+        <v>111800</v>
       </c>
       <c r="E18" s="3">
-        <v>114200</v>
+        <v>115500</v>
       </c>
       <c r="F18" s="3">
-        <v>-97200</v>
+        <v>-98300</v>
       </c>
       <c r="G18" s="3">
-        <v>-107900</v>
+        <v>-109100</v>
       </c>
       <c r="H18" s="3">
-        <v>186900</v>
+        <v>189000</v>
       </c>
       <c r="I18" s="3">
-        <v>29200</v>
+        <v>29500</v>
       </c>
       <c r="J18" s="3">
-        <v>201500</v>
+        <v>203800</v>
       </c>
       <c r="K18" s="3">
         <v>64200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>40300</v>
+        <v>40800</v>
       </c>
       <c r="E20" s="3">
-        <v>-28200</v>
+        <v>-28500</v>
       </c>
       <c r="F20" s="3">
         <v>-4800</v>
       </c>
       <c r="G20" s="3">
-        <v>47100</v>
+        <v>47600</v>
       </c>
       <c r="H20" s="3">
-        <v>-190100</v>
+        <v>-192300</v>
       </c>
       <c r="I20" s="3">
-        <v>-64600</v>
+        <v>-65400</v>
       </c>
       <c r="J20" s="3">
-        <v>-63000</v>
+        <v>-63700</v>
       </c>
       <c r="K20" s="3">
         <v>164800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>360200</v>
+        <v>364400</v>
       </c>
       <c r="E21" s="3">
-        <v>335000</v>
+        <v>339000</v>
       </c>
       <c r="F21" s="3">
-        <v>148900</v>
+        <v>150700</v>
       </c>
       <c r="G21" s="3">
-        <v>221400</v>
+        <v>224100</v>
       </c>
       <c r="H21" s="3">
-        <v>234100</v>
+        <v>236900</v>
       </c>
       <c r="I21" s="3">
-        <v>222000</v>
+        <v>224600</v>
       </c>
       <c r="J21" s="3">
-        <v>353200</v>
+        <v>357400</v>
       </c>
       <c r="K21" s="3">
         <v>391100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48100</v>
+        <v>48600</v>
       </c>
       <c r="E22" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="F22" s="3">
-        <v>55700</v>
+        <v>56400</v>
       </c>
       <c r="G22" s="3">
-        <v>56600</v>
+        <v>57200</v>
       </c>
       <c r="H22" s="3">
-        <v>57100</v>
+        <v>57800</v>
       </c>
       <c r="I22" s="3">
-        <v>55200</v>
+        <v>55800</v>
       </c>
       <c r="J22" s="3">
-        <v>50900</v>
+        <v>51400</v>
       </c>
       <c r="K22" s="3">
         <v>79300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>102800</v>
+        <v>103900</v>
       </c>
       <c r="E23" s="3">
-        <v>30400</v>
+        <v>30700</v>
       </c>
       <c r="F23" s="3">
-        <v>-157700</v>
+        <v>-159500</v>
       </c>
       <c r="G23" s="3">
-        <v>-117400</v>
+        <v>-118700</v>
       </c>
       <c r="H23" s="3">
-        <v>-60300</v>
+        <v>-61000</v>
       </c>
       <c r="I23" s="3">
-        <v>-90600</v>
+        <v>-91700</v>
       </c>
       <c r="J23" s="3">
-        <v>87600</v>
+        <v>88600</v>
       </c>
       <c r="K23" s="3">
         <v>149700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46500</v>
+        <v>47000</v>
       </c>
       <c r="E24" s="3">
-        <v>-96100</v>
+        <v>-97200</v>
       </c>
       <c r="F24" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G24" s="3">
-        <v>-71800</v>
+        <v>-72600</v>
       </c>
       <c r="H24" s="3">
-        <v>-108600</v>
+        <v>-109800</v>
       </c>
       <c r="I24" s="3">
-        <v>-133400</v>
+        <v>-134900</v>
       </c>
       <c r="J24" s="3">
-        <v>-89200</v>
+        <v>-90200</v>
       </c>
       <c r="K24" s="3">
         <v>-37700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>56300</v>
+        <v>56900</v>
       </c>
       <c r="E26" s="3">
-        <v>126500</v>
+        <v>128000</v>
       </c>
       <c r="F26" s="3">
-        <v>-165100</v>
+        <v>-167000</v>
       </c>
       <c r="G26" s="3">
-        <v>-45600</v>
+        <v>-46100</v>
       </c>
       <c r="H26" s="3">
-        <v>48200</v>
+        <v>48800</v>
       </c>
       <c r="I26" s="3">
-        <v>42800</v>
+        <v>43200</v>
       </c>
       <c r="J26" s="3">
-        <v>176900</v>
+        <v>178900</v>
       </c>
       <c r="K26" s="3">
         <v>187400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56300</v>
+        <v>57000</v>
       </c>
       <c r="E27" s="3">
-        <v>126600</v>
+        <v>128000</v>
       </c>
       <c r="F27" s="3">
-        <v>-165300</v>
+        <v>-167200</v>
       </c>
       <c r="G27" s="3">
-        <v>-46900</v>
+        <v>-47400</v>
       </c>
       <c r="H27" s="3">
-        <v>49700</v>
+        <v>50300</v>
       </c>
       <c r="I27" s="3">
-        <v>44100</v>
+        <v>44600</v>
       </c>
       <c r="J27" s="3">
-        <v>177500</v>
+        <v>179500</v>
       </c>
       <c r="K27" s="3">
         <v>188500</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>11</v>
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>96800</v>
+        <v>98000</v>
       </c>
       <c r="J29" s="3">
-        <v>64900</v>
+        <v>65700</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>11</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-40300</v>
+        <v>-40800</v>
       </c>
       <c r="E32" s="3">
-        <v>28200</v>
+        <v>28500</v>
       </c>
       <c r="F32" s="3">
         <v>4800</v>
       </c>
       <c r="G32" s="3">
-        <v>-47100</v>
+        <v>-47600</v>
       </c>
       <c r="H32" s="3">
-        <v>190100</v>
+        <v>192300</v>
       </c>
       <c r="I32" s="3">
-        <v>64600</v>
+        <v>65400</v>
       </c>
       <c r="J32" s="3">
-        <v>63000</v>
+        <v>63700</v>
       </c>
       <c r="K32" s="3">
         <v>-164800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56300</v>
+        <v>57000</v>
       </c>
       <c r="E33" s="3">
-        <v>126600</v>
+        <v>128000</v>
       </c>
       <c r="F33" s="3">
-        <v>-156000</v>
+        <v>-157800</v>
       </c>
       <c r="G33" s="3">
-        <v>-46900</v>
+        <v>-47400</v>
       </c>
       <c r="H33" s="3">
-        <v>49700</v>
+        <v>50300</v>
       </c>
       <c r="I33" s="3">
-        <v>141000</v>
+        <v>142600</v>
       </c>
       <c r="J33" s="3">
-        <v>242400</v>
+        <v>245200</v>
       </c>
       <c r="K33" s="3">
         <v>188500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56300</v>
+        <v>57000</v>
       </c>
       <c r="E35" s="3">
-        <v>126600</v>
+        <v>128000</v>
       </c>
       <c r="F35" s="3">
-        <v>-156000</v>
+        <v>-157800</v>
       </c>
       <c r="G35" s="3">
-        <v>-46900</v>
+        <v>-47400</v>
       </c>
       <c r="H35" s="3">
-        <v>49700</v>
+        <v>50300</v>
       </c>
       <c r="I35" s="3">
-        <v>141000</v>
+        <v>142600</v>
       </c>
       <c r="J35" s="3">
-        <v>242400</v>
+        <v>245200</v>
       </c>
       <c r="K35" s="3">
         <v>188500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>808600</v>
+        <v>817900</v>
       </c>
       <c r="E41" s="3">
-        <v>541500</v>
+        <v>547700</v>
       </c>
       <c r="F41" s="3">
-        <v>450300</v>
+        <v>455400</v>
       </c>
       <c r="G41" s="3">
-        <v>243800</v>
+        <v>246600</v>
       </c>
       <c r="H41" s="3">
-        <v>349000</v>
+        <v>353000</v>
       </c>
       <c r="I41" s="3">
-        <v>431200</v>
+        <v>436200</v>
       </c>
       <c r="J41" s="3">
-        <v>174400</v>
+        <v>176400</v>
       </c>
       <c r="K41" s="3">
         <v>557800</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>297600</v>
+        <v>301000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>11</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>257500</v>
+        <v>260400</v>
       </c>
       <c r="E43" s="3">
-        <v>322100</v>
+        <v>325800</v>
       </c>
       <c r="F43" s="3">
-        <v>338200</v>
+        <v>342000</v>
       </c>
       <c r="G43" s="3">
-        <v>201300</v>
+        <v>203600</v>
       </c>
       <c r="H43" s="3">
-        <v>197500</v>
+        <v>199800</v>
       </c>
       <c r="I43" s="3">
-        <v>356500</v>
+        <v>360600</v>
       </c>
       <c r="J43" s="3">
-        <v>333200</v>
+        <v>337000</v>
       </c>
       <c r="K43" s="3">
         <v>359100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>244100</v>
+        <v>246900</v>
       </c>
       <c r="E44" s="3">
-        <v>356000</v>
+        <v>360100</v>
       </c>
       <c r="F44" s="3">
-        <v>722900</v>
+        <v>731100</v>
       </c>
       <c r="G44" s="3">
-        <v>980200</v>
+        <v>991500</v>
       </c>
       <c r="H44" s="3">
-        <v>978200</v>
+        <v>989400</v>
       </c>
       <c r="I44" s="3">
-        <v>686700</v>
+        <v>694600</v>
       </c>
       <c r="J44" s="3">
-        <v>695100</v>
+        <v>703100</v>
       </c>
       <c r="K44" s="3">
         <v>838800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>65100</v>
+        <v>65800</v>
       </c>
       <c r="E45" s="3">
-        <v>67900</v>
+        <v>68700</v>
       </c>
       <c r="F45" s="3">
-        <v>114100</v>
+        <v>115400</v>
       </c>
       <c r="G45" s="3">
-        <v>128700</v>
+        <v>130200</v>
       </c>
       <c r="H45" s="3">
-        <v>137400</v>
+        <v>139000</v>
       </c>
       <c r="I45" s="3">
-        <v>99300</v>
+        <v>100400</v>
       </c>
       <c r="J45" s="3">
-        <v>135200</v>
+        <v>136700</v>
       </c>
       <c r="K45" s="3">
         <v>82400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1375300</v>
+        <v>1391000</v>
       </c>
       <c r="E46" s="3">
-        <v>1585100</v>
+        <v>1603300</v>
       </c>
       <c r="F46" s="3">
-        <v>1625400</v>
+        <v>1644000</v>
       </c>
       <c r="G46" s="3">
-        <v>1554000</v>
+        <v>1571800</v>
       </c>
       <c r="H46" s="3">
-        <v>1662200</v>
+        <v>1681300</v>
       </c>
       <c r="I46" s="3">
-        <v>1573700</v>
+        <v>1591800</v>
       </c>
       <c r="J46" s="3">
-        <v>1337900</v>
+        <v>1353200</v>
       </c>
       <c r="K46" s="3">
         <v>1421200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>671900</v>
+        <v>679600</v>
       </c>
       <c r="E47" s="3">
-        <v>747700</v>
+        <v>756200</v>
       </c>
       <c r="F47" s="3">
-        <v>395800</v>
+        <v>400400</v>
       </c>
       <c r="G47" s="3">
-        <v>382000</v>
+        <v>386400</v>
       </c>
       <c r="H47" s="3">
-        <v>335300</v>
+        <v>339200</v>
       </c>
       <c r="I47" s="3">
-        <v>321700</v>
+        <v>325300</v>
       </c>
       <c r="J47" s="3">
-        <v>588200</v>
+        <v>595000</v>
       </c>
       <c r="K47" s="3">
         <v>515600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2831800</v>
+        <v>2864200</v>
       </c>
       <c r="E48" s="3">
-        <v>2954500</v>
+        <v>2988400</v>
       </c>
       <c r="F48" s="3">
-        <v>3190400</v>
+        <v>3227000</v>
       </c>
       <c r="G48" s="3">
-        <v>3543300</v>
+        <v>3584000</v>
       </c>
       <c r="H48" s="3">
-        <v>3979100</v>
+        <v>4024700</v>
       </c>
       <c r="I48" s="3">
-        <v>4026900</v>
+        <v>4073100</v>
       </c>
       <c r="J48" s="3">
-        <v>3836600</v>
+        <v>3880700</v>
       </c>
       <c r="K48" s="3">
         <v>1377600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>46000</v>
+        <v>46500</v>
       </c>
       <c r="E49" s="3">
-        <v>49900</v>
+        <v>50500</v>
       </c>
       <c r="F49" s="3">
-        <v>53300</v>
+        <v>53900</v>
       </c>
       <c r="G49" s="3">
-        <v>154700</v>
+        <v>156500</v>
       </c>
       <c r="H49" s="3">
-        <v>165300</v>
+        <v>167200</v>
       </c>
       <c r="I49" s="3">
-        <v>153100</v>
+        <v>154800</v>
       </c>
       <c r="J49" s="3">
-        <v>147700</v>
+        <v>149400</v>
       </c>
       <c r="K49" s="3">
         <v>139500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>727900</v>
+        <v>736200</v>
       </c>
       <c r="E52" s="3">
-        <v>765700</v>
+        <v>774400</v>
       </c>
       <c r="F52" s="3">
-        <v>655400</v>
+        <v>662900</v>
       </c>
       <c r="G52" s="3">
-        <v>644300</v>
+        <v>651700</v>
       </c>
       <c r="H52" s="3">
-        <v>551700</v>
+        <v>558000</v>
       </c>
       <c r="I52" s="3">
-        <v>373100</v>
+        <v>377400</v>
       </c>
       <c r="J52" s="3">
-        <v>208200</v>
+        <v>210600</v>
       </c>
       <c r="K52" s="3">
         <v>161000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5652800</v>
+        <v>5717600</v>
       </c>
       <c r="E54" s="3">
-        <v>6102900</v>
+        <v>6172900</v>
       </c>
       <c r="F54" s="3">
-        <v>5920300</v>
+        <v>5988200</v>
       </c>
       <c r="G54" s="3">
-        <v>6278400</v>
+        <v>6350400</v>
       </c>
       <c r="H54" s="3">
-        <v>6693500</v>
+        <v>6770300</v>
       </c>
       <c r="I54" s="3">
-        <v>6448500</v>
+        <v>6522400</v>
       </c>
       <c r="J54" s="3">
-        <v>6118600</v>
+        <v>6188800</v>
       </c>
       <c r="K54" s="3">
         <v>5530300</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>76400</v>
+        <v>77300</v>
       </c>
       <c r="E57" s="3">
-        <v>93800</v>
+        <v>94900</v>
       </c>
       <c r="F57" s="3">
-        <v>134700</v>
+        <v>136300</v>
       </c>
       <c r="G57" s="3">
-        <v>162500</v>
+        <v>164300</v>
       </c>
       <c r="H57" s="3">
-        <v>151500</v>
+        <v>153300</v>
       </c>
       <c r="I57" s="3">
-        <v>139400</v>
+        <v>141000</v>
       </c>
       <c r="J57" s="3">
-        <v>263600</v>
+        <v>266700</v>
       </c>
       <c r="K57" s="3">
         <v>444000</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>380200</v>
+        <v>384600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>11</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>69600</v>
+        <v>70400</v>
       </c>
       <c r="K58" s="3">
         <v>62100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>134700</v>
+        <v>136300</v>
       </c>
       <c r="E59" s="3">
-        <v>192600</v>
+        <v>194800</v>
       </c>
       <c r="F59" s="3">
-        <v>178100</v>
+        <v>180100</v>
       </c>
       <c r="G59" s="3">
-        <v>194700</v>
+        <v>196900</v>
       </c>
       <c r="H59" s="3">
-        <v>359700</v>
+        <v>363800</v>
       </c>
       <c r="I59" s="3">
-        <v>253200</v>
+        <v>256100</v>
       </c>
       <c r="J59" s="3">
-        <v>203000</v>
+        <v>205300</v>
       </c>
       <c r="K59" s="3">
         <v>191000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>211100</v>
+        <v>213600</v>
       </c>
       <c r="E60" s="3">
-        <v>666600</v>
+        <v>674300</v>
       </c>
       <c r="F60" s="3">
-        <v>312800</v>
+        <v>316400</v>
       </c>
       <c r="G60" s="3">
-        <v>357100</v>
+        <v>361200</v>
       </c>
       <c r="H60" s="3">
-        <v>511200</v>
+        <v>517000</v>
       </c>
       <c r="I60" s="3">
-        <v>392600</v>
+        <v>397100</v>
       </c>
       <c r="J60" s="3">
-        <v>536200</v>
+        <v>542400</v>
       </c>
       <c r="K60" s="3">
         <v>418800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>768400</v>
+        <v>777200</v>
       </c>
       <c r="E61" s="3">
-        <v>758100</v>
+        <v>766800</v>
       </c>
       <c r="F61" s="3">
-        <v>1137400</v>
+        <v>1150500</v>
       </c>
       <c r="G61" s="3">
-        <v>1136600</v>
+        <v>1149600</v>
       </c>
       <c r="H61" s="3">
-        <v>1135700</v>
+        <v>1148800</v>
       </c>
       <c r="I61" s="3">
-        <v>1134900</v>
+        <v>1148000</v>
       </c>
       <c r="J61" s="3">
-        <v>984400</v>
+        <v>995700</v>
       </c>
       <c r="K61" s="3">
         <v>961800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>871700</v>
+        <v>881700</v>
       </c>
       <c r="E62" s="3">
-        <v>877600</v>
+        <v>887700</v>
       </c>
       <c r="F62" s="3">
-        <v>771400</v>
+        <v>780300</v>
       </c>
       <c r="G62" s="3">
-        <v>782500</v>
+        <v>791400</v>
       </c>
       <c r="H62" s="3">
-        <v>826200</v>
+        <v>835600</v>
       </c>
       <c r="I62" s="3">
-        <v>777700</v>
+        <v>786600</v>
       </c>
       <c r="J62" s="3">
-        <v>526700</v>
+        <v>532700</v>
       </c>
       <c r="K62" s="3">
         <v>917900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1851400</v>
+        <v>1872600</v>
       </c>
       <c r="E66" s="3">
-        <v>2302600</v>
+        <v>2329000</v>
       </c>
       <c r="F66" s="3">
-        <v>2222000</v>
+        <v>2247400</v>
       </c>
       <c r="G66" s="3">
-        <v>2276300</v>
+        <v>2302400</v>
       </c>
       <c r="H66" s="3">
-        <v>2471700</v>
+        <v>2500100</v>
       </c>
       <c r="I66" s="3">
-        <v>2305400</v>
+        <v>2331800</v>
       </c>
       <c r="J66" s="3">
-        <v>2048100</v>
+        <v>2071600</v>
       </c>
       <c r="K66" s="3">
         <v>1852800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2150500</v>
+        <v>2175200</v>
       </c>
       <c r="E72" s="3">
-        <v>2124400</v>
+        <v>2148800</v>
       </c>
       <c r="F72" s="3">
-        <v>2017200</v>
+        <v>2040300</v>
       </c>
       <c r="G72" s="3">
-        <v>2298400</v>
+        <v>2324800</v>
       </c>
       <c r="H72" s="3">
-        <v>2467400</v>
+        <v>2495700</v>
       </c>
       <c r="I72" s="3">
-        <v>2536800</v>
+        <v>2565900</v>
       </c>
       <c r="J72" s="3">
-        <v>2522300</v>
+        <v>2551200</v>
       </c>
       <c r="K72" s="3">
         <v>2168000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3801400</v>
+        <v>3845000</v>
       </c>
       <c r="E76" s="3">
-        <v>3800300</v>
+        <v>3843900</v>
       </c>
       <c r="F76" s="3">
-        <v>3698400</v>
+        <v>3740800</v>
       </c>
       <c r="G76" s="3">
-        <v>4002100</v>
+        <v>4048000</v>
       </c>
       <c r="H76" s="3">
-        <v>4221800</v>
+        <v>4270200</v>
       </c>
       <c r="I76" s="3">
-        <v>4143100</v>
+        <v>4190600</v>
       </c>
       <c r="J76" s="3">
-        <v>4070500</v>
+        <v>4117200</v>
       </c>
       <c r="K76" s="3">
         <v>3677400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56300</v>
+        <v>57000</v>
       </c>
       <c r="E81" s="3">
-        <v>126600</v>
+        <v>128000</v>
       </c>
       <c r="F81" s="3">
-        <v>-156000</v>
+        <v>-157800</v>
       </c>
       <c r="G81" s="3">
-        <v>-46900</v>
+        <v>-47400</v>
       </c>
       <c r="H81" s="3">
-        <v>49700</v>
+        <v>50300</v>
       </c>
       <c r="I81" s="3">
-        <v>141000</v>
+        <v>142600</v>
       </c>
       <c r="J81" s="3">
-        <v>242400</v>
+        <v>245200</v>
       </c>
       <c r="K81" s="3">
         <v>188500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>209900</v>
+        <v>212300</v>
       </c>
       <c r="E83" s="3">
-        <v>249600</v>
+        <v>252500</v>
       </c>
       <c r="F83" s="3">
-        <v>251400</v>
+        <v>254300</v>
       </c>
       <c r="G83" s="3">
-        <v>282900</v>
+        <v>286100</v>
       </c>
       <c r="H83" s="3">
-        <v>237900</v>
+        <v>240600</v>
       </c>
       <c r="I83" s="3">
-        <v>258000</v>
+        <v>261000</v>
       </c>
       <c r="J83" s="3">
-        <v>215200</v>
+        <v>217700</v>
       </c>
       <c r="K83" s="3">
         <v>161800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>401100</v>
+        <v>405700</v>
       </c>
       <c r="E89" s="3">
-        <v>508000</v>
+        <v>513900</v>
       </c>
       <c r="F89" s="3">
-        <v>453600</v>
+        <v>458900</v>
       </c>
       <c r="G89" s="3">
-        <v>237700</v>
+        <v>240500</v>
       </c>
       <c r="H89" s="3">
-        <v>342500</v>
+        <v>346400</v>
       </c>
       <c r="I89" s="3">
-        <v>365500</v>
+        <v>369700</v>
       </c>
       <c r="J89" s="3">
-        <v>403300</v>
+        <v>407900</v>
       </c>
       <c r="K89" s="3">
         <v>431200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-57200</v>
+        <v>-57900</v>
       </c>
       <c r="E91" s="3">
-        <v>-42100</v>
+        <v>-42600</v>
       </c>
       <c r="F91" s="3">
-        <v>-86800</v>
+        <v>-87800</v>
       </c>
       <c r="G91" s="3">
-        <v>-165100</v>
+        <v>-167000</v>
       </c>
       <c r="H91" s="3">
-        <v>-272900</v>
+        <v>-276000</v>
       </c>
       <c r="I91" s="3">
-        <v>-365400</v>
+        <v>-369600</v>
       </c>
       <c r="J91" s="3">
-        <v>-491400</v>
+        <v>-497000</v>
       </c>
       <c r="K91" s="3">
         <v>-499800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>332900</v>
+        <v>336700</v>
       </c>
       <c r="E94" s="3">
-        <v>-313300</v>
+        <v>-316900</v>
       </c>
       <c r="F94" s="3">
-        <v>-70800</v>
+        <v>-71600</v>
       </c>
       <c r="G94" s="3">
-        <v>-165800</v>
+        <v>-167700</v>
       </c>
       <c r="H94" s="3">
-        <v>-259400</v>
+        <v>-262400</v>
       </c>
       <c r="I94" s="3">
-        <v>-15800</v>
+        <v>-16000</v>
       </c>
       <c r="J94" s="3">
-        <v>-650300</v>
+        <v>-657700</v>
       </c>
       <c r="K94" s="3">
         <v>-384300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-24100</v>
+        <v>-24300</v>
       </c>
       <c r="E96" s="3">
-        <v>-54200</v>
+        <v>-54800</v>
       </c>
       <c r="F96" s="3">
-        <v>-120500</v>
+        <v>-121900</v>
       </c>
       <c r="G96" s="3">
-        <v>-120500</v>
+        <v>-121900</v>
       </c>
       <c r="H96" s="3">
-        <v>-120500</v>
+        <v>-121900</v>
       </c>
       <c r="I96" s="3">
-        <v>-120400</v>
+        <v>-121800</v>
       </c>
       <c r="J96" s="3">
-        <v>-120400</v>
+        <v>-121800</v>
       </c>
       <c r="K96" s="3">
         <v>-117600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-461900</v>
+        <v>-467200</v>
       </c>
       <c r="E100" s="3">
-        <v>-109700</v>
+        <v>-111000</v>
       </c>
       <c r="F100" s="3">
-        <v>-173400</v>
+        <v>-175400</v>
       </c>
       <c r="G100" s="3">
-        <v>-174100</v>
+        <v>-176100</v>
       </c>
       <c r="H100" s="3">
-        <v>-173400</v>
+        <v>-175400</v>
       </c>
       <c r="I100" s="3">
-        <v>-63800</v>
+        <v>-64600</v>
       </c>
       <c r="J100" s="3">
-        <v>-182700</v>
+        <v>-184800</v>
       </c>
       <c r="K100" s="3">
         <v>216900</v>
@@ -3463,19 +3463,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="E101" s="3">
         <v>6300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H101" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="I101" s="3">
         <v>2400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>267100</v>
+        <v>270100</v>
       </c>
       <c r="E102" s="3">
-        <v>91300</v>
+        <v>92300</v>
       </c>
       <c r="F102" s="3">
-        <v>206500</v>
+        <v>208900</v>
       </c>
       <c r="G102" s="3">
-        <v>-105300</v>
+        <v>-106500</v>
       </c>
       <c r="H102" s="3">
-        <v>-82200</v>
+        <v>-83100</v>
       </c>
       <c r="I102" s="3">
-        <v>288200</v>
+        <v>291500</v>
       </c>
       <c r="J102" s="3">
-        <v>-427400</v>
+        <v>-432300</v>
       </c>
       <c r="K102" s="3">
         <v>263400</v>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>CCJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1434100</v>
+        <v>1427500</v>
       </c>
       <c r="E8" s="3">
-        <v>1610200</v>
+        <v>1477300</v>
       </c>
       <c r="F8" s="3">
-        <v>1660400</v>
+        <v>1658700</v>
       </c>
       <c r="G8" s="3">
-        <v>1871700</v>
+        <v>1710400</v>
       </c>
       <c r="H8" s="3">
-        <v>2120400</v>
+        <v>1928200</v>
       </c>
       <c r="I8" s="3">
-        <v>1845700</v>
+        <v>2184300</v>
       </c>
       <c r="J8" s="3">
+        <v>1901300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1877400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1407000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1831800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1248100</v>
+        <v>1343100</v>
       </c>
       <c r="E9" s="3">
-        <v>1382500</v>
+        <v>1285700</v>
       </c>
       <c r="F9" s="3">
-        <v>1324500</v>
+        <v>1424200</v>
       </c>
       <c r="G9" s="3">
-        <v>1514900</v>
+        <v>1364500</v>
       </c>
       <c r="H9" s="3">
-        <v>1583800</v>
+        <v>1560600</v>
       </c>
       <c r="I9" s="3">
-        <v>1354700</v>
+        <v>1631500</v>
       </c>
       <c r="J9" s="3">
+        <v>1395500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1410300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1005200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1235400</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>186000</v>
+        <v>84400</v>
       </c>
       <c r="E10" s="3">
-        <v>227700</v>
+        <v>191600</v>
       </c>
       <c r="F10" s="3">
-        <v>335900</v>
+        <v>234500</v>
       </c>
       <c r="G10" s="3">
-        <v>356800</v>
+        <v>346000</v>
       </c>
       <c r="H10" s="3">
-        <v>536600</v>
+        <v>367500</v>
       </c>
       <c r="I10" s="3">
-        <v>491000</v>
+        <v>552800</v>
       </c>
       <c r="J10" s="3">
+        <v>505800</v>
+      </c>
+      <c r="K10" s="3">
         <v>467100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>401900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>596400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15200</v>
+        <v>11800</v>
       </c>
       <c r="E12" s="3">
-        <v>17000</v>
+        <v>15700</v>
       </c>
       <c r="F12" s="3">
-        <v>27400</v>
+        <v>17500</v>
       </c>
       <c r="G12" s="3">
-        <v>36600</v>
+        <v>28200</v>
       </c>
       <c r="H12" s="3">
-        <v>36100</v>
+        <v>37700</v>
       </c>
       <c r="I12" s="3">
-        <v>39700</v>
+        <v>37100</v>
       </c>
       <c r="J12" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K12" s="3">
         <v>61700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>79300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>68700</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-40600</v>
+        <v>-29600</v>
       </c>
       <c r="E14" s="3">
-        <v>-61400</v>
+        <v>-41900</v>
       </c>
       <c r="F14" s="3">
-        <v>275800</v>
+        <v>-63300</v>
       </c>
       <c r="G14" s="3">
-        <v>278700</v>
+        <v>284200</v>
       </c>
       <c r="H14" s="3">
-        <v>165900</v>
+        <v>287100</v>
       </c>
       <c r="I14" s="3">
-        <v>251500</v>
+        <v>170900</v>
       </c>
       <c r="J14" s="3">
+        <v>259100</v>
+      </c>
+      <c r="K14" s="3">
         <v>54000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>125000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -953,12 +975,15 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1322300</v>
+        <v>1460300</v>
       </c>
       <c r="E17" s="3">
-        <v>1494700</v>
+        <v>1362200</v>
       </c>
       <c r="F17" s="3">
-        <v>1758700</v>
+        <v>1539700</v>
       </c>
       <c r="G17" s="3">
-        <v>1980900</v>
+        <v>1811700</v>
       </c>
       <c r="H17" s="3">
-        <v>1931300</v>
+        <v>2040600</v>
       </c>
       <c r="I17" s="3">
-        <v>1816200</v>
+        <v>1989500</v>
       </c>
       <c r="J17" s="3">
+        <v>1870900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1673600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1342900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1430900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>111800</v>
+        <v>-32800</v>
       </c>
       <c r="E18" s="3">
-        <v>115500</v>
+        <v>115200</v>
       </c>
       <c r="F18" s="3">
-        <v>-98300</v>
+        <v>119000</v>
       </c>
       <c r="G18" s="3">
-        <v>-109100</v>
+        <v>-101300</v>
       </c>
       <c r="H18" s="3">
-        <v>189000</v>
+        <v>-112400</v>
       </c>
       <c r="I18" s="3">
-        <v>29500</v>
+        <v>194700</v>
       </c>
       <c r="J18" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K18" s="3">
         <v>203800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>40800</v>
+        <v>35800</v>
       </c>
       <c r="E20" s="3">
-        <v>-28500</v>
+        <v>42000</v>
       </c>
       <c r="F20" s="3">
-        <v>-4800</v>
+        <v>-29400</v>
       </c>
       <c r="G20" s="3">
-        <v>47600</v>
+        <v>-5000</v>
       </c>
       <c r="H20" s="3">
-        <v>-192300</v>
+        <v>49100</v>
       </c>
       <c r="I20" s="3">
-        <v>-65400</v>
+        <v>-198100</v>
       </c>
       <c r="J20" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-63700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>164800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>364400</v>
+        <v>169000</v>
       </c>
       <c r="E21" s="3">
-        <v>339000</v>
+        <v>376400</v>
       </c>
       <c r="F21" s="3">
-        <v>150700</v>
+        <v>350400</v>
       </c>
       <c r="G21" s="3">
-        <v>224100</v>
+        <v>156400</v>
       </c>
       <c r="H21" s="3">
-        <v>236900</v>
+        <v>232200</v>
       </c>
       <c r="I21" s="3">
-        <v>224600</v>
+        <v>245200</v>
       </c>
       <c r="J21" s="3">
+        <v>232600</v>
+      </c>
+      <c r="K21" s="3">
         <v>357400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>391100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>624500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48600</v>
+        <v>34400</v>
       </c>
       <c r="E22" s="3">
-        <v>56200</v>
+        <v>50100</v>
       </c>
       <c r="F22" s="3">
-        <v>56400</v>
+        <v>57900</v>
       </c>
       <c r="G22" s="3">
-        <v>57200</v>
+        <v>58100</v>
       </c>
       <c r="H22" s="3">
-        <v>57800</v>
+        <v>58900</v>
       </c>
       <c r="I22" s="3">
-        <v>55800</v>
+        <v>59500</v>
       </c>
       <c r="J22" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K22" s="3">
         <v>51400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>79300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>57900</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>103900</v>
+        <v>-31300</v>
       </c>
       <c r="E23" s="3">
-        <v>30700</v>
+        <v>107100</v>
       </c>
       <c r="F23" s="3">
-        <v>-159500</v>
+        <v>31700</v>
       </c>
       <c r="G23" s="3">
-        <v>-118700</v>
+        <v>-164300</v>
       </c>
       <c r="H23" s="3">
-        <v>-61000</v>
+        <v>-122300</v>
       </c>
       <c r="I23" s="3">
-        <v>-91700</v>
+        <v>-62900</v>
       </c>
       <c r="J23" s="3">
+        <v>-94400</v>
+      </c>
+      <c r="K23" s="3">
         <v>88600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>149700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>354600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47000</v>
+        <v>10800</v>
       </c>
       <c r="E24" s="3">
-        <v>-97200</v>
+        <v>48400</v>
       </c>
       <c r="F24" s="3">
-        <v>7500</v>
+        <v>-100200</v>
       </c>
       <c r="G24" s="3">
-        <v>-72600</v>
+        <v>7700</v>
       </c>
       <c r="H24" s="3">
-        <v>-109800</v>
+        <v>-74800</v>
       </c>
       <c r="I24" s="3">
-        <v>-134900</v>
+        <v>-113100</v>
       </c>
       <c r="J24" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-90200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-37700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>56900</v>
+        <v>-42200</v>
       </c>
       <c r="E26" s="3">
-        <v>128000</v>
+        <v>58600</v>
       </c>
       <c r="F26" s="3">
-        <v>-167000</v>
+        <v>131800</v>
       </c>
       <c r="G26" s="3">
-        <v>-46100</v>
+        <v>-172000</v>
       </c>
       <c r="H26" s="3">
-        <v>48800</v>
+        <v>-47500</v>
       </c>
       <c r="I26" s="3">
-        <v>43200</v>
+        <v>50200</v>
       </c>
       <c r="J26" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K26" s="3">
         <v>178900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>187400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>345600</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57000</v>
+        <v>-42200</v>
       </c>
       <c r="E27" s="3">
-        <v>128000</v>
+        <v>58700</v>
       </c>
       <c r="F27" s="3">
-        <v>-167200</v>
+        <v>131900</v>
       </c>
       <c r="G27" s="3">
-        <v>-47400</v>
+        <v>-172200</v>
       </c>
       <c r="H27" s="3">
-        <v>50300</v>
+        <v>-48900</v>
       </c>
       <c r="I27" s="3">
-        <v>44600</v>
+        <v>51800</v>
       </c>
       <c r="J27" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K27" s="3">
         <v>179500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>188500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>346000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F29" s="3">
-        <v>9400</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
-        <v>98000</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>100900</v>
+      </c>
+      <c r="K29" s="3">
         <v>65700</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-40800</v>
+        <v>-35800</v>
       </c>
       <c r="E32" s="3">
-        <v>28500</v>
+        <v>-42000</v>
       </c>
       <c r="F32" s="3">
-        <v>4800</v>
+        <v>29400</v>
       </c>
       <c r="G32" s="3">
-        <v>-47600</v>
+        <v>5000</v>
       </c>
       <c r="H32" s="3">
-        <v>192300</v>
+        <v>-49100</v>
       </c>
       <c r="I32" s="3">
-        <v>65400</v>
+        <v>198100</v>
       </c>
       <c r="J32" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K32" s="3">
         <v>63700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-164800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57000</v>
+        <v>-42200</v>
       </c>
       <c r="E33" s="3">
-        <v>128000</v>
+        <v>58700</v>
       </c>
       <c r="F33" s="3">
-        <v>-157800</v>
+        <v>131900</v>
       </c>
       <c r="G33" s="3">
-        <v>-47400</v>
+        <v>-162500</v>
       </c>
       <c r="H33" s="3">
-        <v>50300</v>
+        <v>-48900</v>
       </c>
       <c r="I33" s="3">
-        <v>142600</v>
+        <v>51800</v>
       </c>
       <c r="J33" s="3">
+        <v>146900</v>
+      </c>
+      <c r="K33" s="3">
         <v>245200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>188500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>346000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57000</v>
+        <v>-42200</v>
       </c>
       <c r="E35" s="3">
-        <v>128000</v>
+        <v>58700</v>
       </c>
       <c r="F35" s="3">
-        <v>-157800</v>
+        <v>131900</v>
       </c>
       <c r="G35" s="3">
-        <v>-47400</v>
+        <v>-162500</v>
       </c>
       <c r="H35" s="3">
-        <v>50300</v>
+        <v>-48900</v>
       </c>
       <c r="I35" s="3">
-        <v>142600</v>
+        <v>51800</v>
       </c>
       <c r="J35" s="3">
+        <v>146900</v>
+      </c>
+      <c r="K35" s="3">
         <v>245200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>188500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>346000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,52 +1731,56 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>817900</v>
+        <v>728300</v>
       </c>
       <c r="E41" s="3">
-        <v>547700</v>
+        <v>842500</v>
       </c>
       <c r="F41" s="3">
-        <v>455400</v>
+        <v>564300</v>
       </c>
       <c r="G41" s="3">
-        <v>246600</v>
+        <v>469200</v>
       </c>
       <c r="H41" s="3">
-        <v>353000</v>
+        <v>254000</v>
       </c>
       <c r="I41" s="3">
-        <v>436200</v>
+        <v>363700</v>
       </c>
       <c r="J41" s="3">
+        <v>449300</v>
+      </c>
+      <c r="K41" s="3">
         <v>176400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>557800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>305800</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="E42" s="3">
-        <v>301000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>310100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>11</v>
@@ -1702,249 +1791,273 @@
       <c r="I42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="J42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>36900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>617800</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>260400</v>
+        <v>183900</v>
       </c>
       <c r="E43" s="3">
-        <v>325800</v>
+        <v>268300</v>
       </c>
       <c r="F43" s="3">
-        <v>342000</v>
+        <v>335600</v>
       </c>
       <c r="G43" s="3">
-        <v>203600</v>
+        <v>352400</v>
       </c>
       <c r="H43" s="3">
-        <v>199800</v>
+        <v>209800</v>
       </c>
       <c r="I43" s="3">
-        <v>360600</v>
+        <v>205800</v>
       </c>
       <c r="J43" s="3">
+        <v>371500</v>
+      </c>
+      <c r="K43" s="3">
         <v>337000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>359100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>542100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>246900</v>
+        <v>539500</v>
       </c>
       <c r="E44" s="3">
-        <v>360100</v>
+        <v>254400</v>
       </c>
       <c r="F44" s="3">
-        <v>731100</v>
+        <v>371000</v>
       </c>
       <c r="G44" s="3">
-        <v>991500</v>
+        <v>753200</v>
       </c>
       <c r="H44" s="3">
-        <v>989400</v>
+        <v>1021400</v>
       </c>
       <c r="I44" s="3">
-        <v>694600</v>
+        <v>1019200</v>
       </c>
       <c r="J44" s="3">
+        <v>715500</v>
+      </c>
+      <c r="K44" s="3">
         <v>703100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>838800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>379400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>65800</v>
+        <v>70900</v>
       </c>
       <c r="E45" s="3">
-        <v>68700</v>
+        <v>67800</v>
       </c>
       <c r="F45" s="3">
-        <v>115400</v>
+        <v>70700</v>
       </c>
       <c r="G45" s="3">
-        <v>130200</v>
+        <v>118900</v>
       </c>
       <c r="H45" s="3">
-        <v>139000</v>
+        <v>134100</v>
       </c>
       <c r="I45" s="3">
-        <v>100400</v>
+        <v>143200</v>
       </c>
       <c r="J45" s="3">
+        <v>103400</v>
+      </c>
+      <c r="K45" s="3">
         <v>136700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>139800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1391000</v>
+        <v>1542500</v>
       </c>
       <c r="E46" s="3">
-        <v>1603300</v>
+        <v>1433000</v>
       </c>
       <c r="F46" s="3">
-        <v>1644000</v>
+        <v>1651600</v>
       </c>
       <c r="G46" s="3">
-        <v>1571800</v>
+        <v>1693600</v>
       </c>
       <c r="H46" s="3">
-        <v>1681300</v>
+        <v>1619200</v>
       </c>
       <c r="I46" s="3">
-        <v>1591800</v>
+        <v>1731900</v>
       </c>
       <c r="J46" s="3">
+        <v>1639700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1353200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1421200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1984900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>679600</v>
+        <v>691300</v>
       </c>
       <c r="E47" s="3">
-        <v>756200</v>
+        <v>700100</v>
       </c>
       <c r="F47" s="3">
-        <v>400400</v>
+        <v>779000</v>
       </c>
       <c r="G47" s="3">
-        <v>386400</v>
+        <v>412400</v>
       </c>
       <c r="H47" s="3">
-        <v>339200</v>
+        <v>398000</v>
       </c>
       <c r="I47" s="3">
-        <v>325300</v>
+        <v>349400</v>
       </c>
       <c r="J47" s="3">
+        <v>335100</v>
+      </c>
+      <c r="K47" s="3">
         <v>595000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>515600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>386200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2864200</v>
+        <v>2990900</v>
       </c>
       <c r="E48" s="3">
-        <v>2988400</v>
+        <v>2950600</v>
       </c>
       <c r="F48" s="3">
-        <v>3227000</v>
+        <v>3078400</v>
       </c>
       <c r="G48" s="3">
-        <v>3584000</v>
+        <v>3324300</v>
       </c>
       <c r="H48" s="3">
-        <v>4024700</v>
+        <v>3692000</v>
       </c>
       <c r="I48" s="3">
-        <v>4073100</v>
+        <v>4146000</v>
       </c>
       <c r="J48" s="3">
+        <v>4195900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3880700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1377600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3341400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>46500</v>
+        <v>44300</v>
       </c>
       <c r="E49" s="3">
-        <v>50500</v>
+        <v>47900</v>
       </c>
       <c r="F49" s="3">
-        <v>53900</v>
+        <v>52000</v>
       </c>
       <c r="G49" s="3">
-        <v>156500</v>
+        <v>55500</v>
       </c>
       <c r="H49" s="3">
-        <v>167200</v>
+        <v>161200</v>
       </c>
       <c r="I49" s="3">
-        <v>154800</v>
+        <v>172200</v>
       </c>
       <c r="J49" s="3">
+        <v>159500</v>
+      </c>
+      <c r="K49" s="3">
         <v>149400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>139500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>76000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>736200</v>
+        <v>742800</v>
       </c>
       <c r="E52" s="3">
-        <v>774400</v>
+        <v>758400</v>
       </c>
       <c r="F52" s="3">
-        <v>662900</v>
+        <v>797800</v>
       </c>
       <c r="G52" s="3">
-        <v>651700</v>
+        <v>682900</v>
       </c>
       <c r="H52" s="3">
-        <v>558000</v>
+        <v>671400</v>
       </c>
       <c r="I52" s="3">
-        <v>377400</v>
+        <v>574800</v>
       </c>
       <c r="J52" s="3">
+        <v>388800</v>
+      </c>
+      <c r="K52" s="3">
         <v>210600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>161000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5717600</v>
+        <v>6011800</v>
       </c>
       <c r="E54" s="3">
-        <v>6172900</v>
+        <v>5890000</v>
       </c>
       <c r="F54" s="3">
-        <v>5988200</v>
+        <v>6358900</v>
       </c>
       <c r="G54" s="3">
-        <v>6350400</v>
+        <v>6168700</v>
       </c>
       <c r="H54" s="3">
-        <v>6770300</v>
+        <v>6541800</v>
       </c>
       <c r="I54" s="3">
-        <v>6522400</v>
+        <v>6974300</v>
       </c>
       <c r="J54" s="3">
+        <v>6719000</v>
+      </c>
+      <c r="K54" s="3">
         <v>6188800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5530300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5851100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,52 +2267,56 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>77300</v>
+        <v>108800</v>
       </c>
       <c r="E57" s="3">
-        <v>94900</v>
+        <v>79600</v>
       </c>
       <c r="F57" s="3">
-        <v>136300</v>
+        <v>97700</v>
       </c>
       <c r="G57" s="3">
-        <v>164300</v>
+        <v>140400</v>
       </c>
       <c r="H57" s="3">
-        <v>153300</v>
+        <v>169300</v>
       </c>
       <c r="I57" s="3">
-        <v>141000</v>
+        <v>157900</v>
       </c>
       <c r="J57" s="3">
+        <v>145200</v>
+      </c>
+      <c r="K57" s="3">
         <v>266700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>444000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>238900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E58" s="3">
-        <v>384600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>396200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
@@ -2191,153 +2324,168 @@
       <c r="H58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>70400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>62100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>86600</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>136300</v>
+        <v>132100</v>
       </c>
       <c r="E59" s="3">
-        <v>194800</v>
+        <v>140400</v>
       </c>
       <c r="F59" s="3">
-        <v>180100</v>
+        <v>200700</v>
       </c>
       <c r="G59" s="3">
-        <v>196900</v>
+        <v>185500</v>
       </c>
       <c r="H59" s="3">
-        <v>363800</v>
+        <v>202800</v>
       </c>
       <c r="I59" s="3">
-        <v>256100</v>
+        <v>374700</v>
       </c>
       <c r="J59" s="3">
+        <v>263800</v>
+      </c>
+      <c r="K59" s="3">
         <v>205300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>191000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>221800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>213600</v>
+        <v>240900</v>
       </c>
       <c r="E60" s="3">
-        <v>674300</v>
+        <v>220000</v>
       </c>
       <c r="F60" s="3">
-        <v>316400</v>
+        <v>694600</v>
       </c>
       <c r="G60" s="3">
-        <v>361200</v>
+        <v>325900</v>
       </c>
       <c r="H60" s="3">
-        <v>517000</v>
+        <v>372100</v>
       </c>
       <c r="I60" s="3">
-        <v>397100</v>
+        <v>532600</v>
       </c>
       <c r="J60" s="3">
+        <v>409100</v>
+      </c>
+      <c r="K60" s="3">
         <v>542400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>418800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>547200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>777200</v>
+        <v>795800</v>
       </c>
       <c r="E61" s="3">
-        <v>766800</v>
+        <v>800600</v>
       </c>
       <c r="F61" s="3">
-        <v>1150500</v>
+        <v>789900</v>
       </c>
       <c r="G61" s="3">
-        <v>1149600</v>
+        <v>1185100</v>
       </c>
       <c r="H61" s="3">
-        <v>1148800</v>
+        <v>1184200</v>
       </c>
       <c r="I61" s="3">
-        <v>1148000</v>
+        <v>1183400</v>
       </c>
       <c r="J61" s="3">
+        <v>1182500</v>
+      </c>
+      <c r="K61" s="3">
         <v>995700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>961800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>711500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>881700</v>
+        <v>1042800</v>
       </c>
       <c r="E62" s="3">
-        <v>887700</v>
+        <v>908200</v>
       </c>
       <c r="F62" s="3">
-        <v>780300</v>
+        <v>914400</v>
       </c>
       <c r="G62" s="3">
-        <v>791400</v>
+        <v>803800</v>
       </c>
       <c r="H62" s="3">
-        <v>835600</v>
+        <v>815300</v>
       </c>
       <c r="I62" s="3">
-        <v>786600</v>
+        <v>860800</v>
       </c>
       <c r="J62" s="3">
+        <v>810300</v>
+      </c>
+      <c r="K62" s="3">
         <v>532700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>917900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>810300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1872600</v>
+        <v>2079700</v>
       </c>
       <c r="E66" s="3">
-        <v>2329000</v>
+        <v>1929000</v>
       </c>
       <c r="F66" s="3">
-        <v>2247400</v>
+        <v>2399200</v>
       </c>
       <c r="G66" s="3">
-        <v>2302400</v>
+        <v>2315200</v>
       </c>
       <c r="H66" s="3">
-        <v>2500100</v>
+        <v>2371800</v>
       </c>
       <c r="I66" s="3">
-        <v>2331800</v>
+        <v>2575400</v>
       </c>
       <c r="J66" s="3">
+        <v>2402100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2071600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1852800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2071700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2175200</v>
+        <v>2169600</v>
       </c>
       <c r="E72" s="3">
-        <v>2148800</v>
+        <v>2240800</v>
       </c>
       <c r="F72" s="3">
-        <v>2040300</v>
+        <v>2213600</v>
       </c>
       <c r="G72" s="3">
-        <v>2324800</v>
+        <v>2101800</v>
       </c>
       <c r="H72" s="3">
-        <v>2495700</v>
+        <v>2394800</v>
       </c>
       <c r="I72" s="3">
-        <v>2565900</v>
+        <v>2570900</v>
       </c>
       <c r="J72" s="3">
+        <v>2643200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2551200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2168000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2208600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3845000</v>
+        <v>3932100</v>
       </c>
       <c r="E76" s="3">
-        <v>3843900</v>
+        <v>3960900</v>
       </c>
       <c r="F76" s="3">
-        <v>3740800</v>
+        <v>3959800</v>
       </c>
       <c r="G76" s="3">
-        <v>4048000</v>
+        <v>3853500</v>
       </c>
       <c r="H76" s="3">
-        <v>4270200</v>
+        <v>4170000</v>
       </c>
       <c r="I76" s="3">
-        <v>4190600</v>
+        <v>4398900</v>
       </c>
       <c r="J76" s="3">
+        <v>4316900</v>
+      </c>
+      <c r="K76" s="3">
         <v>4117200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3677400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3779400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57000</v>
+        <v>-42200</v>
       </c>
       <c r="E81" s="3">
-        <v>128000</v>
+        <v>58700</v>
       </c>
       <c r="F81" s="3">
-        <v>-157800</v>
+        <v>131900</v>
       </c>
       <c r="G81" s="3">
-        <v>-47400</v>
+        <v>-162500</v>
       </c>
       <c r="H81" s="3">
-        <v>50300</v>
+        <v>-48900</v>
       </c>
       <c r="I81" s="3">
-        <v>142600</v>
+        <v>51800</v>
       </c>
       <c r="J81" s="3">
+        <v>146900</v>
+      </c>
+      <c r="K81" s="3">
         <v>245200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>188500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>346000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>212300</v>
+        <v>165500</v>
       </c>
       <c r="E83" s="3">
-        <v>252500</v>
+        <v>218700</v>
       </c>
       <c r="F83" s="3">
-        <v>254300</v>
+        <v>260100</v>
       </c>
       <c r="G83" s="3">
-        <v>286100</v>
+        <v>262000</v>
       </c>
       <c r="H83" s="3">
-        <v>240600</v>
+        <v>294800</v>
       </c>
       <c r="I83" s="3">
-        <v>261000</v>
+        <v>247800</v>
       </c>
       <c r="J83" s="3">
+        <v>268800</v>
+      </c>
+      <c r="K83" s="3">
         <v>217700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>161800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>211000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>405700</v>
+        <v>45100</v>
       </c>
       <c r="E89" s="3">
-        <v>513900</v>
+        <v>417900</v>
       </c>
       <c r="F89" s="3">
-        <v>458900</v>
+        <v>529400</v>
       </c>
       <c r="G89" s="3">
-        <v>240500</v>
+        <v>472700</v>
       </c>
       <c r="H89" s="3">
-        <v>346400</v>
+        <v>247700</v>
       </c>
       <c r="I89" s="3">
-        <v>369700</v>
+        <v>356900</v>
       </c>
       <c r="J89" s="3">
+        <v>380800</v>
+      </c>
+      <c r="K89" s="3">
         <v>407900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>431200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>572200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-57900</v>
+        <v>-61400</v>
       </c>
       <c r="E91" s="3">
-        <v>-42600</v>
+        <v>-59600</v>
       </c>
       <c r="F91" s="3">
-        <v>-87800</v>
+        <v>-43900</v>
       </c>
       <c r="G91" s="3">
-        <v>-167000</v>
+        <v>-90400</v>
       </c>
       <c r="H91" s="3">
-        <v>-276000</v>
+        <v>-172000</v>
       </c>
       <c r="I91" s="3">
-        <v>-369600</v>
+        <v>-284300</v>
       </c>
       <c r="J91" s="3">
+        <v>-380700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-497000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-499800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-497200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>336700</v>
+        <v>-80100</v>
       </c>
       <c r="E94" s="3">
-        <v>-316900</v>
+        <v>346900</v>
       </c>
       <c r="F94" s="3">
-        <v>-71600</v>
+        <v>-326400</v>
       </c>
       <c r="G94" s="3">
-        <v>-167700</v>
+        <v>-73800</v>
       </c>
       <c r="H94" s="3">
-        <v>-262400</v>
+        <v>-172700</v>
       </c>
       <c r="I94" s="3">
-        <v>-16000</v>
+        <v>-270300</v>
       </c>
       <c r="J94" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-657700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-384300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-405600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-24300</v>
+        <v>-25100</v>
       </c>
       <c r="E96" s="3">
-        <v>-54800</v>
+        <v>-25100</v>
       </c>
       <c r="F96" s="3">
-        <v>-121900</v>
+        <v>-56500</v>
       </c>
       <c r="G96" s="3">
-        <v>-121900</v>
+        <v>-125500</v>
       </c>
       <c r="H96" s="3">
-        <v>-121900</v>
+        <v>-125500</v>
       </c>
       <c r="I96" s="3">
+        <v>-125500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-125500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-121800</v>
       </c>
-      <c r="J96" s="3">
-        <v>-121800</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-117600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-112200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-467200</v>
+        <v>-77700</v>
       </c>
       <c r="E100" s="3">
-        <v>-111000</v>
+        <v>-481300</v>
       </c>
       <c r="F100" s="3">
-        <v>-175400</v>
+        <v>-114400</v>
       </c>
       <c r="G100" s="3">
-        <v>-176100</v>
+        <v>-180600</v>
       </c>
       <c r="H100" s="3">
-        <v>-175400</v>
+        <v>-181400</v>
       </c>
       <c r="I100" s="3">
-        <v>-64600</v>
+        <v>-180700</v>
       </c>
       <c r="J100" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-184800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>216900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-155000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5100</v>
+        <v>-1500</v>
       </c>
       <c r="E101" s="3">
-        <v>6300</v>
+        <v>-5200</v>
       </c>
       <c r="F101" s="3">
-        <v>-3000</v>
+        <v>6500</v>
       </c>
       <c r="G101" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="H101" s="3">
-        <v>8200</v>
+        <v>-3300</v>
       </c>
       <c r="I101" s="3">
-        <v>2400</v>
+        <v>8400</v>
       </c>
       <c r="J101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>270100</v>
+        <v>-114200</v>
       </c>
       <c r="E102" s="3">
-        <v>92300</v>
+        <v>278300</v>
       </c>
       <c r="F102" s="3">
-        <v>208900</v>
+        <v>95100</v>
       </c>
       <c r="G102" s="3">
-        <v>-106500</v>
+        <v>215200</v>
       </c>
       <c r="H102" s="3">
-        <v>-83100</v>
+        <v>-109700</v>
       </c>
       <c r="I102" s="3">
-        <v>291500</v>
+        <v>-85600</v>
       </c>
       <c r="J102" s="3">
+        <v>300300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-432300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>263400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>CCJ</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1427500</v>
+        <v>1492400</v>
       </c>
       <c r="E8" s="3">
-        <v>1477300</v>
+        <v>1544500</v>
       </c>
       <c r="F8" s="3">
-        <v>1658700</v>
+        <v>1734100</v>
       </c>
       <c r="G8" s="3">
-        <v>1710400</v>
+        <v>1788100</v>
       </c>
       <c r="H8" s="3">
-        <v>1928200</v>
+        <v>2015800</v>
       </c>
       <c r="I8" s="3">
-        <v>2184300</v>
+        <v>2283500</v>
       </c>
       <c r="J8" s="3">
-        <v>1901300</v>
+        <v>1987700</v>
       </c>
       <c r="K8" s="3">
         <v>1877400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1343100</v>
+        <v>1404100</v>
       </c>
       <c r="E9" s="3">
-        <v>1285700</v>
+        <v>1344100</v>
       </c>
       <c r="F9" s="3">
-        <v>1424200</v>
+        <v>1488900</v>
       </c>
       <c r="G9" s="3">
-        <v>1364500</v>
+        <v>1426400</v>
       </c>
       <c r="H9" s="3">
-        <v>1560600</v>
+        <v>1631500</v>
       </c>
       <c r="I9" s="3">
-        <v>1631500</v>
+        <v>1705600</v>
       </c>
       <c r="J9" s="3">
-        <v>1395500</v>
+        <v>1458900</v>
       </c>
       <c r="K9" s="3">
         <v>1410300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>84400</v>
+        <v>88300</v>
       </c>
       <c r="E10" s="3">
-        <v>191600</v>
+        <v>200300</v>
       </c>
       <c r="F10" s="3">
-        <v>234500</v>
+        <v>245200</v>
       </c>
       <c r="G10" s="3">
-        <v>346000</v>
+        <v>361700</v>
       </c>
       <c r="H10" s="3">
-        <v>367500</v>
+        <v>384200</v>
       </c>
       <c r="I10" s="3">
-        <v>552800</v>
+        <v>577900</v>
       </c>
       <c r="J10" s="3">
-        <v>505800</v>
+        <v>528800</v>
       </c>
       <c r="K10" s="3">
         <v>467100</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="E12" s="3">
-        <v>15700</v>
+        <v>16400</v>
       </c>
       <c r="F12" s="3">
-        <v>17500</v>
+        <v>18300</v>
       </c>
       <c r="G12" s="3">
-        <v>28200</v>
+        <v>29500</v>
       </c>
       <c r="H12" s="3">
-        <v>37700</v>
+        <v>39400</v>
       </c>
       <c r="I12" s="3">
-        <v>37100</v>
+        <v>38800</v>
       </c>
       <c r="J12" s="3">
-        <v>40900</v>
+        <v>42800</v>
       </c>
       <c r="K12" s="3">
         <v>61700</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-29600</v>
+        <v>-31000</v>
       </c>
       <c r="E14" s="3">
-        <v>-41900</v>
+        <v>-43800</v>
       </c>
       <c r="F14" s="3">
-        <v>-63300</v>
+        <v>-66200</v>
       </c>
       <c r="G14" s="3">
-        <v>284200</v>
+        <v>297100</v>
       </c>
       <c r="H14" s="3">
-        <v>287100</v>
+        <v>300100</v>
       </c>
       <c r="I14" s="3">
-        <v>170900</v>
+        <v>178700</v>
       </c>
       <c r="J14" s="3">
-        <v>259100</v>
+        <v>270800</v>
       </c>
       <c r="K14" s="3">
         <v>54000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1460300</v>
+        <v>1526700</v>
       </c>
       <c r="E17" s="3">
-        <v>1362200</v>
+        <v>1424100</v>
       </c>
       <c r="F17" s="3">
-        <v>1539700</v>
+        <v>1609700</v>
       </c>
       <c r="G17" s="3">
-        <v>1811700</v>
+        <v>1894000</v>
       </c>
       <c r="H17" s="3">
-        <v>2040600</v>
+        <v>2133300</v>
       </c>
       <c r="I17" s="3">
-        <v>1989500</v>
+        <v>2079900</v>
       </c>
       <c r="J17" s="3">
-        <v>1870900</v>
+        <v>1955900</v>
       </c>
       <c r="K17" s="3">
         <v>1673600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-32800</v>
+        <v>-34300</v>
       </c>
       <c r="E18" s="3">
-        <v>115200</v>
+        <v>120400</v>
       </c>
       <c r="F18" s="3">
-        <v>119000</v>
+        <v>124400</v>
       </c>
       <c r="G18" s="3">
-        <v>-101300</v>
+        <v>-105900</v>
       </c>
       <c r="H18" s="3">
-        <v>-112400</v>
+        <v>-117500</v>
       </c>
       <c r="I18" s="3">
-        <v>194700</v>
+        <v>203600</v>
       </c>
       <c r="J18" s="3">
-        <v>30400</v>
+        <v>31800</v>
       </c>
       <c r="K18" s="3">
         <v>203800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>35800</v>
+        <v>37500</v>
       </c>
       <c r="E20" s="3">
-        <v>42000</v>
+        <v>43900</v>
       </c>
       <c r="F20" s="3">
-        <v>-29400</v>
+        <v>-30700</v>
       </c>
       <c r="G20" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="H20" s="3">
-        <v>49100</v>
+        <v>51300</v>
       </c>
       <c r="I20" s="3">
-        <v>-198100</v>
+        <v>-207100</v>
       </c>
       <c r="J20" s="3">
-        <v>-67300</v>
+        <v>-70400</v>
       </c>
       <c r="K20" s="3">
         <v>-63700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>169000</v>
+        <v>176500</v>
       </c>
       <c r="E21" s="3">
-        <v>376400</v>
+        <v>393300</v>
       </c>
       <c r="F21" s="3">
-        <v>350400</v>
+        <v>366100</v>
       </c>
       <c r="G21" s="3">
-        <v>156400</v>
+        <v>163300</v>
       </c>
       <c r="H21" s="3">
-        <v>232200</v>
+        <v>242500</v>
       </c>
       <c r="I21" s="3">
-        <v>245200</v>
+        <v>256100</v>
       </c>
       <c r="J21" s="3">
-        <v>232600</v>
+        <v>243000</v>
       </c>
       <c r="K21" s="3">
         <v>357400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34400</v>
+        <v>35900</v>
       </c>
       <c r="E22" s="3">
-        <v>50100</v>
+        <v>52300</v>
       </c>
       <c r="F22" s="3">
-        <v>57900</v>
+        <v>60600</v>
       </c>
       <c r="G22" s="3">
-        <v>58100</v>
+        <v>60700</v>
       </c>
       <c r="H22" s="3">
-        <v>58900</v>
+        <v>61600</v>
       </c>
       <c r="I22" s="3">
-        <v>59500</v>
+        <v>62300</v>
       </c>
       <c r="J22" s="3">
-        <v>57500</v>
+        <v>60100</v>
       </c>
       <c r="K22" s="3">
         <v>51400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-31300</v>
+        <v>-32800</v>
       </c>
       <c r="E23" s="3">
-        <v>107100</v>
+        <v>111900</v>
       </c>
       <c r="F23" s="3">
-        <v>31700</v>
+        <v>33100</v>
       </c>
       <c r="G23" s="3">
-        <v>-164300</v>
+        <v>-171800</v>
       </c>
       <c r="H23" s="3">
-        <v>-122300</v>
+        <v>-127900</v>
       </c>
       <c r="I23" s="3">
-        <v>-62900</v>
+        <v>-65700</v>
       </c>
       <c r="J23" s="3">
-        <v>-94400</v>
+        <v>-98700</v>
       </c>
       <c r="K23" s="3">
         <v>88600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10800</v>
+        <v>11300</v>
       </c>
       <c r="E24" s="3">
-        <v>48400</v>
+        <v>50600</v>
       </c>
       <c r="F24" s="3">
-        <v>-100200</v>
+        <v>-104700</v>
       </c>
       <c r="G24" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="H24" s="3">
-        <v>-74800</v>
+        <v>-78200</v>
       </c>
       <c r="I24" s="3">
-        <v>-113100</v>
+        <v>-118200</v>
       </c>
       <c r="J24" s="3">
-        <v>-139000</v>
+        <v>-145300</v>
       </c>
       <c r="K24" s="3">
         <v>-90200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42200</v>
+        <v>-44100</v>
       </c>
       <c r="E26" s="3">
-        <v>58600</v>
+        <v>61300</v>
       </c>
       <c r="F26" s="3">
-        <v>131800</v>
+        <v>137800</v>
       </c>
       <c r="G26" s="3">
-        <v>-172000</v>
+        <v>-179800</v>
       </c>
       <c r="H26" s="3">
-        <v>-47500</v>
+        <v>-49600</v>
       </c>
       <c r="I26" s="3">
-        <v>50200</v>
+        <v>52500</v>
       </c>
       <c r="J26" s="3">
-        <v>44500</v>
+        <v>46600</v>
       </c>
       <c r="K26" s="3">
         <v>178900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-42200</v>
+        <v>-44100</v>
       </c>
       <c r="E27" s="3">
-        <v>58700</v>
+        <v>61300</v>
       </c>
       <c r="F27" s="3">
-        <v>131900</v>
+        <v>137900</v>
       </c>
       <c r="G27" s="3">
-        <v>-172200</v>
+        <v>-180000</v>
       </c>
       <c r="H27" s="3">
-        <v>-48900</v>
+        <v>-51100</v>
       </c>
       <c r="I27" s="3">
-        <v>51800</v>
+        <v>54100</v>
       </c>
       <c r="J27" s="3">
-        <v>46000</v>
+        <v>48100</v>
       </c>
       <c r="K27" s="3">
         <v>179500</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>11</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>100900</v>
+        <v>105500</v>
       </c>
       <c r="K29" s="3">
         <v>65700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-35800</v>
+        <v>-37500</v>
       </c>
       <c r="E32" s="3">
-        <v>-42000</v>
+        <v>-43900</v>
       </c>
       <c r="F32" s="3">
-        <v>29400</v>
+        <v>30700</v>
       </c>
       <c r="G32" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="H32" s="3">
-        <v>-49100</v>
+        <v>-51300</v>
       </c>
       <c r="I32" s="3">
-        <v>198100</v>
+        <v>207100</v>
       </c>
       <c r="J32" s="3">
-        <v>67300</v>
+        <v>70400</v>
       </c>
       <c r="K32" s="3">
         <v>63700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-42200</v>
+        <v>-44100</v>
       </c>
       <c r="E33" s="3">
-        <v>58700</v>
+        <v>61300</v>
       </c>
       <c r="F33" s="3">
-        <v>131900</v>
+        <v>137900</v>
       </c>
       <c r="G33" s="3">
-        <v>-162500</v>
+        <v>-169900</v>
       </c>
       <c r="H33" s="3">
-        <v>-48900</v>
+        <v>-51100</v>
       </c>
       <c r="I33" s="3">
-        <v>51800</v>
+        <v>54100</v>
       </c>
       <c r="J33" s="3">
-        <v>146900</v>
+        <v>153600</v>
       </c>
       <c r="K33" s="3">
         <v>245200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-42200</v>
+        <v>-44100</v>
       </c>
       <c r="E35" s="3">
-        <v>58700</v>
+        <v>61300</v>
       </c>
       <c r="F35" s="3">
-        <v>131900</v>
+        <v>137900</v>
       </c>
       <c r="G35" s="3">
-        <v>-162500</v>
+        <v>-169900</v>
       </c>
       <c r="H35" s="3">
-        <v>-48900</v>
+        <v>-51100</v>
       </c>
       <c r="I35" s="3">
-        <v>51800</v>
+        <v>54100</v>
       </c>
       <c r="J35" s="3">
-        <v>146900</v>
+        <v>153600</v>
       </c>
       <c r="K35" s="3">
         <v>245200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>728300</v>
+        <v>761400</v>
       </c>
       <c r="E41" s="3">
-        <v>842500</v>
+        <v>880800</v>
       </c>
       <c r="F41" s="3">
-        <v>564300</v>
+        <v>589900</v>
       </c>
       <c r="G41" s="3">
-        <v>469200</v>
+        <v>490500</v>
       </c>
       <c r="H41" s="3">
-        <v>254000</v>
+        <v>265500</v>
       </c>
       <c r="I41" s="3">
-        <v>363700</v>
+        <v>380200</v>
       </c>
       <c r="J41" s="3">
-        <v>449300</v>
+        <v>469700</v>
       </c>
       <c r="K41" s="3">
         <v>176400</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19800</v>
+        <v>20700</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>310100</v>
+        <v>324200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>11</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>183900</v>
+        <v>192200</v>
       </c>
       <c r="E43" s="3">
-        <v>268300</v>
+        <v>280400</v>
       </c>
       <c r="F43" s="3">
-        <v>335600</v>
+        <v>350800</v>
       </c>
       <c r="G43" s="3">
-        <v>352400</v>
+        <v>368400</v>
       </c>
       <c r="H43" s="3">
-        <v>209800</v>
+        <v>219300</v>
       </c>
       <c r="I43" s="3">
-        <v>205800</v>
+        <v>215200</v>
       </c>
       <c r="J43" s="3">
-        <v>371500</v>
+        <v>388400</v>
       </c>
       <c r="K43" s="3">
         <v>337000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>539500</v>
+        <v>564100</v>
       </c>
       <c r="E44" s="3">
-        <v>254400</v>
+        <v>265900</v>
       </c>
       <c r="F44" s="3">
-        <v>371000</v>
+        <v>387800</v>
       </c>
       <c r="G44" s="3">
-        <v>753200</v>
+        <v>787400</v>
       </c>
       <c r="H44" s="3">
-        <v>1021400</v>
+        <v>1067800</v>
       </c>
       <c r="I44" s="3">
-        <v>1019200</v>
+        <v>1065500</v>
       </c>
       <c r="J44" s="3">
-        <v>715500</v>
+        <v>748000</v>
       </c>
       <c r="K44" s="3">
         <v>703100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E45" s="3">
         <v>70900</v>
       </c>
-      <c r="E45" s="3">
-        <v>67800</v>
-      </c>
       <c r="F45" s="3">
-        <v>70700</v>
+        <v>74000</v>
       </c>
       <c r="G45" s="3">
-        <v>118900</v>
+        <v>124300</v>
       </c>
       <c r="H45" s="3">
-        <v>134100</v>
+        <v>140200</v>
       </c>
       <c r="I45" s="3">
-        <v>143200</v>
+        <v>149700</v>
       </c>
       <c r="J45" s="3">
-        <v>103400</v>
+        <v>108100</v>
       </c>
       <c r="K45" s="3">
         <v>136700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1542500</v>
+        <v>1612500</v>
       </c>
       <c r="E46" s="3">
-        <v>1433000</v>
+        <v>1498100</v>
       </c>
       <c r="F46" s="3">
-        <v>1651600</v>
+        <v>1726700</v>
       </c>
       <c r="G46" s="3">
-        <v>1693600</v>
+        <v>1770500</v>
       </c>
       <c r="H46" s="3">
-        <v>1619200</v>
+        <v>1692800</v>
       </c>
       <c r="I46" s="3">
-        <v>1731900</v>
+        <v>1810600</v>
       </c>
       <c r="J46" s="3">
-        <v>1639700</v>
+        <v>1714200</v>
       </c>
       <c r="K46" s="3">
         <v>1353200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>691300</v>
+        <v>722700</v>
       </c>
       <c r="E47" s="3">
-        <v>700100</v>
+        <v>731900</v>
       </c>
       <c r="F47" s="3">
-        <v>779000</v>
+        <v>814400</v>
       </c>
       <c r="G47" s="3">
-        <v>412400</v>
+        <v>431200</v>
       </c>
       <c r="H47" s="3">
-        <v>398000</v>
+        <v>416100</v>
       </c>
       <c r="I47" s="3">
-        <v>349400</v>
+        <v>365300</v>
       </c>
       <c r="J47" s="3">
-        <v>335100</v>
+        <v>350400</v>
       </c>
       <c r="K47" s="3">
         <v>595000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2990900</v>
+        <v>3126800</v>
       </c>
       <c r="E48" s="3">
-        <v>2950600</v>
+        <v>3084600</v>
       </c>
       <c r="F48" s="3">
-        <v>3078400</v>
+        <v>3218300</v>
       </c>
       <c r="G48" s="3">
-        <v>3324300</v>
+        <v>3475300</v>
       </c>
       <c r="H48" s="3">
-        <v>3692000</v>
+        <v>3859700</v>
       </c>
       <c r="I48" s="3">
-        <v>4146000</v>
+        <v>4334400</v>
       </c>
       <c r="J48" s="3">
-        <v>4195900</v>
+        <v>4386500</v>
       </c>
       <c r="K48" s="3">
         <v>3880700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44300</v>
+        <v>46300</v>
       </c>
       <c r="E49" s="3">
-        <v>47900</v>
+        <v>50100</v>
       </c>
       <c r="F49" s="3">
-        <v>52000</v>
+        <v>54400</v>
       </c>
       <c r="G49" s="3">
-        <v>55500</v>
+        <v>58000</v>
       </c>
       <c r="H49" s="3">
-        <v>161200</v>
+        <v>168600</v>
       </c>
       <c r="I49" s="3">
-        <v>172200</v>
+        <v>180000</v>
       </c>
       <c r="J49" s="3">
-        <v>159500</v>
+        <v>166700</v>
       </c>
       <c r="K49" s="3">
         <v>149400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>742800</v>
+        <v>776600</v>
       </c>
       <c r="E52" s="3">
-        <v>758400</v>
+        <v>792900</v>
       </c>
       <c r="F52" s="3">
-        <v>797800</v>
+        <v>834000</v>
       </c>
       <c r="G52" s="3">
-        <v>682900</v>
+        <v>714000</v>
       </c>
       <c r="H52" s="3">
-        <v>671400</v>
+        <v>701900</v>
       </c>
       <c r="I52" s="3">
-        <v>574800</v>
+        <v>600900</v>
       </c>
       <c r="J52" s="3">
-        <v>388800</v>
+        <v>406400</v>
       </c>
       <c r="K52" s="3">
         <v>210600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6011800</v>
+        <v>6284900</v>
       </c>
       <c r="E54" s="3">
-        <v>5890000</v>
+        <v>6157600</v>
       </c>
       <c r="F54" s="3">
-        <v>6358900</v>
+        <v>6647900</v>
       </c>
       <c r="G54" s="3">
-        <v>6168700</v>
+        <v>6449000</v>
       </c>
       <c r="H54" s="3">
-        <v>6541800</v>
+        <v>6839000</v>
       </c>
       <c r="I54" s="3">
-        <v>6974300</v>
+        <v>7291200</v>
       </c>
       <c r="J54" s="3">
-        <v>6719000</v>
+        <v>7024300</v>
       </c>
       <c r="K54" s="3">
         <v>6188800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>108800</v>
+        <v>113700</v>
       </c>
       <c r="E57" s="3">
-        <v>79600</v>
+        <v>83200</v>
       </c>
       <c r="F57" s="3">
-        <v>97700</v>
+        <v>102200</v>
       </c>
       <c r="G57" s="3">
-        <v>140400</v>
+        <v>146800</v>
       </c>
       <c r="H57" s="3">
-        <v>169300</v>
+        <v>177000</v>
       </c>
       <c r="I57" s="3">
-        <v>157900</v>
+        <v>165100</v>
       </c>
       <c r="J57" s="3">
-        <v>145200</v>
+        <v>151800</v>
       </c>
       <c r="K57" s="3">
         <v>266700</v>
@@ -2309,14 +2309,14 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>396200</v>
+        <v>414200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>132100</v>
+        <v>138100</v>
       </c>
       <c r="E59" s="3">
-        <v>140400</v>
+        <v>146700</v>
       </c>
       <c r="F59" s="3">
-        <v>200700</v>
+        <v>209800</v>
       </c>
       <c r="G59" s="3">
-        <v>185500</v>
+        <v>194000</v>
       </c>
       <c r="H59" s="3">
-        <v>202800</v>
+        <v>212000</v>
       </c>
       <c r="I59" s="3">
-        <v>374700</v>
+        <v>391800</v>
       </c>
       <c r="J59" s="3">
-        <v>263800</v>
+        <v>275800</v>
       </c>
       <c r="K59" s="3">
         <v>205300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>240900</v>
+        <v>251900</v>
       </c>
       <c r="E60" s="3">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="F60" s="3">
-        <v>694600</v>
+        <v>726100</v>
       </c>
       <c r="G60" s="3">
-        <v>325900</v>
+        <v>340700</v>
       </c>
       <c r="H60" s="3">
-        <v>372100</v>
+        <v>389000</v>
       </c>
       <c r="I60" s="3">
-        <v>532600</v>
+        <v>556800</v>
       </c>
       <c r="J60" s="3">
-        <v>409100</v>
+        <v>427600</v>
       </c>
       <c r="K60" s="3">
         <v>542400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>795800</v>
+        <v>831900</v>
       </c>
       <c r="E61" s="3">
-        <v>800600</v>
+        <v>837000</v>
       </c>
       <c r="F61" s="3">
-        <v>789900</v>
+        <v>825800</v>
       </c>
       <c r="G61" s="3">
-        <v>1185100</v>
+        <v>1239000</v>
       </c>
       <c r="H61" s="3">
-        <v>1184200</v>
+        <v>1238000</v>
       </c>
       <c r="I61" s="3">
-        <v>1183400</v>
+        <v>1237100</v>
       </c>
       <c r="J61" s="3">
-        <v>1182500</v>
+        <v>1236300</v>
       </c>
       <c r="K61" s="3">
         <v>995700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1042800</v>
+        <v>1090200</v>
       </c>
       <c r="E62" s="3">
-        <v>908200</v>
+        <v>949500</v>
       </c>
       <c r="F62" s="3">
-        <v>914400</v>
+        <v>956000</v>
       </c>
       <c r="G62" s="3">
-        <v>803800</v>
+        <v>840300</v>
       </c>
       <c r="H62" s="3">
-        <v>815300</v>
+        <v>852300</v>
       </c>
       <c r="I62" s="3">
-        <v>860800</v>
+        <v>899900</v>
       </c>
       <c r="J62" s="3">
-        <v>810300</v>
+        <v>847200</v>
       </c>
       <c r="K62" s="3">
         <v>532700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2079700</v>
+        <v>2174200</v>
       </c>
       <c r="E66" s="3">
-        <v>1929000</v>
+        <v>2016700</v>
       </c>
       <c r="F66" s="3">
-        <v>2399200</v>
+        <v>2508200</v>
       </c>
       <c r="G66" s="3">
-        <v>2315200</v>
+        <v>2420400</v>
       </c>
       <c r="H66" s="3">
-        <v>2371800</v>
+        <v>2479500</v>
       </c>
       <c r="I66" s="3">
-        <v>2575400</v>
+        <v>2692400</v>
       </c>
       <c r="J66" s="3">
-        <v>2402100</v>
+        <v>2511200</v>
       </c>
       <c r="K66" s="3">
         <v>2071600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2169600</v>
+        <v>2268100</v>
       </c>
       <c r="E72" s="3">
-        <v>2240800</v>
+        <v>2342600</v>
       </c>
       <c r="F72" s="3">
-        <v>2213600</v>
+        <v>2314100</v>
       </c>
       <c r="G72" s="3">
-        <v>2101800</v>
+        <v>2197300</v>
       </c>
       <c r="H72" s="3">
-        <v>2394800</v>
+        <v>2503600</v>
       </c>
       <c r="I72" s="3">
-        <v>2570900</v>
+        <v>2687700</v>
       </c>
       <c r="J72" s="3">
-        <v>2643200</v>
+        <v>2763300</v>
       </c>
       <c r="K72" s="3">
         <v>2551200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3932100</v>
+        <v>4110700</v>
       </c>
       <c r="E76" s="3">
-        <v>3960900</v>
+        <v>4140900</v>
       </c>
       <c r="F76" s="3">
-        <v>3959800</v>
+        <v>4139700</v>
       </c>
       <c r="G76" s="3">
-        <v>3853500</v>
+        <v>4028600</v>
       </c>
       <c r="H76" s="3">
-        <v>4170000</v>
+        <v>4359500</v>
       </c>
       <c r="I76" s="3">
-        <v>4398900</v>
+        <v>4598800</v>
       </c>
       <c r="J76" s="3">
-        <v>4316900</v>
+        <v>4513100</v>
       </c>
       <c r="K76" s="3">
         <v>4117200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-42200</v>
+        <v>-44100</v>
       </c>
       <c r="E81" s="3">
-        <v>58700</v>
+        <v>61300</v>
       </c>
       <c r="F81" s="3">
-        <v>131900</v>
+        <v>137900</v>
       </c>
       <c r="G81" s="3">
-        <v>-162500</v>
+        <v>-169900</v>
       </c>
       <c r="H81" s="3">
-        <v>-48900</v>
+        <v>-51100</v>
       </c>
       <c r="I81" s="3">
-        <v>51800</v>
+        <v>54100</v>
       </c>
       <c r="J81" s="3">
-        <v>146900</v>
+        <v>153600</v>
       </c>
       <c r="K81" s="3">
         <v>245200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>165500</v>
+        <v>173000</v>
       </c>
       <c r="E83" s="3">
-        <v>218700</v>
+        <v>228600</v>
       </c>
       <c r="F83" s="3">
-        <v>260100</v>
+        <v>271900</v>
       </c>
       <c r="G83" s="3">
-        <v>262000</v>
+        <v>273900</v>
       </c>
       <c r="H83" s="3">
-        <v>294800</v>
+        <v>308100</v>
       </c>
       <c r="I83" s="3">
-        <v>247800</v>
+        <v>259100</v>
       </c>
       <c r="J83" s="3">
-        <v>268800</v>
+        <v>281000</v>
       </c>
       <c r="K83" s="3">
         <v>217700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45100</v>
+        <v>47200</v>
       </c>
       <c r="E89" s="3">
-        <v>417900</v>
+        <v>436900</v>
       </c>
       <c r="F89" s="3">
-        <v>529400</v>
+        <v>553400</v>
       </c>
       <c r="G89" s="3">
-        <v>472700</v>
+        <v>494200</v>
       </c>
       <c r="H89" s="3">
-        <v>247700</v>
+        <v>259000</v>
       </c>
       <c r="I89" s="3">
-        <v>356900</v>
+        <v>373100</v>
       </c>
       <c r="J89" s="3">
-        <v>380800</v>
+        <v>398100</v>
       </c>
       <c r="K89" s="3">
         <v>407900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61400</v>
+        <v>-64200</v>
       </c>
       <c r="E91" s="3">
-        <v>-59600</v>
+        <v>-62400</v>
       </c>
       <c r="F91" s="3">
-        <v>-43900</v>
+        <v>-45900</v>
       </c>
       <c r="G91" s="3">
-        <v>-90400</v>
+        <v>-94500</v>
       </c>
       <c r="H91" s="3">
-        <v>-172000</v>
+        <v>-179800</v>
       </c>
       <c r="I91" s="3">
-        <v>-284300</v>
+        <v>-297300</v>
       </c>
       <c r="J91" s="3">
-        <v>-380700</v>
+        <v>-398000</v>
       </c>
       <c r="K91" s="3">
         <v>-497000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-80100</v>
+        <v>-83800</v>
       </c>
       <c r="E94" s="3">
-        <v>346900</v>
+        <v>362600</v>
       </c>
       <c r="F94" s="3">
-        <v>-326400</v>
+        <v>-341300</v>
       </c>
       <c r="G94" s="3">
-        <v>-73800</v>
+        <v>-77100</v>
       </c>
       <c r="H94" s="3">
-        <v>-172700</v>
+        <v>-180600</v>
       </c>
       <c r="I94" s="3">
-        <v>-270300</v>
+        <v>-282500</v>
       </c>
       <c r="J94" s="3">
-        <v>-16400</v>
+        <v>-17200</v>
       </c>
       <c r="K94" s="3">
         <v>-657700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25100</v>
+        <v>-26200</v>
       </c>
       <c r="E96" s="3">
-        <v>-25100</v>
+        <v>-26200</v>
       </c>
       <c r="F96" s="3">
-        <v>-56500</v>
+        <v>-59000</v>
       </c>
       <c r="G96" s="3">
-        <v>-125500</v>
+        <v>-131200</v>
       </c>
       <c r="H96" s="3">
-        <v>-125500</v>
+        <v>-131200</v>
       </c>
       <c r="I96" s="3">
-        <v>-125500</v>
+        <v>-131200</v>
       </c>
       <c r="J96" s="3">
-        <v>-125500</v>
+        <v>-131200</v>
       </c>
       <c r="K96" s="3">
         <v>-121800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-77700</v>
+        <v>-81200</v>
       </c>
       <c r="E100" s="3">
-        <v>-481300</v>
+        <v>-503200</v>
       </c>
       <c r="F100" s="3">
-        <v>-114400</v>
+        <v>-119500</v>
       </c>
       <c r="G100" s="3">
-        <v>-180600</v>
+        <v>-188900</v>
       </c>
       <c r="H100" s="3">
-        <v>-181400</v>
+        <v>-189700</v>
       </c>
       <c r="I100" s="3">
-        <v>-180700</v>
+        <v>-188900</v>
       </c>
       <c r="J100" s="3">
-        <v>-66500</v>
+        <v>-69600</v>
       </c>
       <c r="K100" s="3">
         <v>-184800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E101" s="3">
-        <v>-5200</v>
+        <v>-5500</v>
       </c>
       <c r="F101" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="G101" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H101" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="I101" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="J101" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K101" s="3">
         <v>2300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-114200</v>
+        <v>-119400</v>
       </c>
       <c r="E102" s="3">
-        <v>278300</v>
+        <v>290900</v>
       </c>
       <c r="F102" s="3">
-        <v>95100</v>
+        <v>99400</v>
       </c>
       <c r="G102" s="3">
-        <v>215200</v>
+        <v>225000</v>
       </c>
       <c r="H102" s="3">
-        <v>-109700</v>
+        <v>-114700</v>
       </c>
       <c r="I102" s="3">
-        <v>-85600</v>
+        <v>-89500</v>
       </c>
       <c r="J102" s="3">
-        <v>300300</v>
+        <v>313900</v>
       </c>
       <c r="K102" s="3">
         <v>-432300</v>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1492400</v>
+        <v>1403500</v>
       </c>
       <c r="E8" s="3">
-        <v>1544500</v>
+        <v>1452500</v>
       </c>
       <c r="F8" s="3">
-        <v>1734100</v>
+        <v>1630800</v>
       </c>
       <c r="G8" s="3">
-        <v>1788100</v>
+        <v>1681600</v>
       </c>
       <c r="H8" s="3">
-        <v>2015800</v>
+        <v>1895700</v>
       </c>
       <c r="I8" s="3">
-        <v>2283500</v>
+        <v>2147500</v>
       </c>
       <c r="J8" s="3">
-        <v>1987700</v>
+        <v>1869300</v>
       </c>
       <c r="K8" s="3">
         <v>1877400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1404100</v>
+        <v>1320500</v>
       </c>
       <c r="E9" s="3">
-        <v>1344100</v>
+        <v>1264100</v>
       </c>
       <c r="F9" s="3">
-        <v>1488900</v>
+        <v>1400200</v>
       </c>
       <c r="G9" s="3">
-        <v>1426400</v>
+        <v>1341500</v>
       </c>
       <c r="H9" s="3">
-        <v>1631500</v>
+        <v>1534300</v>
       </c>
       <c r="I9" s="3">
-        <v>1705600</v>
+        <v>1604000</v>
       </c>
       <c r="J9" s="3">
-        <v>1458900</v>
+        <v>1372000</v>
       </c>
       <c r="K9" s="3">
         <v>1410300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>88300</v>
+        <v>83000</v>
       </c>
       <c r="E10" s="3">
-        <v>200300</v>
+        <v>188400</v>
       </c>
       <c r="F10" s="3">
-        <v>245200</v>
+        <v>230600</v>
       </c>
       <c r="G10" s="3">
-        <v>361700</v>
+        <v>340100</v>
       </c>
       <c r="H10" s="3">
-        <v>384200</v>
+        <v>361400</v>
       </c>
       <c r="I10" s="3">
-        <v>577900</v>
+        <v>543500</v>
       </c>
       <c r="J10" s="3">
-        <v>528800</v>
+        <v>497300</v>
       </c>
       <c r="K10" s="3">
         <v>467100</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>12300</v>
+        <v>11600</v>
       </c>
       <c r="E12" s="3">
-        <v>16400</v>
+        <v>15400</v>
       </c>
       <c r="F12" s="3">
-        <v>18300</v>
+        <v>17200</v>
       </c>
       <c r="G12" s="3">
-        <v>29500</v>
+        <v>27800</v>
       </c>
       <c r="H12" s="3">
-        <v>39400</v>
+        <v>37100</v>
       </c>
       <c r="I12" s="3">
-        <v>38800</v>
+        <v>36500</v>
       </c>
       <c r="J12" s="3">
-        <v>42800</v>
+        <v>40200</v>
       </c>
       <c r="K12" s="3">
         <v>61700</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-31000</v>
+        <v>-29100</v>
       </c>
       <c r="E14" s="3">
-        <v>-43800</v>
+        <v>-41200</v>
       </c>
       <c r="F14" s="3">
-        <v>-66200</v>
+        <v>-62200</v>
       </c>
       <c r="G14" s="3">
-        <v>297100</v>
+        <v>279400</v>
       </c>
       <c r="H14" s="3">
-        <v>300100</v>
+        <v>282200</v>
       </c>
       <c r="I14" s="3">
-        <v>178700</v>
+        <v>168000</v>
       </c>
       <c r="J14" s="3">
-        <v>270800</v>
+        <v>254700</v>
       </c>
       <c r="K14" s="3">
         <v>54000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1526700</v>
+        <v>1435700</v>
       </c>
       <c r="E17" s="3">
-        <v>1424100</v>
+        <v>1339200</v>
       </c>
       <c r="F17" s="3">
-        <v>1609700</v>
+        <v>1513800</v>
       </c>
       <c r="G17" s="3">
-        <v>1894000</v>
+        <v>1781200</v>
       </c>
       <c r="H17" s="3">
-        <v>2133300</v>
+        <v>2006200</v>
       </c>
       <c r="I17" s="3">
-        <v>2079900</v>
+        <v>1956000</v>
       </c>
       <c r="J17" s="3">
-        <v>1955900</v>
+        <v>1839400</v>
       </c>
       <c r="K17" s="3">
         <v>1673600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-34300</v>
+        <v>-32300</v>
       </c>
       <c r="E18" s="3">
-        <v>120400</v>
+        <v>113200</v>
       </c>
       <c r="F18" s="3">
-        <v>124400</v>
+        <v>117000</v>
       </c>
       <c r="G18" s="3">
-        <v>-105900</v>
+        <v>-99600</v>
       </c>
       <c r="H18" s="3">
-        <v>-117500</v>
+        <v>-110500</v>
       </c>
       <c r="I18" s="3">
-        <v>203600</v>
+        <v>191500</v>
       </c>
       <c r="J18" s="3">
-        <v>31800</v>
+        <v>29900</v>
       </c>
       <c r="K18" s="3">
         <v>203800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>37500</v>
+        <v>35200</v>
       </c>
       <c r="E20" s="3">
-        <v>43900</v>
+        <v>41300</v>
       </c>
       <c r="F20" s="3">
-        <v>-30700</v>
+        <v>-28900</v>
       </c>
       <c r="G20" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="H20" s="3">
-        <v>51300</v>
+        <v>48200</v>
       </c>
       <c r="I20" s="3">
-        <v>-207100</v>
+        <v>-194700</v>
       </c>
       <c r="J20" s="3">
-        <v>-70400</v>
+        <v>-66200</v>
       </c>
       <c r="K20" s="3">
         <v>-63700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>176500</v>
+        <v>167900</v>
       </c>
       <c r="E21" s="3">
-        <v>393300</v>
+        <v>372400</v>
       </c>
       <c r="F21" s="3">
-        <v>366100</v>
+        <v>347200</v>
       </c>
       <c r="G21" s="3">
-        <v>163300</v>
+        <v>156500</v>
       </c>
       <c r="H21" s="3">
-        <v>242500</v>
+        <v>231400</v>
       </c>
       <c r="I21" s="3">
-        <v>256100</v>
+        <v>243700</v>
       </c>
       <c r="J21" s="3">
-        <v>243000</v>
+        <v>231500</v>
       </c>
       <c r="K21" s="3">
         <v>357400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35900</v>
+        <v>33800</v>
       </c>
       <c r="E22" s="3">
-        <v>52300</v>
+        <v>49200</v>
       </c>
       <c r="F22" s="3">
-        <v>60600</v>
+        <v>56900</v>
       </c>
       <c r="G22" s="3">
-        <v>60700</v>
+        <v>57100</v>
       </c>
       <c r="H22" s="3">
-        <v>61600</v>
+        <v>57900</v>
       </c>
       <c r="I22" s="3">
-        <v>62300</v>
+        <v>58500</v>
       </c>
       <c r="J22" s="3">
-        <v>60100</v>
+        <v>56500</v>
       </c>
       <c r="K22" s="3">
         <v>51400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-32800</v>
+        <v>-30800</v>
       </c>
       <c r="E23" s="3">
-        <v>111900</v>
+        <v>105300</v>
       </c>
       <c r="F23" s="3">
-        <v>33100</v>
+        <v>31100</v>
       </c>
       <c r="G23" s="3">
-        <v>-171800</v>
+        <v>-161600</v>
       </c>
       <c r="H23" s="3">
-        <v>-127900</v>
+        <v>-120300</v>
       </c>
       <c r="I23" s="3">
-        <v>-65700</v>
+        <v>-61800</v>
       </c>
       <c r="J23" s="3">
-        <v>-98700</v>
+        <v>-92900</v>
       </c>
       <c r="K23" s="3">
         <v>88600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11300</v>
+        <v>10700</v>
       </c>
       <c r="E24" s="3">
-        <v>50600</v>
+        <v>47600</v>
       </c>
       <c r="F24" s="3">
-        <v>-104700</v>
+        <v>-98500</v>
       </c>
       <c r="G24" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="H24" s="3">
-        <v>-78200</v>
+        <v>-73600</v>
       </c>
       <c r="I24" s="3">
-        <v>-118200</v>
+        <v>-111200</v>
       </c>
       <c r="J24" s="3">
-        <v>-145300</v>
+        <v>-136700</v>
       </c>
       <c r="K24" s="3">
         <v>-90200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-44100</v>
+        <v>-41500</v>
       </c>
       <c r="E26" s="3">
-        <v>61300</v>
+        <v>57600</v>
       </c>
       <c r="F26" s="3">
-        <v>137800</v>
+        <v>129600</v>
       </c>
       <c r="G26" s="3">
-        <v>-179800</v>
+        <v>-169100</v>
       </c>
       <c r="H26" s="3">
-        <v>-49600</v>
+        <v>-46700</v>
       </c>
       <c r="I26" s="3">
-        <v>52500</v>
+        <v>49400</v>
       </c>
       <c r="J26" s="3">
-        <v>46600</v>
+        <v>43800</v>
       </c>
       <c r="K26" s="3">
         <v>178900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-44100</v>
+        <v>-41500</v>
       </c>
       <c r="E27" s="3">
-        <v>61300</v>
+        <v>57700</v>
       </c>
       <c r="F27" s="3">
-        <v>137900</v>
+        <v>129700</v>
       </c>
       <c r="G27" s="3">
-        <v>-180000</v>
+        <v>-169300</v>
       </c>
       <c r="H27" s="3">
-        <v>-51100</v>
+        <v>-48000</v>
       </c>
       <c r="I27" s="3">
-        <v>54100</v>
+        <v>50900</v>
       </c>
       <c r="J27" s="3">
-        <v>48100</v>
+        <v>45200</v>
       </c>
       <c r="K27" s="3">
         <v>179500</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>11</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>105500</v>
+        <v>99200</v>
       </c>
       <c r="K29" s="3">
         <v>65700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-37500</v>
+        <v>-35200</v>
       </c>
       <c r="E32" s="3">
-        <v>-43900</v>
+        <v>-41300</v>
       </c>
       <c r="F32" s="3">
-        <v>30700</v>
+        <v>28900</v>
       </c>
       <c r="G32" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="H32" s="3">
-        <v>-51300</v>
+        <v>-48200</v>
       </c>
       <c r="I32" s="3">
-        <v>207100</v>
+        <v>194700</v>
       </c>
       <c r="J32" s="3">
-        <v>70400</v>
+        <v>66200</v>
       </c>
       <c r="K32" s="3">
         <v>63700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-44100</v>
+        <v>-41500</v>
       </c>
       <c r="E33" s="3">
-        <v>61300</v>
+        <v>57700</v>
       </c>
       <c r="F33" s="3">
-        <v>137900</v>
+        <v>129700</v>
       </c>
       <c r="G33" s="3">
-        <v>-169900</v>
+        <v>-159800</v>
       </c>
       <c r="H33" s="3">
-        <v>-51100</v>
+        <v>-48000</v>
       </c>
       <c r="I33" s="3">
-        <v>54100</v>
+        <v>50900</v>
       </c>
       <c r="J33" s="3">
-        <v>153600</v>
+        <v>144400</v>
       </c>
       <c r="K33" s="3">
         <v>245200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-44100</v>
+        <v>-41500</v>
       </c>
       <c r="E35" s="3">
-        <v>61300</v>
+        <v>57700</v>
       </c>
       <c r="F35" s="3">
-        <v>137900</v>
+        <v>129700</v>
       </c>
       <c r="G35" s="3">
-        <v>-169900</v>
+        <v>-159800</v>
       </c>
       <c r="H35" s="3">
-        <v>-51100</v>
+        <v>-48000</v>
       </c>
       <c r="I35" s="3">
-        <v>54100</v>
+        <v>50900</v>
       </c>
       <c r="J35" s="3">
-        <v>153600</v>
+        <v>144400</v>
       </c>
       <c r="K35" s="3">
         <v>245200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>761400</v>
+        <v>716000</v>
       </c>
       <c r="E41" s="3">
-        <v>880800</v>
+        <v>828300</v>
       </c>
       <c r="F41" s="3">
-        <v>589900</v>
+        <v>554800</v>
       </c>
       <c r="G41" s="3">
-        <v>490500</v>
+        <v>461300</v>
       </c>
       <c r="H41" s="3">
-        <v>265500</v>
+        <v>249700</v>
       </c>
       <c r="I41" s="3">
-        <v>380200</v>
+        <v>357600</v>
       </c>
       <c r="J41" s="3">
-        <v>469700</v>
+        <v>441700</v>
       </c>
       <c r="K41" s="3">
         <v>176400</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20700</v>
+        <v>19500</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>324200</v>
+        <v>304900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>11</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>192200</v>
+        <v>180800</v>
       </c>
       <c r="E43" s="3">
-        <v>280400</v>
+        <v>263700</v>
       </c>
       <c r="F43" s="3">
-        <v>350800</v>
+        <v>329900</v>
       </c>
       <c r="G43" s="3">
-        <v>368400</v>
+        <v>346400</v>
       </c>
       <c r="H43" s="3">
-        <v>219300</v>
+        <v>206200</v>
       </c>
       <c r="I43" s="3">
-        <v>215200</v>
+        <v>202400</v>
       </c>
       <c r="J43" s="3">
-        <v>388400</v>
+        <v>365200</v>
       </c>
       <c r="K43" s="3">
         <v>337000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>564100</v>
+        <v>530500</v>
       </c>
       <c r="E44" s="3">
-        <v>265900</v>
+        <v>250100</v>
       </c>
       <c r="F44" s="3">
-        <v>387800</v>
+        <v>364700</v>
       </c>
       <c r="G44" s="3">
-        <v>787400</v>
+        <v>740500</v>
       </c>
       <c r="H44" s="3">
-        <v>1067800</v>
+        <v>1004200</v>
       </c>
       <c r="I44" s="3">
-        <v>1065500</v>
+        <v>1002100</v>
       </c>
       <c r="J44" s="3">
-        <v>748000</v>
+        <v>703500</v>
       </c>
       <c r="K44" s="3">
         <v>703100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74100</v>
+        <v>69700</v>
       </c>
       <c r="E45" s="3">
-        <v>70900</v>
+        <v>66700</v>
       </c>
       <c r="F45" s="3">
-        <v>74000</v>
+        <v>69600</v>
       </c>
       <c r="G45" s="3">
-        <v>124300</v>
+        <v>116900</v>
       </c>
       <c r="H45" s="3">
-        <v>140200</v>
+        <v>131800</v>
       </c>
       <c r="I45" s="3">
-        <v>149700</v>
+        <v>140800</v>
       </c>
       <c r="J45" s="3">
-        <v>108100</v>
+        <v>101700</v>
       </c>
       <c r="K45" s="3">
         <v>136700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1612500</v>
+        <v>1516500</v>
       </c>
       <c r="E46" s="3">
-        <v>1498100</v>
+        <v>1408800</v>
       </c>
       <c r="F46" s="3">
-        <v>1726700</v>
+        <v>1623800</v>
       </c>
       <c r="G46" s="3">
-        <v>1770500</v>
+        <v>1665000</v>
       </c>
       <c r="H46" s="3">
-        <v>1692800</v>
+        <v>1592000</v>
       </c>
       <c r="I46" s="3">
-        <v>1810600</v>
+        <v>1702800</v>
       </c>
       <c r="J46" s="3">
-        <v>1714200</v>
+        <v>1612100</v>
       </c>
       <c r="K46" s="3">
         <v>1353200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>722700</v>
+        <v>679700</v>
       </c>
       <c r="E47" s="3">
-        <v>731900</v>
+        <v>688300</v>
       </c>
       <c r="F47" s="3">
-        <v>814400</v>
+        <v>765900</v>
       </c>
       <c r="G47" s="3">
-        <v>431200</v>
+        <v>405500</v>
       </c>
       <c r="H47" s="3">
-        <v>416100</v>
+        <v>391300</v>
       </c>
       <c r="I47" s="3">
-        <v>365300</v>
+        <v>343500</v>
       </c>
       <c r="J47" s="3">
-        <v>350400</v>
+        <v>329500</v>
       </c>
       <c r="K47" s="3">
         <v>595000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3126800</v>
+        <v>2940600</v>
       </c>
       <c r="E48" s="3">
-        <v>3084600</v>
+        <v>2900900</v>
       </c>
       <c r="F48" s="3">
-        <v>3218300</v>
+        <v>3026600</v>
       </c>
       <c r="G48" s="3">
-        <v>3475300</v>
+        <v>3268300</v>
       </c>
       <c r="H48" s="3">
-        <v>3859700</v>
+        <v>3629800</v>
       </c>
       <c r="I48" s="3">
-        <v>4334400</v>
+        <v>4076200</v>
       </c>
       <c r="J48" s="3">
-        <v>4386500</v>
+        <v>4125300</v>
       </c>
       <c r="K48" s="3">
         <v>3880700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>46300</v>
+        <v>43500</v>
       </c>
       <c r="E49" s="3">
-        <v>50100</v>
+        <v>47100</v>
       </c>
       <c r="F49" s="3">
-        <v>54400</v>
+        <v>51100</v>
       </c>
       <c r="G49" s="3">
-        <v>58000</v>
+        <v>54600</v>
       </c>
       <c r="H49" s="3">
-        <v>168600</v>
+        <v>158500</v>
       </c>
       <c r="I49" s="3">
-        <v>180000</v>
+        <v>169300</v>
       </c>
       <c r="J49" s="3">
-        <v>166700</v>
+        <v>156800</v>
       </c>
       <c r="K49" s="3">
         <v>149400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>776600</v>
+        <v>730300</v>
       </c>
       <c r="E52" s="3">
-        <v>792900</v>
+        <v>745700</v>
       </c>
       <c r="F52" s="3">
-        <v>834000</v>
+        <v>784400</v>
       </c>
       <c r="G52" s="3">
-        <v>714000</v>
+        <v>671400</v>
       </c>
       <c r="H52" s="3">
-        <v>701900</v>
+        <v>660100</v>
       </c>
       <c r="I52" s="3">
-        <v>600900</v>
+        <v>565100</v>
       </c>
       <c r="J52" s="3">
-        <v>406400</v>
+        <v>382200</v>
       </c>
       <c r="K52" s="3">
         <v>210600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6284900</v>
+        <v>5910500</v>
       </c>
       <c r="E54" s="3">
-        <v>6157600</v>
+        <v>5790800</v>
       </c>
       <c r="F54" s="3">
-        <v>6647900</v>
+        <v>6251900</v>
       </c>
       <c r="G54" s="3">
-        <v>6449000</v>
+        <v>6064800</v>
       </c>
       <c r="H54" s="3">
-        <v>6839000</v>
+        <v>6431700</v>
       </c>
       <c r="I54" s="3">
-        <v>7291200</v>
+        <v>6856900</v>
       </c>
       <c r="J54" s="3">
-        <v>7024300</v>
+        <v>6605900</v>
       </c>
       <c r="K54" s="3">
         <v>6188800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>113700</v>
+        <v>107000</v>
       </c>
       <c r="E57" s="3">
-        <v>83200</v>
+        <v>78300</v>
       </c>
       <c r="F57" s="3">
-        <v>102200</v>
+        <v>96100</v>
       </c>
       <c r="G57" s="3">
-        <v>146800</v>
+        <v>138000</v>
       </c>
       <c r="H57" s="3">
-        <v>177000</v>
+        <v>166400</v>
       </c>
       <c r="I57" s="3">
-        <v>165100</v>
+        <v>155200</v>
       </c>
       <c r="J57" s="3">
-        <v>151800</v>
+        <v>142800</v>
       </c>
       <c r="K57" s="3">
         <v>266700</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>414200</v>
+        <v>389500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>138100</v>
+        <v>129900</v>
       </c>
       <c r="E59" s="3">
-        <v>146700</v>
+        <v>138000</v>
       </c>
       <c r="F59" s="3">
-        <v>209800</v>
+        <v>197300</v>
       </c>
       <c r="G59" s="3">
-        <v>194000</v>
+        <v>182400</v>
       </c>
       <c r="H59" s="3">
-        <v>212000</v>
+        <v>199400</v>
       </c>
       <c r="I59" s="3">
-        <v>391800</v>
+        <v>368400</v>
       </c>
       <c r="J59" s="3">
-        <v>275800</v>
+        <v>259400</v>
       </c>
       <c r="K59" s="3">
         <v>205300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>251900</v>
+        <v>236900</v>
       </c>
       <c r="E60" s="3">
-        <v>230000</v>
+        <v>216300</v>
       </c>
       <c r="F60" s="3">
-        <v>726100</v>
+        <v>682900</v>
       </c>
       <c r="G60" s="3">
-        <v>340700</v>
+        <v>320400</v>
       </c>
       <c r="H60" s="3">
-        <v>389000</v>
+        <v>365900</v>
       </c>
       <c r="I60" s="3">
-        <v>556800</v>
+        <v>523700</v>
       </c>
       <c r="J60" s="3">
-        <v>427600</v>
+        <v>402200</v>
       </c>
       <c r="K60" s="3">
         <v>542400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>831900</v>
+        <v>782400</v>
       </c>
       <c r="E61" s="3">
-        <v>837000</v>
+        <v>787100</v>
       </c>
       <c r="F61" s="3">
-        <v>825800</v>
+        <v>776600</v>
       </c>
       <c r="G61" s="3">
-        <v>1239000</v>
+        <v>1165200</v>
       </c>
       <c r="H61" s="3">
-        <v>1238000</v>
+        <v>1164300</v>
       </c>
       <c r="I61" s="3">
-        <v>1237100</v>
+        <v>1163500</v>
       </c>
       <c r="J61" s="3">
-        <v>1236300</v>
+        <v>1162600</v>
       </c>
       <c r="K61" s="3">
         <v>995700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1090200</v>
+        <v>1025300</v>
       </c>
       <c r="E62" s="3">
-        <v>949500</v>
+        <v>892900</v>
       </c>
       <c r="F62" s="3">
-        <v>956000</v>
+        <v>899000</v>
       </c>
       <c r="G62" s="3">
-        <v>840300</v>
+        <v>790300</v>
       </c>
       <c r="H62" s="3">
-        <v>852300</v>
+        <v>801600</v>
       </c>
       <c r="I62" s="3">
-        <v>899900</v>
+        <v>846300</v>
       </c>
       <c r="J62" s="3">
-        <v>847200</v>
+        <v>796700</v>
       </c>
       <c r="K62" s="3">
         <v>532700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2174200</v>
+        <v>2044700</v>
       </c>
       <c r="E66" s="3">
-        <v>2016700</v>
+        <v>1896600</v>
       </c>
       <c r="F66" s="3">
-        <v>2508200</v>
+        <v>2358800</v>
       </c>
       <c r="G66" s="3">
-        <v>2420400</v>
+        <v>2276200</v>
       </c>
       <c r="H66" s="3">
-        <v>2479500</v>
+        <v>2331900</v>
       </c>
       <c r="I66" s="3">
-        <v>2692400</v>
+        <v>2532100</v>
       </c>
       <c r="J66" s="3">
-        <v>2511200</v>
+        <v>2361600</v>
       </c>
       <c r="K66" s="3">
         <v>2071600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2268100</v>
+        <v>2133000</v>
       </c>
       <c r="E72" s="3">
-        <v>2342600</v>
+        <v>2203000</v>
       </c>
       <c r="F72" s="3">
-        <v>2314100</v>
+        <v>2176300</v>
       </c>
       <c r="G72" s="3">
-        <v>2197300</v>
+        <v>2066500</v>
       </c>
       <c r="H72" s="3">
-        <v>2503600</v>
+        <v>2354500</v>
       </c>
       <c r="I72" s="3">
-        <v>2687700</v>
+        <v>2527600</v>
       </c>
       <c r="J72" s="3">
-        <v>2763300</v>
+        <v>2598700</v>
       </c>
       <c r="K72" s="3">
         <v>2551200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4110700</v>
+        <v>3865900</v>
       </c>
       <c r="E76" s="3">
-        <v>4140900</v>
+        <v>3894200</v>
       </c>
       <c r="F76" s="3">
-        <v>4139700</v>
+        <v>3893100</v>
       </c>
       <c r="G76" s="3">
-        <v>4028600</v>
+        <v>3788600</v>
       </c>
       <c r="H76" s="3">
-        <v>4359500</v>
+        <v>4099800</v>
       </c>
       <c r="I76" s="3">
-        <v>4598800</v>
+        <v>4324800</v>
       </c>
       <c r="J76" s="3">
-        <v>4513100</v>
+        <v>4244200</v>
       </c>
       <c r="K76" s="3">
         <v>4117200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-44100</v>
+        <v>-41500</v>
       </c>
       <c r="E81" s="3">
-        <v>61300</v>
+        <v>57700</v>
       </c>
       <c r="F81" s="3">
-        <v>137900</v>
+        <v>129700</v>
       </c>
       <c r="G81" s="3">
-        <v>-169900</v>
+        <v>-159800</v>
       </c>
       <c r="H81" s="3">
-        <v>-51100</v>
+        <v>-48000</v>
       </c>
       <c r="I81" s="3">
-        <v>54100</v>
+        <v>50900</v>
       </c>
       <c r="J81" s="3">
-        <v>153600</v>
+        <v>144400</v>
       </c>
       <c r="K81" s="3">
         <v>245200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>173000</v>
+        <v>162700</v>
       </c>
       <c r="E83" s="3">
-        <v>228600</v>
+        <v>215000</v>
       </c>
       <c r="F83" s="3">
-        <v>271900</v>
+        <v>255700</v>
       </c>
       <c r="G83" s="3">
-        <v>273900</v>
+        <v>257600</v>
       </c>
       <c r="H83" s="3">
-        <v>308100</v>
+        <v>289800</v>
       </c>
       <c r="I83" s="3">
-        <v>259100</v>
+        <v>243700</v>
       </c>
       <c r="J83" s="3">
-        <v>281000</v>
+        <v>264300</v>
       </c>
       <c r="K83" s="3">
         <v>217700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47200</v>
+        <v>44400</v>
       </c>
       <c r="E89" s="3">
-        <v>436900</v>
+        <v>410900</v>
       </c>
       <c r="F89" s="3">
-        <v>553400</v>
+        <v>520400</v>
       </c>
       <c r="G89" s="3">
-        <v>494200</v>
+        <v>464700</v>
       </c>
       <c r="H89" s="3">
-        <v>259000</v>
+        <v>243600</v>
       </c>
       <c r="I89" s="3">
-        <v>373100</v>
+        <v>350900</v>
       </c>
       <c r="J89" s="3">
-        <v>398100</v>
+        <v>374400</v>
       </c>
       <c r="K89" s="3">
         <v>407900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-64200</v>
+        <v>-60400</v>
       </c>
       <c r="E91" s="3">
-        <v>-62400</v>
+        <v>-58600</v>
       </c>
       <c r="F91" s="3">
-        <v>-45900</v>
+        <v>-43200</v>
       </c>
       <c r="G91" s="3">
-        <v>-94500</v>
+        <v>-88900</v>
       </c>
       <c r="H91" s="3">
-        <v>-179800</v>
+        <v>-169100</v>
       </c>
       <c r="I91" s="3">
-        <v>-297300</v>
+        <v>-279600</v>
       </c>
       <c r="J91" s="3">
-        <v>-398000</v>
+        <v>-374300</v>
       </c>
       <c r="K91" s="3">
         <v>-497000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83800</v>
+        <v>-78800</v>
       </c>
       <c r="E94" s="3">
-        <v>362600</v>
+        <v>341000</v>
       </c>
       <c r="F94" s="3">
-        <v>-341300</v>
+        <v>-320900</v>
       </c>
       <c r="G94" s="3">
-        <v>-77100</v>
+        <v>-72600</v>
       </c>
       <c r="H94" s="3">
-        <v>-180600</v>
+        <v>-169800</v>
       </c>
       <c r="I94" s="3">
-        <v>-282500</v>
+        <v>-265700</v>
       </c>
       <c r="J94" s="3">
-        <v>-17200</v>
+        <v>-16200</v>
       </c>
       <c r="K94" s="3">
         <v>-657700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-26200</v>
+        <v>-24700</v>
       </c>
       <c r="E96" s="3">
-        <v>-26200</v>
+        <v>-24600</v>
       </c>
       <c r="F96" s="3">
-        <v>-59000</v>
+        <v>-55500</v>
       </c>
       <c r="G96" s="3">
-        <v>-131200</v>
+        <v>-123400</v>
       </c>
       <c r="H96" s="3">
-        <v>-131200</v>
+        <v>-123400</v>
       </c>
       <c r="I96" s="3">
-        <v>-131200</v>
+        <v>-123400</v>
       </c>
       <c r="J96" s="3">
-        <v>-131200</v>
+        <v>-123300</v>
       </c>
       <c r="K96" s="3">
         <v>-121800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-81200</v>
+        <v>-76400</v>
       </c>
       <c r="E100" s="3">
-        <v>-503200</v>
+        <v>-473200</v>
       </c>
       <c r="F100" s="3">
-        <v>-119500</v>
+        <v>-112400</v>
       </c>
       <c r="G100" s="3">
-        <v>-188900</v>
+        <v>-177600</v>
       </c>
       <c r="H100" s="3">
-        <v>-189700</v>
+        <v>-178400</v>
       </c>
       <c r="I100" s="3">
-        <v>-188900</v>
+        <v>-177600</v>
       </c>
       <c r="J100" s="3">
-        <v>-69600</v>
+        <v>-65400</v>
       </c>
       <c r="K100" s="3">
         <v>-184800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E101" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="F101" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="G101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-3200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-3400</v>
-      </c>
       <c r="I101" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="J101" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K101" s="3">
         <v>2300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-119400</v>
+        <v>-112300</v>
       </c>
       <c r="E102" s="3">
-        <v>290900</v>
+        <v>273600</v>
       </c>
       <c r="F102" s="3">
-        <v>99400</v>
+        <v>93500</v>
       </c>
       <c r="G102" s="3">
-        <v>225000</v>
+        <v>211600</v>
       </c>
       <c r="H102" s="3">
-        <v>-114700</v>
+        <v>-107800</v>
       </c>
       <c r="I102" s="3">
-        <v>-89500</v>
+        <v>-84200</v>
       </c>
       <c r="J102" s="3">
-        <v>313900</v>
+        <v>295200</v>
       </c>
       <c r="K102" s="3">
         <v>-432300</v>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1403500</v>
+        <v>1413100</v>
       </c>
       <c r="E8" s="3">
-        <v>1452500</v>
+        <v>1462500</v>
       </c>
       <c r="F8" s="3">
-        <v>1630800</v>
+        <v>1642100</v>
       </c>
       <c r="G8" s="3">
-        <v>1681600</v>
+        <v>1693200</v>
       </c>
       <c r="H8" s="3">
-        <v>1895700</v>
+        <v>1908800</v>
       </c>
       <c r="I8" s="3">
-        <v>2147500</v>
+        <v>2162300</v>
       </c>
       <c r="J8" s="3">
-        <v>1869300</v>
+        <v>1882200</v>
       </c>
       <c r="K8" s="3">
         <v>1877400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1320500</v>
+        <v>1329600</v>
       </c>
       <c r="E9" s="3">
-        <v>1264100</v>
+        <v>1272800</v>
       </c>
       <c r="F9" s="3">
-        <v>1400200</v>
+        <v>1409900</v>
       </c>
       <c r="G9" s="3">
-        <v>1341500</v>
+        <v>1350700</v>
       </c>
       <c r="H9" s="3">
-        <v>1534300</v>
+        <v>1544900</v>
       </c>
       <c r="I9" s="3">
-        <v>1604000</v>
+        <v>1615100</v>
       </c>
       <c r="J9" s="3">
-        <v>1372000</v>
+        <v>1381500</v>
       </c>
       <c r="K9" s="3">
         <v>1410300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>83000</v>
+        <v>83600</v>
       </c>
       <c r="E10" s="3">
-        <v>188400</v>
+        <v>189700</v>
       </c>
       <c r="F10" s="3">
-        <v>230600</v>
+        <v>232200</v>
       </c>
       <c r="G10" s="3">
-        <v>340100</v>
+        <v>342500</v>
       </c>
       <c r="H10" s="3">
-        <v>361400</v>
+        <v>363900</v>
       </c>
       <c r="I10" s="3">
-        <v>543500</v>
+        <v>547200</v>
       </c>
       <c r="J10" s="3">
-        <v>497300</v>
+        <v>500700</v>
       </c>
       <c r="K10" s="3">
         <v>467100</v>
@@ -847,22 +847,22 @@
         <v>11600</v>
       </c>
       <c r="E12" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="F12" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="G12" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="H12" s="3">
-        <v>37100</v>
+        <v>37300</v>
       </c>
       <c r="I12" s="3">
-        <v>36500</v>
+        <v>36800</v>
       </c>
       <c r="J12" s="3">
-        <v>40200</v>
+        <v>40500</v>
       </c>
       <c r="K12" s="3">
         <v>61700</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-29100</v>
+        <v>-29300</v>
       </c>
       <c r="E14" s="3">
-        <v>-41200</v>
+        <v>-41500</v>
       </c>
       <c r="F14" s="3">
-        <v>-62200</v>
+        <v>-62600</v>
       </c>
       <c r="G14" s="3">
-        <v>279400</v>
+        <v>281300</v>
       </c>
       <c r="H14" s="3">
-        <v>282200</v>
+        <v>284200</v>
       </c>
       <c r="I14" s="3">
-        <v>168000</v>
+        <v>169200</v>
       </c>
       <c r="J14" s="3">
-        <v>254700</v>
+        <v>256500</v>
       </c>
       <c r="K14" s="3">
         <v>54000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1435700</v>
+        <v>1445600</v>
       </c>
       <c r="E17" s="3">
-        <v>1339200</v>
+        <v>1348500</v>
       </c>
       <c r="F17" s="3">
-        <v>1513800</v>
+        <v>1524300</v>
       </c>
       <c r="G17" s="3">
-        <v>1781200</v>
+        <v>1793500</v>
       </c>
       <c r="H17" s="3">
-        <v>2006200</v>
+        <v>2020100</v>
       </c>
       <c r="I17" s="3">
-        <v>1956000</v>
+        <v>1969500</v>
       </c>
       <c r="J17" s="3">
-        <v>1839400</v>
+        <v>1852100</v>
       </c>
       <c r="K17" s="3">
         <v>1673600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-32300</v>
+        <v>-32500</v>
       </c>
       <c r="E18" s="3">
-        <v>113200</v>
+        <v>114000</v>
       </c>
       <c r="F18" s="3">
-        <v>117000</v>
+        <v>117800</v>
       </c>
       <c r="G18" s="3">
-        <v>-99600</v>
+        <v>-100300</v>
       </c>
       <c r="H18" s="3">
-        <v>-110500</v>
+        <v>-111300</v>
       </c>
       <c r="I18" s="3">
-        <v>191500</v>
+        <v>192800</v>
       </c>
       <c r="J18" s="3">
-        <v>29900</v>
+        <v>30100</v>
       </c>
       <c r="K18" s="3">
         <v>203800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>35200</v>
+        <v>35500</v>
       </c>
       <c r="E20" s="3">
-        <v>41300</v>
+        <v>41600</v>
       </c>
       <c r="F20" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="G20" s="3">
         <v>-4900</v>
       </c>
       <c r="H20" s="3">
-        <v>48200</v>
+        <v>48600</v>
       </c>
       <c r="I20" s="3">
-        <v>-194700</v>
+        <v>-196100</v>
       </c>
       <c r="J20" s="3">
-        <v>-66200</v>
+        <v>-66700</v>
       </c>
       <c r="K20" s="3">
         <v>-63700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>167900</v>
+        <v>166200</v>
       </c>
       <c r="E21" s="3">
-        <v>372400</v>
+        <v>371200</v>
       </c>
       <c r="F21" s="3">
-        <v>347200</v>
+        <v>345200</v>
       </c>
       <c r="G21" s="3">
-        <v>156500</v>
+        <v>153100</v>
       </c>
       <c r="H21" s="3">
-        <v>231400</v>
+        <v>228000</v>
       </c>
       <c r="I21" s="3">
-        <v>243700</v>
+        <v>241100</v>
       </c>
       <c r="J21" s="3">
-        <v>231500</v>
+        <v>228600</v>
       </c>
       <c r="K21" s="3">
         <v>357400</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33800</v>
+        <v>34000</v>
       </c>
       <c r="E22" s="3">
-        <v>49200</v>
+        <v>49600</v>
       </c>
       <c r="F22" s="3">
+        <v>57300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>57500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>58300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>58900</v>
+      </c>
+      <c r="J22" s="3">
         <v>56900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>57100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>57900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>58500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>56500</v>
       </c>
       <c r="K22" s="3">
         <v>51400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-30800</v>
+        <v>-31000</v>
       </c>
       <c r="E23" s="3">
-        <v>105300</v>
+        <v>106000</v>
       </c>
       <c r="F23" s="3">
-        <v>31100</v>
+        <v>31300</v>
       </c>
       <c r="G23" s="3">
-        <v>-161600</v>
+        <v>-162700</v>
       </c>
       <c r="H23" s="3">
-        <v>-120300</v>
+        <v>-121100</v>
       </c>
       <c r="I23" s="3">
-        <v>-61800</v>
+        <v>-62200</v>
       </c>
       <c r="J23" s="3">
-        <v>-92900</v>
+        <v>-93500</v>
       </c>
       <c r="K23" s="3">
         <v>88600</v>
@@ -1236,22 +1236,22 @@
         <v>10700</v>
       </c>
       <c r="E24" s="3">
-        <v>47600</v>
+        <v>47900</v>
       </c>
       <c r="F24" s="3">
-        <v>-98500</v>
+        <v>-99200</v>
       </c>
       <c r="G24" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H24" s="3">
-        <v>-73600</v>
+        <v>-74100</v>
       </c>
       <c r="I24" s="3">
-        <v>-111200</v>
+        <v>-112000</v>
       </c>
       <c r="J24" s="3">
-        <v>-136700</v>
+        <v>-137600</v>
       </c>
       <c r="K24" s="3">
         <v>-90200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-41500</v>
+        <v>-41800</v>
       </c>
       <c r="E26" s="3">
-        <v>57600</v>
+        <v>58000</v>
       </c>
       <c r="F26" s="3">
-        <v>129600</v>
+        <v>130500</v>
       </c>
       <c r="G26" s="3">
-        <v>-169100</v>
+        <v>-170300</v>
       </c>
       <c r="H26" s="3">
-        <v>-46700</v>
+        <v>-47000</v>
       </c>
       <c r="I26" s="3">
-        <v>49400</v>
+        <v>49700</v>
       </c>
       <c r="J26" s="3">
-        <v>43800</v>
+        <v>44100</v>
       </c>
       <c r="K26" s="3">
         <v>178900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-41500</v>
+        <v>-41700</v>
       </c>
       <c r="E27" s="3">
-        <v>57700</v>
+        <v>58100</v>
       </c>
       <c r="F27" s="3">
-        <v>129700</v>
+        <v>130600</v>
       </c>
       <c r="G27" s="3">
-        <v>-169300</v>
+        <v>-170500</v>
       </c>
       <c r="H27" s="3">
-        <v>-48000</v>
+        <v>-48400</v>
       </c>
       <c r="I27" s="3">
-        <v>50900</v>
+        <v>51300</v>
       </c>
       <c r="J27" s="3">
-        <v>45200</v>
+        <v>45500</v>
       </c>
       <c r="K27" s="3">
         <v>179500</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>11</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>99200</v>
+        <v>99900</v>
       </c>
       <c r="K29" s="3">
         <v>65700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-35200</v>
+        <v>-35500</v>
       </c>
       <c r="E32" s="3">
-        <v>-41300</v>
+        <v>-41600</v>
       </c>
       <c r="F32" s="3">
-        <v>28900</v>
+        <v>29100</v>
       </c>
       <c r="G32" s="3">
         <v>4900</v>
       </c>
       <c r="H32" s="3">
-        <v>-48200</v>
+        <v>-48600</v>
       </c>
       <c r="I32" s="3">
-        <v>194700</v>
+        <v>196100</v>
       </c>
       <c r="J32" s="3">
-        <v>66200</v>
+        <v>66700</v>
       </c>
       <c r="K32" s="3">
         <v>63700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-41500</v>
+        <v>-41700</v>
       </c>
       <c r="E33" s="3">
-        <v>57700</v>
+        <v>58100</v>
       </c>
       <c r="F33" s="3">
-        <v>129700</v>
+        <v>130600</v>
       </c>
       <c r="G33" s="3">
-        <v>-159800</v>
+        <v>-160900</v>
       </c>
       <c r="H33" s="3">
-        <v>-48000</v>
+        <v>-48400</v>
       </c>
       <c r="I33" s="3">
-        <v>50900</v>
+        <v>51300</v>
       </c>
       <c r="J33" s="3">
-        <v>144400</v>
+        <v>145400</v>
       </c>
       <c r="K33" s="3">
         <v>245200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-41500</v>
+        <v>-41700</v>
       </c>
       <c r="E35" s="3">
-        <v>57700</v>
+        <v>58100</v>
       </c>
       <c r="F35" s="3">
-        <v>129700</v>
+        <v>130600</v>
       </c>
       <c r="G35" s="3">
-        <v>-159800</v>
+        <v>-160900</v>
       </c>
       <c r="H35" s="3">
-        <v>-48000</v>
+        <v>-48400</v>
       </c>
       <c r="I35" s="3">
-        <v>50900</v>
+        <v>51300</v>
       </c>
       <c r="J35" s="3">
-        <v>144400</v>
+        <v>145400</v>
       </c>
       <c r="K35" s="3">
         <v>245200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>716000</v>
+        <v>721000</v>
       </c>
       <c r="E41" s="3">
-        <v>828300</v>
+        <v>834100</v>
       </c>
       <c r="F41" s="3">
-        <v>554800</v>
+        <v>558600</v>
       </c>
       <c r="G41" s="3">
-        <v>461300</v>
+        <v>464500</v>
       </c>
       <c r="H41" s="3">
-        <v>249700</v>
+        <v>251400</v>
       </c>
       <c r="I41" s="3">
-        <v>357600</v>
+        <v>360000</v>
       </c>
       <c r="J41" s="3">
-        <v>441700</v>
+        <v>444800</v>
       </c>
       <c r="K41" s="3">
         <v>176400</v>
@@ -1774,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>304900</v>
+        <v>307000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>11</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>180800</v>
+        <v>182000</v>
       </c>
       <c r="E43" s="3">
-        <v>263700</v>
+        <v>265600</v>
       </c>
       <c r="F43" s="3">
-        <v>329900</v>
+        <v>332200</v>
       </c>
       <c r="G43" s="3">
-        <v>346400</v>
+        <v>348800</v>
       </c>
       <c r="H43" s="3">
-        <v>206200</v>
+        <v>207700</v>
       </c>
       <c r="I43" s="3">
-        <v>202400</v>
+        <v>203800</v>
       </c>
       <c r="J43" s="3">
-        <v>365200</v>
+        <v>367700</v>
       </c>
       <c r="K43" s="3">
         <v>337000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>530500</v>
+        <v>534100</v>
       </c>
       <c r="E44" s="3">
-        <v>250100</v>
+        <v>251800</v>
       </c>
       <c r="F44" s="3">
-        <v>364700</v>
+        <v>367200</v>
       </c>
       <c r="G44" s="3">
-        <v>740500</v>
+        <v>745600</v>
       </c>
       <c r="H44" s="3">
-        <v>1004200</v>
+        <v>1011100</v>
       </c>
       <c r="I44" s="3">
-        <v>1002100</v>
+        <v>1009000</v>
       </c>
       <c r="J44" s="3">
-        <v>703500</v>
+        <v>708300</v>
       </c>
       <c r="K44" s="3">
         <v>703100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>69700</v>
+        <v>70200</v>
       </c>
       <c r="E45" s="3">
-        <v>66700</v>
+        <v>67100</v>
       </c>
       <c r="F45" s="3">
-        <v>69600</v>
+        <v>70000</v>
       </c>
       <c r="G45" s="3">
-        <v>116900</v>
+        <v>117700</v>
       </c>
       <c r="H45" s="3">
-        <v>131800</v>
+        <v>132700</v>
       </c>
       <c r="I45" s="3">
-        <v>140800</v>
+        <v>141700</v>
       </c>
       <c r="J45" s="3">
-        <v>101700</v>
+        <v>102400</v>
       </c>
       <c r="K45" s="3">
         <v>136700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1516500</v>
+        <v>1527000</v>
       </c>
       <c r="E46" s="3">
-        <v>1408800</v>
+        <v>1418600</v>
       </c>
       <c r="F46" s="3">
-        <v>1623800</v>
+        <v>1635000</v>
       </c>
       <c r="G46" s="3">
-        <v>1665000</v>
+        <v>1676500</v>
       </c>
       <c r="H46" s="3">
-        <v>1592000</v>
+        <v>1602900</v>
       </c>
       <c r="I46" s="3">
-        <v>1702800</v>
+        <v>1714500</v>
       </c>
       <c r="J46" s="3">
-        <v>1612100</v>
+        <v>1623300</v>
       </c>
       <c r="K46" s="3">
         <v>1353200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>679700</v>
+        <v>684400</v>
       </c>
       <c r="E47" s="3">
-        <v>688300</v>
+        <v>693100</v>
       </c>
       <c r="F47" s="3">
-        <v>765900</v>
+        <v>771200</v>
       </c>
       <c r="G47" s="3">
-        <v>405500</v>
+        <v>408300</v>
       </c>
       <c r="H47" s="3">
-        <v>391300</v>
+        <v>394000</v>
       </c>
       <c r="I47" s="3">
-        <v>343500</v>
+        <v>345900</v>
       </c>
       <c r="J47" s="3">
-        <v>329500</v>
+        <v>331800</v>
       </c>
       <c r="K47" s="3">
         <v>595000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2940600</v>
+        <v>2960900</v>
       </c>
       <c r="E48" s="3">
-        <v>2900900</v>
+        <v>2920900</v>
       </c>
       <c r="F48" s="3">
-        <v>3026600</v>
+        <v>3047500</v>
       </c>
       <c r="G48" s="3">
-        <v>3268300</v>
+        <v>3290800</v>
       </c>
       <c r="H48" s="3">
-        <v>3629800</v>
+        <v>3654900</v>
       </c>
       <c r="I48" s="3">
-        <v>4076200</v>
+        <v>4104400</v>
       </c>
       <c r="J48" s="3">
-        <v>4125300</v>
+        <v>4153700</v>
       </c>
       <c r="K48" s="3">
         <v>3880700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>43500</v>
+        <v>43800</v>
       </c>
       <c r="E49" s="3">
-        <v>47100</v>
+        <v>47400</v>
       </c>
       <c r="F49" s="3">
-        <v>51100</v>
+        <v>51500</v>
       </c>
       <c r="G49" s="3">
-        <v>54600</v>
+        <v>55000</v>
       </c>
       <c r="H49" s="3">
-        <v>158500</v>
+        <v>159600</v>
       </c>
       <c r="I49" s="3">
-        <v>169300</v>
+        <v>170500</v>
       </c>
       <c r="J49" s="3">
-        <v>156800</v>
+        <v>157900</v>
       </c>
       <c r="K49" s="3">
         <v>149400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>730300</v>
+        <v>735300</v>
       </c>
       <c r="E52" s="3">
-        <v>745700</v>
+        <v>750800</v>
       </c>
       <c r="F52" s="3">
-        <v>784400</v>
+        <v>789800</v>
       </c>
       <c r="G52" s="3">
-        <v>671400</v>
+        <v>676100</v>
       </c>
       <c r="H52" s="3">
-        <v>660100</v>
+        <v>664600</v>
       </c>
       <c r="I52" s="3">
-        <v>565100</v>
+        <v>569000</v>
       </c>
       <c r="J52" s="3">
-        <v>382200</v>
+        <v>384800</v>
       </c>
       <c r="K52" s="3">
         <v>210600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5910500</v>
+        <v>5951300</v>
       </c>
       <c r="E54" s="3">
-        <v>5790800</v>
+        <v>5830800</v>
       </c>
       <c r="F54" s="3">
-        <v>6251900</v>
+        <v>6295000</v>
       </c>
       <c r="G54" s="3">
-        <v>6064800</v>
+        <v>6106700</v>
       </c>
       <c r="H54" s="3">
-        <v>6431700</v>
+        <v>6476000</v>
       </c>
       <c r="I54" s="3">
-        <v>6856900</v>
+        <v>6904200</v>
       </c>
       <c r="J54" s="3">
-        <v>6605900</v>
+        <v>6651500</v>
       </c>
       <c r="K54" s="3">
         <v>6188800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>107000</v>
+        <v>107700</v>
       </c>
       <c r="E57" s="3">
-        <v>78300</v>
+        <v>78800</v>
       </c>
       <c r="F57" s="3">
-        <v>96100</v>
+        <v>96700</v>
       </c>
       <c r="G57" s="3">
-        <v>138000</v>
+        <v>139000</v>
       </c>
       <c r="H57" s="3">
-        <v>166400</v>
+        <v>167600</v>
       </c>
       <c r="I57" s="3">
-        <v>155200</v>
+        <v>156300</v>
       </c>
       <c r="J57" s="3">
-        <v>142800</v>
+        <v>143800</v>
       </c>
       <c r="K57" s="3">
         <v>266700</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>389500</v>
+        <v>392200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>129900</v>
+        <v>130800</v>
       </c>
       <c r="E59" s="3">
-        <v>138000</v>
+        <v>139000</v>
       </c>
       <c r="F59" s="3">
-        <v>197300</v>
+        <v>198700</v>
       </c>
       <c r="G59" s="3">
-        <v>182400</v>
+        <v>183700</v>
       </c>
       <c r="H59" s="3">
-        <v>199400</v>
+        <v>200800</v>
       </c>
       <c r="I59" s="3">
-        <v>368400</v>
+        <v>371000</v>
       </c>
       <c r="J59" s="3">
-        <v>259400</v>
+        <v>261200</v>
       </c>
       <c r="K59" s="3">
         <v>205300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>236900</v>
+        <v>238500</v>
       </c>
       <c r="E60" s="3">
-        <v>216300</v>
+        <v>217800</v>
       </c>
       <c r="F60" s="3">
-        <v>682900</v>
+        <v>687600</v>
       </c>
       <c r="G60" s="3">
-        <v>320400</v>
+        <v>322700</v>
       </c>
       <c r="H60" s="3">
-        <v>365900</v>
+        <v>368400</v>
       </c>
       <c r="I60" s="3">
-        <v>523700</v>
+        <v>527300</v>
       </c>
       <c r="J60" s="3">
-        <v>402200</v>
+        <v>404900</v>
       </c>
       <c r="K60" s="3">
         <v>542400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>782400</v>
+        <v>787800</v>
       </c>
       <c r="E61" s="3">
-        <v>787100</v>
+        <v>792600</v>
       </c>
       <c r="F61" s="3">
-        <v>776600</v>
+        <v>782000</v>
       </c>
       <c r="G61" s="3">
-        <v>1165200</v>
+        <v>1173200</v>
       </c>
       <c r="H61" s="3">
-        <v>1164300</v>
+        <v>1172300</v>
       </c>
       <c r="I61" s="3">
-        <v>1163500</v>
+        <v>1171500</v>
       </c>
       <c r="J61" s="3">
-        <v>1162600</v>
+        <v>1170700</v>
       </c>
       <c r="K61" s="3">
         <v>995700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1025300</v>
+        <v>1032300</v>
       </c>
       <c r="E62" s="3">
-        <v>892900</v>
+        <v>899100</v>
       </c>
       <c r="F62" s="3">
-        <v>899000</v>
+        <v>905200</v>
       </c>
       <c r="G62" s="3">
-        <v>790300</v>
+        <v>795700</v>
       </c>
       <c r="H62" s="3">
-        <v>801600</v>
+        <v>807100</v>
       </c>
       <c r="I62" s="3">
-        <v>846300</v>
+        <v>852200</v>
       </c>
       <c r="J62" s="3">
-        <v>796700</v>
+        <v>802200</v>
       </c>
       <c r="K62" s="3">
         <v>532700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2044700</v>
+        <v>2058800</v>
       </c>
       <c r="E66" s="3">
-        <v>1896600</v>
+        <v>1909700</v>
       </c>
       <c r="F66" s="3">
-        <v>2358800</v>
+        <v>2375100</v>
       </c>
       <c r="G66" s="3">
-        <v>2276200</v>
+        <v>2291900</v>
       </c>
       <c r="H66" s="3">
-        <v>2331900</v>
+        <v>2347900</v>
       </c>
       <c r="I66" s="3">
-        <v>2532100</v>
+        <v>2549500</v>
       </c>
       <c r="J66" s="3">
-        <v>2361600</v>
+        <v>2377900</v>
       </c>
       <c r="K66" s="3">
         <v>2071600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2133000</v>
+        <v>2147800</v>
       </c>
       <c r="E72" s="3">
-        <v>2203000</v>
+        <v>2218200</v>
       </c>
       <c r="F72" s="3">
-        <v>2176300</v>
+        <v>2191300</v>
       </c>
       <c r="G72" s="3">
-        <v>2066500</v>
+        <v>2080700</v>
       </c>
       <c r="H72" s="3">
-        <v>2354500</v>
+        <v>2370800</v>
       </c>
       <c r="I72" s="3">
-        <v>2527600</v>
+        <v>2545100</v>
       </c>
       <c r="J72" s="3">
-        <v>2598700</v>
+        <v>2616600</v>
       </c>
       <c r="K72" s="3">
         <v>2551200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3865900</v>
+        <v>3892600</v>
       </c>
       <c r="E76" s="3">
-        <v>3894200</v>
+        <v>3921100</v>
       </c>
       <c r="F76" s="3">
-        <v>3893100</v>
+        <v>3920000</v>
       </c>
       <c r="G76" s="3">
-        <v>3788600</v>
+        <v>3814800</v>
       </c>
       <c r="H76" s="3">
-        <v>4099800</v>
+        <v>4128100</v>
       </c>
       <c r="I76" s="3">
-        <v>4324800</v>
+        <v>4354700</v>
       </c>
       <c r="J76" s="3">
-        <v>4244200</v>
+        <v>4273500</v>
       </c>
       <c r="K76" s="3">
         <v>4117200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-41500</v>
+        <v>-41700</v>
       </c>
       <c r="E81" s="3">
-        <v>57700</v>
+        <v>58100</v>
       </c>
       <c r="F81" s="3">
-        <v>129700</v>
+        <v>130600</v>
       </c>
       <c r="G81" s="3">
-        <v>-159800</v>
+        <v>-160900</v>
       </c>
       <c r="H81" s="3">
-        <v>-48000</v>
+        <v>-48400</v>
       </c>
       <c r="I81" s="3">
-        <v>50900</v>
+        <v>51300</v>
       </c>
       <c r="J81" s="3">
-        <v>144400</v>
+        <v>145400</v>
       </c>
       <c r="K81" s="3">
         <v>245200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>162700</v>
+        <v>163800</v>
       </c>
       <c r="E83" s="3">
-        <v>215000</v>
+        <v>216500</v>
       </c>
       <c r="F83" s="3">
-        <v>255700</v>
+        <v>257500</v>
       </c>
       <c r="G83" s="3">
-        <v>257600</v>
+        <v>259300</v>
       </c>
       <c r="H83" s="3">
-        <v>289800</v>
+        <v>291800</v>
       </c>
       <c r="I83" s="3">
-        <v>243700</v>
+        <v>245300</v>
       </c>
       <c r="J83" s="3">
-        <v>264300</v>
+        <v>266100</v>
       </c>
       <c r="K83" s="3">
         <v>217700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44400</v>
+        <v>44700</v>
       </c>
       <c r="E89" s="3">
-        <v>410900</v>
+        <v>413700</v>
       </c>
       <c r="F89" s="3">
-        <v>520400</v>
+        <v>524000</v>
       </c>
       <c r="G89" s="3">
-        <v>464700</v>
+        <v>467900</v>
       </c>
       <c r="H89" s="3">
-        <v>243600</v>
+        <v>245200</v>
       </c>
       <c r="I89" s="3">
-        <v>350900</v>
+        <v>353300</v>
       </c>
       <c r="J89" s="3">
-        <v>374400</v>
+        <v>377000</v>
       </c>
       <c r="K89" s="3">
         <v>407900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-60400</v>
+        <v>-60800</v>
       </c>
       <c r="E91" s="3">
-        <v>-58600</v>
+        <v>-59000</v>
       </c>
       <c r="F91" s="3">
-        <v>-43200</v>
+        <v>-43500</v>
       </c>
       <c r="G91" s="3">
-        <v>-88900</v>
+        <v>-89500</v>
       </c>
       <c r="H91" s="3">
-        <v>-169100</v>
+        <v>-170300</v>
       </c>
       <c r="I91" s="3">
-        <v>-279600</v>
+        <v>-281500</v>
       </c>
       <c r="J91" s="3">
-        <v>-374300</v>
+        <v>-376900</v>
       </c>
       <c r="K91" s="3">
         <v>-497000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78800</v>
+        <v>-79300</v>
       </c>
       <c r="E94" s="3">
-        <v>341000</v>
+        <v>343400</v>
       </c>
       <c r="F94" s="3">
-        <v>-320900</v>
+        <v>-323200</v>
       </c>
       <c r="G94" s="3">
-        <v>-72600</v>
+        <v>-73100</v>
       </c>
       <c r="H94" s="3">
-        <v>-169800</v>
+        <v>-171000</v>
       </c>
       <c r="I94" s="3">
-        <v>-265700</v>
+        <v>-267600</v>
       </c>
       <c r="J94" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="K94" s="3">
         <v>-657700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-24700</v>
+        <v>-24800</v>
       </c>
       <c r="E96" s="3">
-        <v>-24600</v>
+        <v>-24800</v>
       </c>
       <c r="F96" s="3">
-        <v>-55500</v>
+        <v>-55900</v>
       </c>
       <c r="G96" s="3">
-        <v>-123400</v>
+        <v>-124300</v>
       </c>
       <c r="H96" s="3">
-        <v>-123400</v>
+        <v>-124300</v>
       </c>
       <c r="I96" s="3">
-        <v>-123400</v>
+        <v>-124300</v>
       </c>
       <c r="J96" s="3">
-        <v>-123300</v>
+        <v>-124200</v>
       </c>
       <c r="K96" s="3">
         <v>-121800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-76400</v>
+        <v>-76900</v>
       </c>
       <c r="E100" s="3">
-        <v>-473200</v>
+        <v>-476500</v>
       </c>
       <c r="F100" s="3">
-        <v>-112400</v>
+        <v>-113200</v>
       </c>
       <c r="G100" s="3">
-        <v>-177600</v>
+        <v>-178800</v>
       </c>
       <c r="H100" s="3">
-        <v>-178400</v>
+        <v>-179600</v>
       </c>
       <c r="I100" s="3">
-        <v>-177600</v>
+        <v>-178900</v>
       </c>
       <c r="J100" s="3">
-        <v>-65400</v>
+        <v>-65900</v>
       </c>
       <c r="K100" s="3">
         <v>-184800</v>
@@ -3717,7 +3717,7 @@
         <v>-5200</v>
       </c>
       <c r="F101" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="G101" s="3">
         <v>-3000</v>
@@ -3726,10 +3726,10 @@
         <v>-3200</v>
       </c>
       <c r="I101" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="J101" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K101" s="3">
         <v>2300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-112300</v>
+        <v>-113100</v>
       </c>
       <c r="E102" s="3">
-        <v>273600</v>
+        <v>275500</v>
       </c>
       <c r="F102" s="3">
-        <v>93500</v>
+        <v>94100</v>
       </c>
       <c r="G102" s="3">
-        <v>211600</v>
+        <v>213000</v>
       </c>
       <c r="H102" s="3">
-        <v>-107800</v>
+        <v>-108600</v>
       </c>
       <c r="I102" s="3">
-        <v>-84200</v>
+        <v>-84800</v>
       </c>
       <c r="J102" s="3">
-        <v>295200</v>
+        <v>297300</v>
       </c>
       <c r="K102" s="3">
         <v>-432300</v>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>CCJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1413100</v>
+        <v>1157500</v>
       </c>
       <c r="E8" s="3">
-        <v>1462500</v>
+        <v>1412600</v>
       </c>
       <c r="F8" s="3">
-        <v>1642100</v>
+        <v>1461900</v>
       </c>
       <c r="G8" s="3">
-        <v>1693200</v>
+        <v>1641400</v>
       </c>
       <c r="H8" s="3">
-        <v>1908800</v>
+        <v>1692600</v>
       </c>
       <c r="I8" s="3">
-        <v>2162300</v>
+        <v>1908000</v>
       </c>
       <c r="J8" s="3">
+        <v>2161500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1882200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1877400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1407000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1831800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1329600</v>
+        <v>1156000</v>
       </c>
       <c r="E9" s="3">
-        <v>1272800</v>
+        <v>1329100</v>
       </c>
       <c r="F9" s="3">
-        <v>1409900</v>
+        <v>1272300</v>
       </c>
       <c r="G9" s="3">
-        <v>1350700</v>
+        <v>1409300</v>
       </c>
       <c r="H9" s="3">
-        <v>1544900</v>
+        <v>1350200</v>
       </c>
       <c r="I9" s="3">
-        <v>1615100</v>
+        <v>1544300</v>
       </c>
       <c r="J9" s="3">
+        <v>1614500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1381500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1410300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1005200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1235400</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>83600</v>
+        <v>1500</v>
       </c>
       <c r="E10" s="3">
-        <v>189700</v>
+        <v>83500</v>
       </c>
       <c r="F10" s="3">
-        <v>232200</v>
+        <v>189600</v>
       </c>
       <c r="G10" s="3">
-        <v>342500</v>
+        <v>232100</v>
       </c>
       <c r="H10" s="3">
-        <v>363900</v>
+        <v>342400</v>
       </c>
       <c r="I10" s="3">
-        <v>547200</v>
+        <v>363700</v>
       </c>
       <c r="J10" s="3">
+        <v>547000</v>
+      </c>
+      <c r="K10" s="3">
         <v>500700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>467100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>401900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>596400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E12" s="3">
         <v>11600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>37300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>36800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>40500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>61700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>79300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>68700</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-29300</v>
       </c>
-      <c r="E14" s="3">
-        <v>-41500</v>
-      </c>
       <c r="F14" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="G14" s="3">
         <v>-62600</v>
       </c>
-      <c r="G14" s="3">
-        <v>281300</v>
-      </c>
       <c r="H14" s="3">
-        <v>284200</v>
+        <v>281200</v>
       </c>
       <c r="I14" s="3">
-        <v>169200</v>
+        <v>284100</v>
       </c>
       <c r="J14" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K14" s="3">
         <v>256500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>54000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>125000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,12 +1000,15 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1445600</v>
+        <v>1247700</v>
       </c>
       <c r="E17" s="3">
-        <v>1348500</v>
+        <v>1445100</v>
       </c>
       <c r="F17" s="3">
-        <v>1524300</v>
+        <v>1348000</v>
       </c>
       <c r="G17" s="3">
-        <v>1793500</v>
+        <v>1523700</v>
       </c>
       <c r="H17" s="3">
-        <v>2020100</v>
+        <v>1792800</v>
       </c>
       <c r="I17" s="3">
-        <v>1969500</v>
+        <v>2019300</v>
       </c>
       <c r="J17" s="3">
+        <v>1968800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1852100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1673600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1342900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1430900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>114000</v>
       </c>
-      <c r="F18" s="3">
-        <v>117800</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100300</v>
+        <v>117700</v>
       </c>
       <c r="H18" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-111300</v>
       </c>
-      <c r="I18" s="3">
-        <v>192800</v>
-      </c>
       <c r="J18" s="3">
+        <v>192700</v>
+      </c>
+      <c r="K18" s="3">
         <v>30100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>203800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E20" s="3">
         <v>35500</v>
       </c>
-      <c r="E20" s="3">
-        <v>41600</v>
-      </c>
       <c r="F20" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-29100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4900</v>
       </c>
-      <c r="H20" s="3">
-        <v>48600</v>
-      </c>
       <c r="I20" s="3">
-        <v>-196100</v>
+        <v>48500</v>
       </c>
       <c r="J20" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-66700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-63700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>164800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>166200</v>
+        <v>98000</v>
       </c>
       <c r="E21" s="3">
-        <v>371200</v>
+        <v>166000</v>
       </c>
       <c r="F21" s="3">
-        <v>345200</v>
+        <v>370900</v>
       </c>
       <c r="G21" s="3">
-        <v>153100</v>
+        <v>344800</v>
       </c>
       <c r="H21" s="3">
-        <v>228000</v>
+        <v>152800</v>
       </c>
       <c r="I21" s="3">
-        <v>241100</v>
+        <v>227600</v>
       </c>
       <c r="J21" s="3">
+        <v>240800</v>
+      </c>
+      <c r="K21" s="3">
         <v>228600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>357400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>391100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>624500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E22" s="3">
         <v>34000</v>
       </c>
-      <c r="E22" s="3">
-        <v>49600</v>
-      </c>
       <c r="F22" s="3">
+        <v>49500</v>
+      </c>
+      <c r="G22" s="3">
         <v>57300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>57500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>58300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>56900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>79300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>57900</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-81500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>106000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>31300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-162700</v>
-      </c>
       <c r="H23" s="3">
-        <v>-121100</v>
+        <v>-162600</v>
       </c>
       <c r="I23" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-62200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-93500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>88600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>149700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>354600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>10700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>47900</v>
       </c>
-      <c r="F24" s="3">
-        <v>-99200</v>
-      </c>
       <c r="G24" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="H24" s="3">
         <v>7600</v>
       </c>
-      <c r="H24" s="3">
-        <v>-74100</v>
-      </c>
       <c r="I24" s="3">
-        <v>-112000</v>
+        <v>-74000</v>
       </c>
       <c r="J24" s="3">
+        <v>-111900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-137600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-90200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-37700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-41800</v>
+        <v>-80600</v>
       </c>
       <c r="E26" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="F26" s="3">
         <v>58000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>130500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-170300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-47000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>49700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>44100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>178900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>187400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>345600</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-41700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>58100</v>
       </c>
-      <c r="F27" s="3">
-        <v>130600</v>
-      </c>
       <c r="G27" s="3">
-        <v>-170500</v>
+        <v>130500</v>
       </c>
       <c r="H27" s="3">
-        <v>-48400</v>
+        <v>-170400</v>
       </c>
       <c r="I27" s="3">
-        <v>51300</v>
+        <v>-48300</v>
       </c>
       <c r="J27" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K27" s="3">
         <v>45500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>179500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>188500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>346000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,33 +1478,36 @@
       <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>9600</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>99900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>65700</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-35500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-41600</v>
-      </c>
       <c r="F32" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="G32" s="3">
         <v>29100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4900</v>
       </c>
-      <c r="H32" s="3">
-        <v>-48600</v>
-      </c>
       <c r="I32" s="3">
-        <v>196100</v>
+        <v>-48500</v>
       </c>
       <c r="J32" s="3">
+        <v>196000</v>
+      </c>
+      <c r="K32" s="3">
         <v>66700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>63700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-164800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-41700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>58100</v>
       </c>
-      <c r="F33" s="3">
-        <v>130600</v>
-      </c>
       <c r="G33" s="3">
-        <v>-160900</v>
+        <v>130500</v>
       </c>
       <c r="H33" s="3">
-        <v>-48400</v>
+        <v>-160800</v>
       </c>
       <c r="I33" s="3">
-        <v>51300</v>
+        <v>-48300</v>
       </c>
       <c r="J33" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K33" s="3">
         <v>145400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>245200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>188500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>346000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-41700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>58100</v>
       </c>
-      <c r="F35" s="3">
-        <v>130600</v>
-      </c>
       <c r="G35" s="3">
-        <v>-160900</v>
+        <v>130500</v>
       </c>
       <c r="H35" s="3">
-        <v>-48400</v>
+        <v>-160800</v>
       </c>
       <c r="I35" s="3">
-        <v>51300</v>
+        <v>-48300</v>
       </c>
       <c r="J35" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K35" s="3">
         <v>145400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>245200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>188500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>346000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,58 +1817,62 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>721000</v>
+        <v>978900</v>
       </c>
       <c r="E41" s="3">
-        <v>834100</v>
+        <v>720700</v>
       </c>
       <c r="F41" s="3">
-        <v>558600</v>
+        <v>833700</v>
       </c>
       <c r="G41" s="3">
-        <v>464500</v>
+        <v>558400</v>
       </c>
       <c r="H41" s="3">
-        <v>251400</v>
+        <v>464300</v>
       </c>
       <c r="I41" s="3">
-        <v>360000</v>
+        <v>251300</v>
       </c>
       <c r="J41" s="3">
+        <v>359900</v>
+      </c>
+      <c r="K41" s="3">
         <v>444800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>176400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>557800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>305800</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E42" s="3">
         <v>19600</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
-        <v>307000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>306900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>11</v>
@@ -1794,270 +1883,294 @@
       <c r="J42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>36900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>617800</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E43" s="3">
         <v>182000</v>
       </c>
-      <c r="E43" s="3">
-        <v>265600</v>
-      </c>
       <c r="F43" s="3">
-        <v>332200</v>
+        <v>265500</v>
       </c>
       <c r="G43" s="3">
-        <v>348800</v>
+        <v>332100</v>
       </c>
       <c r="H43" s="3">
-        <v>207700</v>
+        <v>348700</v>
       </c>
       <c r="I43" s="3">
-        <v>203800</v>
+        <v>207600</v>
       </c>
       <c r="J43" s="3">
+        <v>203700</v>
+      </c>
+      <c r="K43" s="3">
         <v>367700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>337000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>359100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>542100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>534100</v>
+        <v>321400</v>
       </c>
       <c r="E44" s="3">
-        <v>251800</v>
+        <v>533900</v>
       </c>
       <c r="F44" s="3">
-        <v>367200</v>
+        <v>251700</v>
       </c>
       <c r="G44" s="3">
-        <v>745600</v>
+        <v>367100</v>
       </c>
       <c r="H44" s="3">
-        <v>1011100</v>
+        <v>745300</v>
       </c>
       <c r="I44" s="3">
-        <v>1009000</v>
+        <v>1010700</v>
       </c>
       <c r="J44" s="3">
+        <v>1008600</v>
+      </c>
+      <c r="K44" s="3">
         <v>708300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>703100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>838800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>379400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E45" s="3">
         <v>70200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>67100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>70000</v>
       </c>
-      <c r="G45" s="3">
-        <v>117700</v>
-      </c>
       <c r="H45" s="3">
+        <v>117600</v>
+      </c>
+      <c r="I45" s="3">
         <v>132700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>141700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>102400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>136700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>82400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>139800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1527000</v>
+        <v>1680600</v>
       </c>
       <c r="E46" s="3">
-        <v>1418600</v>
+        <v>1526400</v>
       </c>
       <c r="F46" s="3">
-        <v>1635000</v>
+        <v>1418000</v>
       </c>
       <c r="G46" s="3">
-        <v>1676500</v>
+        <v>1634400</v>
       </c>
       <c r="H46" s="3">
-        <v>1602900</v>
+        <v>1675900</v>
       </c>
       <c r="I46" s="3">
-        <v>1714500</v>
+        <v>1602300</v>
       </c>
       <c r="J46" s="3">
+        <v>1713800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1623300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1353200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1421200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1984900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>684400</v>
+        <v>636200</v>
       </c>
       <c r="E47" s="3">
-        <v>693100</v>
+        <v>684100</v>
       </c>
       <c r="F47" s="3">
-        <v>771200</v>
+        <v>692800</v>
       </c>
       <c r="G47" s="3">
-        <v>408300</v>
+        <v>770900</v>
       </c>
       <c r="H47" s="3">
-        <v>394000</v>
+        <v>408100</v>
       </c>
       <c r="I47" s="3">
-        <v>345900</v>
+        <v>393800</v>
       </c>
       <c r="J47" s="3">
+        <v>345700</v>
+      </c>
+      <c r="K47" s="3">
         <v>331800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>595000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>515600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>386200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2960900</v>
+        <v>2806700</v>
       </c>
       <c r="E48" s="3">
-        <v>2920900</v>
+        <v>2959700</v>
       </c>
       <c r="F48" s="3">
-        <v>3047500</v>
+        <v>2919800</v>
       </c>
       <c r="G48" s="3">
-        <v>3290800</v>
+        <v>3046300</v>
       </c>
       <c r="H48" s="3">
-        <v>3654900</v>
+        <v>3289500</v>
       </c>
       <c r="I48" s="3">
-        <v>4104400</v>
+        <v>3653400</v>
       </c>
       <c r="J48" s="3">
+        <v>4102700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4153700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3880700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1377600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3341400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E49" s="3">
         <v>43800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>47400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>51500</v>
       </c>
-      <c r="G49" s="3">
-        <v>55000</v>
-      </c>
       <c r="H49" s="3">
-        <v>159600</v>
+        <v>54900</v>
       </c>
       <c r="I49" s="3">
-        <v>170500</v>
+        <v>159500</v>
       </c>
       <c r="J49" s="3">
+        <v>170400</v>
+      </c>
+      <c r="K49" s="3">
         <v>157900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>149400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>139500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>76000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>735300</v>
+        <v>735800</v>
       </c>
       <c r="E52" s="3">
-        <v>750800</v>
+        <v>735000</v>
       </c>
       <c r="F52" s="3">
-        <v>789800</v>
+        <v>750500</v>
       </c>
       <c r="G52" s="3">
-        <v>676100</v>
+        <v>789500</v>
       </c>
       <c r="H52" s="3">
-        <v>664600</v>
+        <v>675800</v>
       </c>
       <c r="I52" s="3">
-        <v>569000</v>
+        <v>664400</v>
       </c>
       <c r="J52" s="3">
+        <v>568800</v>
+      </c>
+      <c r="K52" s="3">
         <v>384800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>210600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>161000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>62500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5951300</v>
+        <v>5899500</v>
       </c>
       <c r="E54" s="3">
-        <v>5830800</v>
+        <v>5949000</v>
       </c>
       <c r="F54" s="3">
-        <v>6295000</v>
+        <v>5828500</v>
       </c>
       <c r="G54" s="3">
-        <v>6106700</v>
+        <v>6292500</v>
       </c>
       <c r="H54" s="3">
-        <v>6476000</v>
+        <v>6104300</v>
       </c>
       <c r="I54" s="3">
-        <v>6904200</v>
+        <v>6473500</v>
       </c>
       <c r="J54" s="3">
+        <v>6901500</v>
+      </c>
+      <c r="K54" s="3">
         <v>6651500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6188800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5530300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5851100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,58 +2397,62 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E57" s="3">
         <v>107700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>78800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>96700</v>
       </c>
-      <c r="G57" s="3">
-        <v>139000</v>
-      </c>
       <c r="H57" s="3">
-        <v>167600</v>
+        <v>138900</v>
       </c>
       <c r="I57" s="3">
-        <v>156300</v>
+        <v>167500</v>
       </c>
       <c r="J57" s="3">
+        <v>156200</v>
+      </c>
+      <c r="K57" s="3">
         <v>143800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>266700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>444000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>238900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>392200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>392100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>11</v>
@@ -2327,165 +2460,180 @@
       <c r="I58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>70400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>62100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>86600</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>130800</v>
+        <v>157200</v>
       </c>
       <c r="E59" s="3">
-        <v>139000</v>
+        <v>130700</v>
       </c>
       <c r="F59" s="3">
-        <v>198700</v>
+        <v>138900</v>
       </c>
       <c r="G59" s="3">
-        <v>183700</v>
+        <v>198600</v>
       </c>
       <c r="H59" s="3">
-        <v>200800</v>
+        <v>183600</v>
       </c>
       <c r="I59" s="3">
-        <v>371000</v>
+        <v>200700</v>
       </c>
       <c r="J59" s="3">
+        <v>370800</v>
+      </c>
+      <c r="K59" s="3">
         <v>261200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>205300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>191000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>221800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>238500</v>
+        <v>324700</v>
       </c>
       <c r="E60" s="3">
-        <v>217800</v>
+        <v>238400</v>
       </c>
       <c r="F60" s="3">
-        <v>687600</v>
+        <v>217700</v>
       </c>
       <c r="G60" s="3">
-        <v>322700</v>
+        <v>687300</v>
       </c>
       <c r="H60" s="3">
-        <v>368400</v>
+        <v>322500</v>
       </c>
       <c r="I60" s="3">
-        <v>527300</v>
+        <v>368200</v>
       </c>
       <c r="J60" s="3">
+        <v>527100</v>
+      </c>
+      <c r="K60" s="3">
         <v>404900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>542400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>418800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>547200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>787800</v>
+        <v>781800</v>
       </c>
       <c r="E61" s="3">
-        <v>792600</v>
+        <v>787500</v>
       </c>
       <c r="F61" s="3">
-        <v>782000</v>
+        <v>792300</v>
       </c>
       <c r="G61" s="3">
-        <v>1173200</v>
+        <v>781700</v>
       </c>
       <c r="H61" s="3">
-        <v>1172300</v>
+        <v>1172800</v>
       </c>
       <c r="I61" s="3">
-        <v>1171500</v>
+        <v>1171900</v>
       </c>
       <c r="J61" s="3">
+        <v>1171000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1170700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>995700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>961800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>711500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1032300</v>
+        <v>990200</v>
       </c>
       <c r="E62" s="3">
-        <v>899100</v>
+        <v>1031900</v>
       </c>
       <c r="F62" s="3">
-        <v>905200</v>
+        <v>898800</v>
       </c>
       <c r="G62" s="3">
-        <v>795700</v>
+        <v>904900</v>
       </c>
       <c r="H62" s="3">
-        <v>807100</v>
+        <v>795400</v>
       </c>
       <c r="I62" s="3">
-        <v>852200</v>
+        <v>806800</v>
       </c>
       <c r="J62" s="3">
+        <v>851800</v>
+      </c>
+      <c r="K62" s="3">
         <v>802200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>532700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>917900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>810300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2058800</v>
+        <v>2096700</v>
       </c>
       <c r="E66" s="3">
-        <v>1909700</v>
+        <v>2058000</v>
       </c>
       <c r="F66" s="3">
-        <v>2375100</v>
+        <v>1908900</v>
       </c>
       <c r="G66" s="3">
-        <v>2291900</v>
+        <v>2374100</v>
       </c>
       <c r="H66" s="3">
-        <v>2347900</v>
+        <v>2291000</v>
       </c>
       <c r="I66" s="3">
-        <v>2549500</v>
+        <v>2347000</v>
       </c>
       <c r="J66" s="3">
+        <v>2548500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2377900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2071600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1852800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2071700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2147800</v>
+        <v>2071400</v>
       </c>
       <c r="E72" s="3">
-        <v>2218200</v>
+        <v>2146900</v>
       </c>
       <c r="F72" s="3">
-        <v>2191300</v>
+        <v>2217400</v>
       </c>
       <c r="G72" s="3">
-        <v>2080700</v>
+        <v>2190500</v>
       </c>
       <c r="H72" s="3">
-        <v>2370800</v>
+        <v>2079900</v>
       </c>
       <c r="I72" s="3">
-        <v>2545100</v>
+        <v>2369800</v>
       </c>
       <c r="J72" s="3">
+        <v>2544100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2616600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2551200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2168000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2208600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3892600</v>
+        <v>3802700</v>
       </c>
       <c r="E76" s="3">
-        <v>3921100</v>
+        <v>3891000</v>
       </c>
       <c r="F76" s="3">
-        <v>3920000</v>
+        <v>3919600</v>
       </c>
       <c r="G76" s="3">
-        <v>3814800</v>
+        <v>3918400</v>
       </c>
       <c r="H76" s="3">
-        <v>4128100</v>
+        <v>3813300</v>
       </c>
       <c r="I76" s="3">
-        <v>4354700</v>
+        <v>4126500</v>
       </c>
       <c r="J76" s="3">
+        <v>4353000</v>
+      </c>
+      <c r="K76" s="3">
         <v>4273500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4117200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3677400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3779400</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-41700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>58100</v>
       </c>
-      <c r="F81" s="3">
-        <v>130600</v>
-      </c>
       <c r="G81" s="3">
-        <v>-160900</v>
+        <v>130500</v>
       </c>
       <c r="H81" s="3">
-        <v>-48400</v>
+        <v>-160800</v>
       </c>
       <c r="I81" s="3">
-        <v>51300</v>
+        <v>-48300</v>
       </c>
       <c r="J81" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K81" s="3">
         <v>145400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>245200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>188500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>346000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>163800</v>
+        <v>149400</v>
       </c>
       <c r="E83" s="3">
-        <v>216500</v>
+        <v>163700</v>
       </c>
       <c r="F83" s="3">
-        <v>257500</v>
+        <v>216400</v>
       </c>
       <c r="G83" s="3">
-        <v>259300</v>
+        <v>257400</v>
       </c>
       <c r="H83" s="3">
-        <v>291800</v>
+        <v>259200</v>
       </c>
       <c r="I83" s="3">
-        <v>245300</v>
+        <v>291700</v>
       </c>
       <c r="J83" s="3">
+        <v>245200</v>
+      </c>
+      <c r="K83" s="3">
         <v>266100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>217700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>161800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>211000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44700</v>
+        <v>359600</v>
       </c>
       <c r="E89" s="3">
-        <v>413700</v>
+        <v>44600</v>
       </c>
       <c r="F89" s="3">
-        <v>524000</v>
+        <v>413600</v>
       </c>
       <c r="G89" s="3">
-        <v>467900</v>
+        <v>523800</v>
       </c>
       <c r="H89" s="3">
-        <v>245200</v>
+        <v>467700</v>
       </c>
       <c r="I89" s="3">
-        <v>353300</v>
+        <v>245100</v>
       </c>
       <c r="J89" s="3">
+        <v>353100</v>
+      </c>
+      <c r="K89" s="3">
         <v>377000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>407900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>431200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>572200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-60800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-59000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-43500</v>
-      </c>
       <c r="G91" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-89500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-170300</v>
-      </c>
       <c r="I91" s="3">
-        <v>-281500</v>
+        <v>-170200</v>
       </c>
       <c r="J91" s="3">
+        <v>-281400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-376900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-497000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-499800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-497200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-79300</v>
       </c>
-      <c r="E94" s="3">
-        <v>343400</v>
-      </c>
       <c r="F94" s="3">
-        <v>-323200</v>
+        <v>343200</v>
       </c>
       <c r="G94" s="3">
-        <v>-73100</v>
+        <v>-323000</v>
       </c>
       <c r="H94" s="3">
-        <v>-171000</v>
+        <v>-73000</v>
       </c>
       <c r="I94" s="3">
-        <v>-267600</v>
+        <v>-170900</v>
       </c>
       <c r="J94" s="3">
+        <v>-267400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-16300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-657700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-384300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-405600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-24800</v>
+        <v>-25000</v>
       </c>
       <c r="E96" s="3">
         <v>-24800</v>
       </c>
       <c r="F96" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-55900</v>
       </c>
-      <c r="G96" s="3">
-        <v>-124300</v>
-      </c>
       <c r="H96" s="3">
-        <v>-124300</v>
+        <v>-124200</v>
       </c>
       <c r="I96" s="3">
-        <v>-124300</v>
+        <v>-124200</v>
       </c>
       <c r="J96" s="3">
         <v>-124200</v>
       </c>
       <c r="K96" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="L96" s="3">
         <v>-121800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-117600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-112200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-76900</v>
       </c>
-      <c r="E100" s="3">
-        <v>-476500</v>
-      </c>
       <c r="F100" s="3">
+        <v>-476300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-113200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-178800</v>
       </c>
-      <c r="H100" s="3">
-        <v>-179600</v>
-      </c>
       <c r="I100" s="3">
-        <v>-178900</v>
+        <v>-179500</v>
       </c>
       <c r="J100" s="3">
+        <v>-178800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-65900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-184800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>216900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-155000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-113100</v>
+        <v>258200</v>
       </c>
       <c r="E102" s="3">
-        <v>275500</v>
+        <v>-113000</v>
       </c>
       <c r="F102" s="3">
+        <v>275400</v>
+      </c>
+      <c r="G102" s="3">
         <v>94100</v>
       </c>
-      <c r="G102" s="3">
-        <v>213000</v>
-      </c>
       <c r="H102" s="3">
-        <v>-108600</v>
+        <v>212900</v>
       </c>
       <c r="I102" s="3">
-        <v>-84800</v>
+        <v>-108500</v>
       </c>
       <c r="J102" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="K102" s="3">
         <v>297300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-432300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>263400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1157500</v>
+        <v>1130800</v>
       </c>
       <c r="E8" s="3">
-        <v>1412600</v>
+        <v>1380000</v>
       </c>
       <c r="F8" s="3">
-        <v>1461900</v>
+        <v>1428200</v>
       </c>
       <c r="G8" s="3">
-        <v>1641400</v>
+        <v>1603600</v>
       </c>
       <c r="H8" s="3">
-        <v>1692600</v>
+        <v>1653500</v>
       </c>
       <c r="I8" s="3">
-        <v>1908000</v>
+        <v>1864000</v>
       </c>
       <c r="J8" s="3">
-        <v>2161500</v>
+        <v>2111600</v>
       </c>
       <c r="K8" s="3">
         <v>1882200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1156000</v>
+        <v>1129300</v>
       </c>
       <c r="E9" s="3">
-        <v>1329100</v>
+        <v>1298400</v>
       </c>
       <c r="F9" s="3">
-        <v>1272300</v>
+        <v>1243000</v>
       </c>
       <c r="G9" s="3">
-        <v>1409300</v>
+        <v>1376800</v>
       </c>
       <c r="H9" s="3">
-        <v>1350200</v>
+        <v>1319100</v>
       </c>
       <c r="I9" s="3">
-        <v>1544300</v>
+        <v>1508700</v>
       </c>
       <c r="J9" s="3">
-        <v>1614500</v>
+        <v>1577200</v>
       </c>
       <c r="K9" s="3">
         <v>1381500</v>
@@ -804,22 +804,22 @@
         <v>1500</v>
       </c>
       <c r="E10" s="3">
-        <v>83500</v>
+        <v>81600</v>
       </c>
       <c r="F10" s="3">
-        <v>189600</v>
+        <v>185200</v>
       </c>
       <c r="G10" s="3">
-        <v>232100</v>
+        <v>226700</v>
       </c>
       <c r="H10" s="3">
-        <v>342400</v>
+        <v>334500</v>
       </c>
       <c r="I10" s="3">
-        <v>363700</v>
+        <v>355300</v>
       </c>
       <c r="J10" s="3">
-        <v>547000</v>
+        <v>534400</v>
       </c>
       <c r="K10" s="3">
         <v>500700</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="E12" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="F12" s="3">
-        <v>15500</v>
+        <v>15100</v>
       </c>
       <c r="G12" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="H12" s="3">
-        <v>27900</v>
+        <v>27300</v>
       </c>
       <c r="I12" s="3">
-        <v>37300</v>
+        <v>36400</v>
       </c>
       <c r="J12" s="3">
-        <v>36800</v>
+        <v>35900</v>
       </c>
       <c r="K12" s="3">
         <v>40500</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-16600</v>
+        <v>-16300</v>
       </c>
       <c r="E14" s="3">
-        <v>-29300</v>
+        <v>-28600</v>
       </c>
       <c r="F14" s="3">
-        <v>-41400</v>
+        <v>-40500</v>
       </c>
       <c r="G14" s="3">
-        <v>-62600</v>
+        <v>-61200</v>
       </c>
       <c r="H14" s="3">
-        <v>281200</v>
+        <v>274700</v>
       </c>
       <c r="I14" s="3">
-        <v>284100</v>
+        <v>277500</v>
       </c>
       <c r="J14" s="3">
-        <v>169100</v>
+        <v>165200</v>
       </c>
       <c r="K14" s="3">
         <v>256500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1247700</v>
+        <v>1218900</v>
       </c>
       <c r="E17" s="3">
-        <v>1445100</v>
+        <v>1411700</v>
       </c>
       <c r="F17" s="3">
-        <v>1348000</v>
+        <v>1316900</v>
       </c>
       <c r="G17" s="3">
-        <v>1523700</v>
+        <v>1488500</v>
       </c>
       <c r="H17" s="3">
-        <v>1792800</v>
+        <v>1751500</v>
       </c>
       <c r="I17" s="3">
-        <v>2019300</v>
+        <v>1972700</v>
       </c>
       <c r="J17" s="3">
-        <v>1968800</v>
+        <v>1923300</v>
       </c>
       <c r="K17" s="3">
         <v>1852100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-90200</v>
+        <v>-88200</v>
       </c>
       <c r="E18" s="3">
-        <v>-32500</v>
+        <v>-31700</v>
       </c>
       <c r="F18" s="3">
-        <v>114000</v>
+        <v>111300</v>
       </c>
       <c r="G18" s="3">
-        <v>117700</v>
+        <v>115000</v>
       </c>
       <c r="H18" s="3">
-        <v>-100200</v>
+        <v>-97900</v>
       </c>
       <c r="I18" s="3">
-        <v>-111300</v>
+        <v>-108700</v>
       </c>
       <c r="J18" s="3">
-        <v>192700</v>
+        <v>188300</v>
       </c>
       <c r="K18" s="3">
         <v>30100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>39600</v>
+        <v>38600</v>
       </c>
       <c r="E20" s="3">
-        <v>35500</v>
+        <v>34600</v>
       </c>
       <c r="F20" s="3">
-        <v>41500</v>
+        <v>40600</v>
       </c>
       <c r="G20" s="3">
-        <v>-29100</v>
+        <v>-28400</v>
       </c>
       <c r="H20" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="I20" s="3">
-        <v>48500</v>
+        <v>47400</v>
       </c>
       <c r="J20" s="3">
-        <v>-196000</v>
+        <v>-191500</v>
       </c>
       <c r="K20" s="3">
         <v>-66700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>98000</v>
+        <v>97000</v>
       </c>
       <c r="E21" s="3">
-        <v>166000</v>
+        <v>163500</v>
       </c>
       <c r="F21" s="3">
-        <v>370900</v>
+        <v>364100</v>
       </c>
       <c r="G21" s="3">
-        <v>344800</v>
+        <v>339000</v>
       </c>
       <c r="H21" s="3">
-        <v>152800</v>
+        <v>151500</v>
       </c>
       <c r="I21" s="3">
-        <v>227600</v>
+        <v>224800</v>
       </c>
       <c r="J21" s="3">
-        <v>240800</v>
+        <v>237300</v>
       </c>
       <c r="K21" s="3">
         <v>228600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30800</v>
+        <v>30100</v>
       </c>
       <c r="E22" s="3">
-        <v>34000</v>
+        <v>33200</v>
       </c>
       <c r="F22" s="3">
-        <v>49500</v>
+        <v>48400</v>
       </c>
       <c r="G22" s="3">
-        <v>57300</v>
+        <v>56000</v>
       </c>
       <c r="H22" s="3">
-        <v>57500</v>
+        <v>56100</v>
       </c>
       <c r="I22" s="3">
-        <v>58300</v>
+        <v>57000</v>
       </c>
       <c r="J22" s="3">
-        <v>58900</v>
+        <v>57600</v>
       </c>
       <c r="K22" s="3">
         <v>56900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-81500</v>
+        <v>-79600</v>
       </c>
       <c r="E23" s="3">
-        <v>-31000</v>
+        <v>-30300</v>
       </c>
       <c r="F23" s="3">
-        <v>106000</v>
+        <v>103500</v>
       </c>
       <c r="G23" s="3">
-        <v>31300</v>
+        <v>30600</v>
       </c>
       <c r="H23" s="3">
-        <v>-162600</v>
+        <v>-158900</v>
       </c>
       <c r="I23" s="3">
-        <v>-121000</v>
+        <v>-118200</v>
       </c>
       <c r="J23" s="3">
-        <v>-62200</v>
+        <v>-60800</v>
       </c>
       <c r="K23" s="3">
         <v>-93500</v>
@@ -1281,22 +1281,22 @@
         <v>-900</v>
       </c>
       <c r="E24" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="F24" s="3">
-        <v>47900</v>
+        <v>46800</v>
       </c>
       <c r="G24" s="3">
-        <v>-99100</v>
+        <v>-96800</v>
       </c>
       <c r="H24" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="I24" s="3">
-        <v>-74000</v>
+        <v>-72300</v>
       </c>
       <c r="J24" s="3">
-        <v>-111900</v>
+        <v>-109300</v>
       </c>
       <c r="K24" s="3">
         <v>-137600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-80600</v>
+        <v>-78700</v>
       </c>
       <c r="E26" s="3">
-        <v>-41700</v>
+        <v>-40800</v>
       </c>
       <c r="F26" s="3">
-        <v>58000</v>
+        <v>56700</v>
       </c>
       <c r="G26" s="3">
-        <v>130500</v>
+        <v>127400</v>
       </c>
       <c r="H26" s="3">
-        <v>-170200</v>
+        <v>-166300</v>
       </c>
       <c r="I26" s="3">
-        <v>-47000</v>
+        <v>-45900</v>
       </c>
       <c r="J26" s="3">
-        <v>49700</v>
+        <v>48600</v>
       </c>
       <c r="K26" s="3">
         <v>44100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-80500</v>
+        <v>-78600</v>
       </c>
       <c r="E27" s="3">
-        <v>-41700</v>
+        <v>-40800</v>
       </c>
       <c r="F27" s="3">
-        <v>58100</v>
+        <v>56700</v>
       </c>
       <c r="G27" s="3">
-        <v>130500</v>
+        <v>127500</v>
       </c>
       <c r="H27" s="3">
-        <v>-170400</v>
+        <v>-166500</v>
       </c>
       <c r="I27" s="3">
-        <v>-48300</v>
+        <v>-47200</v>
       </c>
       <c r="J27" s="3">
-        <v>51200</v>
+        <v>50100</v>
       </c>
       <c r="K27" s="3">
         <v>45500</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>11</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-39600</v>
+        <v>-38600</v>
       </c>
       <c r="E32" s="3">
-        <v>-35500</v>
+        <v>-34600</v>
       </c>
       <c r="F32" s="3">
-        <v>-41500</v>
+        <v>-40600</v>
       </c>
       <c r="G32" s="3">
-        <v>29100</v>
+        <v>28400</v>
       </c>
       <c r="H32" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I32" s="3">
-        <v>-48500</v>
+        <v>-47400</v>
       </c>
       <c r="J32" s="3">
-        <v>196000</v>
+        <v>191500</v>
       </c>
       <c r="K32" s="3">
         <v>66700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-80500</v>
+        <v>-78600</v>
       </c>
       <c r="E33" s="3">
-        <v>-41700</v>
+        <v>-40800</v>
       </c>
       <c r="F33" s="3">
-        <v>58100</v>
+        <v>56700</v>
       </c>
       <c r="G33" s="3">
-        <v>130500</v>
+        <v>127500</v>
       </c>
       <c r="H33" s="3">
-        <v>-160800</v>
+        <v>-157100</v>
       </c>
       <c r="I33" s="3">
-        <v>-48300</v>
+        <v>-47200</v>
       </c>
       <c r="J33" s="3">
-        <v>51200</v>
+        <v>50100</v>
       </c>
       <c r="K33" s="3">
         <v>145400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-80500</v>
+        <v>-78600</v>
       </c>
       <c r="E35" s="3">
-        <v>-41700</v>
+        <v>-40800</v>
       </c>
       <c r="F35" s="3">
-        <v>58100</v>
+        <v>56700</v>
       </c>
       <c r="G35" s="3">
-        <v>130500</v>
+        <v>127500</v>
       </c>
       <c r="H35" s="3">
-        <v>-160800</v>
+        <v>-157100</v>
       </c>
       <c r="I35" s="3">
-        <v>-48300</v>
+        <v>-47200</v>
       </c>
       <c r="J35" s="3">
-        <v>51200</v>
+        <v>50100</v>
       </c>
       <c r="K35" s="3">
         <v>145400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>978900</v>
+        <v>956300</v>
       </c>
       <c r="E41" s="3">
-        <v>720700</v>
+        <v>704100</v>
       </c>
       <c r="F41" s="3">
-        <v>833700</v>
+        <v>814500</v>
       </c>
       <c r="G41" s="3">
-        <v>558400</v>
+        <v>545500</v>
       </c>
       <c r="H41" s="3">
-        <v>464300</v>
+        <v>453600</v>
       </c>
       <c r="I41" s="3">
-        <v>251300</v>
+        <v>245500</v>
       </c>
       <c r="J41" s="3">
-        <v>359900</v>
+        <v>351600</v>
       </c>
       <c r="K41" s="3">
         <v>444800</v>
@@ -1863,16 +1863,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66600</v>
+        <v>65100</v>
       </c>
       <c r="E42" s="3">
-        <v>19600</v>
+        <v>19200</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>306900</v>
+        <v>299800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>11</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>238800</v>
+        <v>233300</v>
       </c>
       <c r="E43" s="3">
-        <v>182000</v>
+        <v>177800</v>
       </c>
       <c r="F43" s="3">
-        <v>265500</v>
+        <v>259300</v>
       </c>
       <c r="G43" s="3">
-        <v>332100</v>
+        <v>324400</v>
       </c>
       <c r="H43" s="3">
-        <v>348700</v>
+        <v>340600</v>
       </c>
       <c r="I43" s="3">
-        <v>207600</v>
+        <v>202800</v>
       </c>
       <c r="J43" s="3">
-        <v>203700</v>
+        <v>199000</v>
       </c>
       <c r="K43" s="3">
         <v>367700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>321400</v>
+        <v>314000</v>
       </c>
       <c r="E44" s="3">
-        <v>533900</v>
+        <v>521600</v>
       </c>
       <c r="F44" s="3">
-        <v>251700</v>
+        <v>245900</v>
       </c>
       <c r="G44" s="3">
-        <v>367100</v>
+        <v>358600</v>
       </c>
       <c r="H44" s="3">
-        <v>745300</v>
+        <v>728100</v>
       </c>
       <c r="I44" s="3">
-        <v>1010700</v>
+        <v>987400</v>
       </c>
       <c r="J44" s="3">
-        <v>1008600</v>
+        <v>985300</v>
       </c>
       <c r="K44" s="3">
         <v>708300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74800</v>
+        <v>73100</v>
       </c>
       <c r="E45" s="3">
-        <v>70200</v>
+        <v>68600</v>
       </c>
       <c r="F45" s="3">
-        <v>67100</v>
+        <v>65500</v>
       </c>
       <c r="G45" s="3">
-        <v>70000</v>
+        <v>68400</v>
       </c>
       <c r="H45" s="3">
-        <v>117600</v>
+        <v>114900</v>
       </c>
       <c r="I45" s="3">
-        <v>132700</v>
+        <v>129600</v>
       </c>
       <c r="J45" s="3">
-        <v>141700</v>
+        <v>138400</v>
       </c>
       <c r="K45" s="3">
         <v>102400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1680600</v>
+        <v>1641800</v>
       </c>
       <c r="E46" s="3">
-        <v>1526400</v>
+        <v>1491100</v>
       </c>
       <c r="F46" s="3">
-        <v>1418000</v>
+        <v>1385300</v>
       </c>
       <c r="G46" s="3">
-        <v>1634400</v>
+        <v>1596700</v>
       </c>
       <c r="H46" s="3">
-        <v>1675900</v>
+        <v>1637200</v>
       </c>
       <c r="I46" s="3">
-        <v>1602300</v>
+        <v>1565400</v>
       </c>
       <c r="J46" s="3">
-        <v>1713800</v>
+        <v>1674300</v>
       </c>
       <c r="K46" s="3">
         <v>1623300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>636200</v>
+        <v>621600</v>
       </c>
       <c r="E47" s="3">
-        <v>684100</v>
+        <v>668300</v>
       </c>
       <c r="F47" s="3">
-        <v>692800</v>
+        <v>676800</v>
       </c>
       <c r="G47" s="3">
-        <v>770900</v>
+        <v>753100</v>
       </c>
       <c r="H47" s="3">
-        <v>408100</v>
+        <v>398700</v>
       </c>
       <c r="I47" s="3">
-        <v>393800</v>
+        <v>384800</v>
       </c>
       <c r="J47" s="3">
-        <v>345700</v>
+        <v>337800</v>
       </c>
       <c r="K47" s="3">
         <v>331800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2806700</v>
+        <v>2742000</v>
       </c>
       <c r="E48" s="3">
-        <v>2959700</v>
+        <v>2891400</v>
       </c>
       <c r="F48" s="3">
-        <v>2919800</v>
+        <v>2852400</v>
       </c>
       <c r="G48" s="3">
-        <v>3046300</v>
+        <v>2976000</v>
       </c>
       <c r="H48" s="3">
-        <v>3289500</v>
+        <v>3213700</v>
       </c>
       <c r="I48" s="3">
-        <v>3653400</v>
+        <v>3569200</v>
       </c>
       <c r="J48" s="3">
-        <v>4102700</v>
+        <v>4008100</v>
       </c>
       <c r="K48" s="3">
         <v>4153700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40200</v>
+        <v>39300</v>
       </c>
       <c r="E49" s="3">
-        <v>43800</v>
+        <v>42800</v>
       </c>
       <c r="F49" s="3">
-        <v>47400</v>
+        <v>46300</v>
       </c>
       <c r="G49" s="3">
-        <v>51500</v>
+        <v>50300</v>
       </c>
       <c r="H49" s="3">
-        <v>54900</v>
+        <v>53700</v>
       </c>
       <c r="I49" s="3">
-        <v>159500</v>
+        <v>155900</v>
       </c>
       <c r="J49" s="3">
-        <v>170400</v>
+        <v>166500</v>
       </c>
       <c r="K49" s="3">
         <v>157900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>735800</v>
+        <v>718800</v>
       </c>
       <c r="E52" s="3">
-        <v>735000</v>
+        <v>718100</v>
       </c>
       <c r="F52" s="3">
-        <v>750500</v>
+        <v>733200</v>
       </c>
       <c r="G52" s="3">
-        <v>789500</v>
+        <v>771200</v>
       </c>
       <c r="H52" s="3">
-        <v>675800</v>
+        <v>660200</v>
       </c>
       <c r="I52" s="3">
-        <v>664400</v>
+        <v>649000</v>
       </c>
       <c r="J52" s="3">
-        <v>568800</v>
+        <v>555700</v>
       </c>
       <c r="K52" s="3">
         <v>384800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5899500</v>
+        <v>5763400</v>
       </c>
       <c r="E54" s="3">
-        <v>5949000</v>
+        <v>5811800</v>
       </c>
       <c r="F54" s="3">
-        <v>5828500</v>
+        <v>5694000</v>
       </c>
       <c r="G54" s="3">
-        <v>6292500</v>
+        <v>6147400</v>
       </c>
       <c r="H54" s="3">
-        <v>6104300</v>
+        <v>5963500</v>
       </c>
       <c r="I54" s="3">
-        <v>6473500</v>
+        <v>6324200</v>
       </c>
       <c r="J54" s="3">
-        <v>6901500</v>
+        <v>6742300</v>
       </c>
       <c r="K54" s="3">
         <v>6651500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>167400</v>
+        <v>163600</v>
       </c>
       <c r="E57" s="3">
-        <v>107700</v>
+        <v>105200</v>
       </c>
       <c r="F57" s="3">
-        <v>78800</v>
+        <v>77000</v>
       </c>
       <c r="G57" s="3">
-        <v>96700</v>
+        <v>94500</v>
       </c>
       <c r="H57" s="3">
-        <v>138900</v>
+        <v>135700</v>
       </c>
       <c r="I57" s="3">
-        <v>167500</v>
+        <v>163700</v>
       </c>
       <c r="J57" s="3">
-        <v>156200</v>
+        <v>152600</v>
       </c>
       <c r="K57" s="3">
         <v>143800</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>392100</v>
+        <v>383000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>11</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>157200</v>
+        <v>153600</v>
       </c>
       <c r="E59" s="3">
-        <v>130700</v>
+        <v>127700</v>
       </c>
       <c r="F59" s="3">
-        <v>138900</v>
+        <v>135700</v>
       </c>
       <c r="G59" s="3">
-        <v>198600</v>
+        <v>194000</v>
       </c>
       <c r="H59" s="3">
-        <v>183600</v>
+        <v>179400</v>
       </c>
       <c r="I59" s="3">
-        <v>200700</v>
+        <v>196100</v>
       </c>
       <c r="J59" s="3">
-        <v>370800</v>
+        <v>362300</v>
       </c>
       <c r="K59" s="3">
         <v>261200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>324700</v>
+        <v>317200</v>
       </c>
       <c r="E60" s="3">
-        <v>238400</v>
+        <v>232900</v>
       </c>
       <c r="F60" s="3">
-        <v>217700</v>
+        <v>212700</v>
       </c>
       <c r="G60" s="3">
-        <v>687300</v>
+        <v>671500</v>
       </c>
       <c r="H60" s="3">
-        <v>322500</v>
+        <v>315100</v>
       </c>
       <c r="I60" s="3">
-        <v>368200</v>
+        <v>359700</v>
       </c>
       <c r="J60" s="3">
-        <v>527100</v>
+        <v>514900</v>
       </c>
       <c r="K60" s="3">
         <v>404900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>781800</v>
+        <v>763800</v>
       </c>
       <c r="E61" s="3">
-        <v>787500</v>
+        <v>769300</v>
       </c>
       <c r="F61" s="3">
-        <v>792300</v>
+        <v>774000</v>
       </c>
       <c r="G61" s="3">
-        <v>781700</v>
+        <v>763600</v>
       </c>
       <c r="H61" s="3">
-        <v>1172800</v>
+        <v>1145700</v>
       </c>
       <c r="I61" s="3">
-        <v>1171900</v>
+        <v>1144800</v>
       </c>
       <c r="J61" s="3">
-        <v>1171000</v>
+        <v>1144000</v>
       </c>
       <c r="K61" s="3">
         <v>1170700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>990200</v>
+        <v>967300</v>
       </c>
       <c r="E62" s="3">
-        <v>1031900</v>
+        <v>1008100</v>
       </c>
       <c r="F62" s="3">
-        <v>898800</v>
+        <v>878000</v>
       </c>
       <c r="G62" s="3">
-        <v>904900</v>
+        <v>884000</v>
       </c>
       <c r="H62" s="3">
-        <v>795400</v>
+        <v>777100</v>
       </c>
       <c r="I62" s="3">
-        <v>806800</v>
+        <v>788200</v>
       </c>
       <c r="J62" s="3">
-        <v>851800</v>
+        <v>832200</v>
       </c>
       <c r="K62" s="3">
         <v>802200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2096700</v>
+        <v>2048400</v>
       </c>
       <c r="E66" s="3">
-        <v>2058000</v>
+        <v>2010500</v>
       </c>
       <c r="F66" s="3">
-        <v>1908900</v>
+        <v>1864900</v>
       </c>
       <c r="G66" s="3">
-        <v>2374100</v>
+        <v>2319400</v>
       </c>
       <c r="H66" s="3">
-        <v>2291000</v>
+        <v>2238200</v>
       </c>
       <c r="I66" s="3">
-        <v>2347000</v>
+        <v>2292900</v>
       </c>
       <c r="J66" s="3">
-        <v>2548500</v>
+        <v>2489800</v>
       </c>
       <c r="K66" s="3">
         <v>2377900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2071400</v>
+        <v>2023700</v>
       </c>
       <c r="E72" s="3">
-        <v>2146900</v>
+        <v>2097400</v>
       </c>
       <c r="F72" s="3">
-        <v>2217400</v>
+        <v>2166200</v>
       </c>
       <c r="G72" s="3">
-        <v>2190500</v>
+        <v>2139900</v>
       </c>
       <c r="H72" s="3">
-        <v>2079900</v>
+        <v>2031900</v>
       </c>
       <c r="I72" s="3">
-        <v>2369800</v>
+        <v>2315200</v>
       </c>
       <c r="J72" s="3">
-        <v>2544100</v>
+        <v>2485400</v>
       </c>
       <c r="K72" s="3">
         <v>2616600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3802700</v>
+        <v>3715000</v>
       </c>
       <c r="E76" s="3">
-        <v>3891000</v>
+        <v>3801300</v>
       </c>
       <c r="F76" s="3">
-        <v>3919600</v>
+        <v>3829200</v>
       </c>
       <c r="G76" s="3">
-        <v>3918400</v>
+        <v>3828000</v>
       </c>
       <c r="H76" s="3">
-        <v>3813300</v>
+        <v>3725300</v>
       </c>
       <c r="I76" s="3">
-        <v>4126500</v>
+        <v>4031300</v>
       </c>
       <c r="J76" s="3">
-        <v>4353000</v>
+        <v>4252600</v>
       </c>
       <c r="K76" s="3">
         <v>4273500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-80500</v>
+        <v>-78600</v>
       </c>
       <c r="E81" s="3">
-        <v>-41700</v>
+        <v>-40800</v>
       </c>
       <c r="F81" s="3">
-        <v>58100</v>
+        <v>56700</v>
       </c>
       <c r="G81" s="3">
-        <v>130500</v>
+        <v>127500</v>
       </c>
       <c r="H81" s="3">
-        <v>-160800</v>
+        <v>-157100</v>
       </c>
       <c r="I81" s="3">
-        <v>-48300</v>
+        <v>-47200</v>
       </c>
       <c r="J81" s="3">
-        <v>51200</v>
+        <v>50100</v>
       </c>
       <c r="K81" s="3">
         <v>145400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>149400</v>
+        <v>146000</v>
       </c>
       <c r="E83" s="3">
-        <v>163700</v>
+        <v>160000</v>
       </c>
       <c r="F83" s="3">
-        <v>216400</v>
+        <v>211400</v>
       </c>
       <c r="G83" s="3">
-        <v>257400</v>
+        <v>251400</v>
       </c>
       <c r="H83" s="3">
-        <v>259200</v>
+        <v>253300</v>
       </c>
       <c r="I83" s="3">
-        <v>291700</v>
+        <v>285000</v>
       </c>
       <c r="J83" s="3">
-        <v>245200</v>
+        <v>239600</v>
       </c>
       <c r="K83" s="3">
         <v>266100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>359600</v>
+        <v>351300</v>
       </c>
       <c r="E89" s="3">
-        <v>44600</v>
+        <v>43600</v>
       </c>
       <c r="F89" s="3">
-        <v>413600</v>
+        <v>404000</v>
       </c>
       <c r="G89" s="3">
-        <v>523800</v>
+        <v>511700</v>
       </c>
       <c r="H89" s="3">
-        <v>467700</v>
+        <v>457000</v>
       </c>
       <c r="I89" s="3">
-        <v>245100</v>
+        <v>239500</v>
       </c>
       <c r="J89" s="3">
-        <v>353100</v>
+        <v>345000</v>
       </c>
       <c r="K89" s="3">
         <v>377000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-77500</v>
+        <v>-75700</v>
       </c>
       <c r="E91" s="3">
-        <v>-60800</v>
+        <v>-59400</v>
       </c>
       <c r="F91" s="3">
-        <v>-59000</v>
+        <v>-57700</v>
       </c>
       <c r="G91" s="3">
-        <v>-43400</v>
+        <v>-42400</v>
       </c>
       <c r="H91" s="3">
-        <v>-89500</v>
+        <v>-87400</v>
       </c>
       <c r="I91" s="3">
-        <v>-170200</v>
+        <v>-166300</v>
       </c>
       <c r="J91" s="3">
-        <v>-281400</v>
+        <v>-274900</v>
       </c>
       <c r="K91" s="3">
         <v>-376900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-63000</v>
+        <v>-61600</v>
       </c>
       <c r="E94" s="3">
-        <v>-79300</v>
+        <v>-77500</v>
       </c>
       <c r="F94" s="3">
-        <v>343200</v>
+        <v>335300</v>
       </c>
       <c r="G94" s="3">
-        <v>-323000</v>
+        <v>-315600</v>
       </c>
       <c r="H94" s="3">
-        <v>-73000</v>
+        <v>-71300</v>
       </c>
       <c r="I94" s="3">
-        <v>-170900</v>
+        <v>-167000</v>
       </c>
       <c r="J94" s="3">
-        <v>-267400</v>
+        <v>-261300</v>
       </c>
       <c r="K94" s="3">
         <v>-16300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25000</v>
+        <v>-24400</v>
       </c>
       <c r="E96" s="3">
-        <v>-24800</v>
+        <v>-24300</v>
       </c>
       <c r="F96" s="3">
-        <v>-24800</v>
+        <v>-24200</v>
       </c>
       <c r="G96" s="3">
-        <v>-55900</v>
+        <v>-54600</v>
       </c>
       <c r="H96" s="3">
-        <v>-124200</v>
+        <v>-121400</v>
       </c>
       <c r="I96" s="3">
-        <v>-124200</v>
+        <v>-121400</v>
       </c>
       <c r="J96" s="3">
-        <v>-124200</v>
+        <v>-121400</v>
       </c>
       <c r="K96" s="3">
         <v>-124200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-36700</v>
+        <v>-35900</v>
       </c>
       <c r="E100" s="3">
-        <v>-76900</v>
+        <v>-75100</v>
       </c>
       <c r="F100" s="3">
-        <v>-476300</v>
+        <v>-465300</v>
       </c>
       <c r="G100" s="3">
-        <v>-113200</v>
+        <v>-110500</v>
       </c>
       <c r="H100" s="3">
-        <v>-178800</v>
+        <v>-174600</v>
       </c>
       <c r="I100" s="3">
-        <v>-179500</v>
+        <v>-175400</v>
       </c>
       <c r="J100" s="3">
-        <v>-178800</v>
+        <v>-174700</v>
       </c>
       <c r="K100" s="3">
         <v>-65900</v>
@@ -3965,10 +3965,10 @@
         <v>-1500</v>
       </c>
       <c r="F101" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="G101" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H101" s="3">
         <v>-3000</v>
@@ -3977,7 +3977,7 @@
         <v>-3200</v>
       </c>
       <c r="J101" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="K101" s="3">
         <v>2500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>258200</v>
+        <v>252300</v>
       </c>
       <c r="E102" s="3">
-        <v>-113000</v>
+        <v>-110400</v>
       </c>
       <c r="F102" s="3">
-        <v>275400</v>
+        <v>269000</v>
       </c>
       <c r="G102" s="3">
-        <v>94100</v>
+        <v>91900</v>
       </c>
       <c r="H102" s="3">
-        <v>212900</v>
+        <v>208000</v>
       </c>
       <c r="I102" s="3">
-        <v>-108500</v>
+        <v>-106000</v>
       </c>
       <c r="J102" s="3">
-        <v>-84700</v>
+        <v>-82800</v>
       </c>
       <c r="K102" s="3">
         <v>297300</v>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1130800</v>
+        <v>1141300</v>
       </c>
       <c r="E8" s="3">
-        <v>1380000</v>
+        <v>1392800</v>
       </c>
       <c r="F8" s="3">
-        <v>1428200</v>
+        <v>1441400</v>
       </c>
       <c r="G8" s="3">
-        <v>1603600</v>
+        <v>1618400</v>
       </c>
       <c r="H8" s="3">
-        <v>1653500</v>
+        <v>1668900</v>
       </c>
       <c r="I8" s="3">
-        <v>1864000</v>
+        <v>1881300</v>
       </c>
       <c r="J8" s="3">
-        <v>2111600</v>
+        <v>2131200</v>
       </c>
       <c r="K8" s="3">
         <v>1882200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1129300</v>
+        <v>1139800</v>
       </c>
       <c r="E9" s="3">
-        <v>1298400</v>
+        <v>1310400</v>
       </c>
       <c r="F9" s="3">
-        <v>1243000</v>
+        <v>1254500</v>
       </c>
       <c r="G9" s="3">
-        <v>1376800</v>
+        <v>1389600</v>
       </c>
       <c r="H9" s="3">
-        <v>1319100</v>
+        <v>1331300</v>
       </c>
       <c r="I9" s="3">
-        <v>1508700</v>
+        <v>1522700</v>
       </c>
       <c r="J9" s="3">
-        <v>1577200</v>
+        <v>1591900</v>
       </c>
       <c r="K9" s="3">
         <v>1381500</v>
@@ -804,22 +804,22 @@
         <v>1500</v>
       </c>
       <c r="E10" s="3">
-        <v>81600</v>
+        <v>82400</v>
       </c>
       <c r="F10" s="3">
-        <v>185200</v>
+        <v>187000</v>
       </c>
       <c r="G10" s="3">
-        <v>226700</v>
+        <v>228800</v>
       </c>
       <c r="H10" s="3">
-        <v>334500</v>
+        <v>337600</v>
       </c>
       <c r="I10" s="3">
-        <v>355300</v>
+        <v>358600</v>
       </c>
       <c r="J10" s="3">
-        <v>534400</v>
+        <v>539300</v>
       </c>
       <c r="K10" s="3">
         <v>500700</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="E12" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="F12" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="G12" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="H12" s="3">
-        <v>27300</v>
+        <v>27500</v>
       </c>
       <c r="I12" s="3">
-        <v>36400</v>
+        <v>36800</v>
       </c>
       <c r="J12" s="3">
-        <v>35900</v>
+        <v>36200</v>
       </c>
       <c r="K12" s="3">
         <v>40500</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-16300</v>
+        <v>-16400</v>
       </c>
       <c r="E14" s="3">
-        <v>-28600</v>
+        <v>-28900</v>
       </c>
       <c r="F14" s="3">
-        <v>-40500</v>
+        <v>-40900</v>
       </c>
       <c r="G14" s="3">
-        <v>-61200</v>
+        <v>-61700</v>
       </c>
       <c r="H14" s="3">
-        <v>274700</v>
+        <v>277300</v>
       </c>
       <c r="I14" s="3">
-        <v>277500</v>
+        <v>280100</v>
       </c>
       <c r="J14" s="3">
-        <v>165200</v>
+        <v>166700</v>
       </c>
       <c r="K14" s="3">
         <v>256500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1218900</v>
+        <v>1230300</v>
       </c>
       <c r="E17" s="3">
-        <v>1411700</v>
+        <v>1424800</v>
       </c>
       <c r="F17" s="3">
-        <v>1316900</v>
+        <v>1329100</v>
       </c>
       <c r="G17" s="3">
-        <v>1488500</v>
+        <v>1502300</v>
       </c>
       <c r="H17" s="3">
-        <v>1751500</v>
+        <v>1767700</v>
       </c>
       <c r="I17" s="3">
-        <v>1972700</v>
+        <v>1991000</v>
       </c>
       <c r="J17" s="3">
-        <v>1923300</v>
+        <v>1941200</v>
       </c>
       <c r="K17" s="3">
         <v>1852100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-88200</v>
+        <v>-89000</v>
       </c>
       <c r="E18" s="3">
-        <v>-31700</v>
+        <v>-32000</v>
       </c>
       <c r="F18" s="3">
-        <v>111300</v>
+        <v>112400</v>
       </c>
       <c r="G18" s="3">
-        <v>115000</v>
+        <v>116100</v>
       </c>
       <c r="H18" s="3">
-        <v>-97900</v>
+        <v>-98800</v>
       </c>
       <c r="I18" s="3">
-        <v>-108700</v>
+        <v>-109700</v>
       </c>
       <c r="J18" s="3">
-        <v>188300</v>
+        <v>190000</v>
       </c>
       <c r="K18" s="3">
         <v>30100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38600</v>
+        <v>39000</v>
       </c>
       <c r="E20" s="3">
-        <v>34600</v>
+        <v>35000</v>
       </c>
       <c r="F20" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="G20" s="3">
-        <v>-28400</v>
+        <v>-28700</v>
       </c>
       <c r="H20" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="I20" s="3">
-        <v>47400</v>
+        <v>47900</v>
       </c>
       <c r="J20" s="3">
-        <v>-191500</v>
+        <v>-193200</v>
       </c>
       <c r="K20" s="3">
         <v>-66700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>97000</v>
+        <v>96900</v>
       </c>
       <c r="E21" s="3">
-        <v>163500</v>
+        <v>163900</v>
       </c>
       <c r="F21" s="3">
-        <v>364100</v>
+        <v>366000</v>
       </c>
       <c r="G21" s="3">
-        <v>339000</v>
+        <v>340400</v>
       </c>
       <c r="H21" s="3">
-        <v>151500</v>
+        <v>151100</v>
       </c>
       <c r="I21" s="3">
         <v>224800</v>
       </c>
       <c r="J21" s="3">
-        <v>237300</v>
+        <v>237800</v>
       </c>
       <c r="K21" s="3">
         <v>228600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30100</v>
+        <v>30400</v>
       </c>
       <c r="E22" s="3">
-        <v>33200</v>
+        <v>33500</v>
       </c>
       <c r="F22" s="3">
-        <v>48400</v>
+        <v>48900</v>
       </c>
       <c r="G22" s="3">
-        <v>56000</v>
+        <v>56500</v>
       </c>
       <c r="H22" s="3">
-        <v>56100</v>
+        <v>56600</v>
       </c>
       <c r="I22" s="3">
-        <v>57000</v>
+        <v>57500</v>
       </c>
       <c r="J22" s="3">
-        <v>57600</v>
+        <v>58100</v>
       </c>
       <c r="K22" s="3">
         <v>56900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-79600</v>
+        <v>-80400</v>
       </c>
       <c r="E23" s="3">
-        <v>-30300</v>
+        <v>-30600</v>
       </c>
       <c r="F23" s="3">
-        <v>103500</v>
+        <v>104500</v>
       </c>
       <c r="G23" s="3">
-        <v>30600</v>
+        <v>30900</v>
       </c>
       <c r="H23" s="3">
-        <v>-158900</v>
+        <v>-160300</v>
       </c>
       <c r="I23" s="3">
-        <v>-118200</v>
+        <v>-119300</v>
       </c>
       <c r="J23" s="3">
-        <v>-60800</v>
+        <v>-61300</v>
       </c>
       <c r="K23" s="3">
         <v>-93500</v>
@@ -1281,22 +1281,22 @@
         <v>-900</v>
       </c>
       <c r="E24" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="F24" s="3">
-        <v>46800</v>
+        <v>47300</v>
       </c>
       <c r="G24" s="3">
-        <v>-96800</v>
+        <v>-97700</v>
       </c>
       <c r="H24" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I24" s="3">
-        <v>-72300</v>
+        <v>-73000</v>
       </c>
       <c r="J24" s="3">
-        <v>-109300</v>
+        <v>-110400</v>
       </c>
       <c r="K24" s="3">
         <v>-137600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-78700</v>
+        <v>-79400</v>
       </c>
       <c r="E26" s="3">
-        <v>-40800</v>
+        <v>-41200</v>
       </c>
       <c r="F26" s="3">
-        <v>56700</v>
+        <v>57200</v>
       </c>
       <c r="G26" s="3">
-        <v>127400</v>
+        <v>128600</v>
       </c>
       <c r="H26" s="3">
-        <v>-166300</v>
+        <v>-167800</v>
       </c>
       <c r="I26" s="3">
-        <v>-45900</v>
+        <v>-46300</v>
       </c>
       <c r="J26" s="3">
-        <v>48600</v>
+        <v>49000</v>
       </c>
       <c r="K26" s="3">
         <v>44100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-78600</v>
+        <v>-79400</v>
       </c>
       <c r="E27" s="3">
-        <v>-40800</v>
+        <v>-41100</v>
       </c>
       <c r="F27" s="3">
-        <v>56700</v>
+        <v>57300</v>
       </c>
       <c r="G27" s="3">
-        <v>127500</v>
+        <v>128700</v>
       </c>
       <c r="H27" s="3">
-        <v>-166500</v>
+        <v>-168000</v>
       </c>
       <c r="I27" s="3">
-        <v>-47200</v>
+        <v>-47700</v>
       </c>
       <c r="J27" s="3">
-        <v>50100</v>
+        <v>50500</v>
       </c>
       <c r="K27" s="3">
         <v>45500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38600</v>
+        <v>-39000</v>
       </c>
       <c r="E32" s="3">
-        <v>-34600</v>
+        <v>-35000</v>
       </c>
       <c r="F32" s="3">
-        <v>-40600</v>
+        <v>-41000</v>
       </c>
       <c r="G32" s="3">
-        <v>28400</v>
+        <v>28700</v>
       </c>
       <c r="H32" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I32" s="3">
-        <v>-47400</v>
+        <v>-47900</v>
       </c>
       <c r="J32" s="3">
-        <v>191500</v>
+        <v>193200</v>
       </c>
       <c r="K32" s="3">
         <v>66700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-78600</v>
+        <v>-79400</v>
       </c>
       <c r="E33" s="3">
-        <v>-40800</v>
+        <v>-41100</v>
       </c>
       <c r="F33" s="3">
-        <v>56700</v>
+        <v>57300</v>
       </c>
       <c r="G33" s="3">
-        <v>127500</v>
+        <v>128700</v>
       </c>
       <c r="H33" s="3">
-        <v>-157100</v>
+        <v>-158600</v>
       </c>
       <c r="I33" s="3">
-        <v>-47200</v>
+        <v>-47700</v>
       </c>
       <c r="J33" s="3">
-        <v>50100</v>
+        <v>50500</v>
       </c>
       <c r="K33" s="3">
         <v>145400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-78600</v>
+        <v>-79400</v>
       </c>
       <c r="E35" s="3">
-        <v>-40800</v>
+        <v>-41100</v>
       </c>
       <c r="F35" s="3">
-        <v>56700</v>
+        <v>57300</v>
       </c>
       <c r="G35" s="3">
-        <v>127500</v>
+        <v>128700</v>
       </c>
       <c r="H35" s="3">
-        <v>-157100</v>
+        <v>-158600</v>
       </c>
       <c r="I35" s="3">
-        <v>-47200</v>
+        <v>-47700</v>
       </c>
       <c r="J35" s="3">
-        <v>50100</v>
+        <v>50500</v>
       </c>
       <c r="K35" s="3">
         <v>145400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>956300</v>
+        <v>965200</v>
       </c>
       <c r="E41" s="3">
-        <v>704100</v>
+        <v>710600</v>
       </c>
       <c r="F41" s="3">
-        <v>814500</v>
+        <v>822100</v>
       </c>
       <c r="G41" s="3">
-        <v>545500</v>
+        <v>550500</v>
       </c>
       <c r="H41" s="3">
-        <v>453600</v>
+        <v>457800</v>
       </c>
       <c r="I41" s="3">
-        <v>245500</v>
+        <v>247800</v>
       </c>
       <c r="J41" s="3">
-        <v>351600</v>
+        <v>354800</v>
       </c>
       <c r="K41" s="3">
         <v>444800</v>
@@ -1863,16 +1863,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65100</v>
+        <v>65700</v>
       </c>
       <c r="E42" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>299800</v>
+        <v>302600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>11</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>233300</v>
+        <v>235500</v>
       </c>
       <c r="E43" s="3">
-        <v>177800</v>
+        <v>179400</v>
       </c>
       <c r="F43" s="3">
-        <v>259300</v>
+        <v>261700</v>
       </c>
       <c r="G43" s="3">
-        <v>324400</v>
+        <v>327400</v>
       </c>
       <c r="H43" s="3">
-        <v>340600</v>
+        <v>343800</v>
       </c>
       <c r="I43" s="3">
-        <v>202800</v>
+        <v>204700</v>
       </c>
       <c r="J43" s="3">
-        <v>199000</v>
+        <v>200800</v>
       </c>
       <c r="K43" s="3">
         <v>367700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>314000</v>
+        <v>316900</v>
       </c>
       <c r="E44" s="3">
-        <v>521600</v>
+        <v>526400</v>
       </c>
       <c r="F44" s="3">
-        <v>245900</v>
+        <v>248200</v>
       </c>
       <c r="G44" s="3">
-        <v>358600</v>
+        <v>362000</v>
       </c>
       <c r="H44" s="3">
-        <v>728100</v>
+        <v>734900</v>
       </c>
       <c r="I44" s="3">
-        <v>987400</v>
+        <v>996500</v>
       </c>
       <c r="J44" s="3">
-        <v>985300</v>
+        <v>994500</v>
       </c>
       <c r="K44" s="3">
         <v>708300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>73100</v>
+        <v>73800</v>
       </c>
       <c r="E45" s="3">
-        <v>68600</v>
+        <v>69200</v>
       </c>
       <c r="F45" s="3">
-        <v>65500</v>
+        <v>66200</v>
       </c>
       <c r="G45" s="3">
-        <v>68400</v>
+        <v>69000</v>
       </c>
       <c r="H45" s="3">
-        <v>114900</v>
+        <v>116000</v>
       </c>
       <c r="I45" s="3">
-        <v>129600</v>
+        <v>130800</v>
       </c>
       <c r="J45" s="3">
-        <v>138400</v>
+        <v>139700</v>
       </c>
       <c r="K45" s="3">
         <v>102400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1641800</v>
+        <v>1657000</v>
       </c>
       <c r="E46" s="3">
-        <v>1491100</v>
+        <v>1505000</v>
       </c>
       <c r="F46" s="3">
-        <v>1385300</v>
+        <v>1398100</v>
       </c>
       <c r="G46" s="3">
-        <v>1596700</v>
+        <v>1611500</v>
       </c>
       <c r="H46" s="3">
-        <v>1637200</v>
+        <v>1652400</v>
       </c>
       <c r="I46" s="3">
-        <v>1565400</v>
+        <v>1579900</v>
       </c>
       <c r="J46" s="3">
-        <v>1674300</v>
+        <v>1689800</v>
       </c>
       <c r="K46" s="3">
         <v>1623300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>621600</v>
+        <v>627300</v>
       </c>
       <c r="E47" s="3">
-        <v>668300</v>
+        <v>674500</v>
       </c>
       <c r="F47" s="3">
-        <v>676800</v>
+        <v>683100</v>
       </c>
       <c r="G47" s="3">
-        <v>753100</v>
+        <v>760100</v>
       </c>
       <c r="H47" s="3">
-        <v>398700</v>
+        <v>402400</v>
       </c>
       <c r="I47" s="3">
-        <v>384800</v>
+        <v>388300</v>
       </c>
       <c r="J47" s="3">
-        <v>337800</v>
+        <v>340900</v>
       </c>
       <c r="K47" s="3">
         <v>331800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2742000</v>
+        <v>2767400</v>
       </c>
       <c r="E48" s="3">
-        <v>2891400</v>
+        <v>2918200</v>
       </c>
       <c r="F48" s="3">
-        <v>2852400</v>
+        <v>2878900</v>
       </c>
       <c r="G48" s="3">
-        <v>2976000</v>
+        <v>3003600</v>
       </c>
       <c r="H48" s="3">
-        <v>3213700</v>
+        <v>3243500</v>
       </c>
       <c r="I48" s="3">
-        <v>3569200</v>
+        <v>3602300</v>
       </c>
       <c r="J48" s="3">
-        <v>4008100</v>
+        <v>4045300</v>
       </c>
       <c r="K48" s="3">
         <v>4153700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39300</v>
+        <v>39700</v>
       </c>
       <c r="E49" s="3">
-        <v>42800</v>
+        <v>43200</v>
       </c>
       <c r="F49" s="3">
-        <v>46300</v>
+        <v>46700</v>
       </c>
       <c r="G49" s="3">
-        <v>50300</v>
+        <v>50800</v>
       </c>
       <c r="H49" s="3">
-        <v>53700</v>
+        <v>54200</v>
       </c>
       <c r="I49" s="3">
-        <v>155900</v>
+        <v>157300</v>
       </c>
       <c r="J49" s="3">
-        <v>166500</v>
+        <v>168000</v>
       </c>
       <c r="K49" s="3">
         <v>157900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>718800</v>
+        <v>725500</v>
       </c>
       <c r="E52" s="3">
-        <v>718100</v>
+        <v>724800</v>
       </c>
       <c r="F52" s="3">
-        <v>733200</v>
+        <v>740000</v>
       </c>
       <c r="G52" s="3">
-        <v>771200</v>
+        <v>778400</v>
       </c>
       <c r="H52" s="3">
-        <v>660200</v>
+        <v>666300</v>
       </c>
       <c r="I52" s="3">
-        <v>649000</v>
+        <v>655100</v>
       </c>
       <c r="J52" s="3">
-        <v>555700</v>
+        <v>560800</v>
       </c>
       <c r="K52" s="3">
         <v>384800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5763400</v>
+        <v>5816900</v>
       </c>
       <c r="E54" s="3">
-        <v>5811800</v>
+        <v>5865700</v>
       </c>
       <c r="F54" s="3">
-        <v>5694000</v>
+        <v>5746800</v>
       </c>
       <c r="G54" s="3">
-        <v>6147400</v>
+        <v>6204400</v>
       </c>
       <c r="H54" s="3">
-        <v>5963500</v>
+        <v>6018800</v>
       </c>
       <c r="I54" s="3">
-        <v>6324200</v>
+        <v>6382800</v>
       </c>
       <c r="J54" s="3">
-        <v>6742300</v>
+        <v>6804900</v>
       </c>
       <c r="K54" s="3">
         <v>6651500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>163600</v>
+        <v>165100</v>
       </c>
       <c r="E57" s="3">
-        <v>105200</v>
+        <v>106200</v>
       </c>
       <c r="F57" s="3">
-        <v>77000</v>
+        <v>77700</v>
       </c>
       <c r="G57" s="3">
-        <v>94500</v>
+        <v>95300</v>
       </c>
       <c r="H57" s="3">
-        <v>135700</v>
+        <v>137000</v>
       </c>
       <c r="I57" s="3">
-        <v>163700</v>
+        <v>165200</v>
       </c>
       <c r="J57" s="3">
-        <v>152600</v>
+        <v>154000</v>
       </c>
       <c r="K57" s="3">
         <v>143800</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>383000</v>
+        <v>386600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>11</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>153600</v>
+        <v>155000</v>
       </c>
       <c r="E59" s="3">
-        <v>127700</v>
+        <v>128900</v>
       </c>
       <c r="F59" s="3">
-        <v>135700</v>
+        <v>137000</v>
       </c>
       <c r="G59" s="3">
-        <v>194000</v>
+        <v>195800</v>
       </c>
       <c r="H59" s="3">
-        <v>179400</v>
+        <v>181000</v>
       </c>
       <c r="I59" s="3">
-        <v>196100</v>
+        <v>197900</v>
       </c>
       <c r="J59" s="3">
-        <v>362300</v>
+        <v>365600</v>
       </c>
       <c r="K59" s="3">
         <v>261200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>317200</v>
+        <v>320100</v>
       </c>
       <c r="E60" s="3">
-        <v>232900</v>
+        <v>235100</v>
       </c>
       <c r="F60" s="3">
-        <v>212700</v>
+        <v>214600</v>
       </c>
       <c r="G60" s="3">
-        <v>671500</v>
+        <v>677700</v>
       </c>
       <c r="H60" s="3">
-        <v>315100</v>
+        <v>318000</v>
       </c>
       <c r="I60" s="3">
-        <v>359700</v>
+        <v>363100</v>
       </c>
       <c r="J60" s="3">
-        <v>514900</v>
+        <v>519700</v>
       </c>
       <c r="K60" s="3">
         <v>404900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>763800</v>
+        <v>770800</v>
       </c>
       <c r="E61" s="3">
-        <v>769300</v>
+        <v>776500</v>
       </c>
       <c r="F61" s="3">
-        <v>774000</v>
+        <v>781200</v>
       </c>
       <c r="G61" s="3">
-        <v>763600</v>
+        <v>770700</v>
       </c>
       <c r="H61" s="3">
-        <v>1145700</v>
+        <v>1156300</v>
       </c>
       <c r="I61" s="3">
-        <v>1144800</v>
+        <v>1155500</v>
       </c>
       <c r="J61" s="3">
-        <v>1144000</v>
+        <v>1154600</v>
       </c>
       <c r="K61" s="3">
         <v>1170700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>967300</v>
+        <v>976300</v>
       </c>
       <c r="E62" s="3">
-        <v>1008100</v>
+        <v>1017500</v>
       </c>
       <c r="F62" s="3">
-        <v>878000</v>
+        <v>886200</v>
       </c>
       <c r="G62" s="3">
-        <v>884000</v>
+        <v>892200</v>
       </c>
       <c r="H62" s="3">
-        <v>777100</v>
+        <v>784300</v>
       </c>
       <c r="I62" s="3">
-        <v>788200</v>
+        <v>795500</v>
       </c>
       <c r="J62" s="3">
-        <v>832200</v>
+        <v>839900</v>
       </c>
       <c r="K62" s="3">
         <v>802200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2048400</v>
+        <v>2067400</v>
       </c>
       <c r="E66" s="3">
-        <v>2010500</v>
+        <v>2029100</v>
       </c>
       <c r="F66" s="3">
-        <v>1864900</v>
+        <v>1882200</v>
       </c>
       <c r="G66" s="3">
-        <v>2319400</v>
+        <v>2340900</v>
       </c>
       <c r="H66" s="3">
-        <v>2238200</v>
+        <v>2258900</v>
       </c>
       <c r="I66" s="3">
-        <v>2292900</v>
+        <v>2314200</v>
       </c>
       <c r="J66" s="3">
-        <v>2489800</v>
+        <v>2512800</v>
       </c>
       <c r="K66" s="3">
         <v>2377900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2023700</v>
+        <v>2042400</v>
       </c>
       <c r="E72" s="3">
-        <v>2097400</v>
+        <v>2116800</v>
       </c>
       <c r="F72" s="3">
-        <v>2166200</v>
+        <v>2186300</v>
       </c>
       <c r="G72" s="3">
-        <v>2139900</v>
+        <v>2159800</v>
       </c>
       <c r="H72" s="3">
-        <v>2031900</v>
+        <v>2050800</v>
       </c>
       <c r="I72" s="3">
-        <v>2315200</v>
+        <v>2336600</v>
       </c>
       <c r="J72" s="3">
-        <v>2485400</v>
+        <v>2508400</v>
       </c>
       <c r="K72" s="3">
         <v>2616600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3715000</v>
+        <v>3749500</v>
       </c>
       <c r="E76" s="3">
-        <v>3801300</v>
+        <v>3836500</v>
       </c>
       <c r="F76" s="3">
-        <v>3829200</v>
+        <v>3864700</v>
       </c>
       <c r="G76" s="3">
-        <v>3828000</v>
+        <v>3863600</v>
       </c>
       <c r="H76" s="3">
-        <v>3725300</v>
+        <v>3759900</v>
       </c>
       <c r="I76" s="3">
-        <v>4031300</v>
+        <v>4068700</v>
       </c>
       <c r="J76" s="3">
-        <v>4252600</v>
+        <v>4292000</v>
       </c>
       <c r="K76" s="3">
         <v>4273500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-78600</v>
+        <v>-79400</v>
       </c>
       <c r="E81" s="3">
-        <v>-40800</v>
+        <v>-41100</v>
       </c>
       <c r="F81" s="3">
-        <v>56700</v>
+        <v>57300</v>
       </c>
       <c r="G81" s="3">
-        <v>127500</v>
+        <v>128700</v>
       </c>
       <c r="H81" s="3">
-        <v>-157100</v>
+        <v>-158600</v>
       </c>
       <c r="I81" s="3">
-        <v>-47200</v>
+        <v>-47700</v>
       </c>
       <c r="J81" s="3">
-        <v>50100</v>
+        <v>50500</v>
       </c>
       <c r="K81" s="3">
         <v>145400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>146000</v>
+        <v>147300</v>
       </c>
       <c r="E83" s="3">
-        <v>160000</v>
+        <v>161500</v>
       </c>
       <c r="F83" s="3">
-        <v>211400</v>
+        <v>213400</v>
       </c>
       <c r="G83" s="3">
-        <v>251400</v>
+        <v>253800</v>
       </c>
       <c r="H83" s="3">
-        <v>253300</v>
+        <v>255600</v>
       </c>
       <c r="I83" s="3">
-        <v>285000</v>
+        <v>287600</v>
       </c>
       <c r="J83" s="3">
-        <v>239600</v>
+        <v>241800</v>
       </c>
       <c r="K83" s="3">
         <v>266100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>351300</v>
+        <v>354600</v>
       </c>
       <c r="E89" s="3">
-        <v>43600</v>
+        <v>44000</v>
       </c>
       <c r="F89" s="3">
-        <v>404000</v>
+        <v>407800</v>
       </c>
       <c r="G89" s="3">
-        <v>511700</v>
+        <v>516500</v>
       </c>
       <c r="H89" s="3">
-        <v>457000</v>
+        <v>461200</v>
       </c>
       <c r="I89" s="3">
-        <v>239500</v>
+        <v>241700</v>
       </c>
       <c r="J89" s="3">
-        <v>345000</v>
+        <v>348200</v>
       </c>
       <c r="K89" s="3">
         <v>377000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-75700</v>
+        <v>-76400</v>
       </c>
       <c r="E91" s="3">
-        <v>-59400</v>
+        <v>-59900</v>
       </c>
       <c r="F91" s="3">
-        <v>-57700</v>
+        <v>-58200</v>
       </c>
       <c r="G91" s="3">
-        <v>-42400</v>
+        <v>-42800</v>
       </c>
       <c r="H91" s="3">
-        <v>-87400</v>
+        <v>-88200</v>
       </c>
       <c r="I91" s="3">
-        <v>-166300</v>
+        <v>-167800</v>
       </c>
       <c r="J91" s="3">
-        <v>-274900</v>
+        <v>-277400</v>
       </c>
       <c r="K91" s="3">
         <v>-376900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-61600</v>
+        <v>-62100</v>
       </c>
       <c r="E94" s="3">
-        <v>-77500</v>
+        <v>-78200</v>
       </c>
       <c r="F94" s="3">
-        <v>335300</v>
+        <v>338400</v>
       </c>
       <c r="G94" s="3">
-        <v>-315600</v>
+        <v>-318500</v>
       </c>
       <c r="H94" s="3">
-        <v>-71300</v>
+        <v>-72000</v>
       </c>
       <c r="I94" s="3">
-        <v>-167000</v>
+        <v>-168500</v>
       </c>
       <c r="J94" s="3">
-        <v>-261300</v>
+        <v>-263700</v>
       </c>
       <c r="K94" s="3">
         <v>-16300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-24400</v>
+        <v>-24600</v>
       </c>
       <c r="E96" s="3">
-        <v>-24300</v>
+        <v>-24500</v>
       </c>
       <c r="F96" s="3">
-        <v>-24200</v>
+        <v>-24500</v>
       </c>
       <c r="G96" s="3">
-        <v>-54600</v>
+        <v>-55100</v>
       </c>
       <c r="H96" s="3">
-        <v>-121400</v>
+        <v>-122500</v>
       </c>
       <c r="I96" s="3">
-        <v>-121400</v>
+        <v>-122500</v>
       </c>
       <c r="J96" s="3">
-        <v>-121400</v>
+        <v>-122500</v>
       </c>
       <c r="K96" s="3">
         <v>-124200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-35900</v>
+        <v>-36200</v>
       </c>
       <c r="E100" s="3">
-        <v>-75100</v>
+        <v>-75800</v>
       </c>
       <c r="F100" s="3">
-        <v>-465300</v>
+        <v>-469600</v>
       </c>
       <c r="G100" s="3">
-        <v>-110500</v>
+        <v>-111600</v>
       </c>
       <c r="H100" s="3">
-        <v>-174600</v>
+        <v>-176300</v>
       </c>
       <c r="I100" s="3">
-        <v>-175400</v>
+        <v>-177000</v>
       </c>
       <c r="J100" s="3">
-        <v>-174700</v>
+        <v>-176300</v>
       </c>
       <c r="K100" s="3">
         <v>-65900</v>
@@ -3968,7 +3968,7 @@
         <v>-5100</v>
       </c>
       <c r="G101" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H101" s="3">
         <v>-3000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>252300</v>
+        <v>254600</v>
       </c>
       <c r="E102" s="3">
-        <v>-110400</v>
+        <v>-111500</v>
       </c>
       <c r="F102" s="3">
-        <v>269000</v>
+        <v>271500</v>
       </c>
       <c r="G102" s="3">
-        <v>91900</v>
+        <v>92800</v>
       </c>
       <c r="H102" s="3">
-        <v>208000</v>
+        <v>210000</v>
       </c>
       <c r="I102" s="3">
-        <v>-106000</v>
+        <v>-107000</v>
       </c>
       <c r="J102" s="3">
-        <v>-82800</v>
+        <v>-83500</v>
       </c>
       <c r="K102" s="3">
         <v>297300</v>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1141300</v>
+        <v>1107500</v>
       </c>
       <c r="E8" s="3">
-        <v>1392800</v>
+        <v>1351600</v>
       </c>
       <c r="F8" s="3">
-        <v>1441400</v>
+        <v>1398800</v>
       </c>
       <c r="G8" s="3">
-        <v>1618400</v>
+        <v>1570500</v>
       </c>
       <c r="H8" s="3">
-        <v>1668900</v>
+        <v>1619500</v>
       </c>
       <c r="I8" s="3">
-        <v>1881300</v>
+        <v>1825600</v>
       </c>
       <c r="J8" s="3">
-        <v>2131200</v>
+        <v>2068200</v>
       </c>
       <c r="K8" s="3">
         <v>1882200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1139800</v>
+        <v>1106100</v>
       </c>
       <c r="E9" s="3">
-        <v>1310400</v>
+        <v>1271700</v>
       </c>
       <c r="F9" s="3">
-        <v>1254500</v>
+        <v>1217400</v>
       </c>
       <c r="G9" s="3">
-        <v>1389600</v>
+        <v>1348500</v>
       </c>
       <c r="H9" s="3">
-        <v>1331300</v>
+        <v>1291900</v>
       </c>
       <c r="I9" s="3">
-        <v>1522700</v>
+        <v>1477600</v>
       </c>
       <c r="J9" s="3">
-        <v>1591900</v>
+        <v>1544800</v>
       </c>
       <c r="K9" s="3">
         <v>1381500</v>
@@ -804,22 +804,22 @@
         <v>1500</v>
       </c>
       <c r="E10" s="3">
-        <v>82400</v>
+        <v>79900</v>
       </c>
       <c r="F10" s="3">
-        <v>187000</v>
+        <v>181400</v>
       </c>
       <c r="G10" s="3">
-        <v>228800</v>
+        <v>222100</v>
       </c>
       <c r="H10" s="3">
-        <v>337600</v>
+        <v>327600</v>
       </c>
       <c r="I10" s="3">
-        <v>358600</v>
+        <v>348000</v>
       </c>
       <c r="J10" s="3">
-        <v>539300</v>
+        <v>523400</v>
       </c>
       <c r="K10" s="3">
         <v>500700</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="E12" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="F12" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="G12" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="H12" s="3">
-        <v>27500</v>
+        <v>26700</v>
       </c>
       <c r="I12" s="3">
-        <v>36800</v>
+        <v>35700</v>
       </c>
       <c r="J12" s="3">
-        <v>36200</v>
+        <v>35200</v>
       </c>
       <c r="K12" s="3">
         <v>40500</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-16400</v>
+        <v>-15900</v>
       </c>
       <c r="E14" s="3">
-        <v>-28900</v>
+        <v>-28000</v>
       </c>
       <c r="F14" s="3">
-        <v>-40900</v>
+        <v>-39600</v>
       </c>
       <c r="G14" s="3">
-        <v>-61700</v>
+        <v>-59900</v>
       </c>
       <c r="H14" s="3">
-        <v>277300</v>
+        <v>269100</v>
       </c>
       <c r="I14" s="3">
-        <v>280100</v>
+        <v>271800</v>
       </c>
       <c r="J14" s="3">
-        <v>166700</v>
+        <v>161800</v>
       </c>
       <c r="K14" s="3">
         <v>256500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1230300</v>
+        <v>1193900</v>
       </c>
       <c r="E17" s="3">
-        <v>1424800</v>
+        <v>1382700</v>
       </c>
       <c r="F17" s="3">
-        <v>1329100</v>
+        <v>1289800</v>
       </c>
       <c r="G17" s="3">
-        <v>1502300</v>
+        <v>1457900</v>
       </c>
       <c r="H17" s="3">
-        <v>1767700</v>
+        <v>1715400</v>
       </c>
       <c r="I17" s="3">
-        <v>1991000</v>
+        <v>1932100</v>
       </c>
       <c r="J17" s="3">
-        <v>1941200</v>
+        <v>1883800</v>
       </c>
       <c r="K17" s="3">
         <v>1852100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-89000</v>
+        <v>-86400</v>
       </c>
       <c r="E18" s="3">
-        <v>-32000</v>
+        <v>-31100</v>
       </c>
       <c r="F18" s="3">
-        <v>112400</v>
+        <v>109000</v>
       </c>
       <c r="G18" s="3">
-        <v>116100</v>
+        <v>112700</v>
       </c>
       <c r="H18" s="3">
-        <v>-98800</v>
+        <v>-95900</v>
       </c>
       <c r="I18" s="3">
-        <v>-109700</v>
+        <v>-106500</v>
       </c>
       <c r="J18" s="3">
-        <v>190000</v>
+        <v>184400</v>
       </c>
       <c r="K18" s="3">
         <v>30100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>39000</v>
+        <v>37900</v>
       </c>
       <c r="E20" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="F20" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="G20" s="3">
-        <v>-28700</v>
+        <v>-27800</v>
       </c>
       <c r="H20" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="I20" s="3">
-        <v>47900</v>
+        <v>46500</v>
       </c>
       <c r="J20" s="3">
-        <v>-193200</v>
+        <v>-187500</v>
       </c>
       <c r="K20" s="3">
         <v>-66700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>96900</v>
+        <v>92300</v>
       </c>
       <c r="E21" s="3">
-        <v>163900</v>
+        <v>157100</v>
       </c>
       <c r="F21" s="3">
-        <v>366000</v>
+        <v>352700</v>
       </c>
       <c r="G21" s="3">
-        <v>340400</v>
+        <v>327300</v>
       </c>
       <c r="H21" s="3">
-        <v>151100</v>
+        <v>143600</v>
       </c>
       <c r="I21" s="3">
-        <v>224800</v>
+        <v>214800</v>
       </c>
       <c r="J21" s="3">
-        <v>237800</v>
+        <v>227900</v>
       </c>
       <c r="K21" s="3">
         <v>228600</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30400</v>
+        <v>29500</v>
       </c>
       <c r="E22" s="3">
-        <v>33500</v>
+        <v>32500</v>
       </c>
       <c r="F22" s="3">
-        <v>48900</v>
+        <v>47400</v>
       </c>
       <c r="G22" s="3">
-        <v>56500</v>
+        <v>54800</v>
       </c>
       <c r="H22" s="3">
-        <v>56600</v>
+        <v>55000</v>
       </c>
       <c r="I22" s="3">
-        <v>57500</v>
+        <v>55800</v>
       </c>
       <c r="J22" s="3">
-        <v>58100</v>
+        <v>56400</v>
       </c>
       <c r="K22" s="3">
         <v>56900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-80400</v>
+        <v>-78000</v>
       </c>
       <c r="E23" s="3">
-        <v>-30600</v>
+        <v>-29700</v>
       </c>
       <c r="F23" s="3">
-        <v>104500</v>
+        <v>101400</v>
       </c>
       <c r="G23" s="3">
-        <v>30900</v>
+        <v>30000</v>
       </c>
       <c r="H23" s="3">
-        <v>-160300</v>
+        <v>-155600</v>
       </c>
       <c r="I23" s="3">
-        <v>-119300</v>
+        <v>-115800</v>
       </c>
       <c r="J23" s="3">
-        <v>-61300</v>
+        <v>-59500</v>
       </c>
       <c r="K23" s="3">
         <v>-93500</v>
@@ -1281,22 +1281,22 @@
         <v>-900</v>
       </c>
       <c r="E24" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="F24" s="3">
-        <v>47300</v>
+        <v>45900</v>
       </c>
       <c r="G24" s="3">
-        <v>-97700</v>
+        <v>-94800</v>
       </c>
       <c r="H24" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="I24" s="3">
-        <v>-73000</v>
+        <v>-70800</v>
       </c>
       <c r="J24" s="3">
-        <v>-110400</v>
+        <v>-107100</v>
       </c>
       <c r="K24" s="3">
         <v>-137600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-79400</v>
+        <v>-77100</v>
       </c>
       <c r="E26" s="3">
-        <v>-41200</v>
+        <v>-39900</v>
       </c>
       <c r="F26" s="3">
-        <v>57200</v>
+        <v>55500</v>
       </c>
       <c r="G26" s="3">
-        <v>128600</v>
+        <v>124800</v>
       </c>
       <c r="H26" s="3">
-        <v>-167800</v>
+        <v>-162900</v>
       </c>
       <c r="I26" s="3">
-        <v>-46300</v>
+        <v>-45000</v>
       </c>
       <c r="J26" s="3">
-        <v>49000</v>
+        <v>47600</v>
       </c>
       <c r="K26" s="3">
         <v>44100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-79400</v>
+        <v>-77000</v>
       </c>
       <c r="E27" s="3">
-        <v>-41100</v>
+        <v>-39900</v>
       </c>
       <c r="F27" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="G27" s="3">
-        <v>128700</v>
+        <v>124900</v>
       </c>
       <c r="H27" s="3">
-        <v>-168000</v>
+        <v>-163000</v>
       </c>
       <c r="I27" s="3">
-        <v>-47700</v>
+        <v>-46300</v>
       </c>
       <c r="J27" s="3">
-        <v>50500</v>
+        <v>49000</v>
       </c>
       <c r="K27" s="3">
         <v>45500</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>11</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-39000</v>
+        <v>-37900</v>
       </c>
       <c r="E32" s="3">
-        <v>-35000</v>
+        <v>-33900</v>
       </c>
       <c r="F32" s="3">
-        <v>-41000</v>
+        <v>-39800</v>
       </c>
       <c r="G32" s="3">
-        <v>28700</v>
+        <v>27800</v>
       </c>
       <c r="H32" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I32" s="3">
-        <v>-47900</v>
+        <v>-46500</v>
       </c>
       <c r="J32" s="3">
-        <v>193200</v>
+        <v>187500</v>
       </c>
       <c r="K32" s="3">
         <v>66700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-79400</v>
+        <v>-77000</v>
       </c>
       <c r="E33" s="3">
-        <v>-41100</v>
+        <v>-39900</v>
       </c>
       <c r="F33" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="G33" s="3">
-        <v>128700</v>
+        <v>124900</v>
       </c>
       <c r="H33" s="3">
-        <v>-158600</v>
+        <v>-153900</v>
       </c>
       <c r="I33" s="3">
-        <v>-47700</v>
+        <v>-46300</v>
       </c>
       <c r="J33" s="3">
-        <v>50500</v>
+        <v>49000</v>
       </c>
       <c r="K33" s="3">
         <v>145400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-79400</v>
+        <v>-77000</v>
       </c>
       <c r="E35" s="3">
-        <v>-41100</v>
+        <v>-39900</v>
       </c>
       <c r="F35" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="G35" s="3">
-        <v>128700</v>
+        <v>124900</v>
       </c>
       <c r="H35" s="3">
-        <v>-158600</v>
+        <v>-153900</v>
       </c>
       <c r="I35" s="3">
-        <v>-47700</v>
+        <v>-46300</v>
       </c>
       <c r="J35" s="3">
-        <v>50500</v>
+        <v>49000</v>
       </c>
       <c r="K35" s="3">
         <v>145400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>965200</v>
+        <v>936700</v>
       </c>
       <c r="E41" s="3">
-        <v>710600</v>
+        <v>689600</v>
       </c>
       <c r="F41" s="3">
-        <v>822100</v>
+        <v>797700</v>
       </c>
       <c r="G41" s="3">
-        <v>550500</v>
+        <v>534300</v>
       </c>
       <c r="H41" s="3">
-        <v>457800</v>
+        <v>444200</v>
       </c>
       <c r="I41" s="3">
-        <v>247800</v>
+        <v>240500</v>
       </c>
       <c r="J41" s="3">
-        <v>354800</v>
+        <v>344300</v>
       </c>
       <c r="K41" s="3">
         <v>444800</v>
@@ -1863,16 +1863,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65700</v>
+        <v>63800</v>
       </c>
       <c r="E42" s="3">
-        <v>19300</v>
+        <v>18800</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>302600</v>
+        <v>293600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>11</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>235500</v>
+        <v>228500</v>
       </c>
       <c r="E43" s="3">
-        <v>179400</v>
+        <v>174100</v>
       </c>
       <c r="F43" s="3">
-        <v>261700</v>
+        <v>254000</v>
       </c>
       <c r="G43" s="3">
-        <v>327400</v>
+        <v>317700</v>
       </c>
       <c r="H43" s="3">
-        <v>343800</v>
+        <v>333600</v>
       </c>
       <c r="I43" s="3">
-        <v>204700</v>
+        <v>198600</v>
       </c>
       <c r="J43" s="3">
-        <v>200800</v>
+        <v>194900</v>
       </c>
       <c r="K43" s="3">
         <v>367700</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>316900</v>
+        <v>307500</v>
       </c>
       <c r="E44" s="3">
-        <v>526400</v>
+        <v>510900</v>
       </c>
       <c r="F44" s="3">
-        <v>248200</v>
+        <v>240900</v>
       </c>
       <c r="G44" s="3">
-        <v>362000</v>
+        <v>351200</v>
       </c>
       <c r="H44" s="3">
-        <v>734900</v>
+        <v>713100</v>
       </c>
       <c r="I44" s="3">
-        <v>996500</v>
+        <v>967100</v>
       </c>
       <c r="J44" s="3">
-        <v>994500</v>
+        <v>965100</v>
       </c>
       <c r="K44" s="3">
         <v>708300</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>73800</v>
+        <v>71600</v>
       </c>
       <c r="E45" s="3">
-        <v>69200</v>
+        <v>67100</v>
       </c>
       <c r="F45" s="3">
-        <v>66200</v>
+        <v>64200</v>
       </c>
       <c r="G45" s="3">
-        <v>69000</v>
+        <v>67000</v>
       </c>
       <c r="H45" s="3">
-        <v>116000</v>
+        <v>112500</v>
       </c>
       <c r="I45" s="3">
-        <v>130800</v>
+        <v>127000</v>
       </c>
       <c r="J45" s="3">
-        <v>139700</v>
+        <v>135600</v>
       </c>
       <c r="K45" s="3">
         <v>102400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1657000</v>
+        <v>1608000</v>
       </c>
       <c r="E46" s="3">
-        <v>1505000</v>
+        <v>1460500</v>
       </c>
       <c r="F46" s="3">
-        <v>1398100</v>
+        <v>1356800</v>
       </c>
       <c r="G46" s="3">
-        <v>1611500</v>
+        <v>1563800</v>
       </c>
       <c r="H46" s="3">
-        <v>1652400</v>
+        <v>1603500</v>
       </c>
       <c r="I46" s="3">
-        <v>1579900</v>
+        <v>1533100</v>
       </c>
       <c r="J46" s="3">
-        <v>1689800</v>
+        <v>1639900</v>
       </c>
       <c r="K46" s="3">
         <v>1623300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>627300</v>
+        <v>608800</v>
       </c>
       <c r="E47" s="3">
-        <v>674500</v>
+        <v>654500</v>
       </c>
       <c r="F47" s="3">
-        <v>683100</v>
+        <v>662900</v>
       </c>
       <c r="G47" s="3">
-        <v>760100</v>
+        <v>737600</v>
       </c>
       <c r="H47" s="3">
-        <v>402400</v>
+        <v>390500</v>
       </c>
       <c r="I47" s="3">
-        <v>388300</v>
+        <v>376800</v>
       </c>
       <c r="J47" s="3">
-        <v>340900</v>
+        <v>330800</v>
       </c>
       <c r="K47" s="3">
         <v>331800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2767400</v>
+        <v>2685500</v>
       </c>
       <c r="E48" s="3">
-        <v>2918200</v>
+        <v>2831900</v>
       </c>
       <c r="F48" s="3">
-        <v>2878900</v>
+        <v>2793700</v>
       </c>
       <c r="G48" s="3">
-        <v>3003600</v>
+        <v>2914800</v>
       </c>
       <c r="H48" s="3">
-        <v>3243500</v>
+        <v>3147500</v>
       </c>
       <c r="I48" s="3">
-        <v>3602300</v>
+        <v>3495700</v>
       </c>
       <c r="J48" s="3">
-        <v>4045300</v>
+        <v>3925600</v>
       </c>
       <c r="K48" s="3">
         <v>4153700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39700</v>
+        <v>38500</v>
       </c>
       <c r="E49" s="3">
-        <v>43200</v>
+        <v>41900</v>
       </c>
       <c r="F49" s="3">
-        <v>46700</v>
+        <v>45400</v>
       </c>
       <c r="G49" s="3">
-        <v>50800</v>
+        <v>49300</v>
       </c>
       <c r="H49" s="3">
-        <v>54200</v>
+        <v>52600</v>
       </c>
       <c r="I49" s="3">
-        <v>157300</v>
+        <v>152700</v>
       </c>
       <c r="J49" s="3">
-        <v>168000</v>
+        <v>163000</v>
       </c>
       <c r="K49" s="3">
         <v>157900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>725500</v>
+        <v>704000</v>
       </c>
       <c r="E52" s="3">
-        <v>724800</v>
+        <v>703300</v>
       </c>
       <c r="F52" s="3">
-        <v>740000</v>
+        <v>718100</v>
       </c>
       <c r="G52" s="3">
-        <v>778400</v>
+        <v>755400</v>
       </c>
       <c r="H52" s="3">
-        <v>666300</v>
+        <v>646600</v>
       </c>
       <c r="I52" s="3">
-        <v>655100</v>
+        <v>635700</v>
       </c>
       <c r="J52" s="3">
-        <v>560800</v>
+        <v>544200</v>
       </c>
       <c r="K52" s="3">
         <v>384800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5816900</v>
+        <v>5644800</v>
       </c>
       <c r="E54" s="3">
-        <v>5865700</v>
+        <v>5692100</v>
       </c>
       <c r="F54" s="3">
-        <v>5746800</v>
+        <v>5576800</v>
       </c>
       <c r="G54" s="3">
-        <v>6204400</v>
+        <v>6020900</v>
       </c>
       <c r="H54" s="3">
-        <v>6018800</v>
+        <v>5840700</v>
       </c>
       <c r="I54" s="3">
-        <v>6382800</v>
+        <v>6194000</v>
       </c>
       <c r="J54" s="3">
-        <v>6804900</v>
+        <v>6603500</v>
       </c>
       <c r="K54" s="3">
         <v>6651500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>165100</v>
+        <v>160200</v>
       </c>
       <c r="E57" s="3">
-        <v>106200</v>
+        <v>103000</v>
       </c>
       <c r="F57" s="3">
-        <v>77700</v>
+        <v>75400</v>
       </c>
       <c r="G57" s="3">
-        <v>95300</v>
+        <v>92500</v>
       </c>
       <c r="H57" s="3">
-        <v>137000</v>
+        <v>132900</v>
       </c>
       <c r="I57" s="3">
-        <v>165200</v>
+        <v>160300</v>
       </c>
       <c r="J57" s="3">
-        <v>154000</v>
+        <v>149500</v>
       </c>
       <c r="K57" s="3">
         <v>143800</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>386600</v>
+        <v>375100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>11</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>155000</v>
+        <v>150400</v>
       </c>
       <c r="E59" s="3">
-        <v>128900</v>
+        <v>125100</v>
       </c>
       <c r="F59" s="3">
-        <v>137000</v>
+        <v>132900</v>
       </c>
       <c r="G59" s="3">
-        <v>195800</v>
+        <v>190000</v>
       </c>
       <c r="H59" s="3">
-        <v>181000</v>
+        <v>175700</v>
       </c>
       <c r="I59" s="3">
-        <v>197900</v>
+        <v>192100</v>
       </c>
       <c r="J59" s="3">
-        <v>365600</v>
+        <v>354800</v>
       </c>
       <c r="K59" s="3">
         <v>261200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>320100</v>
+        <v>310700</v>
       </c>
       <c r="E60" s="3">
-        <v>235100</v>
+        <v>228100</v>
       </c>
       <c r="F60" s="3">
-        <v>214600</v>
+        <v>208300</v>
       </c>
       <c r="G60" s="3">
-        <v>677700</v>
+        <v>657700</v>
       </c>
       <c r="H60" s="3">
-        <v>318000</v>
+        <v>308600</v>
       </c>
       <c r="I60" s="3">
-        <v>363100</v>
+        <v>352300</v>
       </c>
       <c r="J60" s="3">
-        <v>519700</v>
+        <v>504300</v>
       </c>
       <c r="K60" s="3">
         <v>404900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>770800</v>
+        <v>748000</v>
       </c>
       <c r="E61" s="3">
-        <v>776500</v>
+        <v>753500</v>
       </c>
       <c r="F61" s="3">
-        <v>781200</v>
+        <v>758100</v>
       </c>
       <c r="G61" s="3">
-        <v>770700</v>
+        <v>747900</v>
       </c>
       <c r="H61" s="3">
-        <v>1156300</v>
+        <v>1122100</v>
       </c>
       <c r="I61" s="3">
-        <v>1155500</v>
+        <v>1121300</v>
       </c>
       <c r="J61" s="3">
-        <v>1154600</v>
+        <v>1120500</v>
       </c>
       <c r="K61" s="3">
         <v>1170700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>976300</v>
+        <v>947400</v>
       </c>
       <c r="E62" s="3">
-        <v>1017500</v>
+        <v>987400</v>
       </c>
       <c r="F62" s="3">
-        <v>886200</v>
+        <v>860000</v>
       </c>
       <c r="G62" s="3">
-        <v>892200</v>
+        <v>865800</v>
       </c>
       <c r="H62" s="3">
-        <v>784300</v>
+        <v>761100</v>
       </c>
       <c r="I62" s="3">
-        <v>795500</v>
+        <v>772000</v>
       </c>
       <c r="J62" s="3">
-        <v>839900</v>
+        <v>815000</v>
       </c>
       <c r="K62" s="3">
         <v>802200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2067400</v>
+        <v>2006200</v>
       </c>
       <c r="E66" s="3">
-        <v>2029100</v>
+        <v>1969100</v>
       </c>
       <c r="F66" s="3">
-        <v>1882200</v>
+        <v>1826500</v>
       </c>
       <c r="G66" s="3">
-        <v>2340900</v>
+        <v>2271600</v>
       </c>
       <c r="H66" s="3">
-        <v>2258900</v>
+        <v>2192100</v>
       </c>
       <c r="I66" s="3">
-        <v>2314200</v>
+        <v>2245700</v>
       </c>
       <c r="J66" s="3">
-        <v>2512800</v>
+        <v>2438500</v>
       </c>
       <c r="K66" s="3">
         <v>2377900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2042400</v>
+        <v>1982000</v>
       </c>
       <c r="E72" s="3">
-        <v>2116800</v>
+        <v>2054200</v>
       </c>
       <c r="F72" s="3">
-        <v>2186300</v>
+        <v>2121600</v>
       </c>
       <c r="G72" s="3">
-        <v>2159800</v>
+        <v>2095900</v>
       </c>
       <c r="H72" s="3">
-        <v>2050800</v>
+        <v>1990100</v>
       </c>
       <c r="I72" s="3">
-        <v>2336600</v>
+        <v>2267500</v>
       </c>
       <c r="J72" s="3">
-        <v>2508400</v>
+        <v>2434200</v>
       </c>
       <c r="K72" s="3">
         <v>2616600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3749500</v>
+        <v>3638500</v>
       </c>
       <c r="E76" s="3">
-        <v>3836500</v>
+        <v>3723000</v>
       </c>
       <c r="F76" s="3">
-        <v>3864700</v>
+        <v>3750300</v>
       </c>
       <c r="G76" s="3">
-        <v>3863600</v>
+        <v>3749300</v>
       </c>
       <c r="H76" s="3">
-        <v>3759900</v>
+        <v>3648600</v>
       </c>
       <c r="I76" s="3">
-        <v>4068700</v>
+        <v>3948300</v>
       </c>
       <c r="J76" s="3">
-        <v>4292000</v>
+        <v>4165000</v>
       </c>
       <c r="K76" s="3">
         <v>4273500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-79400</v>
+        <v>-77000</v>
       </c>
       <c r="E81" s="3">
-        <v>-41100</v>
+        <v>-39900</v>
       </c>
       <c r="F81" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="G81" s="3">
-        <v>128700</v>
+        <v>124900</v>
       </c>
       <c r="H81" s="3">
-        <v>-158600</v>
+        <v>-153900</v>
       </c>
       <c r="I81" s="3">
-        <v>-47700</v>
+        <v>-46300</v>
       </c>
       <c r="J81" s="3">
-        <v>50500</v>
+        <v>49000</v>
       </c>
       <c r="K81" s="3">
         <v>145400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>147300</v>
+        <v>143000</v>
       </c>
       <c r="E83" s="3">
-        <v>161500</v>
+        <v>156700</v>
       </c>
       <c r="F83" s="3">
-        <v>213400</v>
+        <v>207000</v>
       </c>
       <c r="G83" s="3">
-        <v>253800</v>
+        <v>246300</v>
       </c>
       <c r="H83" s="3">
-        <v>255600</v>
+        <v>248000</v>
       </c>
       <c r="I83" s="3">
-        <v>287600</v>
+        <v>279100</v>
       </c>
       <c r="J83" s="3">
-        <v>241800</v>
+        <v>234700</v>
       </c>
       <c r="K83" s="3">
         <v>266100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>354600</v>
+        <v>344100</v>
       </c>
       <c r="E89" s="3">
-        <v>44000</v>
+        <v>42700</v>
       </c>
       <c r="F89" s="3">
-        <v>407800</v>
+        <v>395700</v>
       </c>
       <c r="G89" s="3">
-        <v>516500</v>
+        <v>501200</v>
       </c>
       <c r="H89" s="3">
-        <v>461200</v>
+        <v>447600</v>
       </c>
       <c r="I89" s="3">
-        <v>241700</v>
+        <v>234600</v>
       </c>
       <c r="J89" s="3">
-        <v>348200</v>
+        <v>337900</v>
       </c>
       <c r="K89" s="3">
         <v>377000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-76400</v>
+        <v>-74200</v>
       </c>
       <c r="E91" s="3">
-        <v>-59900</v>
+        <v>-58200</v>
       </c>
       <c r="F91" s="3">
-        <v>-58200</v>
+        <v>-56500</v>
       </c>
       <c r="G91" s="3">
-        <v>-42800</v>
+        <v>-41600</v>
       </c>
       <c r="H91" s="3">
-        <v>-88200</v>
+        <v>-85600</v>
       </c>
       <c r="I91" s="3">
-        <v>-167800</v>
+        <v>-162900</v>
       </c>
       <c r="J91" s="3">
-        <v>-277400</v>
+        <v>-269200</v>
       </c>
       <c r="K91" s="3">
         <v>-376900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-62100</v>
+        <v>-60300</v>
       </c>
       <c r="E94" s="3">
-        <v>-78200</v>
+        <v>-75900</v>
       </c>
       <c r="F94" s="3">
-        <v>338400</v>
+        <v>328400</v>
       </c>
       <c r="G94" s="3">
-        <v>-318500</v>
+        <v>-309100</v>
       </c>
       <c r="H94" s="3">
-        <v>-72000</v>
+        <v>-69900</v>
       </c>
       <c r="I94" s="3">
-        <v>-168500</v>
+        <v>-163600</v>
       </c>
       <c r="J94" s="3">
-        <v>-263700</v>
+        <v>-255900</v>
       </c>
       <c r="K94" s="3">
         <v>-16300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-24600</v>
+        <v>-23900</v>
       </c>
       <c r="E96" s="3">
-        <v>-24500</v>
+        <v>-23800</v>
       </c>
       <c r="F96" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="G96" s="3">
-        <v>-55100</v>
+        <v>-53500</v>
       </c>
       <c r="H96" s="3">
-        <v>-122500</v>
+        <v>-118900</v>
       </c>
       <c r="I96" s="3">
-        <v>-122500</v>
+        <v>-118900</v>
       </c>
       <c r="J96" s="3">
-        <v>-122500</v>
+        <v>-118900</v>
       </c>
       <c r="K96" s="3">
         <v>-124200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-36200</v>
+        <v>-35100</v>
       </c>
       <c r="E100" s="3">
-        <v>-75800</v>
+        <v>-73600</v>
       </c>
       <c r="F100" s="3">
-        <v>-469600</v>
+        <v>-455700</v>
       </c>
       <c r="G100" s="3">
-        <v>-111600</v>
+        <v>-108300</v>
       </c>
       <c r="H100" s="3">
-        <v>-176300</v>
+        <v>-171000</v>
       </c>
       <c r="I100" s="3">
-        <v>-177000</v>
+        <v>-171800</v>
       </c>
       <c r="J100" s="3">
-        <v>-176300</v>
+        <v>-171100</v>
       </c>
       <c r="K100" s="3">
         <v>-65900</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E101" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F101" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="G101" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I101" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="J101" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="K101" s="3">
         <v>2500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>254600</v>
+        <v>247100</v>
       </c>
       <c r="E102" s="3">
-        <v>-111500</v>
+        <v>-108200</v>
       </c>
       <c r="F102" s="3">
-        <v>271500</v>
+        <v>263500</v>
       </c>
       <c r="G102" s="3">
-        <v>92800</v>
+        <v>90000</v>
       </c>
       <c r="H102" s="3">
-        <v>210000</v>
+        <v>203700</v>
       </c>
       <c r="I102" s="3">
-        <v>-107000</v>
+        <v>-103900</v>
       </c>
       <c r="J102" s="3">
-        <v>-83500</v>
+        <v>-81100</v>
       </c>
       <c r="K102" s="3">
         <v>297300</v>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>CCJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1107500</v>
+        <v>1351000</v>
       </c>
       <c r="E8" s="3">
-        <v>1351600</v>
+        <v>1066700</v>
       </c>
       <c r="F8" s="3">
-        <v>1398800</v>
+        <v>1301800</v>
       </c>
       <c r="G8" s="3">
-        <v>1570500</v>
+        <v>1347300</v>
       </c>
       <c r="H8" s="3">
-        <v>1619500</v>
+        <v>1512700</v>
       </c>
       <c r="I8" s="3">
-        <v>1825600</v>
+        <v>1559900</v>
       </c>
       <c r="J8" s="3">
+        <v>1758400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2068200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1882200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1877400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1407000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1831800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1106100</v>
+        <v>1182300</v>
       </c>
       <c r="E9" s="3">
-        <v>1271700</v>
+        <v>1065300</v>
       </c>
       <c r="F9" s="3">
-        <v>1217400</v>
+        <v>1224900</v>
       </c>
       <c r="G9" s="3">
-        <v>1348500</v>
+        <v>1172600</v>
       </c>
       <c r="H9" s="3">
-        <v>1291900</v>
+        <v>1298800</v>
       </c>
       <c r="I9" s="3">
-        <v>1477600</v>
+        <v>1244400</v>
       </c>
       <c r="J9" s="3">
+        <v>1423200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1544800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1381500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1410300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1005200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1235400</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1500</v>
+        <v>168700</v>
       </c>
       <c r="E10" s="3">
-        <v>79900</v>
+        <v>1400</v>
       </c>
       <c r="F10" s="3">
-        <v>181400</v>
+        <v>77000</v>
       </c>
       <c r="G10" s="3">
-        <v>222100</v>
+        <v>174700</v>
       </c>
       <c r="H10" s="3">
-        <v>327600</v>
+        <v>213900</v>
       </c>
       <c r="I10" s="3">
-        <v>348000</v>
+        <v>315500</v>
       </c>
       <c r="J10" s="3">
+        <v>335200</v>
+      </c>
+      <c r="K10" s="3">
         <v>523400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>467100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>401900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>596400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11400</v>
+        <v>16500</v>
       </c>
       <c r="E12" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="F12" s="3">
-        <v>14800</v>
+        <v>10700</v>
       </c>
       <c r="G12" s="3">
-        <v>16500</v>
+        <v>14300</v>
       </c>
       <c r="H12" s="3">
-        <v>26700</v>
+        <v>15900</v>
       </c>
       <c r="I12" s="3">
-        <v>35700</v>
+        <v>25700</v>
       </c>
       <c r="J12" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K12" s="3">
         <v>35200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>40500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>61700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>79300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>68700</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-15900</v>
+        <v>-16500</v>
       </c>
       <c r="E14" s="3">
-        <v>-28000</v>
+        <v>-15300</v>
       </c>
       <c r="F14" s="3">
-        <v>-39600</v>
+        <v>-27000</v>
       </c>
       <c r="G14" s="3">
-        <v>-59900</v>
+        <v>-38200</v>
       </c>
       <c r="H14" s="3">
-        <v>269100</v>
+        <v>-57700</v>
       </c>
       <c r="I14" s="3">
-        <v>271800</v>
+        <v>259200</v>
       </c>
       <c r="J14" s="3">
+        <v>261800</v>
+      </c>
+      <c r="K14" s="3">
         <v>161800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>256500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>54000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>125000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,12 +1025,15 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1193900</v>
+        <v>1323600</v>
       </c>
       <c r="E17" s="3">
-        <v>1382700</v>
+        <v>1149900</v>
       </c>
       <c r="F17" s="3">
-        <v>1289800</v>
+        <v>1331800</v>
       </c>
       <c r="G17" s="3">
-        <v>1457900</v>
+        <v>1242300</v>
       </c>
       <c r="H17" s="3">
-        <v>1715400</v>
+        <v>1404200</v>
       </c>
       <c r="I17" s="3">
-        <v>1932100</v>
+        <v>1652300</v>
       </c>
       <c r="J17" s="3">
+        <v>1861000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1883800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1852100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1673600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1342900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1430900</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-86400</v>
+        <v>27400</v>
       </c>
       <c r="E18" s="3">
-        <v>-31100</v>
+        <v>-83200</v>
       </c>
       <c r="F18" s="3">
-        <v>109000</v>
+        <v>-29900</v>
       </c>
       <c r="G18" s="3">
-        <v>112700</v>
+        <v>105000</v>
       </c>
       <c r="H18" s="3">
-        <v>-95900</v>
+        <v>108500</v>
       </c>
       <c r="I18" s="3">
-        <v>-106500</v>
+        <v>-92400</v>
       </c>
       <c r="J18" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="K18" s="3">
         <v>184400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>203800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>37900</v>
+        <v>62900</v>
       </c>
       <c r="E20" s="3">
-        <v>33900</v>
+        <v>36500</v>
       </c>
       <c r="F20" s="3">
-        <v>39800</v>
+        <v>32700</v>
       </c>
       <c r="G20" s="3">
-        <v>-27800</v>
+        <v>38300</v>
       </c>
       <c r="H20" s="3">
-        <v>-4700</v>
+        <v>-26800</v>
       </c>
       <c r="I20" s="3">
-        <v>46500</v>
+        <v>-4600</v>
       </c>
       <c r="J20" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-187500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-66700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-63700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>164800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>92300</v>
+        <v>218800</v>
       </c>
       <c r="E21" s="3">
-        <v>157100</v>
+        <v>91200</v>
       </c>
       <c r="F21" s="3">
-        <v>352700</v>
+        <v>153900</v>
       </c>
       <c r="G21" s="3">
-        <v>327300</v>
+        <v>343100</v>
       </c>
       <c r="H21" s="3">
-        <v>143600</v>
+        <v>319300</v>
       </c>
       <c r="I21" s="3">
-        <v>214800</v>
+        <v>142400</v>
       </c>
       <c r="J21" s="3">
+        <v>211500</v>
+      </c>
+      <c r="K21" s="3">
         <v>227900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>228600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>357400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>391100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>624500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="E22" s="3">
-        <v>32500</v>
+        <v>28400</v>
       </c>
       <c r="F22" s="3">
-        <v>47400</v>
+        <v>31300</v>
       </c>
       <c r="G22" s="3">
-        <v>54800</v>
+        <v>45700</v>
       </c>
       <c r="H22" s="3">
-        <v>55000</v>
+        <v>52800</v>
       </c>
       <c r="I22" s="3">
-        <v>55800</v>
+        <v>52900</v>
       </c>
       <c r="J22" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K22" s="3">
         <v>56400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>56900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>79300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>57900</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-78000</v>
+        <v>61300</v>
       </c>
       <c r="E23" s="3">
-        <v>-29700</v>
+        <v>-75100</v>
       </c>
       <c r="F23" s="3">
-        <v>101400</v>
+        <v>-28600</v>
       </c>
       <c r="G23" s="3">
-        <v>30000</v>
+        <v>97600</v>
       </c>
       <c r="H23" s="3">
-        <v>-155600</v>
+        <v>28900</v>
       </c>
       <c r="I23" s="3">
-        <v>-115800</v>
+        <v>-149900</v>
       </c>
       <c r="J23" s="3">
+        <v>-111500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-59500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-93500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>88600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>149700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>354600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-900</v>
       </c>
-      <c r="E24" s="3">
-        <v>10300</v>
-      </c>
       <c r="F24" s="3">
-        <v>45900</v>
+        <v>9900</v>
       </c>
       <c r="G24" s="3">
-        <v>-94800</v>
+        <v>44200</v>
       </c>
       <c r="H24" s="3">
-        <v>7300</v>
+        <v>-91300</v>
       </c>
       <c r="I24" s="3">
-        <v>-70800</v>
+        <v>7000</v>
       </c>
       <c r="J24" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-107100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-137600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-90200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-37700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-77100</v>
+        <v>64600</v>
       </c>
       <c r="E26" s="3">
-        <v>-39900</v>
+        <v>-74200</v>
       </c>
       <c r="F26" s="3">
-        <v>55500</v>
+        <v>-38500</v>
       </c>
       <c r="G26" s="3">
-        <v>124800</v>
+        <v>53500</v>
       </c>
       <c r="H26" s="3">
-        <v>-162900</v>
+        <v>120200</v>
       </c>
       <c r="I26" s="3">
-        <v>-45000</v>
+        <v>-156900</v>
       </c>
       <c r="J26" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="K26" s="3">
         <v>47600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>178900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>187400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>345600</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-77000</v>
+        <v>64600</v>
       </c>
       <c r="E27" s="3">
-        <v>-39900</v>
+        <v>-74200</v>
       </c>
       <c r="F27" s="3">
-        <v>55600</v>
+        <v>-38500</v>
       </c>
       <c r="G27" s="3">
-        <v>124900</v>
+        <v>53500</v>
       </c>
       <c r="H27" s="3">
-        <v>-163000</v>
+        <v>120300</v>
       </c>
       <c r="I27" s="3">
-        <v>-46300</v>
+        <v>-157000</v>
       </c>
       <c r="J27" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="K27" s="3">
         <v>49000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>45500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>179500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>188500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>346000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,33 +1541,36 @@
       <c r="F29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H29" s="3">
-        <v>9200</v>
-      </c>
-      <c r="I29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>99900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>65700</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-37900</v>
+        <v>-62900</v>
       </c>
       <c r="E32" s="3">
-        <v>-33900</v>
+        <v>-36500</v>
       </c>
       <c r="F32" s="3">
-        <v>-39800</v>
+        <v>-32700</v>
       </c>
       <c r="G32" s="3">
-        <v>27800</v>
+        <v>-38300</v>
       </c>
       <c r="H32" s="3">
-        <v>4700</v>
+        <v>26800</v>
       </c>
       <c r="I32" s="3">
-        <v>-46500</v>
+        <v>4600</v>
       </c>
       <c r="J32" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K32" s="3">
         <v>187500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>66700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>63700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-164800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-77000</v>
+        <v>64600</v>
       </c>
       <c r="E33" s="3">
-        <v>-39900</v>
+        <v>-74200</v>
       </c>
       <c r="F33" s="3">
-        <v>55600</v>
+        <v>-38500</v>
       </c>
       <c r="G33" s="3">
-        <v>124900</v>
+        <v>53500</v>
       </c>
       <c r="H33" s="3">
-        <v>-153900</v>
+        <v>120300</v>
       </c>
       <c r="I33" s="3">
-        <v>-46300</v>
+        <v>-148200</v>
       </c>
       <c r="J33" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="K33" s="3">
         <v>49000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>145400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>245200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>188500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>346000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-77000</v>
+        <v>64600</v>
       </c>
       <c r="E35" s="3">
-        <v>-39900</v>
+        <v>-74200</v>
       </c>
       <c r="F35" s="3">
-        <v>55600</v>
+        <v>-38500</v>
       </c>
       <c r="G35" s="3">
-        <v>124900</v>
+        <v>53500</v>
       </c>
       <c r="H35" s="3">
-        <v>-153900</v>
+        <v>120300</v>
       </c>
       <c r="I35" s="3">
-        <v>-46300</v>
+        <v>-148200</v>
       </c>
       <c r="J35" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="K35" s="3">
         <v>49000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>145400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>245200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>188500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>346000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,64 +1903,68 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>936700</v>
+        <v>827100</v>
       </c>
       <c r="E41" s="3">
-        <v>689600</v>
+        <v>902200</v>
       </c>
       <c r="F41" s="3">
-        <v>797700</v>
+        <v>664200</v>
       </c>
       <c r="G41" s="3">
-        <v>534300</v>
+        <v>768400</v>
       </c>
       <c r="H41" s="3">
-        <v>444200</v>
+        <v>514600</v>
       </c>
       <c r="I41" s="3">
-        <v>240500</v>
+        <v>427900</v>
       </c>
       <c r="J41" s="3">
+        <v>231600</v>
+      </c>
+      <c r="K41" s="3">
         <v>344300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>444800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>176400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>557800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>305800</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63800</v>
+        <v>823200</v>
       </c>
       <c r="E42" s="3">
-        <v>18800</v>
+        <v>61400</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>18100</v>
       </c>
       <c r="G42" s="3">
-        <v>293600</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>282800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>11</v>
@@ -1886,291 +1975,315 @@
       <c r="K42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>36900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>617800</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>228500</v>
+        <v>157100</v>
       </c>
       <c r="E43" s="3">
-        <v>174100</v>
+        <v>220100</v>
       </c>
       <c r="F43" s="3">
-        <v>254000</v>
+        <v>167700</v>
       </c>
       <c r="G43" s="3">
-        <v>317700</v>
+        <v>244600</v>
       </c>
       <c r="H43" s="3">
-        <v>333600</v>
+        <v>306000</v>
       </c>
       <c r="I43" s="3">
-        <v>198600</v>
+        <v>321300</v>
       </c>
       <c r="J43" s="3">
+        <v>191300</v>
+      </c>
+      <c r="K43" s="3">
         <v>194900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>367700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>337000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>359100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>542100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>307500</v>
+        <v>480700</v>
       </c>
       <c r="E44" s="3">
-        <v>510900</v>
+        <v>296200</v>
       </c>
       <c r="F44" s="3">
-        <v>240900</v>
+        <v>492100</v>
       </c>
       <c r="G44" s="3">
-        <v>351200</v>
+        <v>232000</v>
       </c>
       <c r="H44" s="3">
-        <v>713100</v>
+        <v>338300</v>
       </c>
       <c r="I44" s="3">
-        <v>967100</v>
+        <v>686900</v>
       </c>
       <c r="J44" s="3">
+        <v>931500</v>
+      </c>
+      <c r="K44" s="3">
         <v>965100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>708300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>703100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>838800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>379400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>71600</v>
+        <v>114200</v>
       </c>
       <c r="E45" s="3">
-        <v>67100</v>
+        <v>69000</v>
       </c>
       <c r="F45" s="3">
-        <v>64200</v>
+        <v>64700</v>
       </c>
       <c r="G45" s="3">
-        <v>67000</v>
+        <v>61800</v>
       </c>
       <c r="H45" s="3">
-        <v>112500</v>
+        <v>64500</v>
       </c>
       <c r="I45" s="3">
-        <v>127000</v>
+        <v>108400</v>
       </c>
       <c r="J45" s="3">
+        <v>122300</v>
+      </c>
+      <c r="K45" s="3">
         <v>135600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>102400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>136700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>82400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>139800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1608000</v>
+        <v>2402300</v>
       </c>
       <c r="E46" s="3">
-        <v>1460500</v>
+        <v>1548800</v>
       </c>
       <c r="F46" s="3">
-        <v>1356800</v>
+        <v>1406700</v>
       </c>
       <c r="G46" s="3">
-        <v>1563800</v>
+        <v>1306800</v>
       </c>
       <c r="H46" s="3">
-        <v>1603500</v>
+        <v>1506300</v>
       </c>
       <c r="I46" s="3">
-        <v>1533100</v>
+        <v>1544500</v>
       </c>
       <c r="J46" s="3">
+        <v>1476700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1639900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1623300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1353200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1421200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1984900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>608800</v>
+        <v>583300</v>
       </c>
       <c r="E47" s="3">
-        <v>654500</v>
+        <v>586400</v>
       </c>
       <c r="F47" s="3">
-        <v>662900</v>
+        <v>630500</v>
       </c>
       <c r="G47" s="3">
-        <v>737600</v>
+        <v>638500</v>
       </c>
       <c r="H47" s="3">
-        <v>390500</v>
+        <v>710500</v>
       </c>
       <c r="I47" s="3">
-        <v>376800</v>
+        <v>376100</v>
       </c>
       <c r="J47" s="3">
+        <v>363000</v>
+      </c>
+      <c r="K47" s="3">
         <v>330800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>331800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>595000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>515600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>386200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2685500</v>
+        <v>2512100</v>
       </c>
       <c r="E48" s="3">
-        <v>2831900</v>
+        <v>2586700</v>
       </c>
       <c r="F48" s="3">
-        <v>2793700</v>
+        <v>2727700</v>
       </c>
       <c r="G48" s="3">
-        <v>2914800</v>
+        <v>2690900</v>
       </c>
       <c r="H48" s="3">
-        <v>3147500</v>
+        <v>2807500</v>
       </c>
       <c r="I48" s="3">
-        <v>3495700</v>
+        <v>3031700</v>
       </c>
       <c r="J48" s="3">
+        <v>3367000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3925600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4153700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3880700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1377600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3341400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38500</v>
+        <v>34100</v>
       </c>
       <c r="E49" s="3">
-        <v>41900</v>
+        <v>37100</v>
       </c>
       <c r="F49" s="3">
-        <v>45400</v>
+        <v>40400</v>
       </c>
       <c r="G49" s="3">
-        <v>49300</v>
+        <v>43700</v>
       </c>
       <c r="H49" s="3">
-        <v>52600</v>
+        <v>47400</v>
       </c>
       <c r="I49" s="3">
-        <v>152700</v>
+        <v>50600</v>
       </c>
       <c r="J49" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K49" s="3">
         <v>163000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>157900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>149400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>139500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>76000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>704000</v>
+        <v>711700</v>
       </c>
       <c r="E52" s="3">
-        <v>703300</v>
+        <v>678100</v>
       </c>
       <c r="F52" s="3">
-        <v>718100</v>
+        <v>677400</v>
       </c>
       <c r="G52" s="3">
-        <v>755400</v>
+        <v>691700</v>
       </c>
       <c r="H52" s="3">
-        <v>646600</v>
+        <v>727600</v>
       </c>
       <c r="I52" s="3">
-        <v>635700</v>
+        <v>622800</v>
       </c>
       <c r="J52" s="3">
+        <v>612300</v>
+      </c>
+      <c r="K52" s="3">
         <v>544200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>384800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>210600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>161000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>62500</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5644800</v>
+        <v>6243400</v>
       </c>
       <c r="E54" s="3">
-        <v>5692100</v>
+        <v>5437000</v>
       </c>
       <c r="F54" s="3">
-        <v>5576800</v>
+        <v>5482600</v>
       </c>
       <c r="G54" s="3">
-        <v>6020900</v>
+        <v>5371500</v>
       </c>
       <c r="H54" s="3">
-        <v>5840700</v>
+        <v>5799200</v>
       </c>
       <c r="I54" s="3">
-        <v>6194000</v>
+        <v>5625700</v>
       </c>
       <c r="J54" s="3">
+        <v>5966000</v>
+      </c>
+      <c r="K54" s="3">
         <v>6603500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6651500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6188800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5530300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5851100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,64 +2527,68 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>160200</v>
+        <v>180800</v>
       </c>
       <c r="E57" s="3">
-        <v>103000</v>
+        <v>154300</v>
       </c>
       <c r="F57" s="3">
-        <v>75400</v>
+        <v>99200</v>
       </c>
       <c r="G57" s="3">
-        <v>92500</v>
+        <v>72600</v>
       </c>
       <c r="H57" s="3">
-        <v>132900</v>
+        <v>89100</v>
       </c>
       <c r="I57" s="3">
-        <v>160300</v>
+        <v>128000</v>
       </c>
       <c r="J57" s="3">
+        <v>154400</v>
+      </c>
+      <c r="K57" s="3">
         <v>149500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>143800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>266700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>444000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>238900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>375100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>361300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
@@ -2463,177 +2596,192 @@
       <c r="J58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>70400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>62100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>86600</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>150400</v>
+        <v>224800</v>
       </c>
       <c r="E59" s="3">
-        <v>125100</v>
+        <v>144900</v>
       </c>
       <c r="F59" s="3">
-        <v>132900</v>
+        <v>120500</v>
       </c>
       <c r="G59" s="3">
-        <v>190000</v>
+        <v>128000</v>
       </c>
       <c r="H59" s="3">
-        <v>175700</v>
+        <v>183000</v>
       </c>
       <c r="I59" s="3">
-        <v>192100</v>
+        <v>169200</v>
       </c>
       <c r="J59" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K59" s="3">
         <v>354800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>261200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>205300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>191000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>221800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>310700</v>
+        <v>405600</v>
       </c>
       <c r="E60" s="3">
-        <v>228100</v>
+        <v>299200</v>
       </c>
       <c r="F60" s="3">
-        <v>208300</v>
+        <v>219700</v>
       </c>
       <c r="G60" s="3">
-        <v>657700</v>
+        <v>200600</v>
       </c>
       <c r="H60" s="3">
-        <v>308600</v>
+        <v>633500</v>
       </c>
       <c r="I60" s="3">
-        <v>352300</v>
+        <v>297200</v>
       </c>
       <c r="J60" s="3">
+        <v>339400</v>
+      </c>
+      <c r="K60" s="3">
         <v>504300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>404900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>542400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>418800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>547200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>748000</v>
+        <v>721100</v>
       </c>
       <c r="E61" s="3">
-        <v>753500</v>
+        <v>720500</v>
       </c>
       <c r="F61" s="3">
-        <v>758100</v>
+        <v>725700</v>
       </c>
       <c r="G61" s="3">
-        <v>747900</v>
+        <v>730200</v>
       </c>
       <c r="H61" s="3">
-        <v>1122100</v>
+        <v>720400</v>
       </c>
       <c r="I61" s="3">
-        <v>1121300</v>
+        <v>1080800</v>
       </c>
       <c r="J61" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1120500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1170700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>995700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>961800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>711500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>947400</v>
+        <v>896000</v>
       </c>
       <c r="E62" s="3">
-        <v>987400</v>
+        <v>912500</v>
       </c>
       <c r="F62" s="3">
-        <v>860000</v>
+        <v>951000</v>
       </c>
       <c r="G62" s="3">
-        <v>865800</v>
+        <v>828300</v>
       </c>
       <c r="H62" s="3">
-        <v>761100</v>
+        <v>833900</v>
       </c>
       <c r="I62" s="3">
-        <v>772000</v>
+        <v>733100</v>
       </c>
       <c r="J62" s="3">
+        <v>743500</v>
+      </c>
+      <c r="K62" s="3">
         <v>815000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>802200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>532700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>917900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>810300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2006200</v>
+        <v>2022700</v>
       </c>
       <c r="E66" s="3">
-        <v>1969100</v>
+        <v>1932400</v>
       </c>
       <c r="F66" s="3">
-        <v>1826500</v>
+        <v>1896600</v>
       </c>
       <c r="G66" s="3">
-        <v>2271600</v>
+        <v>1759200</v>
       </c>
       <c r="H66" s="3">
-        <v>2192100</v>
+        <v>2188000</v>
       </c>
       <c r="I66" s="3">
-        <v>2245700</v>
+        <v>2111400</v>
       </c>
       <c r="J66" s="3">
+        <v>2163000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2438500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2377900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2071600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1852800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2071700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1982000</v>
+        <v>1950100</v>
       </c>
       <c r="E72" s="3">
-        <v>2054200</v>
+        <v>1909000</v>
       </c>
       <c r="F72" s="3">
-        <v>2121600</v>
+        <v>1978600</v>
       </c>
       <c r="G72" s="3">
-        <v>2095900</v>
+        <v>2043500</v>
       </c>
       <c r="H72" s="3">
-        <v>1990100</v>
+        <v>2018700</v>
       </c>
       <c r="I72" s="3">
-        <v>2267500</v>
+        <v>1916800</v>
       </c>
       <c r="J72" s="3">
+        <v>2184000</v>
+      </c>
+      <c r="K72" s="3">
         <v>2434200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2616600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2551200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2168000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2208600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3638500</v>
+        <v>4220800</v>
       </c>
       <c r="E76" s="3">
-        <v>3723000</v>
+        <v>3504600</v>
       </c>
       <c r="F76" s="3">
-        <v>3750300</v>
+        <v>3586000</v>
       </c>
       <c r="G76" s="3">
-        <v>3749300</v>
+        <v>3612300</v>
       </c>
       <c r="H76" s="3">
-        <v>3648600</v>
+        <v>3611200</v>
       </c>
       <c r="I76" s="3">
-        <v>3948300</v>
+        <v>3514300</v>
       </c>
       <c r="J76" s="3">
+        <v>3803000</v>
+      </c>
+      <c r="K76" s="3">
         <v>4165000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4273500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4117200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3677400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3779400</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-77000</v>
+        <v>64600</v>
       </c>
       <c r="E81" s="3">
-        <v>-39900</v>
+        <v>-74200</v>
       </c>
       <c r="F81" s="3">
-        <v>55600</v>
+        <v>-38500</v>
       </c>
       <c r="G81" s="3">
-        <v>124900</v>
+        <v>53500</v>
       </c>
       <c r="H81" s="3">
-        <v>-153900</v>
+        <v>120300</v>
       </c>
       <c r="I81" s="3">
-        <v>-46300</v>
+        <v>-148200</v>
       </c>
       <c r="J81" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="K81" s="3">
         <v>49000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>145400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>245200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>188500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>346000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>143000</v>
+        <v>128300</v>
       </c>
       <c r="E83" s="3">
-        <v>156700</v>
+        <v>137700</v>
       </c>
       <c r="F83" s="3">
-        <v>207000</v>
+        <v>150900</v>
       </c>
       <c r="G83" s="3">
-        <v>246300</v>
+        <v>199400</v>
       </c>
       <c r="H83" s="3">
-        <v>248000</v>
+        <v>237200</v>
       </c>
       <c r="I83" s="3">
-        <v>279100</v>
+        <v>238900</v>
       </c>
       <c r="J83" s="3">
+        <v>268800</v>
+      </c>
+      <c r="K83" s="3">
         <v>234700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>266100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>217700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>161800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>211000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>344100</v>
+        <v>220300</v>
       </c>
       <c r="E89" s="3">
-        <v>42700</v>
+        <v>331400</v>
       </c>
       <c r="F89" s="3">
-        <v>395700</v>
+        <v>41100</v>
       </c>
       <c r="G89" s="3">
-        <v>501200</v>
+        <v>381200</v>
       </c>
       <c r="H89" s="3">
-        <v>447600</v>
+        <v>482800</v>
       </c>
       <c r="I89" s="3">
-        <v>234600</v>
+        <v>431100</v>
       </c>
       <c r="J89" s="3">
+        <v>225900</v>
+      </c>
+      <c r="K89" s="3">
         <v>337900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>377000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>407900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>431200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>572200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-74200</v>
+        <v>-103700</v>
       </c>
       <c r="E91" s="3">
-        <v>-58200</v>
+        <v>-71400</v>
       </c>
       <c r="F91" s="3">
-        <v>-56500</v>
+        <v>-56000</v>
       </c>
       <c r="G91" s="3">
-        <v>-41600</v>
+        <v>-54400</v>
       </c>
       <c r="H91" s="3">
-        <v>-85600</v>
+        <v>-40000</v>
       </c>
       <c r="I91" s="3">
-        <v>-162900</v>
+        <v>-82500</v>
       </c>
       <c r="J91" s="3">
+        <v>-156900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-269200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-376900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-497000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-499800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-497200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-60300</v>
+        <v>-933500</v>
       </c>
       <c r="E94" s="3">
-        <v>-75900</v>
+        <v>-58100</v>
       </c>
       <c r="F94" s="3">
-        <v>328400</v>
+        <v>-73100</v>
       </c>
       <c r="G94" s="3">
-        <v>-309100</v>
+        <v>316300</v>
       </c>
       <c r="H94" s="3">
-        <v>-69900</v>
+        <v>-297700</v>
       </c>
       <c r="I94" s="3">
-        <v>-163600</v>
+        <v>-67300</v>
       </c>
       <c r="J94" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-255900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-657700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-384300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-405600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23900</v>
+        <v>-37500</v>
       </c>
       <c r="E96" s="3">
-        <v>-23800</v>
+        <v>-23000</v>
       </c>
       <c r="F96" s="3">
-        <v>-23700</v>
+        <v>-22900</v>
       </c>
       <c r="G96" s="3">
-        <v>-53500</v>
+        <v>-22900</v>
       </c>
       <c r="H96" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-114500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-114500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-118900</v>
       </c>
-      <c r="I96" s="3">
-        <v>-118900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-118900</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-124200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-121800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-117600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-112200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-35100</v>
+        <v>628700</v>
       </c>
       <c r="E100" s="3">
-        <v>-73600</v>
+        <v>-33800</v>
       </c>
       <c r="F100" s="3">
-        <v>-455700</v>
+        <v>-70900</v>
       </c>
       <c r="G100" s="3">
-        <v>-108300</v>
+        <v>-438900</v>
       </c>
       <c r="H100" s="3">
-        <v>-171000</v>
+        <v>-104300</v>
       </c>
       <c r="I100" s="3">
-        <v>-171800</v>
+        <v>-164700</v>
       </c>
       <c r="J100" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-171100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-65900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-184800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>216900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-155000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-5000</v>
-      </c>
       <c r="G101" s="3">
-        <v>6200</v>
+        <v>-4800</v>
       </c>
       <c r="H101" s="3">
-        <v>-2900</v>
+        <v>5900</v>
       </c>
       <c r="I101" s="3">
-        <v>-3100</v>
+        <v>-2800</v>
       </c>
       <c r="J101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>247100</v>
+        <v>-75100</v>
       </c>
       <c r="E102" s="3">
-        <v>-108200</v>
+        <v>238000</v>
       </c>
       <c r="F102" s="3">
-        <v>263500</v>
+        <v>-104200</v>
       </c>
       <c r="G102" s="3">
-        <v>90000</v>
+        <v>253800</v>
       </c>
       <c r="H102" s="3">
-        <v>203700</v>
+        <v>86700</v>
       </c>
       <c r="I102" s="3">
-        <v>-103900</v>
+        <v>196200</v>
       </c>
       <c r="J102" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-81100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>297300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-432300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>263400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1351000</v>
+        <v>1383700</v>
       </c>
       <c r="E8" s="3">
-        <v>1066700</v>
+        <v>1092600</v>
       </c>
       <c r="F8" s="3">
-        <v>1301800</v>
+        <v>1333400</v>
       </c>
       <c r="G8" s="3">
-        <v>1347300</v>
+        <v>1379900</v>
       </c>
       <c r="H8" s="3">
-        <v>1512700</v>
+        <v>1549400</v>
       </c>
       <c r="I8" s="3">
-        <v>1559900</v>
+        <v>1597700</v>
       </c>
       <c r="J8" s="3">
-        <v>1758400</v>
+        <v>1801000</v>
       </c>
       <c r="K8" s="3">
         <v>2068200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1182300</v>
+        <v>1210900</v>
       </c>
       <c r="E9" s="3">
-        <v>1065300</v>
+        <v>1091100</v>
       </c>
       <c r="F9" s="3">
-        <v>1224900</v>
+        <v>1254500</v>
       </c>
       <c r="G9" s="3">
-        <v>1172600</v>
+        <v>1201000</v>
       </c>
       <c r="H9" s="3">
-        <v>1298800</v>
+        <v>1330300</v>
       </c>
       <c r="I9" s="3">
-        <v>1244400</v>
+        <v>1274500</v>
       </c>
       <c r="J9" s="3">
-        <v>1423200</v>
+        <v>1457700</v>
       </c>
       <c r="K9" s="3">
         <v>1544800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>168700</v>
+        <v>172800</v>
       </c>
       <c r="E10" s="3">
         <v>1400</v>
       </c>
       <c r="F10" s="3">
-        <v>77000</v>
+        <v>78900</v>
       </c>
       <c r="G10" s="3">
-        <v>174700</v>
+        <v>179000</v>
       </c>
       <c r="H10" s="3">
-        <v>213900</v>
+        <v>219100</v>
       </c>
       <c r="I10" s="3">
-        <v>315500</v>
+        <v>323200</v>
       </c>
       <c r="J10" s="3">
-        <v>335200</v>
+        <v>343300</v>
       </c>
       <c r="K10" s="3">
         <v>523400</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="E12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F12" s="3">
         <v>11000</v>
       </c>
-      <c r="F12" s="3">
-        <v>10700</v>
-      </c>
       <c r="G12" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="H12" s="3">
-        <v>15900</v>
+        <v>16300</v>
       </c>
       <c r="I12" s="3">
-        <v>25700</v>
+        <v>26400</v>
       </c>
       <c r="J12" s="3">
-        <v>34400</v>
+        <v>35200</v>
       </c>
       <c r="K12" s="3">
         <v>35200</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-16500</v>
+        <v>-16900</v>
       </c>
       <c r="E14" s="3">
-        <v>-15300</v>
+        <v>-15700</v>
       </c>
       <c r="F14" s="3">
-        <v>-27000</v>
+        <v>-27700</v>
       </c>
       <c r="G14" s="3">
-        <v>-38200</v>
+        <v>-39100</v>
       </c>
       <c r="H14" s="3">
-        <v>-57700</v>
+        <v>-59100</v>
       </c>
       <c r="I14" s="3">
-        <v>259200</v>
+        <v>265400</v>
       </c>
       <c r="J14" s="3">
-        <v>261800</v>
+        <v>268100</v>
       </c>
       <c r="K14" s="3">
         <v>161800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1323600</v>
+        <v>1355700</v>
       </c>
       <c r="E17" s="3">
-        <v>1149900</v>
+        <v>1177800</v>
       </c>
       <c r="F17" s="3">
-        <v>1331800</v>
+        <v>1364000</v>
       </c>
       <c r="G17" s="3">
-        <v>1242300</v>
+        <v>1272400</v>
       </c>
       <c r="H17" s="3">
-        <v>1404200</v>
+        <v>1438200</v>
       </c>
       <c r="I17" s="3">
-        <v>1652300</v>
+        <v>1692300</v>
       </c>
       <c r="J17" s="3">
-        <v>1861000</v>
+        <v>1906100</v>
       </c>
       <c r="K17" s="3">
         <v>1883800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>27400</v>
+        <v>28000</v>
       </c>
       <c r="E18" s="3">
-        <v>-83200</v>
+        <v>-85200</v>
       </c>
       <c r="F18" s="3">
-        <v>-29900</v>
+        <v>-30700</v>
       </c>
       <c r="G18" s="3">
-        <v>105000</v>
+        <v>107600</v>
       </c>
       <c r="H18" s="3">
-        <v>108500</v>
+        <v>111100</v>
       </c>
       <c r="I18" s="3">
-        <v>-92400</v>
+        <v>-94600</v>
       </c>
       <c r="J18" s="3">
-        <v>-102500</v>
+        <v>-105000</v>
       </c>
       <c r="K18" s="3">
         <v>184400</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>62900</v>
+        <v>64400</v>
       </c>
       <c r="E20" s="3">
-        <v>36500</v>
+        <v>37300</v>
       </c>
       <c r="F20" s="3">
-        <v>32700</v>
+        <v>33500</v>
       </c>
       <c r="G20" s="3">
-        <v>38300</v>
+        <v>39200</v>
       </c>
       <c r="H20" s="3">
-        <v>-26800</v>
+        <v>-27500</v>
       </c>
       <c r="I20" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="J20" s="3">
-        <v>44700</v>
+        <v>45800</v>
       </c>
       <c r="K20" s="3">
         <v>-187500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>218800</v>
+        <v>224400</v>
       </c>
       <c r="E21" s="3">
-        <v>91200</v>
+        <v>93700</v>
       </c>
       <c r="F21" s="3">
-        <v>153900</v>
+        <v>157900</v>
       </c>
       <c r="G21" s="3">
-        <v>343100</v>
+        <v>351800</v>
       </c>
       <c r="H21" s="3">
-        <v>319300</v>
+        <v>327500</v>
       </c>
       <c r="I21" s="3">
-        <v>142400</v>
+        <v>146300</v>
       </c>
       <c r="J21" s="3">
-        <v>211500</v>
+        <v>217100</v>
       </c>
       <c r="K21" s="3">
         <v>227900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29000</v>
+        <v>29700</v>
       </c>
       <c r="E22" s="3">
-        <v>28400</v>
+        <v>29100</v>
       </c>
       <c r="F22" s="3">
-        <v>31300</v>
+        <v>32100</v>
       </c>
       <c r="G22" s="3">
-        <v>45700</v>
+        <v>46800</v>
       </c>
       <c r="H22" s="3">
-        <v>52800</v>
+        <v>54100</v>
       </c>
       <c r="I22" s="3">
-        <v>52900</v>
+        <v>54200</v>
       </c>
       <c r="J22" s="3">
-        <v>53700</v>
+        <v>55000</v>
       </c>
       <c r="K22" s="3">
         <v>56400</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>61300</v>
+        <v>62800</v>
       </c>
       <c r="E23" s="3">
-        <v>-75100</v>
+        <v>-76900</v>
       </c>
       <c r="F23" s="3">
-        <v>-28600</v>
+        <v>-29300</v>
       </c>
       <c r="G23" s="3">
-        <v>97600</v>
+        <v>100000</v>
       </c>
       <c r="H23" s="3">
-        <v>28900</v>
+        <v>29600</v>
       </c>
       <c r="I23" s="3">
-        <v>-149900</v>
+        <v>-153500</v>
       </c>
       <c r="J23" s="3">
-        <v>-111500</v>
+        <v>-114200</v>
       </c>
       <c r="K23" s="3">
         <v>-59500</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E24" s="3">
         <v>-900</v>
       </c>
       <c r="F24" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="G24" s="3">
-        <v>44200</v>
+        <v>45200</v>
       </c>
       <c r="H24" s="3">
-        <v>-91300</v>
+        <v>-93600</v>
       </c>
       <c r="I24" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="J24" s="3">
-        <v>-68200</v>
+        <v>-69900</v>
       </c>
       <c r="K24" s="3">
         <v>-107100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>64600</v>
+        <v>66100</v>
       </c>
       <c r="E26" s="3">
-        <v>-74200</v>
+        <v>-76000</v>
       </c>
       <c r="F26" s="3">
-        <v>-38500</v>
+        <v>-39400</v>
       </c>
       <c r="G26" s="3">
-        <v>53500</v>
+        <v>54800</v>
       </c>
       <c r="H26" s="3">
-        <v>120200</v>
+        <v>123100</v>
       </c>
       <c r="I26" s="3">
-        <v>-156900</v>
+        <v>-160700</v>
       </c>
       <c r="J26" s="3">
-        <v>-43300</v>
+        <v>-44400</v>
       </c>
       <c r="K26" s="3">
         <v>47600</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>64600</v>
+        <v>66200</v>
       </c>
       <c r="E27" s="3">
-        <v>-74200</v>
+        <v>-76000</v>
       </c>
       <c r="F27" s="3">
-        <v>-38500</v>
+        <v>-39400</v>
       </c>
       <c r="G27" s="3">
-        <v>53500</v>
+        <v>54800</v>
       </c>
       <c r="H27" s="3">
-        <v>120300</v>
+        <v>123200</v>
       </c>
       <c r="I27" s="3">
-        <v>-157000</v>
+        <v>-160800</v>
       </c>
       <c r="J27" s="3">
-        <v>-44600</v>
+        <v>-45600</v>
       </c>
       <c r="K27" s="3">
         <v>49000</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>11</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-62900</v>
+        <v>-64400</v>
       </c>
       <c r="E32" s="3">
-        <v>-36500</v>
+        <v>-37300</v>
       </c>
       <c r="F32" s="3">
-        <v>-32700</v>
+        <v>-33500</v>
       </c>
       <c r="G32" s="3">
-        <v>-38300</v>
+        <v>-39200</v>
       </c>
       <c r="H32" s="3">
-        <v>26800</v>
+        <v>27500</v>
       </c>
       <c r="I32" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J32" s="3">
-        <v>-44700</v>
+        <v>-45800</v>
       </c>
       <c r="K32" s="3">
         <v>187500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>64600</v>
+        <v>66200</v>
       </c>
       <c r="E33" s="3">
-        <v>-74200</v>
+        <v>-76000</v>
       </c>
       <c r="F33" s="3">
-        <v>-38500</v>
+        <v>-39400</v>
       </c>
       <c r="G33" s="3">
-        <v>53500</v>
+        <v>54800</v>
       </c>
       <c r="H33" s="3">
-        <v>120300</v>
+        <v>123200</v>
       </c>
       <c r="I33" s="3">
-        <v>-148200</v>
+        <v>-151800</v>
       </c>
       <c r="J33" s="3">
-        <v>-44600</v>
+        <v>-45600</v>
       </c>
       <c r="K33" s="3">
         <v>49000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>64600</v>
+        <v>66200</v>
       </c>
       <c r="E35" s="3">
-        <v>-74200</v>
+        <v>-76000</v>
       </c>
       <c r="F35" s="3">
-        <v>-38500</v>
+        <v>-39400</v>
       </c>
       <c r="G35" s="3">
-        <v>53500</v>
+        <v>54800</v>
       </c>
       <c r="H35" s="3">
-        <v>120300</v>
+        <v>123200</v>
       </c>
       <c r="I35" s="3">
-        <v>-148200</v>
+        <v>-151800</v>
       </c>
       <c r="J35" s="3">
-        <v>-44600</v>
+        <v>-45600</v>
       </c>
       <c r="K35" s="3">
         <v>49000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>827100</v>
+        <v>847200</v>
       </c>
       <c r="E41" s="3">
-        <v>902200</v>
+        <v>924000</v>
       </c>
       <c r="F41" s="3">
-        <v>664200</v>
+        <v>680300</v>
       </c>
       <c r="G41" s="3">
-        <v>768400</v>
+        <v>787000</v>
       </c>
       <c r="H41" s="3">
-        <v>514600</v>
+        <v>527100</v>
       </c>
       <c r="I41" s="3">
-        <v>427900</v>
+        <v>438200</v>
       </c>
       <c r="J41" s="3">
-        <v>231600</v>
+        <v>237200</v>
       </c>
       <c r="K41" s="3">
         <v>344300</v>
@@ -1952,19 +1952,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>823200</v>
+        <v>843100</v>
       </c>
       <c r="E42" s="3">
-        <v>61400</v>
+        <v>62900</v>
       </c>
       <c r="F42" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>282800</v>
+        <v>289600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>11</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>157100</v>
+        <v>160900</v>
       </c>
       <c r="E43" s="3">
-        <v>220100</v>
+        <v>225400</v>
       </c>
       <c r="F43" s="3">
-        <v>167700</v>
+        <v>171800</v>
       </c>
       <c r="G43" s="3">
-        <v>244600</v>
+        <v>250600</v>
       </c>
       <c r="H43" s="3">
-        <v>306000</v>
+        <v>313500</v>
       </c>
       <c r="I43" s="3">
-        <v>321300</v>
+        <v>329100</v>
       </c>
       <c r="J43" s="3">
-        <v>191300</v>
+        <v>195900</v>
       </c>
       <c r="K43" s="3">
         <v>194900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>480700</v>
+        <v>492400</v>
       </c>
       <c r="E44" s="3">
-        <v>296200</v>
+        <v>303300</v>
       </c>
       <c r="F44" s="3">
-        <v>492100</v>
+        <v>504000</v>
       </c>
       <c r="G44" s="3">
-        <v>232000</v>
+        <v>237600</v>
       </c>
       <c r="H44" s="3">
-        <v>338300</v>
+        <v>346500</v>
       </c>
       <c r="I44" s="3">
-        <v>686900</v>
+        <v>703500</v>
       </c>
       <c r="J44" s="3">
-        <v>931500</v>
+        <v>954000</v>
       </c>
       <c r="K44" s="3">
         <v>965100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>114200</v>
+        <v>117000</v>
       </c>
       <c r="E45" s="3">
-        <v>69000</v>
+        <v>70600</v>
       </c>
       <c r="F45" s="3">
-        <v>64700</v>
+        <v>66200</v>
       </c>
       <c r="G45" s="3">
-        <v>61800</v>
+        <v>63300</v>
       </c>
       <c r="H45" s="3">
-        <v>64500</v>
+        <v>66100</v>
       </c>
       <c r="I45" s="3">
-        <v>108400</v>
+        <v>111000</v>
       </c>
       <c r="J45" s="3">
-        <v>122300</v>
+        <v>125200</v>
       </c>
       <c r="K45" s="3">
         <v>135600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2402300</v>
+        <v>2460500</v>
       </c>
       <c r="E46" s="3">
-        <v>1548800</v>
+        <v>1586300</v>
       </c>
       <c r="F46" s="3">
-        <v>1406700</v>
+        <v>1440800</v>
       </c>
       <c r="G46" s="3">
-        <v>1306800</v>
+        <v>1338500</v>
       </c>
       <c r="H46" s="3">
-        <v>1506300</v>
+        <v>1542800</v>
       </c>
       <c r="I46" s="3">
-        <v>1544500</v>
+        <v>1581900</v>
       </c>
       <c r="J46" s="3">
-        <v>1476700</v>
+        <v>1512500</v>
       </c>
       <c r="K46" s="3">
         <v>1639900</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>583300</v>
+        <v>597400</v>
       </c>
       <c r="E47" s="3">
-        <v>586400</v>
+        <v>600600</v>
       </c>
       <c r="F47" s="3">
-        <v>630500</v>
+        <v>645700</v>
       </c>
       <c r="G47" s="3">
-        <v>638500</v>
+        <v>653900</v>
       </c>
       <c r="H47" s="3">
-        <v>710500</v>
+        <v>727700</v>
       </c>
       <c r="I47" s="3">
-        <v>376100</v>
+        <v>385200</v>
       </c>
       <c r="J47" s="3">
-        <v>363000</v>
+        <v>371800</v>
       </c>
       <c r="K47" s="3">
         <v>330800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2512100</v>
+        <v>2573000</v>
       </c>
       <c r="E48" s="3">
-        <v>2586700</v>
+        <v>2649300</v>
       </c>
       <c r="F48" s="3">
-        <v>2727700</v>
+        <v>2793700</v>
       </c>
       <c r="G48" s="3">
-        <v>2690900</v>
+        <v>2756100</v>
       </c>
       <c r="H48" s="3">
-        <v>2807500</v>
+        <v>2875500</v>
       </c>
       <c r="I48" s="3">
-        <v>3031700</v>
+        <v>3105100</v>
       </c>
       <c r="J48" s="3">
-        <v>3367000</v>
+        <v>3448600</v>
       </c>
       <c r="K48" s="3">
         <v>3925600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34100</v>
+        <v>34900</v>
       </c>
       <c r="E49" s="3">
-        <v>37100</v>
+        <v>38000</v>
       </c>
       <c r="F49" s="3">
-        <v>40400</v>
+        <v>41300</v>
       </c>
       <c r="G49" s="3">
-        <v>43700</v>
+        <v>44700</v>
       </c>
       <c r="H49" s="3">
-        <v>47400</v>
+        <v>48600</v>
       </c>
       <c r="I49" s="3">
-        <v>50600</v>
+        <v>51900</v>
       </c>
       <c r="J49" s="3">
-        <v>147000</v>
+        <v>150600</v>
       </c>
       <c r="K49" s="3">
         <v>163000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>711700</v>
+        <v>728900</v>
       </c>
       <c r="E52" s="3">
-        <v>678100</v>
+        <v>694500</v>
       </c>
       <c r="F52" s="3">
-        <v>677400</v>
+        <v>693800</v>
       </c>
       <c r="G52" s="3">
-        <v>691700</v>
+        <v>708400</v>
       </c>
       <c r="H52" s="3">
-        <v>727600</v>
+        <v>745200</v>
       </c>
       <c r="I52" s="3">
-        <v>622800</v>
+        <v>637900</v>
       </c>
       <c r="J52" s="3">
-        <v>612300</v>
+        <v>627100</v>
       </c>
       <c r="K52" s="3">
         <v>544200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6243400</v>
+        <v>6394700</v>
       </c>
       <c r="E54" s="3">
-        <v>5437000</v>
+        <v>5568700</v>
       </c>
       <c r="F54" s="3">
-        <v>5482600</v>
+        <v>5615400</v>
       </c>
       <c r="G54" s="3">
-        <v>5371500</v>
+        <v>5501700</v>
       </c>
       <c r="H54" s="3">
-        <v>5799200</v>
+        <v>5939700</v>
       </c>
       <c r="I54" s="3">
-        <v>5625700</v>
+        <v>5762000</v>
       </c>
       <c r="J54" s="3">
-        <v>5966000</v>
+        <v>6110500</v>
       </c>
       <c r="K54" s="3">
         <v>6603500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>180800</v>
+        <v>185200</v>
       </c>
       <c r="E57" s="3">
-        <v>154300</v>
+        <v>158100</v>
       </c>
       <c r="F57" s="3">
-        <v>99200</v>
+        <v>101600</v>
       </c>
       <c r="G57" s="3">
-        <v>72600</v>
+        <v>74400</v>
       </c>
       <c r="H57" s="3">
-        <v>89100</v>
+        <v>91300</v>
       </c>
       <c r="I57" s="3">
-        <v>128000</v>
+        <v>131100</v>
       </c>
       <c r="J57" s="3">
-        <v>154400</v>
+        <v>158100</v>
       </c>
       <c r="K57" s="3">
         <v>149500</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>361300</v>
+        <v>370100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>224800</v>
+        <v>230300</v>
       </c>
       <c r="E59" s="3">
-        <v>144900</v>
+        <v>148400</v>
       </c>
       <c r="F59" s="3">
-        <v>120500</v>
+        <v>123400</v>
       </c>
       <c r="G59" s="3">
-        <v>128000</v>
+        <v>131100</v>
       </c>
       <c r="H59" s="3">
-        <v>183000</v>
+        <v>187400</v>
       </c>
       <c r="I59" s="3">
-        <v>169200</v>
+        <v>173300</v>
       </c>
       <c r="J59" s="3">
-        <v>185000</v>
+        <v>189500</v>
       </c>
       <c r="K59" s="3">
         <v>354800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>405600</v>
+        <v>415400</v>
       </c>
       <c r="E60" s="3">
-        <v>299200</v>
+        <v>306500</v>
       </c>
       <c r="F60" s="3">
-        <v>219700</v>
+        <v>225000</v>
       </c>
       <c r="G60" s="3">
-        <v>200600</v>
+        <v>205500</v>
       </c>
       <c r="H60" s="3">
-        <v>633500</v>
+        <v>648800</v>
       </c>
       <c r="I60" s="3">
-        <v>297200</v>
+        <v>304400</v>
       </c>
       <c r="J60" s="3">
-        <v>339400</v>
+        <v>347600</v>
       </c>
       <c r="K60" s="3">
         <v>504300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>721100</v>
+        <v>738500</v>
       </c>
       <c r="E61" s="3">
-        <v>720500</v>
+        <v>738000</v>
       </c>
       <c r="F61" s="3">
-        <v>725700</v>
+        <v>743300</v>
       </c>
       <c r="G61" s="3">
-        <v>730200</v>
+        <v>747800</v>
       </c>
       <c r="H61" s="3">
-        <v>720400</v>
+        <v>737800</v>
       </c>
       <c r="I61" s="3">
-        <v>1080800</v>
+        <v>1107000</v>
       </c>
       <c r="J61" s="3">
-        <v>1080000</v>
+        <v>1106200</v>
       </c>
       <c r="K61" s="3">
         <v>1120500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>896000</v>
+        <v>917700</v>
       </c>
       <c r="E62" s="3">
-        <v>912500</v>
+        <v>934700</v>
       </c>
       <c r="F62" s="3">
-        <v>951000</v>
+        <v>974100</v>
       </c>
       <c r="G62" s="3">
-        <v>828300</v>
+        <v>848400</v>
       </c>
       <c r="H62" s="3">
-        <v>833900</v>
+        <v>854100</v>
       </c>
       <c r="I62" s="3">
-        <v>733100</v>
+        <v>750800</v>
       </c>
       <c r="J62" s="3">
-        <v>743500</v>
+        <v>761500</v>
       </c>
       <c r="K62" s="3">
         <v>815000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2022700</v>
+        <v>2071700</v>
       </c>
       <c r="E66" s="3">
-        <v>1932400</v>
+        <v>1979200</v>
       </c>
       <c r="F66" s="3">
-        <v>1896600</v>
+        <v>1942600</v>
       </c>
       <c r="G66" s="3">
-        <v>1759200</v>
+        <v>1801900</v>
       </c>
       <c r="H66" s="3">
-        <v>2188000</v>
+        <v>2241000</v>
       </c>
       <c r="I66" s="3">
-        <v>2111400</v>
+        <v>2162500</v>
       </c>
       <c r="J66" s="3">
-        <v>2163000</v>
+        <v>2215400</v>
       </c>
       <c r="K66" s="3">
         <v>2438500</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1950100</v>
+        <v>1997300</v>
       </c>
       <c r="E72" s="3">
-        <v>1909000</v>
+        <v>1955300</v>
       </c>
       <c r="F72" s="3">
-        <v>1978600</v>
+        <v>2026500</v>
       </c>
       <c r="G72" s="3">
-        <v>2043500</v>
+        <v>2093000</v>
       </c>
       <c r="H72" s="3">
-        <v>2018700</v>
+        <v>2067600</v>
       </c>
       <c r="I72" s="3">
-        <v>1916800</v>
+        <v>1963300</v>
       </c>
       <c r="J72" s="3">
-        <v>2184000</v>
+        <v>2236900</v>
       </c>
       <c r="K72" s="3">
         <v>2434200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4220800</v>
+        <v>4323000</v>
       </c>
       <c r="E76" s="3">
-        <v>3504600</v>
+        <v>3589500</v>
       </c>
       <c r="F76" s="3">
-        <v>3586000</v>
+        <v>3672900</v>
       </c>
       <c r="G76" s="3">
-        <v>3612300</v>
+        <v>3699800</v>
       </c>
       <c r="H76" s="3">
-        <v>3611200</v>
+        <v>3698700</v>
       </c>
       <c r="I76" s="3">
-        <v>3514300</v>
+        <v>3599500</v>
       </c>
       <c r="J76" s="3">
-        <v>3803000</v>
+        <v>3895100</v>
       </c>
       <c r="K76" s="3">
         <v>4165000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>64600</v>
+        <v>66200</v>
       </c>
       <c r="E81" s="3">
-        <v>-74200</v>
+        <v>-76000</v>
       </c>
       <c r="F81" s="3">
-        <v>-38500</v>
+        <v>-39400</v>
       </c>
       <c r="G81" s="3">
-        <v>53500</v>
+        <v>54800</v>
       </c>
       <c r="H81" s="3">
-        <v>120300</v>
+        <v>123200</v>
       </c>
       <c r="I81" s="3">
-        <v>-148200</v>
+        <v>-151800</v>
       </c>
       <c r="J81" s="3">
-        <v>-44600</v>
+        <v>-45600</v>
       </c>
       <c r="K81" s="3">
         <v>49000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>128300</v>
+        <v>131400</v>
       </c>
       <c r="E83" s="3">
-        <v>137700</v>
+        <v>141000</v>
       </c>
       <c r="F83" s="3">
-        <v>150900</v>
+        <v>154600</v>
       </c>
       <c r="G83" s="3">
-        <v>199400</v>
+        <v>204300</v>
       </c>
       <c r="H83" s="3">
-        <v>237200</v>
+        <v>242900</v>
       </c>
       <c r="I83" s="3">
-        <v>238900</v>
+        <v>244700</v>
       </c>
       <c r="J83" s="3">
-        <v>268800</v>
+        <v>275300</v>
       </c>
       <c r="K83" s="3">
         <v>234700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>220300</v>
+        <v>225600</v>
       </c>
       <c r="E89" s="3">
-        <v>331400</v>
+        <v>339500</v>
       </c>
       <c r="F89" s="3">
-        <v>41100</v>
+        <v>42100</v>
       </c>
       <c r="G89" s="3">
-        <v>381200</v>
+        <v>390400</v>
       </c>
       <c r="H89" s="3">
-        <v>482800</v>
+        <v>494500</v>
       </c>
       <c r="I89" s="3">
-        <v>431100</v>
+        <v>441500</v>
       </c>
       <c r="J89" s="3">
-        <v>225900</v>
+        <v>231400</v>
       </c>
       <c r="K89" s="3">
         <v>337900</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-103700</v>
+        <v>-106300</v>
       </c>
       <c r="E91" s="3">
-        <v>-71400</v>
+        <v>-73200</v>
       </c>
       <c r="F91" s="3">
-        <v>-56000</v>
+        <v>-57400</v>
       </c>
       <c r="G91" s="3">
-        <v>-54400</v>
+        <v>-55700</v>
       </c>
       <c r="H91" s="3">
-        <v>-40000</v>
+        <v>-41000</v>
       </c>
       <c r="I91" s="3">
-        <v>-82500</v>
+        <v>-84500</v>
       </c>
       <c r="J91" s="3">
-        <v>-156900</v>
+        <v>-160700</v>
       </c>
       <c r="K91" s="3">
         <v>-269200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-933500</v>
+        <v>-956200</v>
       </c>
       <c r="E94" s="3">
-        <v>-58100</v>
+        <v>-59500</v>
       </c>
       <c r="F94" s="3">
-        <v>-73100</v>
+        <v>-74800</v>
       </c>
       <c r="G94" s="3">
-        <v>316300</v>
+        <v>324000</v>
       </c>
       <c r="H94" s="3">
-        <v>-297700</v>
+        <v>-304900</v>
       </c>
       <c r="I94" s="3">
-        <v>-67300</v>
+        <v>-68900</v>
       </c>
       <c r="J94" s="3">
-        <v>-157500</v>
+        <v>-161300</v>
       </c>
       <c r="K94" s="3">
         <v>-255900</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-37500</v>
+        <v>-38400</v>
       </c>
       <c r="E96" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="F96" s="3">
-        <v>-22900</v>
+        <v>-23400</v>
       </c>
       <c r="G96" s="3">
-        <v>-22900</v>
+        <v>-23400</v>
       </c>
       <c r="H96" s="3">
-        <v>-51500</v>
+        <v>-52800</v>
       </c>
       <c r="I96" s="3">
-        <v>-114500</v>
+        <v>-117300</v>
       </c>
       <c r="J96" s="3">
-        <v>-114500</v>
+        <v>-117300</v>
       </c>
       <c r="K96" s="3">
         <v>-118900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>628700</v>
+        <v>643900</v>
       </c>
       <c r="E100" s="3">
-        <v>-33800</v>
+        <v>-34600</v>
       </c>
       <c r="F100" s="3">
-        <v>-70900</v>
+        <v>-72600</v>
       </c>
       <c r="G100" s="3">
-        <v>-438900</v>
+        <v>-449600</v>
       </c>
       <c r="H100" s="3">
-        <v>-104300</v>
+        <v>-106800</v>
       </c>
       <c r="I100" s="3">
-        <v>-164700</v>
+        <v>-168700</v>
       </c>
       <c r="J100" s="3">
-        <v>-165400</v>
+        <v>-169400</v>
       </c>
       <c r="K100" s="3">
         <v>-171100</v>
@@ -4207,7 +4207,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="E101" s="3">
         <v>-1600</v>
@@ -4216,16 +4216,16 @@
         <v>-1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="H101" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I101" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="J101" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="K101" s="3">
         <v>8000</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-75100</v>
+        <v>-76900</v>
       </c>
       <c r="E102" s="3">
-        <v>238000</v>
+        <v>243800</v>
       </c>
       <c r="F102" s="3">
-        <v>-104200</v>
+        <v>-106700</v>
       </c>
       <c r="G102" s="3">
-        <v>253800</v>
+        <v>259900</v>
       </c>
       <c r="H102" s="3">
-        <v>86700</v>
+        <v>88800</v>
       </c>
       <c r="I102" s="3">
-        <v>196200</v>
+        <v>201000</v>
       </c>
       <c r="J102" s="3">
-        <v>-100000</v>
+        <v>-102500</v>
       </c>
       <c r="K102" s="3">
         <v>-81100</v>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1383700</v>
+        <v>1383000</v>
       </c>
       <c r="E8" s="3">
-        <v>1092600</v>
+        <v>1092000</v>
       </c>
       <c r="F8" s="3">
-        <v>1333400</v>
+        <v>1332700</v>
       </c>
       <c r="G8" s="3">
-        <v>1379900</v>
+        <v>1379200</v>
       </c>
       <c r="H8" s="3">
-        <v>1549400</v>
+        <v>1548600</v>
       </c>
       <c r="I8" s="3">
-        <v>1597700</v>
+        <v>1596800</v>
       </c>
       <c r="J8" s="3">
-        <v>1801000</v>
+        <v>1800100</v>
       </c>
       <c r="K8" s="3">
         <v>2068200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1210900</v>
+        <v>1210300</v>
       </c>
       <c r="E9" s="3">
-        <v>1091100</v>
+        <v>1090600</v>
       </c>
       <c r="F9" s="3">
-        <v>1254500</v>
+        <v>1253900</v>
       </c>
       <c r="G9" s="3">
-        <v>1201000</v>
+        <v>1200300</v>
       </c>
       <c r="H9" s="3">
-        <v>1330300</v>
+        <v>1329600</v>
       </c>
       <c r="I9" s="3">
-        <v>1274500</v>
+        <v>1273800</v>
       </c>
       <c r="J9" s="3">
-        <v>1457700</v>
+        <v>1457000</v>
       </c>
       <c r="K9" s="3">
         <v>1544800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>172800</v>
+        <v>172700</v>
       </c>
       <c r="E10" s="3">
         <v>1400</v>
       </c>
       <c r="F10" s="3">
-        <v>78900</v>
+        <v>78800</v>
       </c>
       <c r="G10" s="3">
-        <v>179000</v>
+        <v>178900</v>
       </c>
       <c r="H10" s="3">
-        <v>219100</v>
+        <v>219000</v>
       </c>
       <c r="I10" s="3">
-        <v>323200</v>
+        <v>323000</v>
       </c>
       <c r="J10" s="3">
-        <v>343300</v>
+        <v>343100</v>
       </c>
       <c r="K10" s="3">
         <v>523400</v>
@@ -870,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="E12" s="3">
         <v>11200</v>
@@ -969,10 +969,10 @@
         <v>-59100</v>
       </c>
       <c r="I14" s="3">
-        <v>265400</v>
+        <v>265300</v>
       </c>
       <c r="J14" s="3">
-        <v>268100</v>
+        <v>268000</v>
       </c>
       <c r="K14" s="3">
         <v>161800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1355700</v>
+        <v>1355000</v>
       </c>
       <c r="E17" s="3">
-        <v>1177800</v>
+        <v>1177200</v>
       </c>
       <c r="F17" s="3">
-        <v>1364000</v>
+        <v>1363300</v>
       </c>
       <c r="G17" s="3">
-        <v>1272400</v>
+        <v>1271700</v>
       </c>
       <c r="H17" s="3">
-        <v>1438200</v>
+        <v>1437500</v>
       </c>
       <c r="I17" s="3">
-        <v>1692300</v>
+        <v>1691400</v>
       </c>
       <c r="J17" s="3">
-        <v>1906100</v>
+        <v>1905100</v>
       </c>
       <c r="K17" s="3">
         <v>1883800</v>
@@ -1098,13 +1098,13 @@
         <v>28000</v>
       </c>
       <c r="E18" s="3">
-        <v>-85200</v>
+        <v>-85100</v>
       </c>
       <c r="F18" s="3">
-        <v>-30700</v>
+        <v>-30600</v>
       </c>
       <c r="G18" s="3">
-        <v>107600</v>
+        <v>107500</v>
       </c>
       <c r="H18" s="3">
         <v>111100</v>
@@ -1167,7 +1167,7 @@
         <v>39200</v>
       </c>
       <c r="H20" s="3">
-        <v>-27500</v>
+        <v>-27400</v>
       </c>
       <c r="I20" s="3">
         <v>-4700</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>224400</v>
+        <v>223800</v>
       </c>
       <c r="E21" s="3">
-        <v>93700</v>
+        <v>93200</v>
       </c>
       <c r="F21" s="3">
-        <v>157900</v>
+        <v>157300</v>
       </c>
       <c r="G21" s="3">
-        <v>351800</v>
+        <v>350900</v>
       </c>
       <c r="H21" s="3">
-        <v>327500</v>
+        <v>326500</v>
       </c>
       <c r="I21" s="3">
-        <v>146300</v>
+        <v>145300</v>
       </c>
       <c r="J21" s="3">
-        <v>217100</v>
+        <v>216000</v>
       </c>
       <c r="K21" s="3">
         <v>227900</v>
@@ -1248,7 +1248,7 @@
         <v>32100</v>
       </c>
       <c r="G22" s="3">
-        <v>46800</v>
+        <v>46700</v>
       </c>
       <c r="H22" s="3">
         <v>54100</v>
@@ -1296,7 +1296,7 @@
         <v>29600</v>
       </c>
       <c r="I23" s="3">
-        <v>-153500</v>
+        <v>-153400</v>
       </c>
       <c r="J23" s="3">
         <v>-114200</v>
@@ -1335,7 +1335,7 @@
         <v>45200</v>
       </c>
       <c r="H24" s="3">
-        <v>-93600</v>
+        <v>-93500</v>
       </c>
       <c r="I24" s="3">
         <v>7200</v>
@@ -1416,16 +1416,16 @@
         <v>-39400</v>
       </c>
       <c r="G26" s="3">
-        <v>54800</v>
+        <v>54700</v>
       </c>
       <c r="H26" s="3">
         <v>123100</v>
       </c>
       <c r="I26" s="3">
-        <v>-160700</v>
+        <v>-160600</v>
       </c>
       <c r="J26" s="3">
-        <v>-44400</v>
+        <v>-44300</v>
       </c>
       <c r="K26" s="3">
         <v>47600</v>
@@ -1452,7 +1452,7 @@
         <v>66200</v>
       </c>
       <c r="E27" s="3">
-        <v>-76000</v>
+        <v>-75900</v>
       </c>
       <c r="F27" s="3">
         <v>-39400</v>
@@ -1461,7 +1461,7 @@
         <v>54800</v>
       </c>
       <c r="H27" s="3">
-        <v>123200</v>
+        <v>123100</v>
       </c>
       <c r="I27" s="3">
         <v>-160800</v>
@@ -1671,7 +1671,7 @@
         <v>-39200</v>
       </c>
       <c r="H32" s="3">
-        <v>27500</v>
+        <v>27400</v>
       </c>
       <c r="I32" s="3">
         <v>4700</v>
@@ -1704,7 +1704,7 @@
         <v>66200</v>
       </c>
       <c r="E33" s="3">
-        <v>-76000</v>
+        <v>-75900</v>
       </c>
       <c r="F33" s="3">
         <v>-39400</v>
@@ -1713,10 +1713,10 @@
         <v>54800</v>
       </c>
       <c r="H33" s="3">
-        <v>123200</v>
+        <v>123100</v>
       </c>
       <c r="I33" s="3">
-        <v>-151800</v>
+        <v>-151700</v>
       </c>
       <c r="J33" s="3">
         <v>-45600</v>
@@ -1788,7 +1788,7 @@
         <v>66200</v>
       </c>
       <c r="E35" s="3">
-        <v>-76000</v>
+        <v>-75900</v>
       </c>
       <c r="F35" s="3">
         <v>-39400</v>
@@ -1797,10 +1797,10 @@
         <v>54800</v>
       </c>
       <c r="H35" s="3">
-        <v>123200</v>
+        <v>123100</v>
       </c>
       <c r="I35" s="3">
-        <v>-151800</v>
+        <v>-151700</v>
       </c>
       <c r="J35" s="3">
         <v>-45600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>847200</v>
+        <v>846700</v>
       </c>
       <c r="E41" s="3">
-        <v>924000</v>
+        <v>923600</v>
       </c>
       <c r="F41" s="3">
-        <v>680300</v>
+        <v>679900</v>
       </c>
       <c r="G41" s="3">
-        <v>787000</v>
+        <v>786600</v>
       </c>
       <c r="H41" s="3">
-        <v>527100</v>
+        <v>526800</v>
       </c>
       <c r="I41" s="3">
-        <v>438200</v>
+        <v>438000</v>
       </c>
       <c r="J41" s="3">
-        <v>237200</v>
+        <v>237100</v>
       </c>
       <c r="K41" s="3">
         <v>344300</v>
@@ -1952,7 +1952,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>843100</v>
+        <v>842700</v>
       </c>
       <c r="E42" s="3">
         <v>62900</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>289600</v>
+        <v>289500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>11</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>160900</v>
+        <v>160800</v>
       </c>
       <c r="E43" s="3">
-        <v>225400</v>
+        <v>225300</v>
       </c>
       <c r="F43" s="3">
-        <v>171800</v>
+        <v>171700</v>
       </c>
       <c r="G43" s="3">
-        <v>250600</v>
+        <v>250400</v>
       </c>
       <c r="H43" s="3">
-        <v>313500</v>
+        <v>313300</v>
       </c>
       <c r="I43" s="3">
-        <v>329100</v>
+        <v>329000</v>
       </c>
       <c r="J43" s="3">
-        <v>195900</v>
+        <v>195800</v>
       </c>
       <c r="K43" s="3">
         <v>194900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>492400</v>
+        <v>492100</v>
       </c>
       <c r="E44" s="3">
-        <v>303300</v>
+        <v>303200</v>
       </c>
       <c r="F44" s="3">
-        <v>504000</v>
+        <v>503700</v>
       </c>
       <c r="G44" s="3">
-        <v>237600</v>
+        <v>237500</v>
       </c>
       <c r="H44" s="3">
-        <v>346500</v>
+        <v>346300</v>
       </c>
       <c r="I44" s="3">
-        <v>703500</v>
+        <v>703200</v>
       </c>
       <c r="J44" s="3">
-        <v>954000</v>
+        <v>953500</v>
       </c>
       <c r="K44" s="3">
         <v>965100</v>
@@ -2078,7 +2078,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>117000</v>
+        <v>116900</v>
       </c>
       <c r="E45" s="3">
         <v>70600</v>
@@ -2090,7 +2090,7 @@
         <v>63300</v>
       </c>
       <c r="H45" s="3">
-        <v>66100</v>
+        <v>66000</v>
       </c>
       <c r="I45" s="3">
         <v>111000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2460500</v>
+        <v>2459200</v>
       </c>
       <c r="E46" s="3">
-        <v>1586300</v>
+        <v>1585500</v>
       </c>
       <c r="F46" s="3">
-        <v>1440800</v>
+        <v>1440000</v>
       </c>
       <c r="G46" s="3">
-        <v>1338500</v>
+        <v>1337800</v>
       </c>
       <c r="H46" s="3">
-        <v>1542800</v>
+        <v>1542000</v>
       </c>
       <c r="I46" s="3">
-        <v>1581900</v>
+        <v>1581100</v>
       </c>
       <c r="J46" s="3">
-        <v>1512500</v>
+        <v>1511700</v>
       </c>
       <c r="K46" s="3">
         <v>1639900</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>597400</v>
+        <v>597100</v>
       </c>
       <c r="E47" s="3">
-        <v>600600</v>
+        <v>600300</v>
       </c>
       <c r="F47" s="3">
-        <v>645700</v>
+        <v>645400</v>
       </c>
       <c r="G47" s="3">
-        <v>653900</v>
+        <v>653600</v>
       </c>
       <c r="H47" s="3">
-        <v>727700</v>
+        <v>727300</v>
       </c>
       <c r="I47" s="3">
-        <v>385200</v>
+        <v>385000</v>
       </c>
       <c r="J47" s="3">
-        <v>371800</v>
+        <v>371600</v>
       </c>
       <c r="K47" s="3">
         <v>330800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2573000</v>
+        <v>2571600</v>
       </c>
       <c r="E48" s="3">
-        <v>2649300</v>
+        <v>2648000</v>
       </c>
       <c r="F48" s="3">
-        <v>2793700</v>
+        <v>2792300</v>
       </c>
       <c r="G48" s="3">
-        <v>2756100</v>
+        <v>2754600</v>
       </c>
       <c r="H48" s="3">
-        <v>2875500</v>
+        <v>2874000</v>
       </c>
       <c r="I48" s="3">
-        <v>3105100</v>
+        <v>3103500</v>
       </c>
       <c r="J48" s="3">
-        <v>3448600</v>
+        <v>3446800</v>
       </c>
       <c r="K48" s="3">
         <v>3925600</v>
@@ -2249,7 +2249,7 @@
         <v>34900</v>
       </c>
       <c r="E49" s="3">
-        <v>38000</v>
+        <v>37900</v>
       </c>
       <c r="F49" s="3">
         <v>41300</v>
@@ -2261,10 +2261,10 @@
         <v>48600</v>
       </c>
       <c r="I49" s="3">
-        <v>51900</v>
+        <v>51800</v>
       </c>
       <c r="J49" s="3">
-        <v>150600</v>
+        <v>150500</v>
       </c>
       <c r="K49" s="3">
         <v>163000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>728900</v>
+        <v>728600</v>
       </c>
       <c r="E52" s="3">
-        <v>694500</v>
+        <v>694100</v>
       </c>
       <c r="F52" s="3">
-        <v>693800</v>
+        <v>693500</v>
       </c>
       <c r="G52" s="3">
-        <v>708400</v>
+        <v>708100</v>
       </c>
       <c r="H52" s="3">
-        <v>745200</v>
+        <v>744800</v>
       </c>
       <c r="I52" s="3">
-        <v>637900</v>
+        <v>637600</v>
       </c>
       <c r="J52" s="3">
-        <v>627100</v>
+        <v>626800</v>
       </c>
       <c r="K52" s="3">
         <v>544200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6394700</v>
+        <v>6391400</v>
       </c>
       <c r="E54" s="3">
-        <v>5568700</v>
+        <v>5565800</v>
       </c>
       <c r="F54" s="3">
-        <v>5615400</v>
+        <v>5612500</v>
       </c>
       <c r="G54" s="3">
-        <v>5501700</v>
+        <v>5498800</v>
       </c>
       <c r="H54" s="3">
-        <v>5939700</v>
+        <v>5936700</v>
       </c>
       <c r="I54" s="3">
-        <v>5762000</v>
+        <v>5759100</v>
       </c>
       <c r="J54" s="3">
-        <v>6110500</v>
+        <v>6107400</v>
       </c>
       <c r="K54" s="3">
         <v>6603500</v>
@@ -2534,19 +2534,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>185200</v>
+        <v>185100</v>
       </c>
       <c r="E57" s="3">
-        <v>158100</v>
+        <v>158000</v>
       </c>
       <c r="F57" s="3">
         <v>101600</v>
       </c>
       <c r="G57" s="3">
-        <v>74400</v>
+        <v>74300</v>
       </c>
       <c r="H57" s="3">
-        <v>91300</v>
+        <v>91200</v>
       </c>
       <c r="I57" s="3">
         <v>131100</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>370100</v>
+        <v>369900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>230300</v>
+        <v>230200</v>
       </c>
       <c r="E59" s="3">
-        <v>148400</v>
+        <v>148300</v>
       </c>
       <c r="F59" s="3">
-        <v>123400</v>
+        <v>123300</v>
       </c>
       <c r="G59" s="3">
-        <v>131100</v>
+        <v>131000</v>
       </c>
       <c r="H59" s="3">
         <v>187400</v>
       </c>
       <c r="I59" s="3">
-        <v>173300</v>
+        <v>173200</v>
       </c>
       <c r="J59" s="3">
-        <v>189500</v>
+        <v>189400</v>
       </c>
       <c r="K59" s="3">
         <v>354800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>415400</v>
+        <v>415200</v>
       </c>
       <c r="E60" s="3">
-        <v>306500</v>
+        <v>306300</v>
       </c>
       <c r="F60" s="3">
-        <v>225000</v>
+        <v>224900</v>
       </c>
       <c r="G60" s="3">
-        <v>205500</v>
+        <v>205400</v>
       </c>
       <c r="H60" s="3">
-        <v>648800</v>
+        <v>648500</v>
       </c>
       <c r="I60" s="3">
-        <v>304400</v>
+        <v>304300</v>
       </c>
       <c r="J60" s="3">
-        <v>347600</v>
+        <v>347400</v>
       </c>
       <c r="K60" s="3">
         <v>504300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>738500</v>
+        <v>738100</v>
       </c>
       <c r="E61" s="3">
-        <v>738000</v>
+        <v>737600</v>
       </c>
       <c r="F61" s="3">
-        <v>743300</v>
+        <v>742900</v>
       </c>
       <c r="G61" s="3">
-        <v>747800</v>
+        <v>747500</v>
       </c>
       <c r="H61" s="3">
-        <v>737800</v>
+        <v>737500</v>
       </c>
       <c r="I61" s="3">
-        <v>1107000</v>
+        <v>1106400</v>
       </c>
       <c r="J61" s="3">
-        <v>1106200</v>
+        <v>1105600</v>
       </c>
       <c r="K61" s="3">
         <v>1120500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>917700</v>
+        <v>917200</v>
       </c>
       <c r="E62" s="3">
-        <v>934700</v>
+        <v>934200</v>
       </c>
       <c r="F62" s="3">
-        <v>974100</v>
+        <v>973600</v>
       </c>
       <c r="G62" s="3">
-        <v>848400</v>
+        <v>847900</v>
       </c>
       <c r="H62" s="3">
-        <v>854100</v>
+        <v>853700</v>
       </c>
       <c r="I62" s="3">
-        <v>750800</v>
+        <v>750400</v>
       </c>
       <c r="J62" s="3">
-        <v>761500</v>
+        <v>761200</v>
       </c>
       <c r="K62" s="3">
         <v>815000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2071700</v>
+        <v>2070600</v>
       </c>
       <c r="E66" s="3">
-        <v>1979200</v>
+        <v>1978200</v>
       </c>
       <c r="F66" s="3">
-        <v>1942600</v>
+        <v>1941600</v>
       </c>
       <c r="G66" s="3">
-        <v>1801900</v>
+        <v>1800900</v>
       </c>
       <c r="H66" s="3">
-        <v>2241000</v>
+        <v>2239900</v>
       </c>
       <c r="I66" s="3">
-        <v>2162500</v>
+        <v>2161400</v>
       </c>
       <c r="J66" s="3">
-        <v>2215400</v>
+        <v>2214300</v>
       </c>
       <c r="K66" s="3">
         <v>2438500</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1997300</v>
+        <v>1996300</v>
       </c>
       <c r="E72" s="3">
-        <v>1955300</v>
+        <v>1954300</v>
       </c>
       <c r="F72" s="3">
-        <v>2026500</v>
+        <v>2025500</v>
       </c>
       <c r="G72" s="3">
-        <v>2093000</v>
+        <v>2092000</v>
       </c>
       <c r="H72" s="3">
-        <v>2067600</v>
+        <v>2066600</v>
       </c>
       <c r="I72" s="3">
-        <v>1963300</v>
+        <v>1962300</v>
       </c>
       <c r="J72" s="3">
-        <v>2236900</v>
+        <v>2235800</v>
       </c>
       <c r="K72" s="3">
         <v>2434200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4323000</v>
+        <v>4320800</v>
       </c>
       <c r="E76" s="3">
-        <v>3589500</v>
+        <v>3587700</v>
       </c>
       <c r="F76" s="3">
-        <v>3672900</v>
+        <v>3671000</v>
       </c>
       <c r="G76" s="3">
-        <v>3699800</v>
+        <v>3697900</v>
       </c>
       <c r="H76" s="3">
-        <v>3698700</v>
+        <v>3696800</v>
       </c>
       <c r="I76" s="3">
-        <v>3599500</v>
+        <v>3597600</v>
       </c>
       <c r="J76" s="3">
-        <v>3895100</v>
+        <v>3893100</v>
       </c>
       <c r="K76" s="3">
         <v>4165000</v>
@@ -3442,7 +3442,7 @@
         <v>66200</v>
       </c>
       <c r="E81" s="3">
-        <v>-76000</v>
+        <v>-75900</v>
       </c>
       <c r="F81" s="3">
         <v>-39400</v>
@@ -3451,10 +3451,10 @@
         <v>54800</v>
       </c>
       <c r="H81" s="3">
-        <v>123200</v>
+        <v>123100</v>
       </c>
       <c r="I81" s="3">
-        <v>-151800</v>
+        <v>-151700</v>
       </c>
       <c r="J81" s="3">
         <v>-45600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>131400</v>
+        <v>131300</v>
       </c>
       <c r="E83" s="3">
         <v>141000</v>
       </c>
       <c r="F83" s="3">
-        <v>154600</v>
+        <v>154500</v>
       </c>
       <c r="G83" s="3">
-        <v>204300</v>
+        <v>204200</v>
       </c>
       <c r="H83" s="3">
-        <v>242900</v>
+        <v>242800</v>
       </c>
       <c r="I83" s="3">
-        <v>244700</v>
+        <v>244600</v>
       </c>
       <c r="J83" s="3">
-        <v>275300</v>
+        <v>275200</v>
       </c>
       <c r="K83" s="3">
         <v>234700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>225600</v>
+        <v>225500</v>
       </c>
       <c r="E89" s="3">
-        <v>339500</v>
+        <v>339300</v>
       </c>
       <c r="F89" s="3">
         <v>42100</v>
       </c>
       <c r="G89" s="3">
-        <v>390400</v>
+        <v>390200</v>
       </c>
       <c r="H89" s="3">
-        <v>494500</v>
+        <v>494200</v>
       </c>
       <c r="I89" s="3">
-        <v>441500</v>
+        <v>441300</v>
       </c>
       <c r="J89" s="3">
-        <v>231400</v>
+        <v>231300</v>
       </c>
       <c r="K89" s="3">
         <v>337900</v>
@@ -3811,13 +3811,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-106300</v>
+        <v>-106200</v>
       </c>
       <c r="E91" s="3">
-        <v>-73200</v>
+        <v>-73100</v>
       </c>
       <c r="F91" s="3">
-        <v>-57400</v>
+        <v>-57300</v>
       </c>
       <c r="G91" s="3">
         <v>-55700</v>
@@ -3826,10 +3826,10 @@
         <v>-41000</v>
       </c>
       <c r="I91" s="3">
-        <v>-84500</v>
+        <v>-84400</v>
       </c>
       <c r="J91" s="3">
-        <v>-160700</v>
+        <v>-160600</v>
       </c>
       <c r="K91" s="3">
         <v>-269200</v>
@@ -3937,19 +3937,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-956200</v>
+        <v>-955700</v>
       </c>
       <c r="E94" s="3">
-        <v>-59500</v>
+        <v>-59400</v>
       </c>
       <c r="F94" s="3">
         <v>-74800</v>
       </c>
       <c r="G94" s="3">
-        <v>324000</v>
+        <v>323800</v>
       </c>
       <c r="H94" s="3">
-        <v>-304900</v>
+        <v>-304800</v>
       </c>
       <c r="I94" s="3">
         <v>-68900</v>
@@ -4009,13 +4009,13 @@
         <v>-23400</v>
       </c>
       <c r="H96" s="3">
-        <v>-52800</v>
+        <v>-52700</v>
       </c>
       <c r="I96" s="3">
-        <v>-117300</v>
+        <v>-117200</v>
       </c>
       <c r="J96" s="3">
-        <v>-117300</v>
+        <v>-117200</v>
       </c>
       <c r="K96" s="3">
         <v>-118900</v>
@@ -4165,22 +4165,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>643900</v>
+        <v>643600</v>
       </c>
       <c r="E100" s="3">
         <v>-34600</v>
       </c>
       <c r="F100" s="3">
-        <v>-72600</v>
+        <v>-72500</v>
       </c>
       <c r="G100" s="3">
-        <v>-449600</v>
+        <v>-449300</v>
       </c>
       <c r="H100" s="3">
         <v>-106800</v>
       </c>
       <c r="I100" s="3">
-        <v>-168700</v>
+        <v>-168600</v>
       </c>
       <c r="J100" s="3">
         <v>-169400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-76900</v>
+        <v>-76800</v>
       </c>
       <c r="E102" s="3">
-        <v>243800</v>
+        <v>243600</v>
       </c>
       <c r="F102" s="3">
-        <v>-106700</v>
+        <v>-106600</v>
       </c>
       <c r="G102" s="3">
-        <v>259900</v>
+        <v>259800</v>
       </c>
       <c r="H102" s="3">
         <v>88800</v>
       </c>
       <c r="I102" s="3">
-        <v>201000</v>
+        <v>200900</v>
       </c>
       <c r="J102" s="3">
-        <v>-102500</v>
+        <v>-102400</v>
       </c>
       <c r="K102" s="3">
         <v>-81100</v>

--- a/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCJ_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1383000</v>
+        <v>1358100</v>
       </c>
       <c r="E8" s="3">
-        <v>1092000</v>
+        <v>1072300</v>
       </c>
       <c r="F8" s="3">
-        <v>1332700</v>
+        <v>1308700</v>
       </c>
       <c r="G8" s="3">
-        <v>1379200</v>
+        <v>1354400</v>
       </c>
       <c r="H8" s="3">
-        <v>1548600</v>
+        <v>1520700</v>
       </c>
       <c r="I8" s="3">
-        <v>1596800</v>
+        <v>1568100</v>
       </c>
       <c r="J8" s="3">
-        <v>1800100</v>
+        <v>1767700</v>
       </c>
       <c r="K8" s="3">
         <v>2068200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1210300</v>
+        <v>1188500</v>
       </c>
       <c r="E9" s="3">
-        <v>1090600</v>
+        <v>1070900</v>
       </c>
       <c r="F9" s="3">
-        <v>1253900</v>
+        <v>1231300</v>
       </c>
       <c r="G9" s="3">
-        <v>1200300</v>
+        <v>1178700</v>
       </c>
       <c r="H9" s="3">
-        <v>1329600</v>
+        <v>1305600</v>
       </c>
       <c r="I9" s="3">
-        <v>1273800</v>
+        <v>1250900</v>
       </c>
       <c r="J9" s="3">
-        <v>1457000</v>
+        <v>1430700</v>
       </c>
       <c r="K9" s="3">
         <v>1544800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>172700</v>
+        <v>169600</v>
       </c>
       <c r="E10" s="3">
         <v>1400</v>
       </c>
       <c r="F10" s="3">
-        <v>78800</v>
+        <v>77400</v>
       </c>
       <c r="G10" s="3">
-        <v>178900</v>
+        <v>175700</v>
       </c>
       <c r="H10" s="3">
-        <v>219000</v>
+        <v>215000</v>
       </c>
       <c r="I10" s="3">
-        <v>323000</v>
+        <v>317200</v>
       </c>
       <c r="J10" s="3">
-        <v>343100</v>
+        <v>337000</v>
       </c>
       <c r="K10" s="3">
         <v>523400</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="E12" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="F12" s="3">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="G12" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="H12" s="3">
-        <v>16300</v>
+        <v>16000</v>
       </c>
       <c r="I12" s="3">
-        <v>26400</v>
+        <v>25900</v>
       </c>
       <c r="J12" s="3">
-        <v>35200</v>
+        <v>34600</v>
       </c>
       <c r="K12" s="3">
         <v>35200</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-16900</v>
+        <v>-15500</v>
       </c>
       <c r="E14" s="3">
-        <v>-15700</v>
+        <v>-15400</v>
       </c>
       <c r="F14" s="3">
-        <v>-27700</v>
+        <v>-27200</v>
       </c>
       <c r="G14" s="3">
-        <v>-39100</v>
+        <v>-38400</v>
       </c>
       <c r="H14" s="3">
-        <v>-59100</v>
+        <v>-58000</v>
       </c>
       <c r="I14" s="3">
-        <v>265300</v>
+        <v>260500</v>
       </c>
       <c r="J14" s="3">
-        <v>268000</v>
+        <v>263200</v>
       </c>
       <c r="K14" s="3">
         <v>161800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1355000</v>
+        <v>1330500</v>
       </c>
       <c r="E17" s="3">
-        <v>1177200</v>
+        <v>1155900</v>
       </c>
       <c r="F17" s="3">
-        <v>1363300</v>
+        <v>1338800</v>
       </c>
       <c r="G17" s="3">
-        <v>1271700</v>
+        <v>1248800</v>
       </c>
       <c r="H17" s="3">
-        <v>1437500</v>
+        <v>1411600</v>
       </c>
       <c r="I17" s="3">
-        <v>1691400</v>
+        <v>1660900</v>
       </c>
       <c r="J17" s="3">
-        <v>1905100</v>
+        <v>1870700</v>
       </c>
       <c r="K17" s="3">
         <v>1883800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28000</v>
+        <v>27500</v>
       </c>
       <c r="E18" s="3">
-        <v>-85100</v>
+        <v>-83600</v>
       </c>
       <c r="F18" s="3">
-        <v>-30600</v>
+        <v>-30100</v>
       </c>
       <c r="G18" s="3">
-        <v>107500</v>
+        <v>105600</v>
       </c>
       <c r="H18" s="3">
-        <v>111100</v>
+        <v>109100</v>
       </c>
       <c r="I18" s="3">
-        <v>-94600</v>
+        <v>-92900</v>
       </c>
       <c r="J18" s="3">
-        <v>-105000</v>
+        <v>-103100</v>
       </c>
       <c r="K18" s="3">
         <v>184400</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>64400</v>
+        <v>63300</v>
       </c>
       <c r="E20" s="3">
-        <v>37300</v>
+        <v>36700</v>
       </c>
       <c r="F20" s="3">
-        <v>33500</v>
+        <v>32900</v>
       </c>
       <c r="G20" s="3">
-        <v>39200</v>
+        <v>38500</v>
       </c>
       <c r="H20" s="3">
-        <v>-27400</v>
+        <v>-26900</v>
       </c>
       <c r="I20" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="J20" s="3">
-        <v>45800</v>
+        <v>45000</v>
       </c>
       <c r="K20" s="3">
         <v>-187500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>223800</v>
+        <v>220400</v>
       </c>
       <c r="E21" s="3">
-        <v>93200</v>
+        <v>92300</v>
       </c>
       <c r="F21" s="3">
-        <v>157300</v>
+        <v>155300</v>
       </c>
       <c r="G21" s="3">
-        <v>350900</v>
+        <v>345700</v>
       </c>
       <c r="H21" s="3">
-        <v>326500</v>
+        <v>321900</v>
       </c>
       <c r="I21" s="3">
-        <v>145300</v>
+        <v>144100</v>
       </c>
       <c r="J21" s="3">
-        <v>216000</v>
+        <v>213600</v>
       </c>
       <c r="K21" s="3">
         <v>227900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29700</v>
+        <v>29100</v>
       </c>
       <c r="E22" s="3">
-        <v>29100</v>
+        <v>28500</v>
       </c>
       <c r="F22" s="3">
-        <v>32100</v>
+        <v>31500</v>
       </c>
       <c r="G22" s="3">
-        <v>46700</v>
+        <v>45900</v>
       </c>
       <c r="H22" s="3">
-        <v>54100</v>
+        <v>53100</v>
       </c>
       <c r="I22" s="3">
-        <v>54200</v>
+        <v>53200</v>
       </c>
       <c r="J22" s="3">
-        <v>55000</v>
+        <v>54000</v>
       </c>
       <c r="K22" s="3">
         <v>56400</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62800</v>
+        <v>61600</v>
       </c>
       <c r="E23" s="3">
-        <v>-76900</v>
+        <v>-75500</v>
       </c>
       <c r="F23" s="3">
-        <v>-29300</v>
+        <v>-28700</v>
       </c>
       <c r="G23" s="3">
-        <v>100000</v>
+        <v>98200</v>
       </c>
       <c r="H23" s="3">
-        <v>29600</v>
+        <v>29000</v>
       </c>
       <c r="I23" s="3">
-        <v>-153400</v>
+        <v>-150700</v>
       </c>
       <c r="J23" s="3">
-        <v>-114200</v>
+        <v>-112100</v>
       </c>
       <c r="K23" s="3">
         <v>-59500</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="E24" s="3">
         <v>-900</v>
       </c>
       <c r="F24" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="G24" s="3">
-        <v>45200</v>
+        <v>44400</v>
       </c>
       <c r="H24" s="3">
-        <v>-93500</v>
+        <v>-91800</v>
       </c>
       <c r="I24" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="J24" s="3">
-        <v>-69900</v>
+        <v>-68600</v>
       </c>
       <c r="K24" s="3">
         <v>-107100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>66100</v>
+        <v>64900</v>
       </c>
       <c r="E26" s="3">
-        <v>-76000</v>
+        <v>-74600</v>
       </c>
       <c r="F26" s="3">
-        <v>-39400</v>
+        <v>-38700</v>
       </c>
       <c r="G26" s="3">
-        <v>54700</v>
+        <v>53800</v>
       </c>
       <c r="H26" s="3">
-        <v>123100</v>
+        <v>120900</v>
       </c>
       <c r="I26" s="3">
-        <v>-160600</v>
+        <v>-157700</v>
       </c>
       <c r="J26" s="3">
-        <v>-44300</v>
+        <v>-43500</v>
       </c>
       <c r="K26" s="3">
         <v>47600</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>66200</v>
+        <v>65000</v>
       </c>
       <c r="E27" s="3">
-        <v>-75900</v>
+        <v>-74600</v>
       </c>
       <c r="F27" s="3">
-        <v>-39400</v>
+        <v>-38700</v>
       </c>
       <c r="G27" s="3">
-        <v>54800</v>
+        <v>53800</v>
       </c>
       <c r="H27" s="3">
-        <v>123100</v>
+        <v>120900</v>
       </c>
       <c r="I27" s="3">
-        <v>-160800</v>
+        <v>-157900</v>
       </c>
       <c r="J27" s="3">
-        <v>-45600</v>
+        <v>-44800</v>
       </c>
       <c r="K27" s="3">
         <v>49000</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>11</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-64400</v>
+        <v>-63300</v>
       </c>
       <c r="E32" s="3">
-        <v>-37300</v>
+        <v>-36700</v>
       </c>
       <c r="F32" s="3">
-        <v>-33500</v>
+        <v>-32900</v>
       </c>
       <c r="G32" s="3">
-        <v>-39200</v>
+        <v>-38500</v>
       </c>
       <c r="H32" s="3">
-        <v>27400</v>
+        <v>26900</v>
       </c>
       <c r="I32" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J32" s="3">
-        <v>-45800</v>
+        <v>-45000</v>
       </c>
       <c r="K32" s="3">
         <v>187500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>66200</v>
+        <v>65000</v>
       </c>
       <c r="E33" s="3">
-        <v>-75900</v>
+        <v>-74600</v>
       </c>
       <c r="F33" s="3">
-        <v>-39400</v>
+        <v>-38700</v>
       </c>
       <c r="G33" s="3">
-        <v>54800</v>
+        <v>53800</v>
       </c>
       <c r="H33" s="3">
-        <v>123100</v>
+        <v>120900</v>
       </c>
       <c r="I33" s="3">
-        <v>-151700</v>
+        <v>-149000</v>
       </c>
       <c r="J33" s="3">
-        <v>-45600</v>
+        <v>-44800</v>
       </c>
       <c r="K33" s="3">
         <v>49000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>66200</v>
+        <v>65000</v>
       </c>
       <c r="E35" s="3">
-        <v>-75900</v>
+        <v>-74600</v>
       </c>
       <c r="F35" s="3">
-        <v>-39400</v>
+        <v>-38700</v>
       </c>
       <c r="G35" s="3">
-        <v>54800</v>
+        <v>53800</v>
       </c>
       <c r="H35" s="3">
-        <v>123100</v>
+        <v>120900</v>
       </c>
       <c r="I35" s="3">
-        <v>-151700</v>
+        <v>-149000</v>
       </c>
       <c r="J35" s="3">
-        <v>-45600</v>
+        <v>-44800</v>
       </c>
       <c r="K35" s="3">
         <v>49000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>846700</v>
+        <v>831500</v>
       </c>
       <c r="E41" s="3">
-        <v>923600</v>
+        <v>906900</v>
       </c>
       <c r="F41" s="3">
-        <v>679900</v>
+        <v>667700</v>
       </c>
       <c r="G41" s="3">
-        <v>786600</v>
+        <v>772400</v>
       </c>
       <c r="H41" s="3">
-        <v>526800</v>
+        <v>517300</v>
       </c>
       <c r="I41" s="3">
-        <v>438000</v>
+        <v>430100</v>
       </c>
       <c r="J41" s="3">
-        <v>237100</v>
+        <v>232800</v>
       </c>
       <c r="K41" s="3">
         <v>344300</v>
@@ -1952,19 +1952,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>842700</v>
+        <v>827500</v>
       </c>
       <c r="E42" s="3">
-        <v>62900</v>
+        <v>61700</v>
       </c>
       <c r="F42" s="3">
-        <v>18500</v>
+        <v>18200</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>289500</v>
+        <v>284300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>11</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>160800</v>
+        <v>156900</v>
       </c>
       <c r="E43" s="3">
-        <v>225300</v>
+        <v>204800</v>
       </c>
       <c r="F43" s="3">
-        <v>171700</v>
+        <v>168600</v>
       </c>
       <c r="G43" s="3">
-        <v>250400</v>
+        <v>245900</v>
       </c>
       <c r="H43" s="3">
-        <v>313300</v>
+        <v>307700</v>
       </c>
       <c r="I43" s="3">
-        <v>329000</v>
+        <v>323000</v>
       </c>
       <c r="J43" s="3">
-        <v>195800</v>
+        <v>192300</v>
       </c>
       <c r="K43" s="3">
         <v>194900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>492100</v>
+        <v>483200</v>
       </c>
       <c r="E44" s="3">
-        <v>303200</v>
+        <v>297700</v>
       </c>
       <c r="F44" s="3">
-        <v>503700</v>
+        <v>494600</v>
       </c>
       <c r="G44" s="3">
-        <v>237500</v>
+        <v>233200</v>
       </c>
       <c r="H44" s="3">
-        <v>346300</v>
+        <v>340100</v>
       </c>
       <c r="I44" s="3">
-        <v>703200</v>
+        <v>690500</v>
       </c>
       <c r="J44" s="3">
-        <v>953500</v>
+        <v>936300</v>
       </c>
       <c r="K44" s="3">
         <v>965100</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>116900</v>
+        <v>115800</v>
       </c>
       <c r="E45" s="3">
-        <v>70600</v>
+        <v>85800</v>
       </c>
       <c r="F45" s="3">
-        <v>66200</v>
+        <v>65000</v>
       </c>
       <c r="G45" s="3">
-        <v>63300</v>
+        <v>62200</v>
       </c>
       <c r="H45" s="3">
-        <v>66000</v>
+        <v>64900</v>
       </c>
       <c r="I45" s="3">
-        <v>111000</v>
+        <v>109000</v>
       </c>
       <c r="J45" s="3">
-        <v>125200</v>
+        <v>122900</v>
       </c>
       <c r="K45" s="3">
         <v>135600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2459200</v>
+        <v>2414900</v>
       </c>
       <c r="E46" s="3">
-        <v>1585500</v>
+        <v>1556900</v>
       </c>
       <c r="F46" s="3">
-        <v>1440000</v>
+        <v>1414100</v>
       </c>
       <c r="G46" s="3">
-        <v>1337800</v>
+        <v>1313700</v>
       </c>
       <c r="H46" s="3">
-        <v>1542000</v>
+        <v>1514200</v>
       </c>
       <c r="I46" s="3">
-        <v>1581100</v>
+        <v>1552600</v>
       </c>
       <c r="J46" s="3">
-        <v>1511700</v>
+        <v>1484400</v>
       </c>
       <c r="K46" s="3">
         <v>1639900</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>597100</v>
+        <v>585200</v>
       </c>
       <c r="E47" s="3">
-        <v>600300</v>
+        <v>582600</v>
       </c>
       <c r="F47" s="3">
-        <v>645400</v>
+        <v>633800</v>
       </c>
       <c r="G47" s="3">
-        <v>653600</v>
+        <v>641800</v>
       </c>
       <c r="H47" s="3">
-        <v>727300</v>
+        <v>714200</v>
       </c>
       <c r="I47" s="3">
-        <v>385000</v>
+        <v>378100</v>
       </c>
       <c r="J47" s="3">
-        <v>371600</v>
+        <v>364900</v>
       </c>
       <c r="K47" s="3">
         <v>330800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2571600</v>
+        <v>2525300</v>
       </c>
       <c r="E48" s="3">
-        <v>2648000</v>
+        <v>2600200</v>
       </c>
       <c r="F48" s="3">
-        <v>2792300</v>
+        <v>2742000</v>
       </c>
       <c r="G48" s="3">
-        <v>2754600</v>
+        <v>2705000</v>
       </c>
       <c r="H48" s="3">
-        <v>2874000</v>
+        <v>2822200</v>
       </c>
       <c r="I48" s="3">
-        <v>3103500</v>
+        <v>3047500</v>
       </c>
       <c r="J48" s="3">
-        <v>3446800</v>
+        <v>3384700</v>
       </c>
       <c r="K48" s="3">
         <v>3925600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34900</v>
+        <v>34300</v>
       </c>
       <c r="E49" s="3">
-        <v>37900</v>
+        <v>37300</v>
       </c>
       <c r="F49" s="3">
-        <v>41300</v>
+        <v>40600</v>
       </c>
       <c r="G49" s="3">
-        <v>44700</v>
+        <v>43900</v>
       </c>
       <c r="H49" s="3">
-        <v>48600</v>
+        <v>47700</v>
       </c>
       <c r="I49" s="3">
-        <v>51800</v>
+        <v>50900</v>
       </c>
       <c r="J49" s="3">
-        <v>150500</v>
+        <v>147800</v>
       </c>
       <c r="K49" s="3">
         <v>163000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>728600</v>
+        <v>716500</v>
       </c>
       <c r="E52" s="3">
-        <v>694100</v>
+        <v>688500</v>
       </c>
       <c r="F52" s="3">
-        <v>693500</v>
+        <v>681000</v>
       </c>
       <c r="G52" s="3">
-        <v>708100</v>
+        <v>695300</v>
       </c>
       <c r="H52" s="3">
-        <v>744800</v>
+        <v>731400</v>
       </c>
       <c r="I52" s="3">
-        <v>637600</v>
+        <v>626100</v>
       </c>
       <c r="J52" s="3">
-        <v>626800</v>
+        <v>615500</v>
       </c>
       <c r="K52" s="3">
         <v>544200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6391400</v>
+        <v>6276100</v>
       </c>
       <c r="E54" s="3">
-        <v>5565800</v>
+        <v>5465500</v>
       </c>
       <c r="F54" s="3">
-        <v>5612500</v>
+        <v>5511300</v>
       </c>
       <c r="G54" s="3">
-        <v>5498800</v>
+        <v>5399700</v>
       </c>
       <c r="H54" s="3">
-        <v>5936700</v>
+        <v>5829600</v>
       </c>
       <c r="I54" s="3">
-        <v>5759100</v>
+        <v>5655200</v>
       </c>
       <c r="J54" s="3">
-        <v>6107400</v>
+        <v>5997200</v>
       </c>
       <c r="K54" s="3">
         <v>6603500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>185100</v>
+        <v>181700</v>
       </c>
       <c r="E57" s="3">
-        <v>158000</v>
+        <v>155100</v>
       </c>
       <c r="F57" s="3">
-        <v>101600</v>
+        <v>99700</v>
       </c>
       <c r="G57" s="3">
-        <v>74300</v>
+        <v>73000</v>
       </c>
       <c r="H57" s="3">
-        <v>91200</v>
+        <v>89600</v>
       </c>
       <c r="I57" s="3">
-        <v>131100</v>
+        <v>128700</v>
       </c>
       <c r="J57" s="3">
-        <v>158100</v>
+        <v>155200</v>
       </c>
       <c r="K57" s="3">
         <v>149500</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>369900</v>
+        <v>363200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>230200</v>
+        <v>226000</v>
       </c>
       <c r="E59" s="3">
-        <v>148300</v>
+        <v>145700</v>
       </c>
       <c r="F59" s="3">
-        <v>123300</v>
+        <v>121100</v>
       </c>
       <c r="G59" s="3">
-        <v>131000</v>
+        <v>128700</v>
       </c>
       <c r="H59" s="3">
-        <v>187400</v>
+        <v>184000</v>
       </c>
       <c r="I59" s="3">
-        <v>173200</v>
+        <v>170100</v>
       </c>
       <c r="J59" s="3">
-        <v>189400</v>
+        <v>186000</v>
       </c>
       <c r="K59" s="3">
         <v>354800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>415200</v>
+        <v>407700</v>
       </c>
       <c r="E60" s="3">
-        <v>306300</v>
+        <v>300800</v>
       </c>
       <c r="F60" s="3">
-        <v>224900</v>
+        <v>220900</v>
       </c>
       <c r="G60" s="3">
-        <v>205400</v>
+        <v>201700</v>
       </c>
       <c r="H60" s="3">
-        <v>648500</v>
+        <v>636800</v>
       </c>
       <c r="I60" s="3">
-        <v>304300</v>
+        <v>298800</v>
       </c>
       <c r="J60" s="3">
-        <v>347400</v>
+        <v>341200</v>
       </c>
       <c r="K60" s="3">
         <v>504300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>738100</v>
+        <v>724800</v>
       </c>
       <c r="E61" s="3">
-        <v>737600</v>
+        <v>724300</v>
       </c>
       <c r="F61" s="3">
-        <v>742900</v>
+        <v>729500</v>
       </c>
       <c r="G61" s="3">
-        <v>747500</v>
+        <v>734000</v>
       </c>
       <c r="H61" s="3">
-        <v>737500</v>
+        <v>724200</v>
       </c>
       <c r="I61" s="3">
-        <v>1106400</v>
+        <v>1086500</v>
       </c>
       <c r="J61" s="3">
-        <v>1105600</v>
+        <v>1085700</v>
       </c>
       <c r="K61" s="3">
         <v>1120500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>917200</v>
+        <v>900700</v>
       </c>
       <c r="E62" s="3">
-        <v>934200</v>
+        <v>917300</v>
       </c>
       <c r="F62" s="3">
-        <v>973600</v>
+        <v>956000</v>
       </c>
       <c r="G62" s="3">
-        <v>847900</v>
+        <v>832600</v>
       </c>
       <c r="H62" s="3">
-        <v>853700</v>
+        <v>838300</v>
       </c>
       <c r="I62" s="3">
-        <v>750400</v>
+        <v>736900</v>
       </c>
       <c r="J62" s="3">
-        <v>761200</v>
+        <v>747400</v>
       </c>
       <c r="K62" s="3">
         <v>815000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2070600</v>
+        <v>2033300</v>
       </c>
       <c r="E66" s="3">
-        <v>1978200</v>
+        <v>1942500</v>
       </c>
       <c r="F66" s="3">
-        <v>1941600</v>
+        <v>1906600</v>
       </c>
       <c r="G66" s="3">
-        <v>1800900</v>
+        <v>1768500</v>
       </c>
       <c r="H66" s="3">
-        <v>2239900</v>
+        <v>2199500</v>
       </c>
       <c r="I66" s="3">
-        <v>2161400</v>
+        <v>2122500</v>
       </c>
       <c r="J66" s="3">
-        <v>2214300</v>
+        <v>2174400</v>
       </c>
       <c r="K66" s="3">
         <v>2438500</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1996300</v>
+        <v>1960300</v>
       </c>
       <c r="E72" s="3">
-        <v>1954300</v>
+        <v>1919100</v>
       </c>
       <c r="F72" s="3">
-        <v>2025500</v>
+        <v>1989000</v>
       </c>
       <c r="G72" s="3">
-        <v>2092000</v>
+        <v>2054200</v>
       </c>
       <c r="H72" s="3">
-        <v>2066600</v>
+        <v>2029300</v>
       </c>
       <c r="I72" s="3">
-        <v>1962300</v>
+        <v>1926900</v>
       </c>
       <c r="J72" s="3">
-        <v>2235800</v>
+        <v>2195500</v>
       </c>
       <c r="K72" s="3">
         <v>2434200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4320800</v>
+        <v>4242900</v>
       </c>
       <c r="E76" s="3">
-        <v>3587700</v>
+        <v>3523000</v>
       </c>
       <c r="F76" s="3">
-        <v>3671000</v>
+        <v>3604800</v>
       </c>
       <c r="G76" s="3">
-        <v>3697900</v>
+        <v>3631200</v>
       </c>
       <c r="H76" s="3">
-        <v>3696800</v>
+        <v>3630200</v>
       </c>
       <c r="I76" s="3">
-        <v>3597600</v>
+        <v>3532800</v>
       </c>
       <c r="J76" s="3">
-        <v>3893100</v>
+        <v>3822900</v>
       </c>
       <c r="K76" s="3">
         <v>4165000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>66200</v>
+        <v>65000</v>
       </c>
       <c r="E81" s="3">
-        <v>-75900</v>
+        <v>-74600</v>
       </c>
       <c r="F81" s="3">
-        <v>-39400</v>
+        <v>-38700</v>
       </c>
       <c r="G81" s="3">
-        <v>54800</v>
+        <v>53800</v>
       </c>
       <c r="H81" s="3">
-        <v>123100</v>
+        <v>120900</v>
       </c>
       <c r="I81" s="3">
-        <v>-151700</v>
+        <v>-149000</v>
       </c>
       <c r="J81" s="3">
-        <v>-45600</v>
+        <v>-44800</v>
       </c>
       <c r="K81" s="3">
         <v>49000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>131300</v>
+        <v>129000</v>
       </c>
       <c r="E83" s="3">
-        <v>141000</v>
+        <v>138400</v>
       </c>
       <c r="F83" s="3">
-        <v>154500</v>
+        <v>151700</v>
       </c>
       <c r="G83" s="3">
-        <v>204200</v>
+        <v>200500</v>
       </c>
       <c r="H83" s="3">
-        <v>242800</v>
+        <v>238400</v>
       </c>
       <c r="I83" s="3">
-        <v>244600</v>
+        <v>240200</v>
       </c>
       <c r="J83" s="3">
-        <v>275200</v>
+        <v>270200</v>
       </c>
       <c r="K83" s="3">
         <v>234700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>225500</v>
+        <v>221500</v>
       </c>
       <c r="E89" s="3">
-        <v>339300</v>
+        <v>333200</v>
       </c>
       <c r="F89" s="3">
-        <v>42100</v>
+        <v>41400</v>
       </c>
       <c r="G89" s="3">
-        <v>390200</v>
+        <v>383200</v>
       </c>
       <c r="H89" s="3">
-        <v>494200</v>
+        <v>485300</v>
       </c>
       <c r="I89" s="3">
-        <v>441300</v>
+        <v>433300</v>
       </c>
       <c r="J89" s="3">
-        <v>231300</v>
+        <v>227100</v>
       </c>
       <c r="K89" s="3">
         <v>337900</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-106200</v>
+        <v>-104300</v>
       </c>
       <c r="E91" s="3">
-        <v>-73100</v>
+        <v>-71800</v>
       </c>
       <c r="F91" s="3">
-        <v>-57300</v>
+        <v>-56300</v>
       </c>
       <c r="G91" s="3">
-        <v>-55700</v>
+        <v>-54700</v>
       </c>
       <c r="H91" s="3">
-        <v>-41000</v>
+        <v>-40200</v>
       </c>
       <c r="I91" s="3">
-        <v>-84400</v>
+        <v>-82900</v>
       </c>
       <c r="J91" s="3">
-        <v>-160600</v>
+        <v>-157700</v>
       </c>
       <c r="K91" s="3">
         <v>-269200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-955700</v>
+        <v>-938400</v>
       </c>
       <c r="E94" s="3">
-        <v>-59400</v>
+        <v>-58400</v>
       </c>
       <c r="F94" s="3">
-        <v>-74800</v>
+        <v>-73400</v>
       </c>
       <c r="G94" s="3">
-        <v>323800</v>
+        <v>318000</v>
       </c>
       <c r="H94" s="3">
-        <v>-304800</v>
+        <v>-299300</v>
       </c>
       <c r="I94" s="3">
-        <v>-68900</v>
+        <v>-67700</v>
       </c>
       <c r="J94" s="3">
-        <v>-161300</v>
+        <v>-158400</v>
       </c>
       <c r="K94" s="3">
         <v>-255900</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-38400</v>
+        <v>-37700</v>
       </c>
       <c r="E96" s="3">
-        <v>-23600</v>
+        <v>-23100</v>
       </c>
       <c r="F96" s="3">
-        <v>-23400</v>
+        <v>-23000</v>
       </c>
       <c r="G96" s="3">
-        <v>-23400</v>
+        <v>-23000</v>
       </c>
       <c r="H96" s="3">
-        <v>-52700</v>
+        <v>-51800</v>
       </c>
       <c r="I96" s="3">
-        <v>-117200</v>
+        <v>-115100</v>
       </c>
       <c r="J96" s="3">
-        <v>-117200</v>
+        <v>-115100</v>
       </c>
       <c r="K96" s="3">
         <v>-118900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>643600</v>
+        <v>632000</v>
       </c>
       <c r="E100" s="3">
-        <v>-34600</v>
+        <v>-34000</v>
       </c>
       <c r="F100" s="3">
-        <v>-72500</v>
+        <v>-71200</v>
       </c>
       <c r="G100" s="3">
-        <v>-449300</v>
+        <v>-441200</v>
       </c>
       <c r="H100" s="3">
-        <v>-106800</v>
+        <v>-104800</v>
       </c>
       <c r="I100" s="3">
-        <v>-168600</v>
+        <v>-165600</v>
       </c>
       <c r="J100" s="3">
-        <v>-169400</v>
+        <v>-166300</v>
       </c>
       <c r="K100" s="3">
         <v>-171100</v>
@@ -4207,7 +4207,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="E101" s="3">
         <v>-1600</v>
@@ -4216,16 +4216,16 @@
         <v>-1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="H101" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="I101" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="J101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K101" s="3">
         <v>8000</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-76800</v>
+        <v>-75400</v>
       </c>
       <c r="E102" s="3">
-        <v>243600</v>
+        <v>239200</v>
       </c>
       <c r="F102" s="3">
-        <v>-106600</v>
+        <v>-104700</v>
       </c>
       <c r="G102" s="3">
-        <v>259800</v>
+        <v>255100</v>
       </c>
       <c r="H102" s="3">
-        <v>88800</v>
+        <v>87200</v>
       </c>
       <c r="I102" s="3">
-        <v>200900</v>
+        <v>197300</v>
       </c>
       <c r="J102" s="3">
-        <v>-102400</v>
+        <v>-100600</v>
       </c>
       <c r="K102" s="3">
         <v>-81100</v>
